--- a/2020年机构数据统计表.xlsx
+++ b/2020年机构数据统计表.xlsx
@@ -53,7 +53,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E5E5E5"/>
+        <fgColor rgb="00CCCCCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -511,7 +511,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>数据统计范围：2020-01-01至2020-01-01</t>
+          <t>数据统计范围：2020-01-01至2020-01-02</t>
         </is>
       </c>
       <c r="B2" s="2" t="n"/>
@@ -565,13 +565,13 @@
         </is>
       </c>
       <c r="D4" s="5" t="n">
-        <v>316.639645</v>
+        <v>577.8146130000001</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>108.823013</v>
+        <v>212.433056</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>1.909675410292123</v>
+        <v>1.719984468895464</v>
       </c>
     </row>
     <row r="5">
@@ -583,13 +583,13 @@
         </is>
       </c>
       <c r="D5" s="5" t="n">
-        <v>30.41577700000001</v>
+        <v>41.92790700000011</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>35.766552</v>
+        <v>38.805226</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.1496027629389601</v>
+        <v>0.08047063042488434</v>
       </c>
     </row>
     <row r="6">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.539431</v>
+        <v>4.333771</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.320752</v>
+        <v>3.452822</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>10.03479011822218</v>
+        <v>0.2551388400560466</v>
       </c>
     </row>
     <row r="7">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="D7" s="8" t="n">
-        <v>350.594853</v>
+        <v>624.0762909999996</v>
       </c>
       <c r="E7" s="8" t="n">
-        <v>144.910317</v>
+        <v>254.691104</v>
       </c>
       <c r="F7" s="9" t="n">
-        <v>1.419391940188772</v>
+        <v>1.450326223408257</v>
       </c>
     </row>
     <row r="8">
@@ -643,13 +643,13 @@
         </is>
       </c>
       <c r="D8" s="11" t="n">
-        <v>79.26631899999998</v>
+        <v>142.943468</v>
       </c>
       <c r="E8" s="11" t="n">
-        <v>23.522195</v>
+        <v>48.48555299999999</v>
       </c>
       <c r="F8" s="12" t="n">
-        <v>2.369852133272425</v>
+        <v>1.948166188802674</v>
       </c>
     </row>
     <row r="9">
@@ -661,13 +661,13 @@
         </is>
       </c>
       <c r="D9" s="11" t="n">
-        <v>2.021426</v>
+        <v>3.29968</v>
       </c>
       <c r="E9" s="11" t="n">
-        <v>0.081328</v>
+        <v>0.20595</v>
       </c>
       <c r="F9" s="12" t="n">
-        <v>23.85522821168602</v>
+        <v>15.02175285263413</v>
       </c>
     </row>
     <row r="10">
@@ -679,7 +679,7 @@
         </is>
       </c>
       <c r="D10" s="11" t="n">
-        <v>3.36962</v>
+        <v>3.671507</v>
       </c>
       <c r="E10" s="11" t="n">
         <v>0</v>
@@ -697,13 +697,13 @@
         </is>
       </c>
       <c r="D11" s="14" t="n">
-        <v>84.65736499999998</v>
+        <v>149.914655</v>
       </c>
       <c r="E11" s="14" t="n">
-        <v>23.603523</v>
+        <v>48.69150299999999</v>
       </c>
       <c r="F11" s="15" t="n">
-        <v>2.586641070487655</v>
+        <v>2.078866861020907</v>
       </c>
     </row>
     <row r="12">
@@ -712,7 +712,7 @@
       </c>
       <c r="B12" s="4" t="inlineStr">
         <is>
-          <t>文山</t>
+          <t>大理</t>
         </is>
       </c>
       <c r="C12" s="4" t="inlineStr">
@@ -721,13 +721,13 @@
         </is>
       </c>
       <c r="D12" s="5" t="n">
-        <v>70.31671199999998</v>
+        <v>110.9889</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>12.63837</v>
+        <v>61.655436</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>4.563748489718213</v>
+        <v>0.8001478409786933</v>
       </c>
     </row>
     <row r="13">
@@ -739,13 +739,13 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.703192</v>
+        <v>8.478910999999997</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.009632</v>
+        <v>7.518119999999993</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>72.00581395348837</v>
+        <v>0.1277967098157524</v>
       </c>
     </row>
     <row r="14">
@@ -757,13 +757,13 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.132075</v>
+        <v>0</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0</v>
+        <v>0.8490479999999999</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15">
@@ -775,13 +775,13 @@
         </is>
       </c>
       <c r="D15" s="8" t="n">
-        <v>71.15197899999995</v>
+        <v>119.467811</v>
       </c>
       <c r="E15" s="8" t="n">
-        <v>12.648002</v>
+        <v>70.02260400000003</v>
       </c>
       <c r="F15" s="9" t="n">
-        <v>4.625550897287963</v>
+        <v>0.7061320798638098</v>
       </c>
     </row>
     <row r="16">
@@ -790,7 +790,7 @@
       </c>
       <c r="B16" s="10" t="inlineStr">
         <is>
-          <t>大理</t>
+          <t>文山</t>
         </is>
       </c>
       <c r="C16" s="10" t="inlineStr">
@@ -799,13 +799,13 @@
         </is>
       </c>
       <c r="D16" s="11" t="n">
-        <v>60.930902</v>
+        <v>116.914011</v>
       </c>
       <c r="E16" s="11" t="n">
-        <v>49.69776600000001</v>
+        <v>31.688672</v>
       </c>
       <c r="F16" s="12" t="n">
-        <v>0.2260289929330022</v>
+        <v>2.689457576511883</v>
       </c>
     </row>
     <row r="17">
@@ -817,13 +817,13 @@
         </is>
       </c>
       <c r="D17" s="11" t="n">
-        <v>5.493060999999999</v>
+        <v>1.210797</v>
       </c>
       <c r="E17" s="11" t="n">
-        <v>7.079340999999996</v>
+        <v>0.195944</v>
       </c>
       <c r="F17" s="12" t="n">
-        <v>-0.2240717038492704</v>
+        <v>5.179301228922551</v>
       </c>
     </row>
     <row r="18">
@@ -835,13 +835,13 @@
         </is>
       </c>
       <c r="D18" s="11" t="n">
+        <v>0.132075</v>
+      </c>
+      <c r="E18" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="E18" s="11" t="n">
-        <v>0.320752</v>
-      </c>
       <c r="F18" s="12" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -853,13 +853,13 @@
         </is>
       </c>
       <c r="D19" s="14" t="n">
-        <v>66.42396300000003</v>
+        <v>118.256883</v>
       </c>
       <c r="E19" s="14" t="n">
-        <v>57.09785900000003</v>
+        <v>31.884616</v>
       </c>
       <c r="F19" s="15" t="n">
-        <v>0.1633354413516626</v>
+        <v>2.708900963398775</v>
       </c>
     </row>
     <row r="20">
@@ -868,7 +868,7 @@
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
-          <t>保山</t>
+          <t>昆明</t>
         </is>
       </c>
       <c r="C20" s="4" t="inlineStr">
@@ -877,13 +877,13 @@
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>23.527171</v>
+        <v>106.637654</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>7.825203</v>
+        <v>32.05084599999999</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>2.006589222030406</v>
+        <v>2.327140069875223</v>
       </c>
     </row>
     <row r="21">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="D21" s="5" t="n">
-        <v>19.425628</v>
+        <v>7.403457</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>27.967384</v>
+        <v>1.740962</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>-0.3054184831874156</v>
+        <v>3.252509244888746</v>
       </c>
     </row>
     <row r="22">
@@ -913,13 +913,13 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.037736</v>
+        <v>0.101886</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0</v>
+        <v>0.792453</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>1</v>
+        <v>-0.8714295989793717</v>
       </c>
     </row>
     <row r="23">
@@ -931,13 +931,13 @@
         </is>
       </c>
       <c r="D23" s="8" t="n">
-        <v>42.99053500000001</v>
+        <v>114.142997</v>
       </c>
       <c r="E23" s="8" t="n">
-        <v>35.792587</v>
+        <v>34.58426100000001</v>
       </c>
       <c r="F23" s="9" t="n">
-        <v>0.2011016415214695</v>
+        <v>2.300431864078286</v>
       </c>
     </row>
     <row r="24">
@@ -946,7 +946,7 @@
       </c>
       <c r="B24" s="10" t="inlineStr">
         <is>
-          <t>昆明</t>
+          <t>保山</t>
         </is>
       </c>
       <c r="C24" s="10" t="inlineStr">
@@ -955,13 +955,13 @@
         </is>
       </c>
       <c r="D24" s="11" t="n">
-        <v>40.158617</v>
+        <v>35.696625</v>
       </c>
       <c r="E24" s="11" t="n">
-        <v>7.980497000000002</v>
+        <v>16.900988</v>
       </c>
       <c r="F24" s="12" t="n">
-        <v>4.032094742971521</v>
+        <v>1.112102854578679</v>
       </c>
     </row>
     <row r="25">
@@ -973,13 +973,13 @@
         </is>
       </c>
       <c r="D25" s="11" t="n">
-        <v>1.303359999999999</v>
+        <v>19.511138</v>
       </c>
       <c r="E25" s="11" t="n">
-        <v>0.448807</v>
+        <v>28.711358</v>
       </c>
       <c r="F25" s="12" t="n">
-        <v>1.904054526778769</v>
+        <v>-0.3204383435990732</v>
       </c>
     </row>
     <row r="26">
@@ -991,13 +991,13 @@
         </is>
       </c>
       <c r="D26" s="11" t="n">
-        <v>0</v>
+        <v>0.311321</v>
       </c>
       <c r="E26" s="11" t="n">
-        <v>0</v>
+        <v>1.811321</v>
       </c>
       <c r="F26" s="12" t="n">
-        <v>1</v>
+        <v>-0.8281248878580881</v>
       </c>
     </row>
     <row r="27">
@@ -1009,13 +1009,13 @@
         </is>
       </c>
       <c r="D27" s="14" t="n">
-        <v>41.461977</v>
+        <v>55.519084</v>
       </c>
       <c r="E27" s="14" t="n">
-        <v>8.429304</v>
+        <v>47.423667</v>
       </c>
       <c r="F27" s="15" t="n">
-        <v>3.918790092278081</v>
+        <v>0.1707041549528423</v>
       </c>
     </row>
     <row r="28">
@@ -1033,13 +1033,13 @@
         </is>
       </c>
       <c r="D28" s="5" t="n">
-        <v>26.756484</v>
+        <v>41.800136</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1.406565</v>
+        <v>11.102363</v>
       </c>
       <c r="F28" s="6" t="n">
-        <v>18.0225720105363</v>
+        <v>2.764976518962676</v>
       </c>
     </row>
     <row r="29">
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.9339380000000002</v>
+        <v>1.310958</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.05660399999999999</v>
+        <v>0.290568</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>15.499505335312</v>
+        <v>3.511708102750476</v>
       </c>
     </row>
     <row r="30">
@@ -1087,13 +1087,13 @@
         </is>
       </c>
       <c r="D31" s="8" t="n">
-        <v>27.690422</v>
+        <v>43.11109400000001</v>
       </c>
       <c r="E31" s="8" t="n">
-        <v>1.463169</v>
+        <v>11.392931</v>
       </c>
       <c r="F31" s="9" t="n">
-        <v>17.92496492202882</v>
+        <v>2.784021337441613</v>
       </c>
     </row>
     <row r="32">
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="D32" s="11" t="n">
-        <v>14.197311</v>
+        <v>17.808478</v>
       </c>
       <c r="E32" s="11" t="n">
-        <v>5.067504</v>
+        <v>7.373067</v>
       </c>
       <c r="F32" s="12" t="n">
-        <v>1.801637847745162</v>
+        <v>1.415341946573929</v>
       </c>
     </row>
     <row r="33">
@@ -1129,13 +1129,13 @@
         </is>
       </c>
       <c r="D33" s="11" t="n">
-        <v>0.507964</v>
+        <v>0.659342</v>
       </c>
       <c r="E33" s="11" t="n">
         <v>0.123456</v>
       </c>
       <c r="F33" s="12" t="n">
-        <v>3.11453473302229</v>
+        <v>4.340704380508034</v>
       </c>
     </row>
     <row r="34">
@@ -1165,13 +1165,13 @@
         </is>
       </c>
       <c r="D35" s="14" t="n">
-        <v>14.705275</v>
+        <v>18.46782</v>
       </c>
       <c r="E35" s="14" t="n">
-        <v>5.19096</v>
+        <v>7.496523</v>
       </c>
       <c r="F35" s="15" t="n">
-        <v>1.832862322190886</v>
+        <v>1.463518086985126</v>
       </c>
     </row>
     <row r="36">
@@ -1189,13 +1189,13 @@
         </is>
       </c>
       <c r="D36" s="5" t="n">
-        <v>1.486129</v>
+        <v>5.025341</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>0.684913</v>
+        <v>3.176131</v>
       </c>
       <c r="F36" s="6" t="n">
-        <v>1.16980696818428</v>
+        <v>0.5822209474357323</v>
       </c>
     </row>
     <row r="37">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="D37" s="5" t="n">
-        <v>0.027208</v>
+        <v>0.053624</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>0</v>
+        <v>0.018868</v>
       </c>
       <c r="F37" s="6" t="n">
-        <v>1</v>
+        <v>1.842060631757473</v>
       </c>
     </row>
     <row r="38">
@@ -1225,7 +1225,7 @@
         </is>
       </c>
       <c r="D38" s="5" t="n">
-        <v>0</v>
+        <v>0.116982</v>
       </c>
       <c r="E38" s="5" t="n">
         <v>0</v>
@@ -1243,13 +1243,13 @@
         </is>
       </c>
       <c r="D39" s="8" t="n">
-        <v>1.513337</v>
+        <v>5.195947000000001</v>
       </c>
       <c r="E39" s="8" t="n">
-        <v>0.684913</v>
+        <v>3.194999</v>
       </c>
       <c r="F39" s="9" t="n">
-        <v>1.209531721547116</v>
+        <v>0.6262750003990614</v>
       </c>
     </row>
   </sheetData>

--- a/2020年机构数据统计表.xlsx
+++ b/2020年机构数据统计表.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="三级机构数据统计表" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="四级机构数据统计表" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="内部团队数据统计表" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -700,10 +702,10 @@
         <v>149.914655</v>
       </c>
       <c r="E11" s="14" t="n">
-        <v>48.69150299999999</v>
+        <v>48.69150300000001</v>
       </c>
       <c r="F11" s="15" t="n">
-        <v>2.078866861020907</v>
+        <v>2.078866861020904</v>
       </c>
     </row>
     <row r="12">
@@ -778,10 +780,10 @@
         <v>119.467811</v>
       </c>
       <c r="E15" s="8" t="n">
-        <v>70.02260400000003</v>
+        <v>70.022604</v>
       </c>
       <c r="F15" s="9" t="n">
-        <v>0.7061320798638098</v>
+        <v>0.7061320798638107</v>
       </c>
     </row>
     <row r="16">
@@ -859,7 +861,7 @@
         <v>31.884616</v>
       </c>
       <c r="F19" s="15" t="n">
-        <v>2.708900963398775</v>
+        <v>2.708900963398774</v>
       </c>
     </row>
     <row r="20">
@@ -1009,13 +1011,13 @@
         </is>
       </c>
       <c r="D27" s="14" t="n">
-        <v>55.519084</v>
+        <v>55.51908400000001</v>
       </c>
       <c r="E27" s="14" t="n">
         <v>47.423667</v>
       </c>
       <c r="F27" s="15" t="n">
-        <v>0.1707041549528423</v>
+        <v>0.1707041549528425</v>
       </c>
     </row>
     <row r="28">
@@ -1168,7 +1170,7 @@
         <v>18.46782</v>
       </c>
       <c r="E35" s="14" t="n">
-        <v>7.496523</v>
+        <v>7.496523000000001</v>
       </c>
       <c r="F35" s="15" t="n">
         <v>1.463518086985126</v>
@@ -1243,7 +1245,7 @@
         </is>
       </c>
       <c r="D39" s="8" t="n">
-        <v>5.195947000000001</v>
+        <v>5.195947</v>
       </c>
       <c r="E39" s="8" t="n">
         <v>3.194999</v>
@@ -1277,4 +1279,3336 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F96"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="5" customWidth="1" min="1" max="1"/>
+    <col width="11" customWidth="1" min="2" max="2"/>
+    <col width="9" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="10" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="6" max="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>2020年四级机构数据统计表</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="n"/>
+      <c r="C1" s="1" t="n"/>
+      <c r="D1" s="1" t="n"/>
+      <c r="E1" s="1" t="n"/>
+      <c r="F1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>数据统计范围：2020-01-01至2020-01-02</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="2" t="n"/>
+      <c r="D2" s="2" t="n"/>
+      <c r="E2" s="2" t="n"/>
+      <c r="F2" s="2" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>序号</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>机构</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>险种</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>累计保费</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>同期保费</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>同比增长率</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="inlineStr"/>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>分公司整体</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>车险</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>577.8146130000001</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>212.433056</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>1.719984468895464</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="n"/>
+      <c r="B5" s="4" t="n"/>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>非车险</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>46.26167800000011</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>42.25804800000001</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>0.09474242634208041</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="n"/>
+      <c r="B6" s="7" t="n"/>
+      <c r="C6" s="7" t="inlineStr">
+        <is>
+          <t>整体</t>
+        </is>
+      </c>
+      <c r="D6" s="8" t="n">
+        <v>624.0762909999996</v>
+      </c>
+      <c r="E6" s="8" t="n">
+        <v>254.691104</v>
+      </c>
+      <c r="F6" s="9" t="n">
+        <v>1.450326223408257</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" s="10" t="inlineStr">
+        <is>
+          <t>祥云</t>
+        </is>
+      </c>
+      <c r="C7" s="10" t="inlineStr">
+        <is>
+          <t>车险</t>
+        </is>
+      </c>
+      <c r="D7" s="11" t="n">
+        <v>40.472116</v>
+      </c>
+      <c r="E7" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="10" t="n"/>
+      <c r="B8" s="10" t="n"/>
+      <c r="C8" s="10" t="inlineStr">
+        <is>
+          <t>非车险</t>
+        </is>
+      </c>
+      <c r="D8" s="11" t="n">
+        <v>0.453018</v>
+      </c>
+      <c r="E8" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="13" t="n"/>
+      <c r="B9" s="13" t="n"/>
+      <c r="C9" s="13" t="inlineStr">
+        <is>
+          <t>整体</t>
+        </is>
+      </c>
+      <c r="D9" s="14" t="n">
+        <v>40.925134</v>
+      </c>
+      <c r="E9" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>丘北</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>车险</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>38.18012099999999</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>11.779152</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>2.241330190832073</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="n"/>
+      <c r="B11" s="4" t="n"/>
+      <c r="C11" s="4" t="inlineStr">
+        <is>
+          <t>非车险</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.288322</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.056775</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>4.078326728313519</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="7" t="n"/>
+      <c r="B12" s="7" t="n"/>
+      <c r="C12" s="7" t="inlineStr">
+        <is>
+          <t>整体</t>
+        </is>
+      </c>
+      <c r="D12" s="8" t="n">
+        <v>38.468443</v>
+      </c>
+      <c r="E12" s="8" t="n">
+        <v>11.835927</v>
+      </c>
+      <c r="F12" s="9" t="n">
+        <v>2.250141961842111</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" s="10" t="inlineStr">
+        <is>
+          <t>施甸</t>
+        </is>
+      </c>
+      <c r="C13" s="10" t="inlineStr">
+        <is>
+          <t>车险</t>
+        </is>
+      </c>
+      <c r="D13" s="11" t="n">
+        <v>9.226078999999997</v>
+      </c>
+      <c r="E13" s="11" t="n">
+        <v>2.604403</v>
+      </c>
+      <c r="F13" s="12" t="n">
+        <v>2.542492847689085</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="10" t="n"/>
+      <c r="B14" s="10" t="n"/>
+      <c r="C14" s="10" t="inlineStr">
+        <is>
+          <t>非车险</t>
+        </is>
+      </c>
+      <c r="D14" s="11" t="n">
+        <v>17.624584</v>
+      </c>
+      <c r="E14" s="11" t="n">
+        <v>27.605102</v>
+      </c>
+      <c r="F14" s="12" t="n">
+        <v>-0.3615461373770689</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="13" t="n"/>
+      <c r="B15" s="13" t="n"/>
+      <c r="C15" s="13" t="inlineStr">
+        <is>
+          <t>整体</t>
+        </is>
+      </c>
+      <c r="D15" s="14" t="n">
+        <v>26.850663</v>
+      </c>
+      <c r="E15" s="14" t="n">
+        <v>30.209505</v>
+      </c>
+      <c r="F15" s="15" t="n">
+        <v>-0.1111849399717075</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>宣威</t>
+        </is>
+      </c>
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t>车险</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>24.792642</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>5.063106</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>3.896725843780477</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="4" t="n"/>
+      <c r="B17" s="4" t="n"/>
+      <c r="C17" s="4" t="inlineStr">
+        <is>
+          <t>非车险</t>
+        </is>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>0.630973</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="7" t="n"/>
+      <c r="B18" s="7" t="n"/>
+      <c r="C18" s="7" t="inlineStr">
+        <is>
+          <t>整体</t>
+        </is>
+      </c>
+      <c r="D18" s="8" t="n">
+        <v>25.423615</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>5.063105999999999</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>4.021347568073827</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="B19" s="10" t="inlineStr">
+        <is>
+          <t>砚山</t>
+        </is>
+      </c>
+      <c r="C19" s="10" t="inlineStr">
+        <is>
+          <t>车险</t>
+        </is>
+      </c>
+      <c r="D19" s="11" t="n">
+        <v>24.421881</v>
+      </c>
+      <c r="E19" s="11" t="n">
+        <v>7.188964</v>
+      </c>
+      <c r="F19" s="12" t="n">
+        <v>2.397134969656267</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="10" t="n"/>
+      <c r="B20" s="10" t="n"/>
+      <c r="C20" s="10" t="inlineStr">
+        <is>
+          <t>非车险</t>
+        </is>
+      </c>
+      <c r="D20" s="11" t="n">
+        <v>0.297301</v>
+      </c>
+      <c r="E20" s="11" t="n">
+        <v>0.077056</v>
+      </c>
+      <c r="F20" s="12" t="n">
+        <v>2.858245950996678</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="13" t="n"/>
+      <c r="B21" s="13" t="n"/>
+      <c r="C21" s="13" t="inlineStr">
+        <is>
+          <t>整体</t>
+        </is>
+      </c>
+      <c r="D21" s="14" t="n">
+        <v>24.719182</v>
+      </c>
+      <c r="E21" s="14" t="n">
+        <v>7.26602</v>
+      </c>
+      <c r="F21" s="15" t="n">
+        <v>2.402025042595533</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>师宗</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
+          <t>车险</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>22.771938</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>10.697014</v>
+      </c>
+      <c r="F22" s="6" t="n">
+        <v>1.12881258265157</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="4" t="n"/>
+      <c r="B23" s="4" t="n"/>
+      <c r="C23" s="4" t="inlineStr">
+        <is>
+          <t>非车险</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>1.229821</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.07666000000000001</v>
+      </c>
+      <c r="F23" s="6" t="n">
+        <v>15.04253848160709</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="7" t="n"/>
+      <c r="B24" s="7" t="n"/>
+      <c r="C24" s="7" t="inlineStr">
+        <is>
+          <t>整体</t>
+        </is>
+      </c>
+      <c r="D24" s="8" t="n">
+        <v>24.001759</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>10.773674</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>1.227815599395341</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="B25" s="10" t="inlineStr">
+        <is>
+          <t>富宁</t>
+        </is>
+      </c>
+      <c r="C25" s="10" t="inlineStr">
+        <is>
+          <t>车险</t>
+        </is>
+      </c>
+      <c r="D25" s="11" t="n">
+        <v>23.372138</v>
+      </c>
+      <c r="E25" s="11" t="n">
+        <v>1.647391</v>
+      </c>
+      <c r="F25" s="12" t="n">
+        <v>13.18736535527995</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="10" t="n"/>
+      <c r="B26" s="10" t="n"/>
+      <c r="C26" s="10" t="inlineStr">
+        <is>
+          <t>非车险</t>
+        </is>
+      </c>
+      <c r="D26" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" s="12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="13" t="n"/>
+      <c r="B27" s="13" t="n"/>
+      <c r="C27" s="13" t="inlineStr">
+        <is>
+          <t>整体</t>
+        </is>
+      </c>
+      <c r="D27" s="14" t="n">
+        <v>23.372138</v>
+      </c>
+      <c r="E27" s="14" t="n">
+        <v>1.647391</v>
+      </c>
+      <c r="F27" s="15" t="n">
+        <v>13.18736535527995</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="B28" s="4" t="inlineStr">
+        <is>
+          <t>宜良</t>
+        </is>
+      </c>
+      <c r="C28" s="4" t="inlineStr">
+        <is>
+          <t>车险</t>
+        </is>
+      </c>
+      <c r="D28" s="5" t="n">
+        <v>22.56219899999999</v>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>12.262656</v>
+      </c>
+      <c r="F28" s="6" t="n">
+        <v>0.8399112720767827</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="4" t="n"/>
+      <c r="B29" s="4" t="n"/>
+      <c r="C29" s="4" t="inlineStr">
+        <is>
+          <t>非车险</t>
+        </is>
+      </c>
+      <c r="D29" s="5" t="n">
+        <v>0.660758</v>
+      </c>
+      <c r="E29" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="7" t="n"/>
+      <c r="B30" s="7" t="n"/>
+      <c r="C30" s="7" t="inlineStr">
+        <is>
+          <t>整体</t>
+        </is>
+      </c>
+      <c r="D30" s="8" t="n">
+        <v>23.222957</v>
+      </c>
+      <c r="E30" s="8" t="n">
+        <v>12.262656</v>
+      </c>
+      <c r="F30" s="9" t="n">
+        <v>0.893795031027536</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B31" s="10" t="inlineStr">
+        <is>
+          <t>春怡雅苑</t>
+        </is>
+      </c>
+      <c r="C31" s="10" t="inlineStr">
+        <is>
+          <t>车险</t>
+        </is>
+      </c>
+      <c r="D31" s="11" t="n">
+        <v>22.705684</v>
+      </c>
+      <c r="E31" s="11" t="n">
+        <v>4.689266</v>
+      </c>
+      <c r="F31" s="12" t="n">
+        <v>3.842055025242757</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="10" t="n"/>
+      <c r="B32" s="10" t="n"/>
+      <c r="C32" s="10" t="inlineStr">
+        <is>
+          <t>非车险</t>
+        </is>
+      </c>
+      <c r="D32" s="11" t="n">
+        <v>0.295944</v>
+      </c>
+      <c r="E32" s="11" t="n">
+        <v>0.054916</v>
+      </c>
+      <c r="F32" s="12" t="n">
+        <v>4.389030519338626</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="13" t="n"/>
+      <c r="B33" s="13" t="n"/>
+      <c r="C33" s="13" t="inlineStr">
+        <is>
+          <t>整体</t>
+        </is>
+      </c>
+      <c r="D33" s="14" t="n">
+        <v>23.001628</v>
+      </c>
+      <c r="E33" s="14" t="n">
+        <v>4.744181999999999</v>
+      </c>
+      <c r="F33" s="15" t="n">
+        <v>3.848386507937512</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="B34" s="4" t="inlineStr">
+        <is>
+          <t>陆良</t>
+        </is>
+      </c>
+      <c r="C34" s="4" t="inlineStr">
+        <is>
+          <t>车险</t>
+        </is>
+      </c>
+      <c r="D34" s="5" t="n">
+        <v>21.138999</v>
+      </c>
+      <c r="E34" s="5" t="n">
+        <v>2.941706</v>
+      </c>
+      <c r="F34" s="6" t="n">
+        <v>6.185965898699599</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="4" t="n"/>
+      <c r="B35" s="4" t="n"/>
+      <c r="C35" s="4" t="inlineStr">
+        <is>
+          <t>非车险</t>
+        </is>
+      </c>
+      <c r="D35" s="5" t="n">
+        <v>0.120492</v>
+      </c>
+      <c r="E35" s="5" t="n">
+        <v>0.019264</v>
+      </c>
+      <c r="F35" s="6" t="n">
+        <v>5.254775747508305</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="7" t="n"/>
+      <c r="B36" s="7" t="n"/>
+      <c r="C36" s="7" t="inlineStr">
+        <is>
+          <t>整体</t>
+        </is>
+      </c>
+      <c r="D36" s="8" t="n">
+        <v>21.259491</v>
+      </c>
+      <c r="E36" s="8" t="n">
+        <v>2.96097</v>
+      </c>
+      <c r="F36" s="9" t="n">
+        <v>6.179907597848005</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="10" t="n">
+        <v>11</v>
+      </c>
+      <c r="B37" s="10" t="inlineStr">
+        <is>
+          <t>沾益</t>
+        </is>
+      </c>
+      <c r="C37" s="10" t="inlineStr">
+        <is>
+          <t>车险</t>
+        </is>
+      </c>
+      <c r="D37" s="11" t="n">
+        <v>20.233134</v>
+      </c>
+      <c r="E37" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" s="12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="10" t="n"/>
+      <c r="B38" s="10" t="n"/>
+      <c r="C38" s="10" t="inlineStr">
+        <is>
+          <t>非车险</t>
+        </is>
+      </c>
+      <c r="D38" s="11" t="n">
+        <v>0.281501</v>
+      </c>
+      <c r="E38" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" s="12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="13" t="n"/>
+      <c r="B39" s="13" t="n"/>
+      <c r="C39" s="13" t="inlineStr">
+        <is>
+          <t>整体</t>
+        </is>
+      </c>
+      <c r="D39" s="14" t="n">
+        <v>20.514635</v>
+      </c>
+      <c r="E39" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="B40" s="4" t="inlineStr">
+        <is>
+          <t>百大国际</t>
+        </is>
+      </c>
+      <c r="C40" s="4" t="inlineStr">
+        <is>
+          <t>车险</t>
+        </is>
+      </c>
+      <c r="D40" s="5" t="n">
+        <v>19.817954</v>
+      </c>
+      <c r="E40" s="5" t="n">
+        <v>6.979139</v>
+      </c>
+      <c r="F40" s="6" t="n">
+        <v>1.839598695483784</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="4" t="n"/>
+      <c r="B41" s="4" t="n"/>
+      <c r="C41" s="4" t="inlineStr">
+        <is>
+          <t>非车险</t>
+        </is>
+      </c>
+      <c r="D41" s="5" t="n">
+        <v>0.024434</v>
+      </c>
+      <c r="E41" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="7" t="n"/>
+      <c r="B42" s="7" t="n"/>
+      <c r="C42" s="7" t="inlineStr">
+        <is>
+          <t>整体</t>
+        </is>
+      </c>
+      <c r="D42" s="8" t="n">
+        <v>19.842388</v>
+      </c>
+      <c r="E42" s="8" t="n">
+        <v>6.979139</v>
+      </c>
+      <c r="F42" s="9" t="n">
+        <v>1.843099700407171</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="10" t="n">
+        <v>13</v>
+      </c>
+      <c r="B43" s="10" t="inlineStr">
+        <is>
+          <t>弥渡</t>
+        </is>
+      </c>
+      <c r="C43" s="10" t="inlineStr">
+        <is>
+          <t>车险</t>
+        </is>
+      </c>
+      <c r="D43" s="11" t="n">
+        <v>16.853353</v>
+      </c>
+      <c r="E43" s="11" t="n">
+        <v>7.994558</v>
+      </c>
+      <c r="F43" s="12" t="n">
+        <v>1.10810316217607</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="10" t="n"/>
+      <c r="B44" s="10" t="n"/>
+      <c r="C44" s="10" t="inlineStr">
+        <is>
+          <t>非车险</t>
+        </is>
+      </c>
+      <c r="D44" s="11" t="n">
+        <v>0.6386820000000002</v>
+      </c>
+      <c r="E44" s="11" t="n">
+        <v>0.042453</v>
+      </c>
+      <c r="F44" s="12" t="n">
+        <v>14.04444915553672</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="13" t="n"/>
+      <c r="B45" s="13" t="n"/>
+      <c r="C45" s="13" t="inlineStr">
+        <is>
+          <t>整体</t>
+        </is>
+      </c>
+      <c r="D45" s="14" t="n">
+        <v>17.492035</v>
+      </c>
+      <c r="E45" s="14" t="n">
+        <v>8.037011000000001</v>
+      </c>
+      <c r="F45" s="15" t="n">
+        <v>1.176435368820572</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="4" t="n">
+        <v>14</v>
+      </c>
+      <c r="B46" s="4" t="inlineStr">
+        <is>
+          <t>勐腊</t>
+        </is>
+      </c>
+      <c r="C46" s="4" t="inlineStr">
+        <is>
+          <t>车险</t>
+        </is>
+      </c>
+      <c r="D46" s="5" t="n">
+        <v>16.628923</v>
+      </c>
+      <c r="E46" s="5" t="n">
+        <v>5.311432</v>
+      </c>
+      <c r="F46" s="6" t="n">
+        <v>2.130779608964211</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="4" t="n"/>
+      <c r="B47" s="4" t="n"/>
+      <c r="C47" s="4" t="inlineStr">
+        <is>
+          <t>非车险</t>
+        </is>
+      </c>
+      <c r="D47" s="5" t="n">
+        <v>0.774578</v>
+      </c>
+      <c r="E47" s="5" t="n">
+        <v>0.215096</v>
+      </c>
+      <c r="F47" s="6" t="n">
+        <v>2.601080447800052</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="7" t="n"/>
+      <c r="B48" s="7" t="n"/>
+      <c r="C48" s="7" t="inlineStr">
+        <is>
+          <t>整体</t>
+        </is>
+      </c>
+      <c r="D48" s="8" t="n">
+        <v>17.403501</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>5.526528</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>2.149084018030851</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="10" t="n">
+        <v>15</v>
+      </c>
+      <c r="B49" s="10" t="inlineStr">
+        <is>
+          <t>罗平</t>
+        </is>
+      </c>
+      <c r="C49" s="10" t="inlineStr">
+        <is>
+          <t>车险</t>
+        </is>
+      </c>
+      <c r="D49" s="11" t="n">
+        <v>16.65751</v>
+      </c>
+      <c r="E49" s="11" t="n">
+        <v>2.43813</v>
+      </c>
+      <c r="F49" s="12" t="n">
+        <v>5.832084425358779</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="10" t="n"/>
+      <c r="B50" s="10" t="n"/>
+      <c r="C50" s="10" t="inlineStr">
+        <is>
+          <t>非车险</t>
+        </is>
+      </c>
+      <c r="D50" s="11" t="n">
+        <v>0.6574949999999999</v>
+      </c>
+      <c r="E50" s="11" t="n">
+        <v>0.009434</v>
+      </c>
+      <c r="F50" s="12" t="n">
+        <v>68.69419122323511</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="13" t="n"/>
+      <c r="B51" s="13" t="n"/>
+      <c r="C51" s="13" t="inlineStr">
+        <is>
+          <t>整体</t>
+        </is>
+      </c>
+      <c r="D51" s="14" t="n">
+        <v>17.315005</v>
+      </c>
+      <c r="E51" s="14" t="n">
+        <v>2.447564</v>
+      </c>
+      <c r="F51" s="15" t="n">
+        <v>6.074382937483965</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="4" t="n">
+        <v>16</v>
+      </c>
+      <c r="B52" s="4" t="inlineStr">
+        <is>
+          <t>云龙</t>
+        </is>
+      </c>
+      <c r="C52" s="4" t="inlineStr">
+        <is>
+          <t>车险</t>
+        </is>
+      </c>
+      <c r="D52" s="5" t="n">
+        <v>13.021564</v>
+      </c>
+      <c r="E52" s="5" t="n">
+        <v>7.953270000000001</v>
+      </c>
+      <c r="F52" s="6" t="n">
+        <v>0.6372591399512402</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="4" t="n"/>
+      <c r="B53" s="4" t="n"/>
+      <c r="C53" s="4" t="inlineStr">
+        <is>
+          <t>非车险</t>
+        </is>
+      </c>
+      <c r="D53" s="5" t="n">
+        <v>1.115613</v>
+      </c>
+      <c r="E53" s="5" t="n">
+        <v>0.11887</v>
+      </c>
+      <c r="F53" s="6" t="n">
+        <v>8.385151846555063</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="7" t="n"/>
+      <c r="B54" s="7" t="n"/>
+      <c r="C54" s="7" t="inlineStr">
+        <is>
+          <t>整体</t>
+        </is>
+      </c>
+      <c r="D54" s="8" t="n">
+        <v>14.137177</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>8.072139999999999</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>0.7513542877105701</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="10" t="n">
+        <v>17</v>
+      </c>
+      <c r="B55" s="10" t="inlineStr">
+        <is>
+          <t>东川</t>
+        </is>
+      </c>
+      <c r="C55" s="10" t="inlineStr">
+        <is>
+          <t>车险</t>
+        </is>
+      </c>
+      <c r="D55" s="11" t="n">
+        <v>13.937645</v>
+      </c>
+      <c r="E55" s="11" t="n">
+        <v>1.38406</v>
+      </c>
+      <c r="F55" s="12" t="n">
+        <v>9.070116179934393</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="10" t="n"/>
+      <c r="B56" s="10" t="n"/>
+      <c r="C56" s="10" t="inlineStr">
+        <is>
+          <t>非车险</t>
+        </is>
+      </c>
+      <c r="D56" s="11" t="n">
+        <v>0.024434</v>
+      </c>
+      <c r="E56" s="11" t="n">
+        <v>0.792453</v>
+      </c>
+      <c r="F56" s="12" t="n">
+        <v>-0.9691666256547707</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="13" t="n"/>
+      <c r="B57" s="13" t="n"/>
+      <c r="C57" s="13" t="inlineStr">
+        <is>
+          <t>整体</t>
+        </is>
+      </c>
+      <c r="D57" s="14" t="n">
+        <v>13.962079</v>
+      </c>
+      <c r="E57" s="14" t="n">
+        <v>2.176513</v>
+      </c>
+      <c r="F57" s="15" t="n">
+        <v>5.414884266714694</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="4" t="n">
+        <v>18</v>
+      </c>
+      <c r="B58" s="4" t="inlineStr">
+        <is>
+          <t>漾濞</t>
+        </is>
+      </c>
+      <c r="C58" s="4" t="inlineStr">
+        <is>
+          <t>车险</t>
+        </is>
+      </c>
+      <c r="D58" s="5" t="n">
+        <v>7.641614</v>
+      </c>
+      <c r="E58" s="5" t="n">
+        <v>8.960002000000001</v>
+      </c>
+      <c r="F58" s="6" t="n">
+        <v>-0.1471414850130616</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="4" t="n"/>
+      <c r="B59" s="4" t="n"/>
+      <c r="C59" s="4" t="inlineStr">
+        <is>
+          <t>非车险</t>
+        </is>
+      </c>
+      <c r="D59" s="5" t="n">
+        <v>3.593182999999999</v>
+      </c>
+      <c r="E59" s="5" t="n">
+        <v>0.08302000000000001</v>
+      </c>
+      <c r="F59" s="6" t="n">
+        <v>42.28093230546855</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="7" t="n"/>
+      <c r="B60" s="7" t="n"/>
+      <c r="C60" s="7" t="inlineStr">
+        <is>
+          <t>整体</t>
+        </is>
+      </c>
+      <c r="D60" s="8" t="n">
+        <v>11.234797</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>9.043022000000001</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>0.2423719637085922</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="10" t="n">
+        <v>19</v>
+      </c>
+      <c r="B61" s="10" t="inlineStr">
+        <is>
+          <t>宾川</t>
+        </is>
+      </c>
+      <c r="C61" s="10" t="inlineStr">
+        <is>
+          <t>车险</t>
+        </is>
+      </c>
+      <c r="D61" s="11" t="n">
+        <v>10.838385</v>
+      </c>
+      <c r="E61" s="11" t="n">
+        <v>11.813003</v>
+      </c>
+      <c r="F61" s="12" t="n">
+        <v>-0.0825038307363507</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="10" t="n"/>
+      <c r="B62" s="10" t="n"/>
+      <c r="C62" s="10" t="inlineStr">
+        <is>
+          <t>非车险</t>
+        </is>
+      </c>
+      <c r="D62" s="11" t="n">
+        <v>0.336494</v>
+      </c>
+      <c r="E62" s="11" t="n">
+        <v>4.24668</v>
+      </c>
+      <c r="F62" s="12" t="n">
+        <v>-0.9207630431301629</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="13" t="n"/>
+      <c r="B63" s="13" t="n"/>
+      <c r="C63" s="13" t="inlineStr">
+        <is>
+          <t>整体</t>
+        </is>
+      </c>
+      <c r="D63" s="14" t="n">
+        <v>11.174879</v>
+      </c>
+      <c r="E63" s="14" t="n">
+        <v>16.059683</v>
+      </c>
+      <c r="F63" s="15" t="n">
+        <v>-0.3041656550755081</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="B64" s="4" t="inlineStr">
+        <is>
+          <t>马关</t>
+        </is>
+      </c>
+      <c r="C64" s="4" t="inlineStr">
+        <is>
+          <t>车险</t>
+        </is>
+      </c>
+      <c r="D64" s="5" t="n">
+        <v>9.961752000000001</v>
+      </c>
+      <c r="E64" s="5" t="n">
+        <v>2.719488</v>
+      </c>
+      <c r="F64" s="6" t="n">
+        <v>2.663098347924316</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="4" t="n"/>
+      <c r="B65" s="4" t="n"/>
+      <c r="C65" s="4" t="inlineStr">
+        <is>
+          <t>非车险</t>
+        </is>
+      </c>
+      <c r="D65" s="5" t="n">
+        <v>0.4349280000000001</v>
+      </c>
+      <c r="E65" s="5" t="n">
+        <v>0.038528</v>
+      </c>
+      <c r="F65" s="6" t="n">
+        <v>10.28862126245847</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="7" t="n"/>
+      <c r="B66" s="7" t="n"/>
+      <c r="C66" s="7" t="inlineStr">
+        <is>
+          <t>整体</t>
+        </is>
+      </c>
+      <c r="D66" s="8" t="n">
+        <v>10.39668</v>
+      </c>
+      <c r="E66" s="8" t="n">
+        <v>2.758016</v>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>2.769622801318048</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="10" t="n">
+        <v>21</v>
+      </c>
+      <c r="B67" s="10" t="inlineStr">
+        <is>
+          <t>兰坪</t>
+        </is>
+      </c>
+      <c r="C67" s="10" t="inlineStr">
+        <is>
+          <t>车险</t>
+        </is>
+      </c>
+      <c r="D67" s="11" t="n">
+        <v>9.502257</v>
+      </c>
+      <c r="E67" s="11" t="n">
+        <v>2.676788</v>
+      </c>
+      <c r="F67" s="12" t="n">
+        <v>2.549872832663626</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="10" t="n"/>
+      <c r="B68" s="10" t="n"/>
+      <c r="C68" s="10" t="inlineStr">
+        <is>
+          <t>非车险</t>
+        </is>
+      </c>
+      <c r="D68" s="11" t="n">
+        <v>0.5815319999999999</v>
+      </c>
+      <c r="E68" s="11" t="n">
+        <v>0.104588</v>
+      </c>
+      <c r="F68" s="12" t="n">
+        <v>4.560217233334606</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="13" t="n"/>
+      <c r="B69" s="13" t="n"/>
+      <c r="C69" s="13" t="inlineStr">
+        <is>
+          <t>整体</t>
+        </is>
+      </c>
+      <c r="D69" s="14" t="n">
+        <v>10.083789</v>
+      </c>
+      <c r="E69" s="14" t="n">
+        <v>2.781376</v>
+      </c>
+      <c r="F69" s="15" t="n">
+        <v>2.625467754090062</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="4" t="n">
+        <v>22</v>
+      </c>
+      <c r="B70" s="4" t="inlineStr">
+        <is>
+          <t>勐海</t>
+        </is>
+      </c>
+      <c r="C70" s="4" t="inlineStr">
+        <is>
+          <t>车险</t>
+        </is>
+      </c>
+      <c r="D70" s="5" t="n">
+        <v>8.982393</v>
+      </c>
+      <c r="E70" s="5" t="n">
+        <v>3.799799</v>
+      </c>
+      <c r="F70" s="6" t="n">
+        <v>1.363912670117551</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="4" t="n"/>
+      <c r="B71" s="4" t="n"/>
+      <c r="C71" s="4" t="inlineStr">
+        <is>
+          <t>非车险</t>
+        </is>
+      </c>
+      <c r="D71" s="5" t="n">
+        <v>0.143812</v>
+      </c>
+      <c r="E71" s="5" t="n">
+        <v>0.05660399999999999</v>
+      </c>
+      <c r="F71" s="6" t="n">
+        <v>1.540668503992651</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="7" t="n"/>
+      <c r="B72" s="7" t="n"/>
+      <c r="C72" s="7" t="inlineStr">
+        <is>
+          <t>整体</t>
+        </is>
+      </c>
+      <c r="D72" s="8" t="n">
+        <v>9.126205000000001</v>
+      </c>
+      <c r="E72" s="8" t="n">
+        <v>3.856403</v>
+      </c>
+      <c r="F72" s="9" t="n">
+        <v>1.366507079265316</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="10" t="n">
+        <v>23</v>
+      </c>
+      <c r="B73" s="10" t="inlineStr">
+        <is>
+          <t>香榭丽园</t>
+        </is>
+      </c>
+      <c r="C73" s="10" t="inlineStr">
+        <is>
+          <t>车险</t>
+        </is>
+      </c>
+      <c r="D73" s="11" t="n">
+        <v>8.908542000000001</v>
+      </c>
+      <c r="E73" s="11" t="n">
+        <v>4.266578</v>
+      </c>
+      <c r="F73" s="12" t="n">
+        <v>1.087982922145101</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="10" t="n"/>
+      <c r="B74" s="10" t="n"/>
+      <c r="C74" s="10" t="inlineStr">
+        <is>
+          <t>非车险</t>
+        </is>
+      </c>
+      <c r="D74" s="11" t="n">
+        <v>0.09717000000000001</v>
+      </c>
+      <c r="E74" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" s="12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="13" t="n"/>
+      <c r="B75" s="13" t="n"/>
+      <c r="C75" s="13" t="inlineStr">
+        <is>
+          <t>整体</t>
+        </is>
+      </c>
+      <c r="D75" s="14" t="n">
+        <v>9.005711999999999</v>
+      </c>
+      <c r="E75" s="14" t="n">
+        <v>4.266578</v>
+      </c>
+      <c r="F75" s="15" t="n">
+        <v>1.11075761418167</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="4" t="n">
+        <v>24</v>
+      </c>
+      <c r="B76" s="4" t="inlineStr">
+        <is>
+          <t>广南</t>
+        </is>
+      </c>
+      <c r="C76" s="4" t="inlineStr">
+        <is>
+          <t>车险</t>
+        </is>
+      </c>
+      <c r="D76" s="5" t="n">
+        <v>8.272509000000001</v>
+      </c>
+      <c r="E76" s="5" t="n">
+        <v>3.746877</v>
+      </c>
+      <c r="F76" s="6" t="n">
+        <v>1.207841090059802</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="4" t="n"/>
+      <c r="B77" s="4" t="n"/>
+      <c r="C77" s="4" t="inlineStr">
+        <is>
+          <t>非车险</t>
+        </is>
+      </c>
+      <c r="D77" s="5" t="n">
+        <v>0.132075</v>
+      </c>
+      <c r="E77" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F77" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="7" t="n"/>
+      <c r="B78" s="7" t="n"/>
+      <c r="C78" s="7" t="inlineStr">
+        <is>
+          <t>整体</t>
+        </is>
+      </c>
+      <c r="D78" s="8" t="n">
+        <v>8.404584</v>
+      </c>
+      <c r="E78" s="8" t="n">
+        <v>3.746877</v>
+      </c>
+      <c r="F78" s="9" t="n">
+        <v>1.243090445723198</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="10" t="n">
+        <v>25</v>
+      </c>
+      <c r="B79" s="10" t="inlineStr">
+        <is>
+          <t>安宁</t>
+        </is>
+      </c>
+      <c r="C79" s="10" t="inlineStr">
+        <is>
+          <t>车险</t>
+        </is>
+      </c>
+      <c r="D79" s="11" t="n">
+        <v>8.039661000000002</v>
+      </c>
+      <c r="E79" s="11" t="n">
+        <v>1.252772</v>
+      </c>
+      <c r="F79" s="12" t="n">
+        <v>5.417497357859214</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="10" t="n"/>
+      <c r="B80" s="10" t="n"/>
+      <c r="C80" s="10" t="inlineStr">
+        <is>
+          <t>非车险</t>
+        </is>
+      </c>
+      <c r="D80" s="11" t="n">
+        <v>0.139926</v>
+      </c>
+      <c r="E80" s="11" t="n">
+        <v>0.08302000000000001</v>
+      </c>
+      <c r="F80" s="12" t="n">
+        <v>0.6854492893278725</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="13" t="n"/>
+      <c r="B81" s="13" t="n"/>
+      <c r="C81" s="13" t="inlineStr">
+        <is>
+          <t>整体</t>
+        </is>
+      </c>
+      <c r="D81" s="14" t="n">
+        <v>8.179587</v>
+      </c>
+      <c r="E81" s="14" t="n">
+        <v>1.335792</v>
+      </c>
+      <c r="F81" s="15" t="n">
+        <v>5.123398702792051</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="4" t="n">
+        <v>26</v>
+      </c>
+      <c r="B82" s="4" t="inlineStr">
+        <is>
+          <t>洱源</t>
+        </is>
+      </c>
+      <c r="C82" s="4" t="inlineStr">
+        <is>
+          <t>车险</t>
+        </is>
+      </c>
+      <c r="D82" s="5" t="n">
+        <v>4.224727999999999</v>
+      </c>
+      <c r="E82" s="5" t="n">
+        <v>2.643469</v>
+      </c>
+      <c r="F82" s="6" t="n">
+        <v>0.5981757304511606</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="4" t="n"/>
+      <c r="B83" s="4" t="n"/>
+      <c r="C83" s="4" t="inlineStr">
+        <is>
+          <t>非车险</t>
+        </is>
+      </c>
+      <c r="D83" s="5" t="n">
+        <v>1.119057</v>
+      </c>
+      <c r="E83" s="5" t="n">
+        <v>0.6294449999999999</v>
+      </c>
+      <c r="F83" s="6" t="n">
+        <v>0.7778471510616498</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="7" t="n"/>
+      <c r="B84" s="7" t="n"/>
+      <c r="C84" s="7" t="inlineStr">
+        <is>
+          <t>整体</t>
+        </is>
+      </c>
+      <c r="D84" s="8" t="n">
+        <v>5.343785</v>
+      </c>
+      <c r="E84" s="8" t="n">
+        <v>3.272914000000001</v>
+      </c>
+      <c r="F84" s="9" t="n">
+        <v>0.6327300381250465</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="10" t="n">
+        <v>27</v>
+      </c>
+      <c r="B85" s="10" t="inlineStr">
+        <is>
+          <t>腾冲</t>
+        </is>
+      </c>
+      <c r="C85" s="10" t="inlineStr">
+        <is>
+          <t>车险</t>
+        </is>
+      </c>
+      <c r="D85" s="11" t="n">
+        <v>5.074627</v>
+      </c>
+      <c r="E85" s="11" t="n">
+        <v>4.728482</v>
+      </c>
+      <c r="F85" s="12" t="n">
+        <v>0.07320425455780533</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="10" t="n"/>
+      <c r="B86" s="10" t="n"/>
+      <c r="C86" s="10" t="inlineStr">
+        <is>
+          <t>非车险</t>
+        </is>
+      </c>
+      <c r="D86" s="11" t="n">
+        <v>0.17683</v>
+      </c>
+      <c r="E86" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F86" s="12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="13" t="n"/>
+      <c r="B87" s="13" t="n"/>
+      <c r="C87" s="13" t="inlineStr">
+        <is>
+          <t>整体</t>
+        </is>
+      </c>
+      <c r="D87" s="14" t="n">
+        <v>5.251457</v>
+      </c>
+      <c r="E87" s="14" t="n">
+        <v>4.728482</v>
+      </c>
+      <c r="F87" s="15" t="n">
+        <v>0.1106010343277188</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="4" t="n">
+        <v>28</v>
+      </c>
+      <c r="B88" s="4" t="inlineStr">
+        <is>
+          <t>麻栗坡</t>
+        </is>
+      </c>
+      <c r="C88" s="4" t="inlineStr">
+        <is>
+          <t>车险</t>
+        </is>
+      </c>
+      <c r="D88" s="5" t="n">
+        <v>3.290113</v>
+      </c>
+      <c r="E88" s="5" t="n">
+        <v>1.679334</v>
+      </c>
+      <c r="F88" s="6" t="n">
+        <v>0.9591772690840534</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="4" t="n"/>
+      <c r="B89" s="4" t="n"/>
+      <c r="C89" s="4" t="inlineStr">
+        <is>
+          <t>非车险</t>
+        </is>
+      </c>
+      <c r="D89" s="5" t="n">
+        <v>0.131944</v>
+      </c>
+      <c r="E89" s="5" t="n">
+        <v>0.023585</v>
+      </c>
+      <c r="F89" s="6" t="n">
+        <v>4.594403222387111</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="7" t="n"/>
+      <c r="B90" s="7" t="n"/>
+      <c r="C90" s="7" t="inlineStr">
+        <is>
+          <t>整体</t>
+        </is>
+      </c>
+      <c r="D90" s="8" t="n">
+        <v>3.422057</v>
+      </c>
+      <c r="E90" s="8" t="n">
+        <v>1.702919</v>
+      </c>
+      <c r="F90" s="9" t="n">
+        <v>1.009524234564298</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="10" t="n">
+        <v>29</v>
+      </c>
+      <c r="B91" s="10" t="inlineStr">
+        <is>
+          <t>会泽</t>
+        </is>
+      </c>
+      <c r="C91" s="10" t="inlineStr">
+        <is>
+          <t>车险</t>
+        </is>
+      </c>
+      <c r="D91" s="11" t="n">
+        <v>2.625039</v>
+      </c>
+      <c r="E91" s="11" t="n">
+        <v>1.900877</v>
+      </c>
+      <c r="F91" s="12" t="n">
+        <v>0.3809620506745044</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="10" t="n"/>
+      <c r="B92" s="10" t="n"/>
+      <c r="C92" s="10" t="inlineStr">
+        <is>
+          <t>非车险</t>
+        </is>
+      </c>
+      <c r="D92" s="11" t="n">
+        <v>0.07330199999999999</v>
+      </c>
+      <c r="E92" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F92" s="12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="13" t="n"/>
+      <c r="B93" s="13" t="n"/>
+      <c r="C93" s="13" t="inlineStr">
+        <is>
+          <t>整体</t>
+        </is>
+      </c>
+      <c r="D93" s="14" t="n">
+        <v>2.698341</v>
+      </c>
+      <c r="E93" s="14" t="n">
+        <v>1.900877</v>
+      </c>
+      <c r="F93" s="15" t="n">
+        <v>0.4195242511745891</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="B94" s="4" t="inlineStr">
+        <is>
+          <t>春之城</t>
+        </is>
+      </c>
+      <c r="C94" s="4" t="inlineStr">
+        <is>
+          <t>车险</t>
+        </is>
+      </c>
+      <c r="D94" s="5" t="n">
+        <v>0.314896</v>
+      </c>
+      <c r="E94" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F94" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="4" t="n"/>
+      <c r="B95" s="4" t="n"/>
+      <c r="C95" s="4" t="inlineStr">
+        <is>
+          <t>非车险</t>
+        </is>
+      </c>
+      <c r="D95" s="5" t="n">
+        <v>0.019434</v>
+      </c>
+      <c r="E95" s="5" t="n">
+        <v>0.028896</v>
+      </c>
+      <c r="F95" s="6" t="n">
+        <v>-0.3274501661129567</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="7" t="n"/>
+      <c r="B96" s="7" t="n"/>
+      <c r="C96" s="7" t="inlineStr">
+        <is>
+          <t>整体</t>
+        </is>
+      </c>
+      <c r="D96" s="8" t="n">
+        <v>0.33433</v>
+      </c>
+      <c r="E96" s="8" t="n">
+        <v>0.028896</v>
+      </c>
+      <c r="F96" s="9" t="n">
+        <v>10.57011351052049</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="64">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="A67:A69"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="A73:A75"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="A79:A81"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="A82:A84"/>
+    <mergeCell ref="B82:B84"/>
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="B85:B87"/>
+    <mergeCell ref="A88:A90"/>
+    <mergeCell ref="B88:B90"/>
+    <mergeCell ref="A91:A93"/>
+    <mergeCell ref="B91:B93"/>
+    <mergeCell ref="A94:A96"/>
+    <mergeCell ref="B94:B96"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="5" customWidth="1" min="1" max="1"/>
+    <col width="11" customWidth="1" min="2" max="2"/>
+    <col width="9" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="10" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="6" max="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>2020年内部团队数据统计表</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="n"/>
+      <c r="C1" s="1" t="n"/>
+      <c r="D1" s="1" t="n"/>
+      <c r="E1" s="1" t="n"/>
+      <c r="F1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>数据统计范围：2020-01-01至2020-01-02</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="2" t="n"/>
+      <c r="D2" s="2" t="n"/>
+      <c r="E2" s="2" t="n"/>
+      <c r="F2" s="2" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>序号</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>机构</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>险种</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>累计保费</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>同期保费</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>同比增长率</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="inlineStr"/>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>分公司整体</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>车险</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>577.8146130000001</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>212.433056</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>1.719984468895464</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="n"/>
+      <c r="B5" s="4" t="n"/>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>非车险</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>46.26167800000011</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>42.25804800000001</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>0.09474242634208041</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="n"/>
+      <c r="B6" s="7" t="n"/>
+      <c r="C6" s="7" t="inlineStr">
+        <is>
+          <t>整体</t>
+        </is>
+      </c>
+      <c r="D6" s="8" t="n">
+        <v>624.0762909999996</v>
+      </c>
+      <c r="E6" s="8" t="n">
+        <v>254.691104</v>
+      </c>
+      <c r="F6" s="9" t="n">
+        <v>1.450326223408257</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" s="10" t="inlineStr">
+        <is>
+          <t>分公司本部</t>
+        </is>
+      </c>
+      <c r="C7" s="10" t="inlineStr">
+        <is>
+          <t>车险</t>
+        </is>
+      </c>
+      <c r="D7" s="11" t="n">
+        <v>10.351073</v>
+      </c>
+      <c r="E7" s="11" t="n">
+        <v>1.216375</v>
+      </c>
+      <c r="F7" s="12" t="n">
+        <v>7.509771246531706</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="10" t="n"/>
+      <c r="B8" s="10" t="n"/>
+      <c r="C8" s="10" t="inlineStr">
+        <is>
+          <t>非车险</t>
+        </is>
+      </c>
+      <c r="D8" s="11" t="n">
+        <v>6.243242999999998</v>
+      </c>
+      <c r="E8" s="11" t="n">
+        <v>1.57413</v>
+      </c>
+      <c r="F8" s="12" t="n">
+        <v>2.966154637799926</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="13" t="n"/>
+      <c r="B9" s="13" t="n"/>
+      <c r="C9" s="13" t="inlineStr">
+        <is>
+          <t>整体</t>
+        </is>
+      </c>
+      <c r="D9" s="14" t="n">
+        <v>16.594316</v>
+      </c>
+      <c r="E9" s="14" t="n">
+        <v>2.790505</v>
+      </c>
+      <c r="F9" s="15" t="n">
+        <v>4.9467071372386</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>分公司销售二部</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>车险</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>10.351073</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="n"/>
+      <c r="B11" s="4" t="n"/>
+      <c r="C11" s="4" t="inlineStr">
+        <is>
+          <t>非车险</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="7" t="n"/>
+      <c r="B12" s="7" t="n"/>
+      <c r="C12" s="7" t="inlineStr">
+        <is>
+          <t>整体</t>
+        </is>
+      </c>
+      <c r="D12" s="8" t="n">
+        <v>10.351073</v>
+      </c>
+      <c r="E12" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" s="10" t="inlineStr">
+        <is>
+          <t>曲靖中支本部</t>
+        </is>
+      </c>
+      <c r="C13" s="10" t="inlineStr">
+        <is>
+          <t>车险</t>
+        </is>
+      </c>
+      <c r="D13" s="11" t="n">
+        <v>34.724206</v>
+      </c>
+      <c r="E13" s="11" t="n">
+        <v>25.44472</v>
+      </c>
+      <c r="F13" s="12" t="n">
+        <v>0.3646920068289214</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="10" t="n"/>
+      <c r="B14" s="10" t="n"/>
+      <c r="C14" s="10" t="inlineStr">
+        <is>
+          <t>非车险</t>
+        </is>
+      </c>
+      <c r="D14" s="11" t="n">
+        <v>3.977602999999998</v>
+      </c>
+      <c r="E14" s="11" t="n">
+        <v>0.100592</v>
+      </c>
+      <c r="F14" s="12" t="n">
+        <v>38.54194170510576</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="13" t="n"/>
+      <c r="B15" s="13" t="n"/>
+      <c r="C15" s="13" t="inlineStr">
+        <is>
+          <t>整体</t>
+        </is>
+      </c>
+      <c r="D15" s="14" t="n">
+        <v>38.701809</v>
+      </c>
+      <c r="E15" s="14" t="n">
+        <v>25.545312</v>
+      </c>
+      <c r="F15" s="15" t="n">
+        <v>0.5150258881159879</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>曲靖中支销售部</t>
+        </is>
+      </c>
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t>车险</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>24.92125799999999</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>26.015338</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>-0.04205519067251795</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="4" t="n"/>
+      <c r="B17" s="4" t="n"/>
+      <c r="C17" s="4" t="inlineStr">
+        <is>
+          <t>非车险</t>
+        </is>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>0.108832</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="7" t="n"/>
+      <c r="B18" s="7" t="n"/>
+      <c r="C18" s="7" t="inlineStr">
+        <is>
+          <t>整体</t>
+        </is>
+      </c>
+      <c r="D18" s="8" t="n">
+        <v>25.03009</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>26.015338</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>-0.03787181239005999</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="B19" s="10" t="inlineStr">
+        <is>
+          <t>曲靖中支销售一部</t>
+        </is>
+      </c>
+      <c r="C19" s="10" t="inlineStr">
+        <is>
+          <t>车险</t>
+        </is>
+      </c>
+      <c r="D19" s="11" t="n">
+        <v>12.872572</v>
+      </c>
+      <c r="E19" s="11" t="n">
+        <v>6.413647</v>
+      </c>
+      <c r="F19" s="12" t="n">
+        <v>1.007059633933705</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="10" t="n"/>
+      <c r="B20" s="10" t="n"/>
+      <c r="C20" s="10" t="inlineStr">
+        <is>
+          <t>非车险</t>
+        </is>
+      </c>
+      <c r="D20" s="11" t="n">
+        <v>0.539242</v>
+      </c>
+      <c r="E20" s="11" t="n">
+        <v>0.057792</v>
+      </c>
+      <c r="F20" s="12" t="n">
+        <v>8.330737818383168</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="13" t="n"/>
+      <c r="B21" s="13" t="n"/>
+      <c r="C21" s="13" t="inlineStr">
+        <is>
+          <t>整体</t>
+        </is>
+      </c>
+      <c r="D21" s="14" t="n">
+        <v>13.411814</v>
+      </c>
+      <c r="E21" s="14" t="n">
+        <v>6.471439</v>
+      </c>
+      <c r="F21" s="15" t="n">
+        <v>1.072462399784654</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>曲靖中支销售二部</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
+          <t>车险</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>35.45559799999999</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>6.043169</v>
+      </c>
+      <c r="F22" s="6" t="n">
+        <v>4.867053858662564</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="4" t="n"/>
+      <c r="B23" s="4" t="n"/>
+      <c r="C23" s="4" t="inlineStr">
+        <is>
+          <t>非车险</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>3.935066999999999</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.013207</v>
+      </c>
+      <c r="F23" s="6" t="n">
+        <v>296.9531309154236</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="7" t="n"/>
+      <c r="B24" s="7" t="n"/>
+      <c r="C24" s="7" t="inlineStr">
+        <is>
+          <t>整体</t>
+        </is>
+      </c>
+      <c r="D24" s="8" t="n">
+        <v>39.39066500000001</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>6.056375999999999</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>5.503999256320943</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="B25" s="10" t="inlineStr">
+        <is>
+          <t>文山中支本部</t>
+        </is>
+      </c>
+      <c r="C25" s="10" t="inlineStr">
+        <is>
+          <t>车险</t>
+        </is>
+      </c>
+      <c r="D25" s="11" t="n">
+        <v>9.415496999999998</v>
+      </c>
+      <c r="E25" s="11" t="n">
+        <v>2.927466</v>
+      </c>
+      <c r="F25" s="12" t="n">
+        <v>2.216261777250359</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="10" t="n"/>
+      <c r="B26" s="10" t="n"/>
+      <c r="C26" s="10" t="inlineStr">
+        <is>
+          <t>非车险</t>
+        </is>
+      </c>
+      <c r="D26" s="11" t="n">
+        <v>0.058302</v>
+      </c>
+      <c r="E26" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" s="12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="13" t="n"/>
+      <c r="B27" s="13" t="n"/>
+      <c r="C27" s="13" t="inlineStr">
+        <is>
+          <t>整体</t>
+        </is>
+      </c>
+      <c r="D27" s="14" t="n">
+        <v>9.473798999999998</v>
+      </c>
+      <c r="E27" s="14" t="n">
+        <v>2.927466</v>
+      </c>
+      <c r="F27" s="15" t="n">
+        <v>2.236177294629552</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="B28" s="4" t="inlineStr">
+        <is>
+          <t>文山中支营业一部销售一部</t>
+        </is>
+      </c>
+      <c r="C28" s="4" t="inlineStr">
+        <is>
+          <t>车险</t>
+        </is>
+      </c>
+      <c r="D28" s="5" t="n">
+        <v>5.541693</v>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>7.326287999999999</v>
+      </c>
+      <c r="F28" s="6" t="n">
+        <v>-0.2435878851609435</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="4" t="n"/>
+      <c r="B29" s="4" t="n"/>
+      <c r="C29" s="4" t="inlineStr">
+        <is>
+          <t>非车险</t>
+        </is>
+      </c>
+      <c r="D29" s="5" t="n">
+        <v>0.038868</v>
+      </c>
+      <c r="E29" s="5" t="n">
+        <v>0.06211299999999999</v>
+      </c>
+      <c r="F29" s="6" t="n">
+        <v>-0.3742372772205496</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="7" t="n"/>
+      <c r="B30" s="7" t="n"/>
+      <c r="C30" s="7" t="inlineStr">
+        <is>
+          <t>整体</t>
+        </is>
+      </c>
+      <c r="D30" s="8" t="n">
+        <v>5.580561</v>
+      </c>
+      <c r="E30" s="8" t="n">
+        <v>7.388400999999999</v>
+      </c>
+      <c r="F30" s="9" t="n">
+        <v>-0.2446862318382556</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B31" s="10" t="inlineStr">
+        <is>
+          <t>文山中支营业二部销售一部</t>
+        </is>
+      </c>
+      <c r="C31" s="10" t="inlineStr">
+        <is>
+          <t>车险</t>
+        </is>
+      </c>
+      <c r="D31" s="11" t="n">
+        <v>3.873804</v>
+      </c>
+      <c r="E31" s="11" t="n">
+        <v>2.927466</v>
+      </c>
+      <c r="F31" s="12" t="n">
+        <v>0.323261824390104</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="10" t="n"/>
+      <c r="B32" s="10" t="n"/>
+      <c r="C32" s="10" t="inlineStr">
+        <is>
+          <t>非车险</t>
+        </is>
+      </c>
+      <c r="D32" s="11" t="n">
+        <v>0.019434</v>
+      </c>
+      <c r="E32" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" s="12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="13" t="n"/>
+      <c r="B33" s="13" t="n"/>
+      <c r="C33" s="13" t="inlineStr">
+        <is>
+          <t>整体</t>
+        </is>
+      </c>
+      <c r="D33" s="14" t="n">
+        <v>3.893238</v>
+      </c>
+      <c r="E33" s="14" t="n">
+        <v>2.927465999999999</v>
+      </c>
+      <c r="F33" s="15" t="n">
+        <v>0.3299003301831689</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="B34" s="4" t="inlineStr">
+        <is>
+          <t>大理中支本部</t>
+        </is>
+      </c>
+      <c r="C34" s="4" t="inlineStr">
+        <is>
+          <t>车险</t>
+        </is>
+      </c>
+      <c r="D34" s="5" t="n">
+        <v>17.93714</v>
+      </c>
+      <c r="E34" s="5" t="n">
+        <v>22.29113400000001</v>
+      </c>
+      <c r="F34" s="6" t="n">
+        <v>-0.1953240243407988</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="4" t="n"/>
+      <c r="B35" s="4" t="n"/>
+      <c r="C35" s="4" t="inlineStr">
+        <is>
+          <t>非车险</t>
+        </is>
+      </c>
+      <c r="D35" s="5" t="n">
+        <v>1.222864</v>
+      </c>
+      <c r="E35" s="5" t="n">
+        <v>3.2467</v>
+      </c>
+      <c r="F35" s="6" t="n">
+        <v>-0.62335171096806</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="7" t="n"/>
+      <c r="B36" s="7" t="n"/>
+      <c r="C36" s="7" t="inlineStr">
+        <is>
+          <t>整体</t>
+        </is>
+      </c>
+      <c r="D36" s="8" t="n">
+        <v>19.160004</v>
+      </c>
+      <c r="E36" s="8" t="n">
+        <v>25.537834</v>
+      </c>
+      <c r="F36" s="9" t="n">
+        <v>-0.2497404439233181</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="10" t="n">
+        <v>11</v>
+      </c>
+      <c r="B37" s="10" t="inlineStr">
+        <is>
+          <t>大理中支销售一部</t>
+        </is>
+      </c>
+      <c r="C37" s="10" t="inlineStr">
+        <is>
+          <t>车险</t>
+        </is>
+      </c>
+      <c r="D37" s="11" t="n">
+        <v>17.441727</v>
+      </c>
+      <c r="E37" s="11" t="n">
+        <v>22.31839900000001</v>
+      </c>
+      <c r="F37" s="12" t="n">
+        <v>-0.2185045620879887</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="10" t="n"/>
+      <c r="B38" s="10" t="n"/>
+      <c r="C38" s="10" t="inlineStr">
+        <is>
+          <t>非车险</t>
+        </is>
+      </c>
+      <c r="D38" s="11" t="n">
+        <v>1.111939</v>
+      </c>
+      <c r="E38" s="11" t="n">
+        <v>3.2467</v>
+      </c>
+      <c r="F38" s="12" t="n">
+        <v>-0.657517171281609</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="13" t="n"/>
+      <c r="B39" s="13" t="n"/>
+      <c r="C39" s="13" t="inlineStr">
+        <is>
+          <t>整体</t>
+        </is>
+      </c>
+      <c r="D39" s="14" t="n">
+        <v>18.553666</v>
+      </c>
+      <c r="E39" s="14" t="n">
+        <v>25.565099</v>
+      </c>
+      <c r="F39" s="15" t="n">
+        <v>-0.2742580030689499</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="B40" s="4" t="inlineStr">
+        <is>
+          <t>大理中支销售二部</t>
+        </is>
+      </c>
+      <c r="C40" s="4" t="inlineStr">
+        <is>
+          <t>车险</t>
+        </is>
+      </c>
+      <c r="D40" s="5" t="n">
+        <v>40.96752899999999</v>
+      </c>
+      <c r="E40" s="5" t="n">
+        <v>10.626706</v>
+      </c>
+      <c r="F40" s="6" t="n">
+        <v>2.855148434519596</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="4" t="n"/>
+      <c r="B41" s="4" t="n"/>
+      <c r="C41" s="4" t="inlineStr">
+        <is>
+          <t>非车险</t>
+        </is>
+      </c>
+      <c r="D41" s="5" t="n">
+        <v>0.5639430000000001</v>
+      </c>
+      <c r="E41" s="5" t="n">
+        <v>0.671898</v>
+      </c>
+      <c r="F41" s="6" t="n">
+        <v>-0.1606717090987023</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="7" t="n"/>
+      <c r="B42" s="7" t="n"/>
+      <c r="C42" s="7" t="inlineStr">
+        <is>
+          <t>整体</t>
+        </is>
+      </c>
+      <c r="D42" s="8" t="n">
+        <v>41.53147199999999</v>
+      </c>
+      <c r="E42" s="8" t="n">
+        <v>11.29860399999999</v>
+      </c>
+      <c r="F42" s="9" t="n">
+        <v>2.6758056127996</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="10" t="n">
+        <v>13</v>
+      </c>
+      <c r="B43" s="10" t="inlineStr">
+        <is>
+          <t>版纳中支本部</t>
+        </is>
+      </c>
+      <c r="C43" s="10" t="inlineStr">
+        <is>
+          <t>车险</t>
+        </is>
+      </c>
+      <c r="D43" s="11" t="n">
+        <v>16.18882</v>
+      </c>
+      <c r="E43" s="11" t="n">
+        <v>1.991132</v>
+      </c>
+      <c r="F43" s="12" t="n">
+        <v>7.130460461687122</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="10" t="n"/>
+      <c r="B44" s="10" t="n"/>
+      <c r="C44" s="10" t="inlineStr">
+        <is>
+          <t>非车险</t>
+        </is>
+      </c>
+      <c r="D44" s="11" t="n">
+        <v>0.392568</v>
+      </c>
+      <c r="E44" s="11" t="n">
+        <v>0.018868</v>
+      </c>
+      <c r="F44" s="12" t="n">
+        <v>19.8060207759169</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="13" t="n"/>
+      <c r="B45" s="13" t="n"/>
+      <c r="C45" s="13" t="inlineStr">
+        <is>
+          <t>整体</t>
+        </is>
+      </c>
+      <c r="D45" s="14" t="n">
+        <v>16.581388</v>
+      </c>
+      <c r="E45" s="14" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="F45" s="15" t="n">
+        <v>7.249446766169156</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="4" t="n">
+        <v>14</v>
+      </c>
+      <c r="B46" s="4" t="inlineStr">
+        <is>
+          <t>版纳中支销售一部</t>
+        </is>
+      </c>
+      <c r="C46" s="4" t="inlineStr">
+        <is>
+          <t>车险</t>
+        </is>
+      </c>
+      <c r="D46" s="5" t="n">
+        <v>16.18882</v>
+      </c>
+      <c r="E46" s="5" t="n">
+        <v>1.991132</v>
+      </c>
+      <c r="F46" s="6" t="n">
+        <v>7.130460461687122</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="4" t="n"/>
+      <c r="B47" s="4" t="n"/>
+      <c r="C47" s="4" t="inlineStr">
+        <is>
+          <t>非车险</t>
+        </is>
+      </c>
+      <c r="D47" s="5" t="n">
+        <v>0.392568</v>
+      </c>
+      <c r="E47" s="5" t="n">
+        <v>0.018868</v>
+      </c>
+      <c r="F47" s="6" t="n">
+        <v>19.8060207759169</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="7" t="n"/>
+      <c r="B48" s="7" t="n"/>
+      <c r="C48" s="7" t="inlineStr">
+        <is>
+          <t>整体</t>
+        </is>
+      </c>
+      <c r="D48" s="8" t="n">
+        <v>16.581388</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>7.249446766169156</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="10" t="n">
+        <v>15</v>
+      </c>
+      <c r="B49" s="10" t="inlineStr">
+        <is>
+          <t>保山中支本部</t>
+        </is>
+      </c>
+      <c r="C49" s="10" t="inlineStr">
+        <is>
+          <t>车险</t>
+        </is>
+      </c>
+      <c r="D49" s="11" t="n">
+        <v>21.395919</v>
+      </c>
+      <c r="E49" s="11" t="n">
+        <v>9.568102999999999</v>
+      </c>
+      <c r="F49" s="12" t="n">
+        <v>1.23617147516075</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="10" t="n"/>
+      <c r="B50" s="10" t="n"/>
+      <c r="C50" s="10" t="inlineStr">
+        <is>
+          <t>非车险</t>
+        </is>
+      </c>
+      <c r="D50" s="11" t="n">
+        <v>2.021045</v>
+      </c>
+      <c r="E50" s="11" t="n">
+        <v>2.917577</v>
+      </c>
+      <c r="F50" s="12" t="n">
+        <v>-0.307286491496197</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="13" t="n"/>
+      <c r="B51" s="13" t="n"/>
+      <c r="C51" s="13" t="inlineStr">
+        <is>
+          <t>整体</t>
+        </is>
+      </c>
+      <c r="D51" s="14" t="n">
+        <v>23.416964</v>
+      </c>
+      <c r="E51" s="14" t="n">
+        <v>12.48568</v>
+      </c>
+      <c r="F51" s="15" t="n">
+        <v>0.8755056993291515</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="4" t="n">
+        <v>16</v>
+      </c>
+      <c r="B52" s="4" t="inlineStr">
+        <is>
+          <t>保山中支销售一部</t>
+        </is>
+      </c>
+      <c r="C52" s="4" t="inlineStr">
+        <is>
+          <t>车险</t>
+        </is>
+      </c>
+      <c r="D52" s="5" t="n">
+        <v>12.693543</v>
+      </c>
+      <c r="E52" s="5" t="n">
+        <v>6.384106</v>
+      </c>
+      <c r="F52" s="6" t="n">
+        <v>0.9883039222719676</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="4" t="n"/>
+      <c r="B53" s="4" t="n"/>
+      <c r="C53" s="4" t="inlineStr">
+        <is>
+          <t>非车险</t>
+        </is>
+      </c>
+      <c r="D53" s="5" t="n">
+        <v>0.058302</v>
+      </c>
+      <c r="E53" s="5" t="n">
+        <v>1.849057</v>
+      </c>
+      <c r="F53" s="6" t="n">
+        <v>-0.9684693332871837</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="7" t="n"/>
+      <c r="B54" s="7" t="n"/>
+      <c r="C54" s="7" t="inlineStr">
+        <is>
+          <t>整体</t>
+        </is>
+      </c>
+      <c r="D54" s="8" t="n">
+        <v>12.751845</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>8.233163000000001</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>0.5488391278054374</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="10" t="n">
+        <v>17</v>
+      </c>
+      <c r="B55" s="10" t="inlineStr">
+        <is>
+          <t>保山中支销售二部</t>
+        </is>
+      </c>
+      <c r="C55" s="10" t="inlineStr">
+        <is>
+          <t>车险</t>
+        </is>
+      </c>
+      <c r="D55" s="11" t="n">
+        <v>13.777003</v>
+      </c>
+      <c r="E55" s="11" t="n">
+        <v>7.912478999999999</v>
+      </c>
+      <c r="F55" s="12" t="n">
+        <v>0.7411740366072379</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="10" t="n"/>
+      <c r="B56" s="10" t="n"/>
+      <c r="C56" s="10" t="inlineStr">
+        <is>
+          <t>非车险</t>
+        </is>
+      </c>
+      <c r="D56" s="11" t="n">
+        <v>0.38551</v>
+      </c>
+      <c r="E56" s="11" t="n">
+        <v>1.06852</v>
+      </c>
+      <c r="F56" s="12" t="n">
+        <v>-0.6392112454610115</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="13" t="n"/>
+      <c r="B57" s="13" t="n"/>
+      <c r="C57" s="13" t="inlineStr">
+        <is>
+          <t>整体</t>
+        </is>
+      </c>
+      <c r="D57" s="14" t="n">
+        <v>14.162513</v>
+      </c>
+      <c r="E57" s="14" t="n">
+        <v>8.980998999999999</v>
+      </c>
+      <c r="F57" s="15" t="n">
+        <v>0.576941830190606</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="4" t="n">
+        <v>18</v>
+      </c>
+      <c r="B58" s="4" t="inlineStr">
+        <is>
+          <t>怒江中支本部</t>
+        </is>
+      </c>
+      <c r="C58" s="4" t="inlineStr">
+        <is>
+          <t>车险</t>
+        </is>
+      </c>
+      <c r="D58" s="5" t="n">
+        <v>8.306221000000001</v>
+      </c>
+      <c r="E58" s="5" t="n">
+        <v>4.696279</v>
+      </c>
+      <c r="F58" s="6" t="n">
+        <v>0.7686813326039619</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="4" t="n"/>
+      <c r="B59" s="4" t="n"/>
+      <c r="C59" s="4" t="inlineStr">
+        <is>
+          <t>非车险</t>
+        </is>
+      </c>
+      <c r="D59" s="5" t="n">
+        <v>0.07781</v>
+      </c>
+      <c r="E59" s="5" t="n">
+        <v>0.018868</v>
+      </c>
+      <c r="F59" s="6" t="n">
+        <v>3.123913504345983</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="7" t="n"/>
+      <c r="B60" s="7" t="n"/>
+      <c r="C60" s="7" t="inlineStr">
+        <is>
+          <t>整体</t>
+        </is>
+      </c>
+      <c r="D60" s="8" t="n">
+        <v>8.384031</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>4.715146999999999</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>0.7781059636104668</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="10" t="n">
+        <v>19</v>
+      </c>
+      <c r="B61" s="10" t="inlineStr">
+        <is>
+          <t>怒江销售一部</t>
+        </is>
+      </c>
+      <c r="C61" s="10" t="inlineStr">
+        <is>
+          <t>车险</t>
+        </is>
+      </c>
+      <c r="D61" s="11" t="n">
+        <v>17.520979</v>
+      </c>
+      <c r="E61" s="11" t="n">
+        <v>9.97747</v>
+      </c>
+      <c r="F61" s="12" t="n">
+        <v>0.7560542903160821</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="10" t="n"/>
+      <c r="B62" s="10" t="n"/>
+      <c r="C62" s="10" t="inlineStr">
+        <is>
+          <t>非车险</t>
+        </is>
+      </c>
+      <c r="D62" s="11" t="n">
+        <v>17.702394</v>
+      </c>
+      <c r="E62" s="11" t="n">
+        <v>27.728558</v>
+      </c>
+      <c r="F62" s="12" t="n">
+        <v>-0.3615825965418036</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="13" t="n"/>
+      <c r="B63" s="13" t="n"/>
+      <c r="C63" s="13" t="inlineStr">
+        <is>
+          <t>整体</t>
+        </is>
+      </c>
+      <c r="D63" s="14" t="n">
+        <v>35.223373</v>
+      </c>
+      <c r="E63" s="14" t="n">
+        <v>37.70602799999999</v>
+      </c>
+      <c r="F63" s="15" t="n">
+        <v>-0.06584238997541703</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="42">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="B61:B63"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/2020年机构数据统计表.xlsx
+++ b/2020年机构数据统计表.xlsx
@@ -513,7 +513,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>数据统计范围：2020-01-01至2020-01-02</t>
+          <t>数据统计范围：2020-01-01至2020-01-06</t>
         </is>
       </c>
       <c r="B2" s="2" t="n"/>
@@ -567,13 +567,13 @@
         </is>
       </c>
       <c r="D4" s="5" t="n">
-        <v>577.8146130000001</v>
+        <v>976.3922320000008</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>212.433056</v>
+        <v>418.3163539999999</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>1.719984468895464</v>
+        <v>1.334100072023483</v>
       </c>
     </row>
     <row r="5">
@@ -585,13 +585,13 @@
         </is>
       </c>
       <c r="D5" s="5" t="n">
-        <v>41.92790700000011</v>
+        <v>63.88180100000004</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>38.805226</v>
+        <v>49.89212599999999</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>0.08047063042488434</v>
+        <v>0.2803984540566591</v>
       </c>
     </row>
     <row r="6">
@@ -603,13 +603,13 @@
         </is>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.333771</v>
+        <v>6.510168</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.452822</v>
+        <v>47.835721</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>0.2551388400560466</v>
+        <v>-0.8639057201625538</v>
       </c>
     </row>
     <row r="7">
@@ -621,13 +621,13 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>10.07240899999999</v>
+        <v>14.90333999999997</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1.238689</v>
+        <v>2.039639000000001</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>7.131507585842765</v>
+        <v>6.306851849763593</v>
       </c>
     </row>
     <row r="8">
@@ -639,13 +639,13 @@
         </is>
       </c>
       <c r="D8" s="8" t="n">
-        <v>624.0762909999996</v>
+        <v>1046.784200999999</v>
       </c>
       <c r="E8" s="8" t="n">
-        <v>254.691104</v>
+        <v>516.0442010000006</v>
       </c>
       <c r="F8" s="9" t="n">
-        <v>1.450326223408257</v>
+        <v>1.028477791188274</v>
       </c>
     </row>
     <row r="9">
@@ -663,13 +663,13 @@
         </is>
       </c>
       <c r="D9" s="11" t="n">
-        <v>142.943468</v>
+        <v>242.4045360000001</v>
       </c>
       <c r="E9" s="11" t="n">
-        <v>48.48555299999999</v>
+        <v>108.788256</v>
       </c>
       <c r="F9" s="12" t="n">
-        <v>1.948166188802674</v>
+        <v>1.228223384700644</v>
       </c>
     </row>
     <row r="10">
@@ -681,13 +681,13 @@
         </is>
       </c>
       <c r="D10" s="11" t="n">
-        <v>3.29968</v>
+        <v>4.997713999999995</v>
       </c>
       <c r="E10" s="11" t="n">
-        <v>0.20595</v>
+        <v>1.684384</v>
       </c>
       <c r="F10" s="12" t="n">
-        <v>15.02175285263413</v>
+        <v>1.967087077531011</v>
       </c>
     </row>
     <row r="11">
@@ -699,7 +699,7 @@
         </is>
       </c>
       <c r="D11" s="11" t="n">
-        <v>3.671507</v>
+        <v>3.716788</v>
       </c>
       <c r="E11" s="11" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         </is>
       </c>
       <c r="D12" s="11" t="n">
-        <v>3.033532</v>
+        <v>4.423341999999998</v>
       </c>
       <c r="E12" s="11" t="n">
-        <v>0.099998</v>
+        <v>0.205659</v>
       </c>
       <c r="F12" s="12" t="n">
-        <v>29.33592671853437</v>
+        <v>20.50813725633207</v>
       </c>
     </row>
     <row r="13">
@@ -737,13 +737,13 @@
         </is>
       </c>
       <c r="D13" s="14" t="n">
-        <v>149.914655</v>
+        <v>251.1190380000001</v>
       </c>
       <c r="E13" s="14" t="n">
-        <v>48.69150300000001</v>
+        <v>110.47264</v>
       </c>
       <c r="F13" s="15" t="n">
-        <v>2.078866861020904</v>
+        <v>1.273133311560221</v>
       </c>
     </row>
     <row r="14">
@@ -752,7 +752,7 @@
       </c>
       <c r="B14" s="4" t="inlineStr">
         <is>
-          <t>大理</t>
+          <t>昆明</t>
         </is>
       </c>
       <c r="C14" s="4" t="inlineStr">
@@ -761,13 +761,13 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>110.9889</v>
+        <v>225.6224060000002</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>61.655436</v>
+        <v>71.31834199999994</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.8001478409786933</v>
+        <v>2.163595782975442</v>
       </c>
     </row>
     <row r="15">
@@ -779,13 +779,13 @@
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>8.478910999999997</v>
+        <v>24.164165</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>7.518119999999993</v>
+        <v>8.351451999999998</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.1277967098157524</v>
+        <v>1.89340883477508</v>
       </c>
     </row>
     <row r="16">
@@ -797,13 +797,13 @@
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0</v>
+        <v>0.190563</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.8490479999999999</v>
+        <v>43.664509</v>
       </c>
       <c r="F16" s="6" t="n">
-        <v>-1</v>
+        <v>-0.9956357461846187</v>
       </c>
     </row>
     <row r="17">
@@ -815,13 +815,13 @@
         </is>
       </c>
       <c r="D17" s="5" t="n">
-        <v>2.309578999999999</v>
+        <v>2.097869000000001</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.5679300000000002</v>
+        <v>0.189625</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>3.066661384325531</v>
+        <v>10.06325115359262</v>
       </c>
     </row>
     <row r="18">
@@ -833,13 +833,13 @@
         </is>
       </c>
       <c r="D18" s="8" t="n">
-        <v>119.467811</v>
+        <v>249.9771340000003</v>
       </c>
       <c r="E18" s="8" t="n">
-        <v>70.022604</v>
+        <v>123.334303</v>
       </c>
       <c r="F18" s="9" t="n">
-        <v>0.7061320798638107</v>
+        <v>1.026825691794766</v>
       </c>
     </row>
     <row r="19">
@@ -857,13 +857,13 @@
         </is>
       </c>
       <c r="D19" s="11" t="n">
-        <v>116.914011</v>
+        <v>201.563553</v>
       </c>
       <c r="E19" s="11" t="n">
-        <v>31.688672</v>
+        <v>66.87806199999997</v>
       </c>
       <c r="F19" s="12" t="n">
-        <v>2.689457576511883</v>
+        <v>2.013896440360369</v>
       </c>
     </row>
     <row r="20">
@@ -875,13 +875,13 @@
         </is>
       </c>
       <c r="D20" s="11" t="n">
-        <v>1.210797</v>
+        <v>2.297299</v>
       </c>
       <c r="E20" s="11" t="n">
-        <v>0.195944</v>
+        <v>0.316642</v>
       </c>
       <c r="F20" s="12" t="n">
-        <v>5.179301228922551</v>
+        <v>6.255193562445918</v>
       </c>
     </row>
     <row r="21">
@@ -893,15 +893,13 @@
         </is>
       </c>
       <c r="D21" s="11" t="n">
-        <v>0.132075</v>
+        <v>0.367924</v>
       </c>
       <c r="E21" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" s="12" t="inlineStr">
-        <is>
-          <t>——</t>
-        </is>
+        <v>0.226416</v>
+      </c>
+      <c r="F21" s="12" t="n">
+        <v>0.6249911667019998</v>
       </c>
     </row>
     <row r="22">
@@ -913,13 +911,13 @@
         </is>
       </c>
       <c r="D22" s="11" t="n">
-        <v>1.006346</v>
+        <v>1.756797</v>
       </c>
       <c r="E22" s="11" t="n">
-        <v>0.023585</v>
+        <v>0.070755</v>
       </c>
       <c r="F22" s="12" t="n">
-        <v>41.66889972440111</v>
+        <v>23.82929828280687</v>
       </c>
     </row>
     <row r="23">
@@ -931,13 +929,13 @@
         </is>
       </c>
       <c r="D23" s="14" t="n">
-        <v>118.256883</v>
+        <v>204.228776</v>
       </c>
       <c r="E23" s="14" t="n">
-        <v>31.884616</v>
+        <v>67.42112</v>
       </c>
       <c r="F23" s="15" t="n">
-        <v>2.708900963398774</v>
+        <v>2.029151340114196</v>
       </c>
     </row>
     <row r="24">
@@ -946,7 +944,7 @@
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
-          <t>昆明</t>
+          <t>大理</t>
         </is>
       </c>
       <c r="C24" s="4" t="inlineStr">
@@ -955,13 +953,13 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>106.637654</v>
+        <v>156.403912</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>32.05084599999999</v>
+        <v>90.92273899999995</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>2.327140069875223</v>
+        <v>0.720184782378807</v>
       </c>
     </row>
     <row r="25">
@@ -973,13 +971,13 @@
         </is>
       </c>
       <c r="D25" s="5" t="n">
-        <v>7.403457</v>
+        <v>9.698330999999994</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1.740962</v>
+        <v>8.061792999999993</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>3.252509244888746</v>
+        <v>0.20299925835357</v>
       </c>
     </row>
     <row r="26">
@@ -991,13 +989,13 @@
         </is>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.101886</v>
+        <v>1.627344</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.792453</v>
+        <v>1.566022</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.8714295989793717</v>
+        <v>0.03915781515202199</v>
       </c>
     </row>
     <row r="27">
@@ -1009,13 +1007,13 @@
         </is>
       </c>
       <c r="D27" s="5" t="n">
-        <v>1.109968</v>
+        <v>3.169119999999999</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.128304</v>
+        <v>0.6603840000000002</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>7.651078688115728</v>
+        <v>3.798904879585209</v>
       </c>
     </row>
     <row r="28">
@@ -1027,13 +1025,13 @@
         </is>
       </c>
       <c r="D28" s="8" t="n">
-        <v>114.142997</v>
+        <v>167.729587</v>
       </c>
       <c r="E28" s="8" t="n">
-        <v>34.58426100000001</v>
+        <v>100.550554</v>
       </c>
       <c r="F28" s="9" t="n">
-        <v>2.300431864078286</v>
+        <v>0.6681120125902051</v>
       </c>
     </row>
     <row r="29">
@@ -1042,7 +1040,7 @@
       </c>
       <c r="B29" s="10" t="inlineStr">
         <is>
-          <t>保山</t>
+          <t>版纳</t>
         </is>
       </c>
       <c r="C29" s="10" t="inlineStr">
@@ -1051,13 +1049,13 @@
         </is>
       </c>
       <c r="D29" s="11" t="n">
-        <v>35.696625</v>
+        <v>65.60194799999996</v>
       </c>
       <c r="E29" s="11" t="n">
-        <v>16.900988</v>
+        <v>25.65983499999999</v>
       </c>
       <c r="F29" s="12" t="n">
-        <v>1.112102854578679</v>
+        <v>1.556600539325369</v>
       </c>
     </row>
     <row r="30">
@@ -1069,13 +1067,13 @@
         </is>
       </c>
       <c r="D30" s="11" t="n">
-        <v>19.511138</v>
+        <v>2.087613000000001</v>
       </c>
       <c r="E30" s="11" t="n">
-        <v>28.711358</v>
+        <v>0.5132120000000001</v>
       </c>
       <c r="F30" s="12" t="n">
-        <v>-0.3204383435990732</v>
+        <v>3.067740037255559</v>
       </c>
     </row>
     <row r="31">
@@ -1087,13 +1085,15 @@
         </is>
       </c>
       <c r="D31" s="11" t="n">
-        <v>0.311321</v>
+        <v>0</v>
       </c>
       <c r="E31" s="11" t="n">
-        <v>1.811321</v>
-      </c>
-      <c r="F31" s="12" t="n">
-        <v>-0.8281248878580881</v>
+        <v>0</v>
+      </c>
+      <c r="F31" s="12" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
       </c>
     </row>
     <row r="32">
@@ -1105,13 +1105,13 @@
         </is>
       </c>
       <c r="D32" s="11" t="n">
-        <v>0.598568</v>
+        <v>1.838432</v>
       </c>
       <c r="E32" s="11" t="n">
-        <v>0.09056800000000001</v>
+        <v>0.5132120000000001</v>
       </c>
       <c r="F32" s="12" t="n">
-        <v>5.609045137355356</v>
+        <v>2.582207742609292</v>
       </c>
     </row>
     <row r="33">
@@ -1123,13 +1123,13 @@
         </is>
       </c>
       <c r="D33" s="14" t="n">
-        <v>55.51908400000001</v>
+        <v>67.689561</v>
       </c>
       <c r="E33" s="14" t="n">
-        <v>47.423667</v>
+        <v>26.17304699999999</v>
       </c>
       <c r="F33" s="15" t="n">
-        <v>0.1707041549528425</v>
+        <v>1.586231591606435</v>
       </c>
     </row>
     <row r="34">
@@ -1138,7 +1138,7 @@
       </c>
       <c r="B34" s="4" t="inlineStr">
         <is>
-          <t>版纳</t>
+          <t>保山</t>
         </is>
       </c>
       <c r="C34" s="4" t="inlineStr">
@@ -1147,13 +1147,13 @@
         </is>
       </c>
       <c r="D34" s="5" t="n">
-        <v>41.800136</v>
+        <v>47.08741200000001</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>11.102363</v>
+        <v>28.36549199999998</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>2.764976518962676</v>
+        <v>0.6600245114733083</v>
       </c>
     </row>
     <row r="35">
@@ -1165,13 +1165,13 @@
         </is>
       </c>
       <c r="D35" s="5" t="n">
-        <v>1.310958</v>
+        <v>19.641306</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>0.290568</v>
+        <v>30.26473399999999</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>3.511708102750476</v>
+        <v>-0.3510167312225507</v>
       </c>
     </row>
     <row r="36">
@@ -1183,15 +1183,13 @@
         </is>
       </c>
       <c r="D36" s="5" t="n">
-        <v>0</v>
+        <v>0.490567</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" s="6" t="inlineStr">
-        <is>
-          <t>——</t>
-        </is>
+        <v>1.811321</v>
+      </c>
+      <c r="F36" s="6" t="n">
+        <v>-0.7291661720920808</v>
       </c>
     </row>
     <row r="37">
@@ -1203,13 +1201,13 @@
         </is>
       </c>
       <c r="D37" s="5" t="n">
-        <v>1.310958</v>
+        <v>0.7287360000000002</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>0.290568</v>
+        <v>0.241512</v>
       </c>
       <c r="F37" s="6" t="n">
-        <v>3.511708102750475</v>
+        <v>2.017390440226573</v>
       </c>
     </row>
     <row r="38">
@@ -1221,13 +1219,13 @@
         </is>
       </c>
       <c r="D38" s="8" t="n">
-        <v>43.11109400000001</v>
+        <v>67.21928500000003</v>
       </c>
       <c r="E38" s="8" t="n">
-        <v>11.392931</v>
+        <v>60.44154699999999</v>
       </c>
       <c r="F38" s="9" t="n">
-        <v>2.784021337441613</v>
+        <v>0.1121370702176112</v>
       </c>
     </row>
     <row r="39">
@@ -1245,13 +1243,13 @@
         </is>
       </c>
       <c r="D39" s="11" t="n">
-        <v>17.808478</v>
+        <v>25.41459799999999</v>
       </c>
       <c r="E39" s="11" t="n">
-        <v>7.373067</v>
+        <v>15.706403</v>
       </c>
       <c r="F39" s="12" t="n">
-        <v>1.415341946573929</v>
+        <v>0.6181042852395926</v>
       </c>
     </row>
     <row r="40">
@@ -1263,13 +1261,13 @@
         </is>
       </c>
       <c r="D40" s="11" t="n">
-        <v>0.659342</v>
+        <v>0.8254940000000001</v>
       </c>
       <c r="E40" s="11" t="n">
-        <v>0.123456</v>
+        <v>0.616889</v>
       </c>
       <c r="F40" s="12" t="n">
-        <v>4.340704380508034</v>
+        <v>0.3381564592657675</v>
       </c>
     </row>
     <row r="41">
@@ -1284,12 +1282,10 @@
         <v>0</v>
       </c>
       <c r="E41" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" s="12" t="inlineStr">
-        <is>
-          <t>——</t>
-        </is>
+        <v>0.567453</v>
+      </c>
+      <c r="F41" s="12" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="42">
@@ -1301,13 +1297,13 @@
         </is>
       </c>
       <c r="D42" s="11" t="n">
-        <v>0.649834</v>
+        <v>0.8159860000000001</v>
       </c>
       <c r="E42" s="11" t="n">
-        <v>0.018868</v>
+        <v>0.075472</v>
       </c>
       <c r="F42" s="12" t="n">
-        <v>33.44106423574306</v>
+        <v>9.811771252914991</v>
       </c>
     </row>
     <row r="43">
@@ -1319,13 +1315,13 @@
         </is>
       </c>
       <c r="D43" s="14" t="n">
-        <v>18.46782</v>
+        <v>26.24009199999999</v>
       </c>
       <c r="E43" s="14" t="n">
-        <v>7.496523000000001</v>
+        <v>16.890745</v>
       </c>
       <c r="F43" s="15" t="n">
-        <v>1.463518086985126</v>
+        <v>0.5535189241208718</v>
       </c>
     </row>
     <row r="44">
@@ -1343,13 +1339,13 @@
         </is>
       </c>
       <c r="D44" s="5" t="n">
-        <v>5.025341</v>
+        <v>12.293867</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>3.176131</v>
+        <v>10.677225</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.5822209474357323</v>
+        <v>0.1514103149460655</v>
       </c>
     </row>
     <row r="45">
@@ -1361,13 +1357,13 @@
         </is>
       </c>
       <c r="D45" s="5" t="n">
-        <v>0.053624</v>
+        <v>0.169879</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>0.018868</v>
+        <v>0.08302000000000001</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>1.842060631757473</v>
+        <v>1.046241869429053</v>
       </c>
     </row>
     <row r="46">
@@ -1399,13 +1395,13 @@
         </is>
       </c>
       <c r="D47" s="5" t="n">
-        <v>0.053624</v>
+        <v>0.073058</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>0.018868</v>
+        <v>0.08302000000000001</v>
       </c>
       <c r="F47" s="6" t="n">
-        <v>1.842060631757473</v>
+        <v>-0.1199951818838836</v>
       </c>
     </row>
     <row r="48">
@@ -1417,13 +1413,13 @@
         </is>
       </c>
       <c r="D48" s="8" t="n">
-        <v>5.195947</v>
+        <v>12.580728</v>
       </c>
       <c r="E48" s="8" t="n">
-        <v>3.194999</v>
+        <v>10.760245</v>
       </c>
       <c r="F48" s="9" t="n">
-        <v>0.6262750003990614</v>
+        <v>0.169186017604618</v>
       </c>
     </row>
   </sheetData>
@@ -1490,7 +1486,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>数据统计范围：2020-01-01至2020-01-02</t>
+          <t>数据统计范围：2020-01-01至2020-01-06</t>
         </is>
       </c>
       <c r="B2" s="2" t="n"/>
@@ -1544,13 +1540,13 @@
         </is>
       </c>
       <c r="D4" s="11" t="n">
-        <v>577.8146130000001</v>
+        <v>976.3922320000008</v>
       </c>
       <c r="E4" s="11" t="n">
-        <v>212.433056</v>
+        <v>418.3163539999999</v>
       </c>
       <c r="F4" s="12" t="n">
-        <v>1.719984468895464</v>
+        <v>1.334100072023483</v>
       </c>
     </row>
     <row r="5">
@@ -1562,13 +1558,13 @@
         </is>
       </c>
       <c r="D5" s="11" t="n">
-        <v>46.26167800000011</v>
+        <v>70.39196900000005</v>
       </c>
       <c r="E5" s="11" t="n">
-        <v>42.25804800000001</v>
+        <v>97.72784700000004</v>
       </c>
       <c r="F5" s="12" t="n">
-        <v>0.09474242634208041</v>
+        <v>-0.2797143172508444</v>
       </c>
     </row>
     <row r="6">
@@ -1580,13 +1576,13 @@
         </is>
       </c>
       <c r="D6" s="11" t="n">
-        <v>10.07240899999999</v>
+        <v>14.90333999999997</v>
       </c>
       <c r="E6" s="11" t="n">
-        <v>1.238689</v>
+        <v>2.039639000000001</v>
       </c>
       <c r="F6" s="12" t="n">
-        <v>7.131507585842765</v>
+        <v>6.306851849763593</v>
       </c>
     </row>
     <row r="7">
@@ -1598,13 +1594,13 @@
         </is>
       </c>
       <c r="D7" s="14" t="n">
-        <v>624.0762909999996</v>
+        <v>1046.784200999999</v>
       </c>
       <c r="E7" s="14" t="n">
-        <v>254.691104</v>
+        <v>516.0442010000006</v>
       </c>
       <c r="F7" s="15" t="n">
-        <v>1.450326223408257</v>
+        <v>1.028477791188274</v>
       </c>
     </row>
     <row r="8">
@@ -1613,7 +1609,7 @@
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t>祥云</t>
+          <t>丘北</t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
@@ -1622,15 +1618,13 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>40.472116</v>
+        <v>60.38446199999998</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="6" t="inlineStr">
-        <is>
-          <t>——</t>
-        </is>
+        <v>21.489572</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>1.809942515374433</v>
       </c>
     </row>
     <row r="9">
@@ -1642,15 +1636,13 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.453018</v>
+        <v>0.671892</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="6" t="inlineStr">
-        <is>
-          <t>——</t>
-        </is>
+        <v>0.091775</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>6.321078725143014</v>
       </c>
     </row>
     <row r="10">
@@ -1662,7 +1654,7 @@
         </is>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.136038</v>
+        <v>0.33719</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0</v>
@@ -1682,15 +1674,13 @@
         </is>
       </c>
       <c r="D11" s="8" t="n">
-        <v>40.925134</v>
+        <v>61.05635399999998</v>
       </c>
       <c r="E11" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="9" t="inlineStr">
-        <is>
-          <t>——</t>
-        </is>
+        <v>21.581347</v>
+      </c>
+      <c r="F11" s="9" t="n">
+        <v>1.829126189389382</v>
       </c>
     </row>
     <row r="12">
@@ -1699,7 +1689,7 @@
       </c>
       <c r="B12" s="10" t="inlineStr">
         <is>
-          <t>丘北</t>
+          <t>祥云</t>
         </is>
       </c>
       <c r="C12" s="10" t="inlineStr">
@@ -1708,13 +1698,15 @@
         </is>
       </c>
       <c r="D12" s="11" t="n">
-        <v>38.18012099999999</v>
+        <v>49.24432</v>
       </c>
       <c r="E12" s="11" t="n">
-        <v>11.779152</v>
-      </c>
-      <c r="F12" s="12" t="n">
-        <v>2.241330190832073</v>
+        <v>0</v>
+      </c>
+      <c r="F12" s="12" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -1726,13 +1718,15 @@
         </is>
       </c>
       <c r="D13" s="11" t="n">
-        <v>0.288322</v>
+        <v>2.11923</v>
       </c>
       <c r="E13" s="11" t="n">
-        <v>0.056775</v>
-      </c>
-      <c r="F13" s="12" t="n">
-        <v>4.078326728313519</v>
+        <v>0</v>
+      </c>
+      <c r="F13" s="12" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -1744,7 +1738,7 @@
         </is>
       </c>
       <c r="D14" s="11" t="n">
-        <v>0.288322</v>
+        <v>0.174906</v>
       </c>
       <c r="E14" s="11" t="n">
         <v>0</v>
@@ -1764,13 +1758,15 @@
         </is>
       </c>
       <c r="D15" s="14" t="n">
-        <v>38.468443</v>
+        <v>51.36355</v>
       </c>
       <c r="E15" s="14" t="n">
-        <v>11.835927</v>
-      </c>
-      <c r="F15" s="15" t="n">
-        <v>2.250141961842111</v>
+        <v>0</v>
+      </c>
+      <c r="F15" s="15" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -1779,7 +1775,7 @@
       </c>
       <c r="B16" s="4" t="inlineStr">
         <is>
-          <t>施甸</t>
+          <t>宜良</t>
         </is>
       </c>
       <c r="C16" s="4" t="inlineStr">
@@ -1788,13 +1784,13 @@
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>9.226078999999997</v>
+        <v>46.50089799999998</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2.604403</v>
+        <v>20.48823000000001</v>
       </c>
       <c r="F16" s="6" t="n">
-        <v>2.542492847689085</v>
+        <v>1.26963959307368</v>
       </c>
     </row>
     <row r="17">
@@ -1806,13 +1802,13 @@
         </is>
       </c>
       <c r="D17" s="5" t="n">
-        <v>17.624584</v>
+        <v>1.166044</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>27.605102</v>
+        <v>0.08629200000000001</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>-0.3615461373770689</v>
+        <v>12.51277059287072</v>
       </c>
     </row>
     <row r="18">
@@ -1824,13 +1820,13 @@
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.357586</v>
+        <v>1.166044</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.052832</v>
+        <v>0.018868</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>5.768360084797092</v>
+        <v>60.80008479966081</v>
       </c>
     </row>
     <row r="19">
@@ -1842,13 +1838,13 @@
         </is>
       </c>
       <c r="D19" s="8" t="n">
-        <v>26.850663</v>
+        <v>47.666942</v>
       </c>
       <c r="E19" s="8" t="n">
-        <v>30.209505</v>
+        <v>20.574522</v>
       </c>
       <c r="F19" s="9" t="n">
-        <v>-0.1111849399717075</v>
+        <v>1.316794625897019</v>
       </c>
     </row>
     <row r="20">
@@ -1857,7 +1853,7 @@
       </c>
       <c r="B20" s="10" t="inlineStr">
         <is>
-          <t>宣威</t>
+          <t>百大国际</t>
         </is>
       </c>
       <c r="C20" s="10" t="inlineStr">
@@ -1866,13 +1862,13 @@
         </is>
       </c>
       <c r="D20" s="11" t="n">
-        <v>24.792642</v>
+        <v>47.57401100000001</v>
       </c>
       <c r="E20" s="11" t="n">
-        <v>5.063106</v>
+        <v>15.699805</v>
       </c>
       <c r="F20" s="12" t="n">
-        <v>3.896725843780477</v>
+        <v>2.030229420046938</v>
       </c>
     </row>
     <row r="21">
@@ -1884,7 +1880,7 @@
         </is>
       </c>
       <c r="D21" s="11" t="n">
-        <v>0.630973</v>
+        <v>0.091478</v>
       </c>
       <c r="E21" s="11" t="n">
         <v>0</v>
@@ -1904,7 +1900,7 @@
         </is>
       </c>
       <c r="D22" s="11" t="n">
-        <v>0.503417</v>
+        <v>0.08299100000000001</v>
       </c>
       <c r="E22" s="11" t="n">
         <v>0</v>
@@ -1924,13 +1920,13 @@
         </is>
       </c>
       <c r="D23" s="14" t="n">
-        <v>25.423615</v>
+        <v>47.66548900000002</v>
       </c>
       <c r="E23" s="14" t="n">
-        <v>5.063105999999999</v>
+        <v>15.699805</v>
       </c>
       <c r="F23" s="15" t="n">
-        <v>4.021347568073827</v>
+        <v>2.036056116620558</v>
       </c>
     </row>
     <row r="24">
@@ -1939,7 +1935,7 @@
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
-          <t>砚山</t>
+          <t>春怡雅苑</t>
         </is>
       </c>
       <c r="C24" s="4" t="inlineStr">
@@ -1948,13 +1944,13 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>24.421881</v>
+        <v>41.89897300000001</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7.188964</v>
+        <v>11.940247</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>2.397134969656267</v>
+        <v>2.509054125932237</v>
       </c>
     </row>
     <row r="25">
@@ -1966,13 +1962,13 @@
         </is>
       </c>
       <c r="D25" s="5" t="n">
-        <v>0.297301</v>
+        <v>0.4630009999999999</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>0.077056</v>
+        <v>1.493595</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>2.858245950996678</v>
+        <v>-0.6900090051185228</v>
       </c>
     </row>
     <row r="26">
@@ -1984,15 +1980,13 @@
         </is>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.09285</v>
+        <v>0.27785</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" s="6" t="inlineStr">
-        <is>
-          <t>——</t>
-        </is>
+        <v>0.068869</v>
+      </c>
+      <c r="F26" s="6" t="n">
+        <v>3.034471242503884</v>
       </c>
     </row>
     <row r="27">
@@ -2004,13 +1998,13 @@
         </is>
       </c>
       <c r="D27" s="8" t="n">
-        <v>24.719182</v>
+        <v>42.36197400000001</v>
       </c>
       <c r="E27" s="8" t="n">
-        <v>7.26602</v>
+        <v>13.43384199999999</v>
       </c>
       <c r="F27" s="9" t="n">
-        <v>2.402025042595533</v>
+        <v>2.153377418016382</v>
       </c>
     </row>
     <row r="28">
@@ -2019,7 +2013,7 @@
       </c>
       <c r="B28" s="10" t="inlineStr">
         <is>
-          <t>师宗</t>
+          <t>砚山</t>
         </is>
       </c>
       <c r="C28" s="10" t="inlineStr">
@@ -2028,13 +2022,13 @@
         </is>
       </c>
       <c r="D28" s="11" t="n">
-        <v>22.771938</v>
+        <v>41.576227</v>
       </c>
       <c r="E28" s="11" t="n">
-        <v>10.697014</v>
+        <v>15.806442</v>
       </c>
       <c r="F28" s="12" t="n">
-        <v>1.12881258265157</v>
+        <v>1.630334328244142</v>
       </c>
     </row>
     <row r="29">
@@ -2046,13 +2040,13 @@
         </is>
       </c>
       <c r="D29" s="11" t="n">
-        <v>1.229821</v>
+        <v>0.488274</v>
       </c>
       <c r="E29" s="11" t="n">
-        <v>0.07666000000000001</v>
+        <v>0.077056</v>
       </c>
       <c r="F29" s="12" t="n">
-        <v>15.04253848160709</v>
+        <v>5.336612333887043</v>
       </c>
     </row>
     <row r="30">
@@ -2064,13 +2058,15 @@
         </is>
       </c>
       <c r="D30" s="11" t="n">
-        <v>1.22435</v>
+        <v>0.234568</v>
       </c>
       <c r="E30" s="11" t="n">
-        <v>0.018868</v>
-      </c>
-      <c r="F30" s="12" t="n">
-        <v>63.89029043883825</v>
+        <v>0</v>
+      </c>
+      <c r="F30" s="12" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
       </c>
     </row>
     <row r="31">
@@ -2082,13 +2078,13 @@
         </is>
       </c>
       <c r="D31" s="14" t="n">
-        <v>24.001759</v>
+        <v>42.064501</v>
       </c>
       <c r="E31" s="14" t="n">
-        <v>10.773674</v>
+        <v>15.883498</v>
       </c>
       <c r="F31" s="15" t="n">
-        <v>1.227815599395341</v>
+        <v>1.648314684838314</v>
       </c>
     </row>
     <row r="32">
@@ -2097,7 +2093,7 @@
       </c>
       <c r="B32" s="4" t="inlineStr">
         <is>
-          <t>富宁</t>
+          <t>宣威</t>
         </is>
       </c>
       <c r="C32" s="4" t="inlineStr">
@@ -2106,13 +2102,13 @@
         </is>
       </c>
       <c r="D32" s="5" t="n">
-        <v>23.372138</v>
+        <v>39.904352</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1.647391</v>
+        <v>8.987782000000003</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>13.18736535527995</v>
+        <v>3.43984422408109</v>
       </c>
     </row>
     <row r="33">
@@ -2124,7 +2120,7 @@
         </is>
       </c>
       <c r="D33" s="5" t="n">
-        <v>0</v>
+        <v>0.902691</v>
       </c>
       <c r="E33" s="5" t="n">
         <v>0</v>
@@ -2144,7 +2140,7 @@
         </is>
       </c>
       <c r="D34" s="5" t="n">
-        <v>0</v>
+        <v>0.765503</v>
       </c>
       <c r="E34" s="5" t="n">
         <v>0</v>
@@ -2164,13 +2160,13 @@
         </is>
       </c>
       <c r="D35" s="8" t="n">
-        <v>23.372138</v>
+        <v>40.807043</v>
       </c>
       <c r="E35" s="8" t="n">
-        <v>1.647391</v>
+        <v>8.987782000000001</v>
       </c>
       <c r="F35" s="9" t="n">
-        <v>13.18736535527995</v>
+        <v>3.540279570643791</v>
       </c>
     </row>
     <row r="36">
@@ -2179,7 +2175,7 @@
       </c>
       <c r="B36" s="10" t="inlineStr">
         <is>
-          <t>宜良</t>
+          <t>富宁</t>
         </is>
       </c>
       <c r="C36" s="10" t="inlineStr">
@@ -2188,13 +2184,13 @@
         </is>
       </c>
       <c r="D36" s="11" t="n">
-        <v>22.56219899999999</v>
+        <v>39.11992700000001</v>
       </c>
       <c r="E36" s="11" t="n">
-        <v>12.262656</v>
+        <v>6.426018999999999</v>
       </c>
       <c r="F36" s="12" t="n">
-        <v>0.8399112720767827</v>
+        <v>5.087739080759023</v>
       </c>
     </row>
     <row r="37">
@@ -2206,7 +2202,7 @@
         </is>
       </c>
       <c r="D37" s="11" t="n">
-        <v>0.660758</v>
+        <v>0.217179</v>
       </c>
       <c r="E37" s="11" t="n">
         <v>0</v>
@@ -2226,7 +2222,7 @@
         </is>
       </c>
       <c r="D38" s="11" t="n">
-        <v>0.660758</v>
+        <v>0.0485</v>
       </c>
       <c r="E38" s="11" t="n">
         <v>0</v>
@@ -2246,13 +2242,13 @@
         </is>
       </c>
       <c r="D39" s="14" t="n">
-        <v>23.222957</v>
+        <v>39.33710599999999</v>
       </c>
       <c r="E39" s="14" t="n">
-        <v>12.262656</v>
+        <v>6.426018999999998</v>
       </c>
       <c r="F39" s="15" t="n">
-        <v>0.893795031027536</v>
+        <v>5.121535899598181</v>
       </c>
     </row>
     <row r="40">
@@ -2261,7 +2257,7 @@
       </c>
       <c r="B40" s="4" t="inlineStr">
         <is>
-          <t>春怡雅苑</t>
+          <t>师宗</t>
         </is>
       </c>
       <c r="C40" s="4" t="inlineStr">
@@ -2270,13 +2266,13 @@
         </is>
       </c>
       <c r="D40" s="5" t="n">
-        <v>22.705684</v>
+        <v>36.76514299999998</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>4.689266</v>
+        <v>17.265192</v>
       </c>
       <c r="F40" s="6" t="n">
-        <v>3.842055025242757</v>
+        <v>1.12943725155214</v>
       </c>
     </row>
     <row r="41">
@@ -2288,13 +2284,13 @@
         </is>
       </c>
       <c r="D41" s="5" t="n">
-        <v>0.295944</v>
+        <v>1.658891</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>0.054916</v>
+        <v>0.152924</v>
       </c>
       <c r="F41" s="6" t="n">
-        <v>4.389030519338626</v>
+        <v>9.847813292877506</v>
       </c>
     </row>
     <row r="42">
@@ -2306,13 +2302,13 @@
         </is>
       </c>
       <c r="D42" s="5" t="n">
-        <v>0.143812</v>
+        <v>1.60526</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>0.045284</v>
+        <v>0.05660399999999999</v>
       </c>
       <c r="F42" s="6" t="n">
-        <v>2.175779524776963</v>
+        <v>27.35947989541376</v>
       </c>
     </row>
     <row r="43">
@@ -2324,13 +2320,13 @@
         </is>
       </c>
       <c r="D43" s="8" t="n">
-        <v>23.001628</v>
+        <v>38.42403399999999</v>
       </c>
       <c r="E43" s="8" t="n">
-        <v>4.744181999999999</v>
+        <v>17.41811599999999</v>
       </c>
       <c r="F43" s="9" t="n">
-        <v>3.848386507937512</v>
+        <v>1.205981060178954</v>
       </c>
     </row>
     <row r="44">
@@ -2348,13 +2344,13 @@
         </is>
       </c>
       <c r="D44" s="11" t="n">
-        <v>21.138999</v>
+        <v>37.26485299999998</v>
       </c>
       <c r="E44" s="11" t="n">
-        <v>2.941706</v>
+        <v>10.477668</v>
       </c>
       <c r="F44" s="12" t="n">
-        <v>6.185965898699599</v>
+        <v>2.556597994897337</v>
       </c>
     </row>
     <row r="45">
@@ -2366,13 +2362,13 @@
         </is>
       </c>
       <c r="D45" s="11" t="n">
-        <v>0.120492</v>
+        <v>0.23321</v>
       </c>
       <c r="E45" s="11" t="n">
-        <v>0.019264</v>
+        <v>0.023981</v>
       </c>
       <c r="F45" s="12" t="n">
-        <v>5.254775747508305</v>
+        <v>8.724782119177682</v>
       </c>
     </row>
     <row r="46">
@@ -2384,15 +2380,13 @@
         </is>
       </c>
       <c r="D46" s="11" t="n">
-        <v>0.120492</v>
+        <v>0.23321</v>
       </c>
       <c r="E46" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" s="12" t="inlineStr">
-        <is>
-          <t>——</t>
-        </is>
+        <v>0.004717</v>
+      </c>
+      <c r="F46" s="12" t="n">
+        <v>48.44032223871105</v>
       </c>
     </row>
     <row r="47">
@@ -2404,13 +2398,13 @@
         </is>
       </c>
       <c r="D47" s="14" t="n">
-        <v>21.259491</v>
+        <v>37.49806299999999</v>
       </c>
       <c r="E47" s="14" t="n">
-        <v>2.96097</v>
+        <v>10.501649</v>
       </c>
       <c r="F47" s="15" t="n">
-        <v>6.179907597848005</v>
+        <v>2.570683327923072</v>
       </c>
     </row>
     <row r="48">
@@ -2428,7 +2422,7 @@
         </is>
       </c>
       <c r="D48" s="5" t="n">
-        <v>20.233134</v>
+        <v>35.18204700000001</v>
       </c>
       <c r="E48" s="5" t="n">
         <v>0</v>
@@ -2448,7 +2442,7 @@
         </is>
       </c>
       <c r="D49" s="5" t="n">
-        <v>0.281501</v>
+        <v>0.650271</v>
       </c>
       <c r="E49" s="5" t="n">
         <v>0</v>
@@ -2468,7 +2462,7 @@
         </is>
       </c>
       <c r="D50" s="5" t="n">
-        <v>0.088861</v>
+        <v>0.207199</v>
       </c>
       <c r="E50" s="5" t="n">
         <v>0</v>
@@ -2488,7 +2482,7 @@
         </is>
       </c>
       <c r="D51" s="8" t="n">
-        <v>20.514635</v>
+        <v>35.832318</v>
       </c>
       <c r="E51" s="8" t="n">
         <v>0</v>
@@ -2505,7 +2499,7 @@
       </c>
       <c r="B52" s="10" t="inlineStr">
         <is>
-          <t>百大国际</t>
+          <t>施甸</t>
         </is>
       </c>
       <c r="C52" s="10" t="inlineStr">
@@ -2514,13 +2508,13 @@
         </is>
       </c>
       <c r="D52" s="11" t="n">
-        <v>19.817954</v>
+        <v>12.957265</v>
       </c>
       <c r="E52" s="11" t="n">
-        <v>6.979139</v>
+        <v>5.642676</v>
       </c>
       <c r="F52" s="12" t="n">
-        <v>1.839598695483784</v>
+        <v>1.296297891284206</v>
       </c>
     </row>
     <row r="53">
@@ -2532,15 +2526,13 @@
         </is>
       </c>
       <c r="D53" s="11" t="n">
-        <v>0.024434</v>
+        <v>17.663452</v>
       </c>
       <c r="E53" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F53" s="12" t="inlineStr">
-        <is>
-          <t>——</t>
-        </is>
+        <v>27.62397</v>
+      </c>
+      <c r="F53" s="12" t="n">
+        <v>-0.3605751816266815</v>
       </c>
     </row>
     <row r="54">
@@ -2552,15 +2544,13 @@
         </is>
       </c>
       <c r="D54" s="11" t="n">
-        <v>0.024434</v>
+        <v>0.396454</v>
       </c>
       <c r="E54" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F54" s="12" t="inlineStr">
-        <is>
-          <t>——</t>
-        </is>
+        <v>0.0717</v>
+      </c>
+      <c r="F54" s="12" t="n">
+        <v>4.52934449093445</v>
       </c>
     </row>
     <row r="55">
@@ -2572,13 +2562,13 @@
         </is>
       </c>
       <c r="D55" s="14" t="n">
-        <v>19.842388</v>
+        <v>30.62071700000001</v>
       </c>
       <c r="E55" s="14" t="n">
-        <v>6.979139</v>
+        <v>33.26664599999999</v>
       </c>
       <c r="F55" s="15" t="n">
-        <v>1.843099700407171</v>
+        <v>-0.07953699329953423</v>
       </c>
     </row>
     <row r="56">
@@ -2596,13 +2586,13 @@
         </is>
       </c>
       <c r="D56" s="5" t="n">
-        <v>16.853353</v>
+        <v>27.419025</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>7.994558</v>
+        <v>11.745873</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>1.10810316217607</v>
+        <v>1.334353947126791</v>
       </c>
     </row>
     <row r="57">
@@ -2614,13 +2604,13 @@
         </is>
       </c>
       <c r="D57" s="5" t="n">
-        <v>0.6386820000000002</v>
+        <v>1.039384</v>
       </c>
       <c r="E57" s="5" t="n">
         <v>0.042453</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>14.04444915553672</v>
+        <v>23.48316962287707</v>
       </c>
     </row>
     <row r="58">
@@ -2632,13 +2622,13 @@
         </is>
       </c>
       <c r="D58" s="5" t="n">
-        <v>0.6386820000000002</v>
+        <v>1.039384</v>
       </c>
       <c r="E58" s="5" t="n">
         <v>0.042453</v>
       </c>
       <c r="F58" s="6" t="n">
-        <v>14.04444915553672</v>
+        <v>23.48316962287707</v>
       </c>
     </row>
     <row r="59">
@@ -2650,13 +2640,13 @@
         </is>
       </c>
       <c r="D59" s="8" t="n">
-        <v>17.492035</v>
+        <v>28.458409</v>
       </c>
       <c r="E59" s="8" t="n">
-        <v>8.037011000000001</v>
+        <v>11.788326</v>
       </c>
       <c r="F59" s="9" t="n">
-        <v>1.176435368820572</v>
+        <v>1.414117916318228</v>
       </c>
     </row>
     <row r="60">
@@ -2665,7 +2655,7 @@
       </c>
       <c r="B60" s="10" t="inlineStr">
         <is>
-          <t>勐腊</t>
+          <t>东川</t>
         </is>
       </c>
       <c r="C60" s="10" t="inlineStr">
@@ -2674,13 +2664,13 @@
         </is>
       </c>
       <c r="D60" s="11" t="n">
-        <v>16.628923</v>
+        <v>28.04968799999999</v>
       </c>
       <c r="E60" s="11" t="n">
-        <v>5.311432</v>
+        <v>6.226378</v>
       </c>
       <c r="F60" s="12" t="n">
-        <v>2.130779608964211</v>
+        <v>3.504976729649242</v>
       </c>
     </row>
     <row r="61">
@@ -2692,13 +2682,13 @@
         </is>
       </c>
       <c r="D61" s="11" t="n">
-        <v>0.774578</v>
+        <v>0.092736</v>
       </c>
       <c r="E61" s="11" t="n">
-        <v>0.215096</v>
+        <v>1.056604</v>
       </c>
       <c r="F61" s="12" t="n">
-        <v>2.601080447800052</v>
+        <v>-0.9122320188074245</v>
       </c>
     </row>
     <row r="62">
@@ -2710,13 +2700,15 @@
         </is>
       </c>
       <c r="D62" s="11" t="n">
-        <v>0.774578</v>
+        <v>0.092736</v>
       </c>
       <c r="E62" s="11" t="n">
-        <v>0.215096</v>
-      </c>
-      <c r="F62" s="12" t="n">
-        <v>2.601080447800052</v>
+        <v>0</v>
+      </c>
+      <c r="F62" s="12" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
       </c>
     </row>
     <row r="63">
@@ -2728,13 +2720,13 @@
         </is>
       </c>
       <c r="D63" s="14" t="n">
-        <v>17.403501</v>
+        <v>28.14242399999999</v>
       </c>
       <c r="E63" s="14" t="n">
-        <v>5.526528</v>
+        <v>7.282982</v>
       </c>
       <c r="F63" s="15" t="n">
-        <v>2.149084018030851</v>
+        <v>2.864134773366183</v>
       </c>
     </row>
     <row r="64">
@@ -2752,13 +2744,13 @@
         </is>
       </c>
       <c r="D64" s="5" t="n">
-        <v>16.65751</v>
+        <v>24.582934</v>
       </c>
       <c r="E64" s="5" t="n">
-        <v>2.43813</v>
+        <v>6.199657</v>
       </c>
       <c r="F64" s="6" t="n">
-        <v>5.832084425358779</v>
+        <v>2.96520872041792</v>
       </c>
     </row>
     <row r="65">
@@ -2770,13 +2762,13 @@
         </is>
       </c>
       <c r="D65" s="5" t="n">
-        <v>0.6574949999999999</v>
+        <v>0.8675149999999999</v>
       </c>
       <c r="E65" s="5" t="n">
-        <v>0.009434</v>
+        <v>0.028302</v>
       </c>
       <c r="F65" s="6" t="n">
-        <v>68.69419122323511</v>
+        <v>29.65207405837043</v>
       </c>
     </row>
     <row r="66">
@@ -2788,13 +2780,13 @@
         </is>
       </c>
       <c r="D66" s="5" t="n">
-        <v>0.6574949999999999</v>
+        <v>0.8675149999999999</v>
       </c>
       <c r="E66" s="5" t="n">
-        <v>0.009434</v>
+        <v>0.028302</v>
       </c>
       <c r="F66" s="6" t="n">
-        <v>68.69419122323511</v>
+        <v>29.65207405837043</v>
       </c>
     </row>
     <row r="67">
@@ -2806,13 +2798,13 @@
         </is>
       </c>
       <c r="D67" s="8" t="n">
-        <v>17.315005</v>
+        <v>25.450449</v>
       </c>
       <c r="E67" s="8" t="n">
-        <v>2.447564</v>
+        <v>6.227958999999999</v>
       </c>
       <c r="F67" s="9" t="n">
-        <v>6.074382937483965</v>
+        <v>3.086483067727325</v>
       </c>
     </row>
     <row r="68">
@@ -2821,7 +2813,7 @@
       </c>
       <c r="B68" s="10" t="inlineStr">
         <is>
-          <t>云龙</t>
+          <t>勐腊</t>
         </is>
       </c>
       <c r="C68" s="10" t="inlineStr">
@@ -2830,13 +2822,13 @@
         </is>
       </c>
       <c r="D68" s="11" t="n">
-        <v>13.021564</v>
+        <v>23.063388</v>
       </c>
       <c r="E68" s="11" t="n">
-        <v>7.953270000000001</v>
+        <v>12.10285</v>
       </c>
       <c r="F68" s="12" t="n">
-        <v>0.6372591399512402</v>
+        <v>0.9056162804628654</v>
       </c>
     </row>
     <row r="69">
@@ -2848,13 +2840,13 @@
         </is>
       </c>
       <c r="D69" s="11" t="n">
-        <v>1.115613</v>
+        <v>1.003334</v>
       </c>
       <c r="E69" s="11" t="n">
-        <v>0.11887</v>
+        <v>0.3735879999999999</v>
       </c>
       <c r="F69" s="12" t="n">
-        <v>8.385151846555063</v>
+        <v>1.685669775260448</v>
       </c>
     </row>
     <row r="70">
@@ -2866,13 +2858,13 @@
         </is>
       </c>
       <c r="D70" s="11" t="n">
-        <v>0.310946</v>
+        <v>1.003334</v>
       </c>
       <c r="E70" s="11" t="n">
-        <v>0.11887</v>
+        <v>0.3735879999999999</v>
       </c>
       <c r="F70" s="12" t="n">
-        <v>1.615849247076639</v>
+        <v>1.685669775260448</v>
       </c>
     </row>
     <row r="71">
@@ -2884,13 +2876,13 @@
         </is>
       </c>
       <c r="D71" s="14" t="n">
-        <v>14.137177</v>
+        <v>24.066722</v>
       </c>
       <c r="E71" s="14" t="n">
-        <v>8.072139999999999</v>
+        <v>12.476438</v>
       </c>
       <c r="F71" s="15" t="n">
-        <v>0.7513542877105701</v>
+        <v>0.9289737984511286</v>
       </c>
     </row>
     <row r="72">
@@ -2899,7 +2891,7 @@
       </c>
       <c r="B72" s="4" t="inlineStr">
         <is>
-          <t>东川</t>
+          <t>香榭丽园</t>
         </is>
       </c>
       <c r="C72" s="4" t="inlineStr">
@@ -2908,13 +2900,13 @@
         </is>
       </c>
       <c r="D72" s="5" t="n">
-        <v>13.937645</v>
+        <v>22.489764</v>
       </c>
       <c r="E72" s="5" t="n">
-        <v>1.38406</v>
+        <v>8.722949999999999</v>
       </c>
       <c r="F72" s="6" t="n">
-        <v>9.070116179934393</v>
+        <v>1.578229154127905</v>
       </c>
     </row>
     <row r="73">
@@ -2926,13 +2918,13 @@
         </is>
       </c>
       <c r="D73" s="5" t="n">
-        <v>0.024434</v>
+        <v>0.200754</v>
       </c>
       <c r="E73" s="5" t="n">
-        <v>0.792453</v>
+        <v>0.331476</v>
       </c>
       <c r="F73" s="6" t="n">
-        <v>-0.9691666256547707</v>
+        <v>-0.3943633928248199</v>
       </c>
     </row>
     <row r="74">
@@ -2944,7 +2936,7 @@
         </is>
       </c>
       <c r="D74" s="5" t="n">
-        <v>0.024434</v>
+        <v>0.155472</v>
       </c>
       <c r="E74" s="5" t="n">
         <v>0</v>
@@ -2964,13 +2956,13 @@
         </is>
       </c>
       <c r="D75" s="8" t="n">
-        <v>13.962079</v>
+        <v>22.690518</v>
       </c>
       <c r="E75" s="8" t="n">
-        <v>2.176513</v>
+        <v>9.054425999999999</v>
       </c>
       <c r="F75" s="9" t="n">
-        <v>5.414884266714694</v>
+        <v>1.506013964883031</v>
       </c>
     </row>
     <row r="76">
@@ -2979,7 +2971,7 @@
       </c>
       <c r="B76" s="10" t="inlineStr">
         <is>
-          <t>漾濞</t>
+          <t>云龙</t>
         </is>
       </c>
       <c r="C76" s="10" t="inlineStr">
@@ -2988,13 +2980,13 @@
         </is>
       </c>
       <c r="D76" s="11" t="n">
-        <v>7.641614</v>
+        <v>21.167811</v>
       </c>
       <c r="E76" s="11" t="n">
-        <v>8.960002000000001</v>
+        <v>11.03726200000001</v>
       </c>
       <c r="F76" s="12" t="n">
-        <v>-0.1471414850130616</v>
+        <v>0.9178498254367786</v>
       </c>
     </row>
     <row r="77">
@@ -3006,13 +2998,13 @@
         </is>
       </c>
       <c r="D77" s="11" t="n">
-        <v>3.593182999999999</v>
+        <v>1.219638</v>
       </c>
       <c r="E77" s="11" t="n">
-        <v>0.08302000000000001</v>
+        <v>0.15472</v>
       </c>
       <c r="F77" s="12" t="n">
-        <v>42.28093230546855</v>
+        <v>6.882872285418823</v>
       </c>
     </row>
     <row r="78">
@@ -3024,13 +3016,13 @@
         </is>
       </c>
       <c r="D78" s="11" t="n">
-        <v>0.137152</v>
+        <v>0.414971</v>
       </c>
       <c r="E78" s="11" t="n">
-        <v>0.08302000000000001</v>
+        <v>0.15472</v>
       </c>
       <c r="F78" s="12" t="n">
-        <v>0.6520356540592627</v>
+        <v>1.682077300930714</v>
       </c>
     </row>
     <row r="79">
@@ -3042,13 +3034,13 @@
         </is>
       </c>
       <c r="D79" s="14" t="n">
-        <v>11.234797</v>
+        <v>22.387449</v>
       </c>
       <c r="E79" s="14" t="n">
-        <v>9.043022000000001</v>
+        <v>11.191982</v>
       </c>
       <c r="F79" s="15" t="n">
-        <v>0.2423719637085922</v>
+        <v>1.000311383631603</v>
       </c>
     </row>
     <row r="80">
@@ -3057,7 +3049,7 @@
       </c>
       <c r="B80" s="4" t="inlineStr">
         <is>
-          <t>宾川</t>
+          <t>勐海</t>
         </is>
       </c>
       <c r="C80" s="4" t="inlineStr">
@@ -3066,13 +3058,13 @@
         </is>
       </c>
       <c r="D80" s="5" t="n">
-        <v>10.838385</v>
+        <v>18.18728</v>
       </c>
       <c r="E80" s="5" t="n">
-        <v>11.813003</v>
+        <v>6.868871</v>
       </c>
       <c r="F80" s="6" t="n">
-        <v>-0.0825038307363507</v>
+        <v>1.647783019946073</v>
       </c>
     </row>
     <row r="81">
@@ -3084,13 +3076,13 @@
         </is>
       </c>
       <c r="D81" s="5" t="n">
-        <v>0.336494</v>
+        <v>0.492258</v>
       </c>
       <c r="E81" s="5" t="n">
-        <v>4.24668</v>
+        <v>0.075472</v>
       </c>
       <c r="F81" s="6" t="n">
-        <v>-0.9207630431301629</v>
+        <v>5.522392410430358</v>
       </c>
     </row>
     <row r="82">
@@ -3102,13 +3094,13 @@
         </is>
       </c>
       <c r="D82" s="5" t="n">
-        <v>0.336494</v>
+        <v>0.3453599999999999</v>
       </c>
       <c r="E82" s="5" t="n">
-        <v>0.120756</v>
+        <v>0.075472</v>
       </c>
       <c r="F82" s="6" t="n">
-        <v>1.786561330285866</v>
+        <v>3.576001695993216</v>
       </c>
     </row>
     <row r="83">
@@ -3120,13 +3112,13 @@
         </is>
       </c>
       <c r="D83" s="8" t="n">
-        <v>11.174879</v>
+        <v>18.679538</v>
       </c>
       <c r="E83" s="8" t="n">
-        <v>16.059683</v>
+        <v>6.944343000000001</v>
       </c>
       <c r="F83" s="9" t="n">
-        <v>-0.3041656550755081</v>
+        <v>1.689892765953525</v>
       </c>
     </row>
     <row r="84">
@@ -3144,13 +3136,13 @@
         </is>
       </c>
       <c r="D84" s="11" t="n">
-        <v>9.961752000000001</v>
+        <v>17.300759</v>
       </c>
       <c r="E84" s="11" t="n">
-        <v>2.719488</v>
+        <v>5.630325</v>
       </c>
       <c r="F84" s="12" t="n">
-        <v>2.663098347924316</v>
+        <v>2.07278158898465</v>
       </c>
     </row>
     <row r="85">
@@ -3162,13 +3154,13 @@
         </is>
       </c>
       <c r="D85" s="11" t="n">
-        <v>0.4349280000000001</v>
+        <v>0.7085940000000002</v>
       </c>
       <c r="E85" s="11" t="n">
-        <v>0.038528</v>
+        <v>0.057792</v>
       </c>
       <c r="F85" s="12" t="n">
-        <v>10.28862126245847</v>
+        <v>11.26110880398672</v>
       </c>
     </row>
     <row r="86">
@@ -3180,7 +3172,7 @@
         </is>
       </c>
       <c r="D86" s="11" t="n">
-        <v>0.4349280000000001</v>
+        <v>0.7085940000000002</v>
       </c>
       <c r="E86" s="11" t="n">
         <v>0</v>
@@ -3200,13 +3192,13 @@
         </is>
       </c>
       <c r="D87" s="14" t="n">
-        <v>10.39668</v>
+        <v>18.009353</v>
       </c>
       <c r="E87" s="14" t="n">
-        <v>2.758016</v>
+        <v>5.688116999999999</v>
       </c>
       <c r="F87" s="15" t="n">
-        <v>2.769622801318048</v>
+        <v>2.166136174765744</v>
       </c>
     </row>
     <row r="88">
@@ -3215,7 +3207,7 @@
       </c>
       <c r="B88" s="4" t="inlineStr">
         <is>
-          <t>兰坪</t>
+          <t>广南</t>
         </is>
       </c>
       <c r="C88" s="4" t="inlineStr">
@@ -3224,13 +3216,13 @@
         </is>
       </c>
       <c r="D88" s="5" t="n">
-        <v>9.502257</v>
+        <v>15.416861</v>
       </c>
       <c r="E88" s="5" t="n">
-        <v>2.676788</v>
+        <v>6.307128</v>
       </c>
       <c r="F88" s="6" t="n">
-        <v>2.549872832663626</v>
+        <v>1.444355180361014</v>
       </c>
     </row>
     <row r="89">
@@ -3242,13 +3234,15 @@
         </is>
       </c>
       <c r="D89" s="5" t="n">
-        <v>0.5815319999999999</v>
+        <v>0.151509</v>
       </c>
       <c r="E89" s="5" t="n">
-        <v>0.104588</v>
-      </c>
-      <c r="F89" s="6" t="n">
-        <v>4.560217233334606</v>
+        <v>0</v>
+      </c>
+      <c r="F89" s="6" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
       </c>
     </row>
     <row r="90">
@@ -3260,7 +3254,7 @@
         </is>
       </c>
       <c r="D90" s="5" t="n">
-        <v>0.5815319999999999</v>
+        <v>0.019434</v>
       </c>
       <c r="E90" s="5" t="n">
         <v>0</v>
@@ -3280,13 +3274,13 @@
         </is>
       </c>
       <c r="D91" s="8" t="n">
-        <v>10.083789</v>
+        <v>15.56837</v>
       </c>
       <c r="E91" s="8" t="n">
-        <v>2.781376</v>
+        <v>6.307128</v>
       </c>
       <c r="F91" s="9" t="n">
-        <v>2.625467754090062</v>
+        <v>1.468377048951599</v>
       </c>
     </row>
     <row r="92">
@@ -3295,7 +3289,7 @@
       </c>
       <c r="B92" s="10" t="inlineStr">
         <is>
-          <t>勐海</t>
+          <t>宾川</t>
         </is>
       </c>
       <c r="C92" s="10" t="inlineStr">
@@ -3304,13 +3298,13 @@
         </is>
       </c>
       <c r="D92" s="11" t="n">
-        <v>8.982393</v>
+        <v>14.395568</v>
       </c>
       <c r="E92" s="11" t="n">
-        <v>3.799799</v>
+        <v>17.771475</v>
       </c>
       <c r="F92" s="12" t="n">
-        <v>1.363912670117551</v>
+        <v>-0.189962116256529</v>
       </c>
     </row>
     <row r="93">
@@ -3322,13 +3316,13 @@
         </is>
       </c>
       <c r="D93" s="11" t="n">
-        <v>0.143812</v>
+        <v>0.721959</v>
       </c>
       <c r="E93" s="11" t="n">
-        <v>0.05660399999999999</v>
+        <v>4.27518</v>
       </c>
       <c r="F93" s="12" t="n">
-        <v>1.540668503992651</v>
+        <v>-0.8311278121622949</v>
       </c>
     </row>
     <row r="94">
@@ -3340,13 +3334,13 @@
         </is>
       </c>
       <c r="D94" s="11" t="n">
-        <v>0.143812</v>
+        <v>0.4375519999999999</v>
       </c>
       <c r="E94" s="11" t="n">
-        <v>0.05660399999999999</v>
+        <v>0.139624</v>
       </c>
       <c r="F94" s="12" t="n">
-        <v>1.540668503992651</v>
+        <v>2.133787887469202</v>
       </c>
     </row>
     <row r="95">
@@ -3358,13 +3352,13 @@
         </is>
       </c>
       <c r="D95" s="14" t="n">
-        <v>9.126205000000001</v>
+        <v>15.117527</v>
       </c>
       <c r="E95" s="14" t="n">
-        <v>3.856403</v>
+        <v>22.046655</v>
       </c>
       <c r="F95" s="15" t="n">
-        <v>1.366507079265316</v>
+        <v>-0.3142938463907561</v>
       </c>
     </row>
     <row r="96">
@@ -3373,7 +3367,7 @@
       </c>
       <c r="B96" s="4" t="inlineStr">
         <is>
-          <t>香榭丽园</t>
+          <t>漾濞</t>
         </is>
       </c>
       <c r="C96" s="4" t="inlineStr">
@@ -3382,13 +3376,13 @@
         </is>
       </c>
       <c r="D96" s="5" t="n">
-        <v>8.908542000000001</v>
+        <v>10.955059</v>
       </c>
       <c r="E96" s="5" t="n">
-        <v>4.266578</v>
+        <v>12.868345</v>
       </c>
       <c r="F96" s="6" t="n">
-        <v>1.087982922145101</v>
+        <v>-0.1486815903676814</v>
       </c>
     </row>
     <row r="97">
@@ -3400,15 +3394,13 @@
         </is>
       </c>
       <c r="D97" s="5" t="n">
-        <v>0.09717000000000001</v>
+        <v>3.664258999999999</v>
       </c>
       <c r="E97" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F97" s="6" t="inlineStr">
-        <is>
-          <t>——</t>
-        </is>
+        <v>0.101888</v>
+      </c>
+      <c r="F97" s="6" t="n">
+        <v>34.96359728329145</v>
       </c>
     </row>
     <row r="98">
@@ -3420,15 +3412,13 @@
         </is>
       </c>
       <c r="D98" s="5" t="n">
-        <v>0.09717000000000001</v>
+        <v>0.208228</v>
       </c>
       <c r="E98" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F98" s="6" t="inlineStr">
-        <is>
-          <t>——</t>
-        </is>
+        <v>0.101888</v>
+      </c>
+      <c r="F98" s="6" t="n">
+        <v>1.043695037688442</v>
       </c>
     </row>
     <row r="99">
@@ -3440,13 +3430,13 @@
         </is>
       </c>
       <c r="D99" s="8" t="n">
-        <v>9.005711999999999</v>
+        <v>14.61931800000001</v>
       </c>
       <c r="E99" s="8" t="n">
-        <v>4.266578</v>
+        <v>12.970233</v>
       </c>
       <c r="F99" s="9" t="n">
-        <v>1.11075761418167</v>
+        <v>0.1271438223199233</v>
       </c>
     </row>
     <row r="100">
@@ -3455,7 +3445,7 @@
       </c>
       <c r="B100" s="10" t="inlineStr">
         <is>
-          <t>广南</t>
+          <t>安宁</t>
         </is>
       </c>
       <c r="C100" s="10" t="inlineStr">
@@ -3464,13 +3454,13 @@
         </is>
       </c>
       <c r="D100" s="11" t="n">
-        <v>8.272509000000001</v>
+        <v>13.655587</v>
       </c>
       <c r="E100" s="11" t="n">
-        <v>3.746877</v>
+        <v>5.012435000000001</v>
       </c>
       <c r="F100" s="12" t="n">
-        <v>1.207841090059802</v>
+        <v>1.724341961541645</v>
       </c>
     </row>
     <row r="101">
@@ -3482,15 +3472,13 @@
         </is>
       </c>
       <c r="D101" s="11" t="n">
-        <v>0.132075</v>
+        <v>0.250248</v>
       </c>
       <c r="E101" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F101" s="12" t="inlineStr">
-        <is>
-          <t>——</t>
-        </is>
+        <v>0.101888</v>
+      </c>
+      <c r="F101" s="12" t="n">
+        <v>1.456108668341709</v>
       </c>
     </row>
     <row r="102">
@@ -3502,15 +3490,13 @@
         </is>
       </c>
       <c r="D102" s="11" t="n">
-        <v>0</v>
+        <v>0.183624</v>
       </c>
       <c r="E102" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F102" s="12" t="inlineStr">
-        <is>
-          <t>——</t>
-        </is>
+        <v>0.101888</v>
+      </c>
+      <c r="F102" s="12" t="n">
+        <v>0.8022141959798992</v>
       </c>
     </row>
     <row r="103">
@@ -3522,13 +3508,13 @@
         </is>
       </c>
       <c r="D103" s="14" t="n">
-        <v>8.404584</v>
+        <v>13.905835</v>
       </c>
       <c r="E103" s="14" t="n">
-        <v>3.746877</v>
+        <v>5.114323000000001</v>
       </c>
       <c r="F103" s="15" t="n">
-        <v>1.243090445723198</v>
+        <v>1.718998193895849</v>
       </c>
     </row>
     <row r="104">
@@ -3537,7 +3523,7 @@
       </c>
       <c r="B104" s="4" t="inlineStr">
         <is>
-          <t>安宁</t>
+          <t>兰坪</t>
         </is>
       </c>
       <c r="C104" s="4" t="inlineStr">
@@ -3546,13 +3532,13 @@
         </is>
       </c>
       <c r="D104" s="5" t="n">
-        <v>8.039661000000002</v>
+        <v>11.233661</v>
       </c>
       <c r="E104" s="5" t="n">
-        <v>1.252772</v>
+        <v>4.909331</v>
       </c>
       <c r="F104" s="6" t="n">
-        <v>5.417497357859214</v>
+        <v>1.28822644062908</v>
       </c>
     </row>
     <row r="105">
@@ -3564,13 +3550,13 @@
         </is>
       </c>
       <c r="D105" s="5" t="n">
-        <v>0.139926</v>
+        <v>0.640174</v>
       </c>
       <c r="E105" s="5" t="n">
-        <v>0.08302000000000001</v>
+        <v>0.541512</v>
       </c>
       <c r="F105" s="6" t="n">
-        <v>0.6854492893278725</v>
+        <v>0.1821972550931465</v>
       </c>
     </row>
     <row r="106">
@@ -3582,13 +3568,13 @@
         </is>
       </c>
       <c r="D106" s="5" t="n">
-        <v>0.139926</v>
+        <v>0.640174</v>
       </c>
       <c r="E106" s="5" t="n">
-        <v>0.08302000000000001</v>
+        <v>0.05660399999999999</v>
       </c>
       <c r="F106" s="6" t="n">
-        <v>0.6854492893278725</v>
+        <v>10.30969542788496</v>
       </c>
     </row>
     <row r="107">
@@ -3600,13 +3586,13 @@
         </is>
       </c>
       <c r="D107" s="8" t="n">
-        <v>8.179587</v>
+        <v>11.873835</v>
       </c>
       <c r="E107" s="8" t="n">
-        <v>1.335792</v>
+        <v>5.450842999999999</v>
       </c>
       <c r="F107" s="9" t="n">
-        <v>5.123398702792051</v>
+        <v>1.178348376572211</v>
       </c>
     </row>
     <row r="108">
@@ -3615,7 +3601,7 @@
       </c>
       <c r="B108" s="10" t="inlineStr">
         <is>
-          <t>洱源</t>
+          <t>会泽</t>
         </is>
       </c>
       <c r="C108" s="10" t="inlineStr">
@@ -3624,13 +3610,13 @@
         </is>
       </c>
       <c r="D108" s="11" t="n">
-        <v>4.224727999999999</v>
+        <v>10.491345</v>
       </c>
       <c r="E108" s="11" t="n">
-        <v>2.643469</v>
+        <v>4.925441</v>
       </c>
       <c r="F108" s="12" t="n">
-        <v>0.5981757304511606</v>
+        <v>1.13003160529179</v>
       </c>
     </row>
     <row r="109">
@@ -3642,13 +3628,15 @@
         </is>
       </c>
       <c r="D109" s="11" t="n">
-        <v>1.119057</v>
+        <v>0.180812</v>
       </c>
       <c r="E109" s="11" t="n">
-        <v>0.6294449999999999</v>
-      </c>
-      <c r="F109" s="12" t="n">
-        <v>0.7778471510616498</v>
+        <v>0</v>
+      </c>
+      <c r="F109" s="12" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
       </c>
     </row>
     <row r="110">
@@ -3660,13 +3648,15 @@
         </is>
       </c>
       <c r="D110" s="11" t="n">
-        <v>0.116604</v>
+        <v>0.180812</v>
       </c>
       <c r="E110" s="11" t="n">
-        <v>0.075472</v>
-      </c>
-      <c r="F110" s="12" t="n">
-        <v>0.54499682001272</v>
+        <v>0</v>
+      </c>
+      <c r="F110" s="12" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
       </c>
     </row>
     <row r="111">
@@ -3678,13 +3668,13 @@
         </is>
       </c>
       <c r="D111" s="14" t="n">
-        <v>5.343785</v>
+        <v>10.672157</v>
       </c>
       <c r="E111" s="14" t="n">
-        <v>3.272914000000001</v>
+        <v>4.925441</v>
       </c>
       <c r="F111" s="15" t="n">
-        <v>0.6327300381250465</v>
+        <v>1.166741414626629</v>
       </c>
     </row>
     <row r="112">
@@ -3702,13 +3692,13 @@
         </is>
       </c>
       <c r="D112" s="5" t="n">
-        <v>5.074627</v>
+        <v>8.792259</v>
       </c>
       <c r="E112" s="5" t="n">
-        <v>4.728482</v>
+        <v>6.109710999999999</v>
       </c>
       <c r="F112" s="6" t="n">
-        <v>0.07320425455780533</v>
+        <v>0.4390629933232524</v>
       </c>
     </row>
     <row r="113">
@@ -3720,7 +3710,7 @@
         </is>
       </c>
       <c r="D113" s="5" t="n">
-        <v>0.17683</v>
+        <v>0.26813</v>
       </c>
       <c r="E113" s="5" t="n">
         <v>0</v>
@@ -3740,7 +3730,7 @@
         </is>
       </c>
       <c r="D114" s="5" t="n">
-        <v>0.143812</v>
+        <v>0.235112</v>
       </c>
       <c r="E114" s="5" t="n">
         <v>0</v>
@@ -3760,13 +3750,13 @@
         </is>
       </c>
       <c r="D115" s="8" t="n">
-        <v>5.251457</v>
+        <v>9.060389000000001</v>
       </c>
       <c r="E115" s="8" t="n">
-        <v>4.728482</v>
+        <v>6.109710999999999</v>
       </c>
       <c r="F115" s="9" t="n">
-        <v>0.1106010343277188</v>
+        <v>0.4829488661574994</v>
       </c>
     </row>
     <row r="116">
@@ -3775,7 +3765,7 @@
       </c>
       <c r="B116" s="10" t="inlineStr">
         <is>
-          <t>麻栗坡</t>
+          <t>洱源</t>
         </is>
       </c>
       <c r="C116" s="10" t="inlineStr">
@@ -3784,13 +3774,13 @@
         </is>
       </c>
       <c r="D116" s="11" t="n">
-        <v>3.290113</v>
+        <v>6.928833999999999</v>
       </c>
       <c r="E116" s="11" t="n">
-        <v>1.679334</v>
+        <v>4.528318</v>
       </c>
       <c r="F116" s="12" t="n">
-        <v>0.9591772690840534</v>
+        <v>0.5301120636845733</v>
       </c>
     </row>
     <row r="117">
@@ -3802,13 +3792,13 @@
         </is>
       </c>
       <c r="D117" s="11" t="n">
-        <v>0.131944</v>
+        <v>1.194529</v>
       </c>
       <c r="E117" s="11" t="n">
-        <v>0.023585</v>
+        <v>1.080392</v>
       </c>
       <c r="F117" s="12" t="n">
-        <v>4.594403222387111</v>
+        <v>0.105644062525454</v>
       </c>
     </row>
     <row r="118">
@@ -3820,13 +3810,13 @@
         </is>
       </c>
       <c r="D118" s="11" t="n">
-        <v>0.131944</v>
+        <v>0.116604</v>
       </c>
       <c r="E118" s="11" t="n">
-        <v>0.023585</v>
+        <v>0.09434000000000001</v>
       </c>
       <c r="F118" s="12" t="n">
-        <v>4.594403222387111</v>
+        <v>0.2359974560101759</v>
       </c>
     </row>
     <row r="119">
@@ -3838,13 +3828,13 @@
         </is>
       </c>
       <c r="D119" s="14" t="n">
-        <v>3.422057</v>
+        <v>8.123362999999999</v>
       </c>
       <c r="E119" s="14" t="n">
-        <v>1.702919</v>
+        <v>5.608709999999999</v>
       </c>
       <c r="F119" s="15" t="n">
-        <v>1.009524234564298</v>
+        <v>0.4483478375597953</v>
       </c>
     </row>
     <row r="120">
@@ -3853,7 +3843,7 @@
       </c>
       <c r="B120" s="4" t="inlineStr">
         <is>
-          <t>会泽</t>
+          <t>麻栗坡</t>
         </is>
       </c>
       <c r="C120" s="4" t="inlineStr">
@@ -3862,13 +3852,13 @@
         </is>
       </c>
       <c r="D120" s="5" t="n">
-        <v>2.625039</v>
+        <v>6.732434000000001</v>
       </c>
       <c r="E120" s="5" t="n">
-        <v>1.900877</v>
+        <v>4.43215</v>
       </c>
       <c r="F120" s="6" t="n">
-        <v>0.3809620506745044</v>
+        <v>0.5189995825953546</v>
       </c>
     </row>
     <row r="121">
@@ -3880,15 +3870,13 @@
         </is>
       </c>
       <c r="D121" s="5" t="n">
-        <v>0.07330199999999999</v>
+        <v>0.291737</v>
       </c>
       <c r="E121" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F121" s="6" t="inlineStr">
-        <is>
-          <t>——</t>
-        </is>
+        <v>0.2928499999999999</v>
+      </c>
+      <c r="F121" s="6" t="n">
+        <v>-0.003800580501963191</v>
       </c>
     </row>
     <row r="122">
@@ -3900,15 +3888,13 @@
         </is>
       </c>
       <c r="D122" s="5" t="n">
-        <v>0.07330199999999999</v>
+        <v>0.272473</v>
       </c>
       <c r="E122" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F122" s="6" t="inlineStr">
-        <is>
-          <t>——</t>
-        </is>
+        <v>0.04717</v>
+      </c>
+      <c r="F122" s="6" t="n">
+        <v>4.776404494382024</v>
       </c>
     </row>
     <row r="123">
@@ -3920,13 +3906,13 @@
         </is>
       </c>
       <c r="D123" s="8" t="n">
-        <v>2.698341</v>
+        <v>7.024170999999999</v>
       </c>
       <c r="E123" s="8" t="n">
-        <v>1.900877</v>
+        <v>4.725</v>
       </c>
       <c r="F123" s="9" t="n">
-        <v>0.4195242511745891</v>
+        <v>0.4865970370370369</v>
       </c>
     </row>
     <row r="124">
@@ -3944,15 +3930,13 @@
         </is>
       </c>
       <c r="D124" s="11" t="n">
-        <v>0.314896</v>
+        <v>1.922795</v>
       </c>
       <c r="E124" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F124" s="12" t="inlineStr">
-        <is>
-          <t>——</t>
-        </is>
+        <v>1.0421</v>
+      </c>
+      <c r="F124" s="12" t="n">
+        <v>0.8451156318971302</v>
       </c>
     </row>
     <row r="125">
@@ -3964,13 +3948,13 @@
         </is>
       </c>
       <c r="D125" s="11" t="n">
-        <v>0.019434</v>
+        <v>0.08028500000000001</v>
       </c>
       <c r="E125" s="11" t="n">
-        <v>0.028896</v>
+        <v>41.08019700000001</v>
       </c>
       <c r="F125" s="12" t="n">
-        <v>-0.3274501661129567</v>
+        <v>-0.9980456520206074</v>
       </c>
     </row>
     <row r="126">
@@ -3982,7 +3966,7 @@
         </is>
       </c>
       <c r="D126" s="11" t="n">
-        <v>0.019434</v>
+        <v>0.077736</v>
       </c>
       <c r="E126" s="11" t="n">
         <v>0</v>
@@ -4002,13 +3986,13 @@
         </is>
       </c>
       <c r="D127" s="14" t="n">
-        <v>0.33433</v>
+        <v>2.00308</v>
       </c>
       <c r="E127" s="14" t="n">
-        <v>0.028896</v>
+        <v>42.122297</v>
       </c>
       <c r="F127" s="15" t="n">
-        <v>10.57011351052049</v>
+        <v>-0.9524460881133809</v>
       </c>
     </row>
   </sheetData>
@@ -4119,7 +4103,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>数据统计范围：2020-01-01至2020-01-02</t>
+          <t>数据统计范围：2020-01-01至2020-01-06</t>
         </is>
       </c>
       <c r="B2" s="2" t="n"/>
@@ -4173,13 +4157,13 @@
         </is>
       </c>
       <c r="D4" s="5" t="n">
-        <v>577.8146130000001</v>
+        <v>976.3922320000008</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>212.433056</v>
+        <v>418.3163539999999</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>1.719984468895464</v>
+        <v>1.334100072023483</v>
       </c>
     </row>
     <row r="5">
@@ -4191,13 +4175,13 @@
         </is>
       </c>
       <c r="D5" s="5" t="n">
-        <v>46.26167800000011</v>
+        <v>70.39196900000005</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>42.25804800000001</v>
+        <v>97.72784700000004</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>0.09474242634208041</v>
+        <v>-0.2797143172508444</v>
       </c>
     </row>
     <row r="6">
@@ -4209,13 +4193,13 @@
         </is>
       </c>
       <c r="D6" s="5" t="n">
-        <v>10.07240899999999</v>
+        <v>14.90333999999997</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.238689</v>
+        <v>2.039639000000001</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>7.131507585842765</v>
+        <v>6.306851849763593</v>
       </c>
     </row>
     <row r="7">
@@ -4227,13 +4211,13 @@
         </is>
       </c>
       <c r="D7" s="8" t="n">
-        <v>624.0762909999996</v>
+        <v>1046.784200999999</v>
       </c>
       <c r="E7" s="8" t="n">
-        <v>254.691104</v>
+        <v>516.0442010000006</v>
       </c>
       <c r="F7" s="9" t="n">
-        <v>1.450326223408257</v>
+        <v>1.028477791188274</v>
       </c>
     </row>
     <row r="8">
@@ -4251,13 +4235,13 @@
         </is>
       </c>
       <c r="D8" s="11" t="n">
-        <v>10.351073</v>
+        <v>23.53069</v>
       </c>
       <c r="E8" s="11" t="n">
-        <v>1.216375</v>
+        <v>2.186197</v>
       </c>
       <c r="F8" s="12" t="n">
-        <v>7.509771246531706</v>
+        <v>9.763298092532377</v>
       </c>
     </row>
     <row r="9">
@@ -4269,13 +4253,13 @@
         </is>
       </c>
       <c r="D9" s="11" t="n">
-        <v>6.243242999999998</v>
+        <v>22.010182</v>
       </c>
       <c r="E9" s="11" t="n">
-        <v>1.57413</v>
+        <v>7.865909000000001</v>
       </c>
       <c r="F9" s="12" t="n">
-        <v>2.966154637799926</v>
+        <v>1.798173993622352</v>
       </c>
     </row>
     <row r="10">
@@ -4287,7 +4271,7 @@
         </is>
       </c>
       <c r="D10" s="11" t="n">
-        <v>0</v>
+        <v>0.061416</v>
       </c>
       <c r="E10" s="11" t="n">
         <v>0</v>
@@ -4307,13 +4291,13 @@
         </is>
       </c>
       <c r="D11" s="14" t="n">
-        <v>16.594316</v>
+        <v>45.54087199999999</v>
       </c>
       <c r="E11" s="14" t="n">
-        <v>2.790505</v>
+        <v>10.052106</v>
       </c>
       <c r="F11" s="15" t="n">
-        <v>4.9467071372386</v>
+        <v>3.53048067738243</v>
       </c>
     </row>
     <row r="12">
@@ -4331,7 +4315,7 @@
         </is>
       </c>
       <c r="D12" s="5" t="n">
-        <v>10.351073</v>
+        <v>22.729471</v>
       </c>
       <c r="E12" s="5" t="n">
         <v>0</v>
@@ -4351,7 +4335,7 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0</v>
+        <v>0.09031199999999999</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0</v>
@@ -4371,7 +4355,7 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0</v>
+        <v>0.061416</v>
       </c>
       <c r="E14" s="5" t="n">
         <v>0</v>
@@ -4391,7 +4375,7 @@
         </is>
       </c>
       <c r="D15" s="8" t="n">
-        <v>10.351073</v>
+        <v>22.819783</v>
       </c>
       <c r="E15" s="8" t="n">
         <v>0</v>
@@ -4417,13 +4401,13 @@
         </is>
       </c>
       <c r="D16" s="11" t="n">
-        <v>34.724206</v>
+        <v>58.21386199999998</v>
       </c>
       <c r="E16" s="11" t="n">
-        <v>25.44472</v>
+        <v>60.93251600000001</v>
       </c>
       <c r="F16" s="12" t="n">
-        <v>0.3646920068289214</v>
+        <v>-0.04461745843549325</v>
       </c>
     </row>
     <row r="17">
@@ -4435,13 +4419,13 @@
         </is>
       </c>
       <c r="D17" s="11" t="n">
-        <v>3.977602999999998</v>
+        <v>4.221111999999997</v>
       </c>
       <c r="E17" s="11" t="n">
-        <v>0.100592</v>
+        <v>1.479177</v>
       </c>
       <c r="F17" s="12" t="n">
-        <v>38.54194170510576</v>
+        <v>1.853689585492471</v>
       </c>
     </row>
     <row r="18">
@@ -4453,13 +4437,13 @@
         </is>
       </c>
       <c r="D18" s="11" t="n">
-        <v>0.365615</v>
+        <v>0.5638430000000001</v>
       </c>
       <c r="E18" s="11" t="n">
-        <v>0.07169600000000001</v>
+        <v>0.116036</v>
       </c>
       <c r="F18" s="12" t="n">
-        <v>4.099517406828832</v>
+        <v>3.859207487331518</v>
       </c>
     </row>
     <row r="19">
@@ -4471,13 +4455,13 @@
         </is>
       </c>
       <c r="D19" s="14" t="n">
-        <v>38.701809</v>
+        <v>62.43497399999999</v>
       </c>
       <c r="E19" s="14" t="n">
-        <v>25.545312</v>
+        <v>62.41169300000001</v>
       </c>
       <c r="F19" s="15" t="n">
-        <v>0.5150258881159879</v>
+        <v>0.0003730230487415387</v>
       </c>
     </row>
     <row r="20">
@@ -4495,13 +4479,13 @@
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>12.460629</v>
+        <v>16.595424</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>13.007669</v>
+        <v>37.34957000000001</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.04205519067251795</v>
+        <v>-0.5556729568774154</v>
       </c>
     </row>
     <row r="21">
@@ -4513,15 +4497,13 @@
         </is>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.054416</v>
+        <v>0</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" s="6" t="inlineStr">
-        <is>
-          <t>——</t>
-        </is>
+        <v>1.275859</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="22">
@@ -4533,15 +4515,13 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.054416</v>
+        <v>0</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" s="6" t="inlineStr">
-        <is>
-          <t>——</t>
-        </is>
+        <v>0.028302</v>
+      </c>
+      <c r="F22" s="6" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="23">
@@ -4553,13 +4533,13 @@
         </is>
       </c>
       <c r="D23" s="8" t="n">
-        <v>12.515045</v>
+        <v>16.59542399999999</v>
       </c>
       <c r="E23" s="8" t="n">
-        <v>13.007669</v>
+        <v>38.625429</v>
       </c>
       <c r="F23" s="9" t="n">
-        <v>-0.0378718123900601</v>
+        <v>-0.5703497817461136</v>
       </c>
     </row>
     <row r="24">
@@ -4577,13 +4557,13 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>6.436285999999999</v>
+        <v>10.526351</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.453794</v>
+        <v>6.084884000000001</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>0.86354079021505</v>
+        <v>0.7299181052588672</v>
       </c>
     </row>
     <row r="25">
@@ -4595,13 +4575,13 @@
         </is>
       </c>
       <c r="D25" s="5" t="n">
-        <v>0.269621</v>
+        <v>0.31947</v>
       </c>
       <c r="E25" s="5" t="n">
         <v>0.028896</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>8.330737818383168</v>
+        <v>10.05585548172757</v>
       </c>
     </row>
     <row r="26">
@@ -4613,7 +4593,7 @@
         </is>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.058302</v>
+        <v>0.08551</v>
       </c>
       <c r="E26" s="5" t="n">
         <v>0</v>
@@ -4633,13 +4613,13 @@
         </is>
       </c>
       <c r="D27" s="8" t="n">
-        <v>6.705907000000001</v>
+        <v>10.845821</v>
       </c>
       <c r="E27" s="8" t="n">
-        <v>3.48269</v>
+        <v>6.113779999999999</v>
       </c>
       <c r="F27" s="9" t="n">
-        <v>0.9254963835426064</v>
+        <v>0.7739959566749213</v>
       </c>
     </row>
     <row r="28">
@@ -4657,7 +4637,7 @@
         </is>
       </c>
       <c r="D28" s="5" t="n">
-        <v>15.222464</v>
+        <v>13.090727</v>
       </c>
       <c r="E28" s="5" t="n">
         <v>0</v>
@@ -4677,7 +4657,7 @@
         </is>
       </c>
       <c r="D29" s="5" t="n">
-        <v>3.653565999999999</v>
+        <v>0.313058</v>
       </c>
       <c r="E29" s="5" t="n">
         <v>0</v>
@@ -4697,7 +4677,7 @@
         </is>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.252897</v>
+        <v>0.26353</v>
       </c>
       <c r="E30" s="5" t="n">
         <v>0</v>
@@ -4717,7 +4697,7 @@
         </is>
       </c>
       <c r="D31" s="8" t="n">
-        <v>18.87603</v>
+        <v>13.403785</v>
       </c>
       <c r="E31" s="8" t="n">
         <v>0</v>
@@ -4743,13 +4723,13 @@
         </is>
       </c>
       <c r="D32" s="11" t="n">
-        <v>9.415496999999998</v>
+        <v>21.032883</v>
       </c>
       <c r="E32" s="11" t="n">
-        <v>2.927466</v>
+        <v>6.786426000000002</v>
       </c>
       <c r="F32" s="12" t="n">
-        <v>2.216261777250359</v>
+        <v>2.099257694698209</v>
       </c>
     </row>
     <row r="33">
@@ -4761,15 +4741,13 @@
         </is>
       </c>
       <c r="D33" s="11" t="n">
-        <v>0.058302</v>
+        <v>0.136038</v>
       </c>
       <c r="E33" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" s="12" t="inlineStr">
-        <is>
-          <t>——</t>
-        </is>
+        <v>0.023585</v>
+      </c>
+      <c r="F33" s="12" t="n">
+        <v>4.767988128047488</v>
       </c>
     </row>
     <row r="34">
@@ -4781,15 +4759,13 @@
         </is>
       </c>
       <c r="D34" s="11" t="n">
-        <v>0.058302</v>
+        <v>0.136038</v>
       </c>
       <c r="E34" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" s="12" t="inlineStr">
-        <is>
-          <t>——</t>
-        </is>
+        <v>0.023585</v>
+      </c>
+      <c r="F34" s="12" t="n">
+        <v>4.767988128047488</v>
       </c>
     </row>
     <row r="35">
@@ -4801,13 +4777,13 @@
         </is>
       </c>
       <c r="D35" s="14" t="n">
-        <v>9.473798999999998</v>
+        <v>21.168921</v>
       </c>
       <c r="E35" s="14" t="n">
-        <v>2.927466</v>
+        <v>6.810011000000001</v>
       </c>
       <c r="F35" s="15" t="n">
-        <v>2.236177294629552</v>
+        <v>2.10850026527123</v>
       </c>
     </row>
     <row r="36">
@@ -4825,13 +4801,13 @@
         </is>
       </c>
       <c r="D36" s="5" t="n">
-        <v>5.541693</v>
+        <v>8.03806</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>1.947032</v>
+        <v>5.406743000000001</v>
       </c>
       <c r="F36" s="6" t="n">
-        <v>1.846225948007018</v>
+        <v>0.4866732152795126</v>
       </c>
     </row>
     <row r="37">
@@ -4843,7 +4819,7 @@
         </is>
       </c>
       <c r="D37" s="5" t="n">
-        <v>0.038868</v>
+        <v>0.019434</v>
       </c>
       <c r="E37" s="5" t="n">
         <v>0</v>
@@ -4863,7 +4839,7 @@
         </is>
       </c>
       <c r="D38" s="5" t="n">
-        <v>0.038868</v>
+        <v>0.019434</v>
       </c>
       <c r="E38" s="5" t="n">
         <v>0</v>
@@ -4883,13 +4859,13 @@
         </is>
       </c>
       <c r="D39" s="8" t="n">
-        <v>5.580561</v>
+        <v>8.057494000000002</v>
       </c>
       <c r="E39" s="8" t="n">
-        <v>1.947032</v>
+        <v>5.406743000000001</v>
       </c>
       <c r="F39" s="9" t="n">
-        <v>1.866188639940176</v>
+        <v>0.4902676158271257</v>
       </c>
     </row>
     <row r="40">
@@ -4907,13 +4883,13 @@
         </is>
       </c>
       <c r="D40" s="5" t="n">
-        <v>3.873804</v>
+        <v>7.16834</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>0.980434</v>
+        <v>1.379683</v>
       </c>
       <c r="F40" s="6" t="n">
-        <v>2.951111446563461</v>
+        <v>4.195642767215368</v>
       </c>
     </row>
     <row r="41">
@@ -4925,15 +4901,13 @@
         </is>
       </c>
       <c r="D41" s="5" t="n">
-        <v>0.019434</v>
+        <v>0.077736</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" s="6" t="inlineStr">
-        <is>
-          <t>——</t>
-        </is>
+        <v>0.023585</v>
+      </c>
+      <c r="F41" s="6" t="n">
+        <v>2.295993216027136</v>
       </c>
     </row>
     <row r="42">
@@ -4945,15 +4919,13 @@
         </is>
       </c>
       <c r="D42" s="5" t="n">
-        <v>0.019434</v>
+        <v>0.077736</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" s="6" t="inlineStr">
-        <is>
-          <t>——</t>
-        </is>
+        <v>0.023585</v>
+      </c>
+      <c r="F42" s="6" t="n">
+        <v>2.295993216027136</v>
       </c>
     </row>
     <row r="43">
@@ -4965,13 +4937,13 @@
         </is>
       </c>
       <c r="D43" s="8" t="n">
-        <v>3.893238</v>
+        <v>7.246076</v>
       </c>
       <c r="E43" s="8" t="n">
-        <v>0.980434</v>
+        <v>1.403268</v>
       </c>
       <c r="F43" s="9" t="n">
-        <v>2.970933280567585</v>
+        <v>4.16371498530573</v>
       </c>
     </row>
     <row r="44">
@@ -4989,13 +4961,13 @@
         </is>
       </c>
       <c r="D44" s="11" t="n">
-        <v>17.93714</v>
+        <v>26.293295</v>
       </c>
       <c r="E44" s="11" t="n">
-        <v>22.29113400000001</v>
+        <v>32.97146600000001</v>
       </c>
       <c r="F44" s="12" t="n">
-        <v>-0.1953240243407988</v>
+        <v>-0.2025439511849429</v>
       </c>
     </row>
     <row r="45">
@@ -5007,13 +4979,13 @@
         </is>
       </c>
       <c r="D45" s="11" t="n">
-        <v>1.222864</v>
+        <v>1.366676</v>
       </c>
       <c r="E45" s="11" t="n">
-        <v>3.2467</v>
+        <v>3.973182</v>
       </c>
       <c r="F45" s="12" t="n">
-        <v>-0.62335171096806</v>
+        <v>-0.6560248183949289</v>
       </c>
     </row>
     <row r="46">
@@ -5025,13 +4997,13 @@
         </is>
       </c>
       <c r="D46" s="11" t="n">
-        <v>0.633663</v>
+        <v>0.7774750000000001</v>
       </c>
       <c r="E46" s="11" t="n">
         <v>0.127359</v>
       </c>
       <c r="F46" s="12" t="n">
-        <v>3.975408098367606</v>
+        <v>5.104594100142119</v>
       </c>
     </row>
     <row r="47">
@@ -5043,13 +5015,13 @@
         </is>
       </c>
       <c r="D47" s="14" t="n">
-        <v>19.160004</v>
+        <v>27.659971</v>
       </c>
       <c r="E47" s="14" t="n">
-        <v>25.537834</v>
+        <v>36.944648</v>
       </c>
       <c r="F47" s="15" t="n">
-        <v>-0.2497404439233181</v>
+        <v>-0.2513131807345953</v>
       </c>
     </row>
     <row r="48">
@@ -5067,13 +5039,13 @@
         </is>
       </c>
       <c r="D48" s="5" t="n">
-        <v>17.441727</v>
+        <v>15.355088</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>22.31839900000001</v>
+        <v>33.15702000000001</v>
       </c>
       <c r="F48" s="6" t="n">
-        <v>-0.2185045620879887</v>
+        <v>-0.5368978273680809</v>
       </c>
     </row>
     <row r="49">
@@ -5085,13 +5057,13 @@
         </is>
       </c>
       <c r="D49" s="5" t="n">
-        <v>1.111939</v>
+        <v>0.4040580000000001</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>3.2467</v>
+        <v>3.973182</v>
       </c>
       <c r="F49" s="6" t="n">
-        <v>-0.657517171281609</v>
+        <v>-0.8983036770024631</v>
       </c>
     </row>
     <row r="50">
@@ -5103,13 +5075,13 @@
         </is>
       </c>
       <c r="D50" s="5" t="n">
-        <v>0.5792470000000001</v>
+        <v>0.3847940000000001</v>
       </c>
       <c r="E50" s="5" t="n">
         <v>0.127359</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>3.548143437055882</v>
+        <v>2.021333396147897</v>
       </c>
     </row>
     <row r="51">
@@ -5121,13 +5093,13 @@
         </is>
       </c>
       <c r="D51" s="8" t="n">
-        <v>18.553666</v>
+        <v>15.759146</v>
       </c>
       <c r="E51" s="8" t="n">
-        <v>25.565099</v>
+        <v>37.130202</v>
       </c>
       <c r="F51" s="9" t="n">
-        <v>-0.2742580030689499</v>
+        <v>-0.5755706904045392</v>
       </c>
     </row>
     <row r="52">
@@ -5231,13 +5203,13 @@
         </is>
       </c>
       <c r="D56" s="11" t="n">
-        <v>16.18882</v>
+        <v>24.35128000000001</v>
       </c>
       <c r="E56" s="11" t="n">
-        <v>1.991132</v>
+        <v>6.688114</v>
       </c>
       <c r="F56" s="12" t="n">
-        <v>7.130460461687122</v>
+        <v>2.640978607721101</v>
       </c>
     </row>
     <row r="57">
@@ -5249,13 +5221,13 @@
         </is>
       </c>
       <c r="D57" s="11" t="n">
-        <v>0.392568</v>
+        <v>0.5920210000000001</v>
       </c>
       <c r="E57" s="11" t="n">
-        <v>0.018868</v>
+        <v>0.064152</v>
       </c>
       <c r="F57" s="12" t="n">
-        <v>19.8060207759169</v>
+        <v>8.228410649706948</v>
       </c>
     </row>
     <row r="58">
@@ -5267,13 +5239,13 @@
         </is>
       </c>
       <c r="D58" s="11" t="n">
-        <v>0.392568</v>
+        <v>0.4897380000000001</v>
       </c>
       <c r="E58" s="11" t="n">
-        <v>0.018868</v>
+        <v>0.064152</v>
       </c>
       <c r="F58" s="12" t="n">
-        <v>19.8060207759169</v>
+        <v>6.634025439580997</v>
       </c>
     </row>
     <row r="59">
@@ -5285,13 +5257,13 @@
         </is>
       </c>
       <c r="D59" s="14" t="n">
-        <v>16.581388</v>
+        <v>24.94330100000001</v>
       </c>
       <c r="E59" s="14" t="n">
-        <v>2.01</v>
+        <v>6.752266000000001</v>
       </c>
       <c r="F59" s="15" t="n">
-        <v>7.249446766169156</v>
+        <v>2.694063740972291</v>
       </c>
     </row>
     <row r="60">
@@ -5309,13 +5281,13 @@
         </is>
       </c>
       <c r="D60" s="5" t="n">
-        <v>16.18882</v>
+        <v>14.616551</v>
       </c>
       <c r="E60" s="5" t="n">
-        <v>1.991132</v>
+        <v>6.688114</v>
       </c>
       <c r="F60" s="6" t="n">
-        <v>7.130460461687122</v>
+        <v>1.18545183290835</v>
       </c>
     </row>
     <row r="61">
@@ -5327,13 +5299,13 @@
         </is>
       </c>
       <c r="D61" s="5" t="n">
-        <v>0.392568</v>
+        <v>0.343265</v>
       </c>
       <c r="E61" s="5" t="n">
-        <v>0.018868</v>
+        <v>0.064152</v>
       </c>
       <c r="F61" s="6" t="n">
-        <v>19.8060207759169</v>
+        <v>4.350807457288939</v>
       </c>
     </row>
     <row r="62">
@@ -5345,13 +5317,13 @@
         </is>
       </c>
       <c r="D62" s="5" t="n">
-        <v>0.392568</v>
+        <v>0.240982</v>
       </c>
       <c r="E62" s="5" t="n">
-        <v>0.018868</v>
+        <v>0.064152</v>
       </c>
       <c r="F62" s="6" t="n">
-        <v>19.8060207759169</v>
+        <v>2.756422247162988</v>
       </c>
     </row>
     <row r="63">
@@ -5363,13 +5335,13 @@
         </is>
       </c>
       <c r="D63" s="8" t="n">
-        <v>16.581388</v>
+        <v>14.959816</v>
       </c>
       <c r="E63" s="8" t="n">
-        <v>2.01</v>
+        <v>6.752266000000001</v>
       </c>
       <c r="F63" s="9" t="n">
-        <v>7.249446766169156</v>
+        <v>1.2155252769959</v>
       </c>
     </row>
     <row r="64">
@@ -5387,13 +5359,13 @@
         </is>
       </c>
       <c r="D64" s="11" t="n">
-        <v>21.395919</v>
+        <v>25.337888</v>
       </c>
       <c r="E64" s="11" t="n">
-        <v>9.568102999999999</v>
+        <v>16.613105</v>
       </c>
       <c r="F64" s="12" t="n">
-        <v>1.23617147516075</v>
+        <v>0.5251747340427932</v>
       </c>
     </row>
     <row r="65">
@@ -5405,13 +5377,13 @@
         </is>
       </c>
       <c r="D65" s="11" t="n">
-        <v>2.021045</v>
+        <v>2.200291</v>
       </c>
       <c r="E65" s="11" t="n">
-        <v>2.917577</v>
+        <v>4.452085</v>
       </c>
       <c r="F65" s="12" t="n">
-        <v>-0.307286491496197</v>
+        <v>-0.5057841438337318</v>
       </c>
     </row>
     <row r="66">
@@ -5426,10 +5398,10 @@
         <v>0.09717000000000001</v>
       </c>
       <c r="E66" s="11" t="n">
-        <v>0.037736</v>
+        <v>0.169812</v>
       </c>
       <c r="F66" s="12" t="n">
-        <v>1.5749947000212</v>
+        <v>-0.4277789555508446</v>
       </c>
     </row>
     <row r="67">
@@ -5441,13 +5413,13 @@
         </is>
       </c>
       <c r="D67" s="14" t="n">
-        <v>23.416964</v>
+        <v>27.53817899999999</v>
       </c>
       <c r="E67" s="14" t="n">
-        <v>12.48568</v>
+        <v>21.06518999999999</v>
       </c>
       <c r="F67" s="15" t="n">
-        <v>0.8755056993291515</v>
+        <v>0.3072836751057075</v>
       </c>
     </row>
     <row r="68">
@@ -5465,13 +5437,13 @@
         </is>
       </c>
       <c r="D68" s="5" t="n">
-        <v>12.693543</v>
+        <v>4.237821</v>
       </c>
       <c r="E68" s="5" t="n">
-        <v>6.384106</v>
+        <v>11.460345</v>
       </c>
       <c r="F68" s="6" t="n">
-        <v>0.9883039222719676</v>
+        <v>-0.6302187237818757</v>
       </c>
     </row>
     <row r="69">
@@ -5483,13 +5455,13 @@
         </is>
       </c>
       <c r="D69" s="5" t="n">
-        <v>0.058302</v>
+        <v>0.04717</v>
       </c>
       <c r="E69" s="5" t="n">
-        <v>1.849057</v>
+        <v>1.981133</v>
       </c>
       <c r="F69" s="6" t="n">
-        <v>-0.9684693332871837</v>
+        <v>-0.9761903920635313</v>
       </c>
     </row>
     <row r="70">
@@ -5501,13 +5473,13 @@
         </is>
       </c>
       <c r="D70" s="5" t="n">
-        <v>0.058302</v>
+        <v>0</v>
       </c>
       <c r="E70" s="5" t="n">
-        <v>0.037736</v>
+        <v>0.169812</v>
       </c>
       <c r="F70" s="6" t="n">
-        <v>0.54499682001272</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71">
@@ -5519,13 +5491,13 @@
         </is>
       </c>
       <c r="D71" s="8" t="n">
-        <v>12.751845</v>
+        <v>4.284991000000001</v>
       </c>
       <c r="E71" s="8" t="n">
-        <v>8.233163000000001</v>
+        <v>13.441478</v>
       </c>
       <c r="F71" s="9" t="n">
-        <v>0.5488391278054374</v>
+        <v>-0.6812113221477578</v>
       </c>
     </row>
     <row r="72">
@@ -5543,13 +5515,13 @@
         </is>
       </c>
       <c r="D72" s="5" t="n">
-        <v>8.702376000000001</v>
+        <v>8.252141</v>
       </c>
       <c r="E72" s="5" t="n">
-        <v>3.183997</v>
+        <v>5.152760000000002</v>
       </c>
       <c r="F72" s="6" t="n">
-        <v>1.733160866671671</v>
+        <v>0.6014991965470926</v>
       </c>
     </row>
     <row r="73">
@@ -5561,13 +5533,13 @@
         </is>
       </c>
       <c r="D73" s="5" t="n">
-        <v>0.20868</v>
+        <v>0.264152</v>
       </c>
       <c r="E73" s="5" t="n">
-        <v>1.06852</v>
+        <v>2.470952</v>
       </c>
       <c r="F73" s="6" t="n">
-        <v>-0.8047018305693857</v>
+        <v>-0.8930970735166042</v>
       </c>
     </row>
     <row r="74">
@@ -5579,7 +5551,7 @@
         </is>
       </c>
       <c r="D74" s="5" t="n">
-        <v>0.038868</v>
+        <v>0</v>
       </c>
       <c r="E74" s="5" t="n">
         <v>0</v>
@@ -5599,13 +5571,13 @@
         </is>
       </c>
       <c r="D75" s="8" t="n">
-        <v>8.911056</v>
+        <v>8.516292999999999</v>
       </c>
       <c r="E75" s="8" t="n">
-        <v>4.252517</v>
+        <v>7.623712000000002</v>
       </c>
       <c r="F75" s="9" t="n">
-        <v>1.095478042768554</v>
+        <v>0.1170795801310434</v>
       </c>
     </row>
     <row r="76">
@@ -5623,13 +5595,13 @@
         </is>
       </c>
       <c r="D76" s="11" t="n">
-        <v>8.306221000000001</v>
+        <v>14.180937</v>
       </c>
       <c r="E76" s="11" t="n">
-        <v>4.696279</v>
+        <v>10.797072</v>
       </c>
       <c r="F76" s="12" t="n">
-        <v>0.7686813326039619</v>
+        <v>0.3134058011283056</v>
       </c>
     </row>
     <row r="77">
@@ -5641,13 +5613,13 @@
         </is>
       </c>
       <c r="D77" s="11" t="n">
-        <v>0.07781</v>
+        <v>0.18532</v>
       </c>
       <c r="E77" s="11" t="n">
-        <v>0.018868</v>
+        <v>0.64283</v>
       </c>
       <c r="F77" s="12" t="n">
-        <v>3.123913504345983</v>
+        <v>-0.7117122722959415</v>
       </c>
     </row>
     <row r="78">
@@ -5659,13 +5631,13 @@
         </is>
       </c>
       <c r="D78" s="11" t="n">
-        <v>0.068302</v>
+        <v>0.175812</v>
       </c>
       <c r="E78" s="11" t="n">
         <v>0.018868</v>
       </c>
       <c r="F78" s="12" t="n">
-        <v>2.61999152003392</v>
+        <v>8.317998728005088</v>
       </c>
     </row>
     <row r="79">
@@ -5677,13 +5649,13 @@
         </is>
       </c>
       <c r="D79" s="14" t="n">
-        <v>8.384031</v>
+        <v>14.366257</v>
       </c>
       <c r="E79" s="14" t="n">
-        <v>4.715146999999999</v>
+        <v>11.439902</v>
       </c>
       <c r="F79" s="15" t="n">
-        <v>0.7781059636104668</v>
+        <v>0.2558024535524863</v>
       </c>
     </row>
     <row r="80">
@@ -5701,13 +5673,13 @@
         </is>
       </c>
       <c r="D80" s="5" t="n">
-        <v>8.306221000000001</v>
+        <v>7.962175999999998</v>
       </c>
       <c r="E80" s="5" t="n">
-        <v>4.696279</v>
+        <v>10.797072</v>
       </c>
       <c r="F80" s="6" t="n">
-        <v>0.7686813326039619</v>
+        <v>-0.2625615537249363</v>
       </c>
     </row>
     <row r="81">
@@ -5719,13 +5691,13 @@
         </is>
       </c>
       <c r="D81" s="5" t="n">
-        <v>0.07781</v>
+        <v>0.175812</v>
       </c>
       <c r="E81" s="5" t="n">
-        <v>0.018868</v>
+        <v>0.586321</v>
       </c>
       <c r="F81" s="6" t="n">
-        <v>3.123913504345983</v>
+        <v>-0.7001437778964084</v>
       </c>
     </row>
     <row r="82">
@@ -5737,13 +5709,13 @@
         </is>
       </c>
       <c r="D82" s="5" t="n">
-        <v>0.068302</v>
+        <v>0.175812</v>
       </c>
       <c r="E82" s="5" t="n">
         <v>0.018868</v>
       </c>
       <c r="F82" s="6" t="n">
-        <v>2.61999152003392</v>
+        <v>8.317998728005088</v>
       </c>
     </row>
     <row r="83">
@@ -5755,13 +5727,13 @@
         </is>
       </c>
       <c r="D83" s="8" t="n">
-        <v>8.384031</v>
+        <v>8.137987999999998</v>
       </c>
       <c r="E83" s="8" t="n">
-        <v>4.715146999999999</v>
+        <v>11.383393</v>
       </c>
       <c r="F83" s="9" t="n">
-        <v>0.7781059636104668</v>
+        <v>-0.2850999697541852</v>
       </c>
     </row>
   </sheetData>

--- a/2020年机构数据统计表.xlsx
+++ b/2020年机构数据统计表.xlsx
@@ -7,8 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="内部团队数据统计表" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="三级机构数据统计表" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="四级机构数据统计表" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="内部团队数据统计表" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -481,19 +482,4276 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col width="5" customWidth="1" min="1" max="1"/>
+    <col width="11" customWidth="1" min="2" max="2"/>
+    <col width="9" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="10" customWidth="1" min="5" max="5"/>
+    <col width="10" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>2020年三级机构数据统计表</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="n"/>
+      <c r="C1" s="1" t="n"/>
+      <c r="D1" s="1" t="n"/>
+      <c r="E1" s="1" t="n"/>
+      <c r="F1" s="1" t="n"/>
+      <c r="G1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>数据统计范围：2020-01-01至2020-01-09</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="2" t="n"/>
+      <c r="D2" s="2" t="n"/>
+      <c r="E2" s="2" t="n"/>
+      <c r="F2" s="2" t="n"/>
+      <c r="G2" s="2" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>序号</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>机构</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>险种</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>计划任务</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>累计保费</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>时间进度
+达成率</t>
+        </is>
+      </c>
+      <c r="G3" s="3" t="inlineStr">
+        <is>
+          <t>同比增长率</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="inlineStr"/>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>分公司整体</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>车险</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>21670</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>1253.317555</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>2.352018792647284</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.9708542974525438</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="n"/>
+      <c r="B5" s="4" t="n"/>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>人身险</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>2800</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>95.92549999999989</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>1.393203690476189</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>0.3521169650559808</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="n"/>
+      <c r="B6" s="4" t="n"/>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>财产险</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>1900</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>34.559559</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0.7396958242105263</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>-0.3043654403374643</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="n"/>
+      <c r="B7" s="4" t="n"/>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>驾意险</t>
+        </is>
+      </c>
+      <c r="D7" s="4" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>18.72416799999994</v>
+      </c>
+      <c r="F7" s="6" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>5.421048119363737</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="n"/>
+      <c r="B8" s="7" t="n"/>
+      <c r="C8" s="7" t="inlineStr">
+        <is>
+          <t>整体</t>
+        </is>
+      </c>
+      <c r="D8" s="7" t="n">
+        <v>26370</v>
+      </c>
+      <c r="E8" s="8" t="n">
+        <v>1383.802613999998</v>
+      </c>
+      <c r="F8" s="9" t="n">
+        <v>2.134040183390213</v>
+      </c>
+      <c r="G8" s="9" t="n">
+        <v>0.8290928237648014</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" s="10" t="inlineStr">
+        <is>
+          <t>昆明</t>
+        </is>
+      </c>
+      <c r="C9" s="10" t="inlineStr">
+        <is>
+          <t>车险</t>
+        </is>
+      </c>
+      <c r="D9" s="10" t="n">
+        <v>4900</v>
+      </c>
+      <c r="E9" s="11" t="n">
+        <v>290.01134</v>
+      </c>
+      <c r="F9" s="12" t="n">
+        <v>2.40689683537415</v>
+      </c>
+      <c r="G9" s="12" t="n">
+        <v>1.416759837448757</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="10" t="n"/>
+      <c r="B10" s="10" t="n"/>
+      <c r="C10" s="10" t="inlineStr">
+        <is>
+          <t>人身险</t>
+        </is>
+      </c>
+      <c r="D10" s="10" t="n">
+        <v>1510</v>
+      </c>
+      <c r="E10" s="11" t="n">
+        <v>45.06245200000001</v>
+      </c>
+      <c r="F10" s="12" t="n">
+        <v>1.21360246004415</v>
+      </c>
+      <c r="G10" s="12" t="n">
+        <v>0.8766947847382465</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="10" t="n"/>
+      <c r="B11" s="10" t="n"/>
+      <c r="C11" s="10" t="inlineStr">
+        <is>
+          <t>财产险</t>
+        </is>
+      </c>
+      <c r="D11" s="10" t="n">
+        <v>1060</v>
+      </c>
+      <c r="E11" s="11" t="n">
+        <v>5.352829</v>
+      </c>
+      <c r="F11" s="12" t="n">
+        <v>0.2053601062893081</v>
+      </c>
+      <c r="G11" s="12" t="n">
+        <v>-0.877502704500813</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="10" t="n"/>
+      <c r="B12" s="10" t="n"/>
+      <c r="C12" s="10" t="inlineStr">
+        <is>
+          <t>驾意险</t>
+        </is>
+      </c>
+      <c r="D12" s="10" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+      <c r="E12" s="11" t="n">
+        <v>2.631880000000001</v>
+      </c>
+      <c r="F12" s="12" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+      <c r="G12" s="12" t="n">
+        <v>7.181137142874908</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="13" t="n"/>
+      <c r="B13" s="13" t="n"/>
+      <c r="C13" s="13" t="inlineStr">
+        <is>
+          <t>整体</t>
+        </is>
+      </c>
+      <c r="D13" s="13" t="n">
+        <v>7470</v>
+      </c>
+      <c r="E13" s="14" t="n">
+        <v>340.4266210000003</v>
+      </c>
+      <c r="F13" s="15" t="n">
+        <v>1.853281917090586</v>
+      </c>
+      <c r="G13" s="15" t="n">
+        <v>0.8135851872320095</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B14" s="4" t="inlineStr">
+        <is>
+          <t>曲靖</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="inlineStr">
+        <is>
+          <t>车险</t>
+        </is>
+      </c>
+      <c r="D14" s="4" t="n">
+        <v>5800</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>311.088093</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>2.181192376206897</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>0.9697809910378508</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="n"/>
+      <c r="B15" s="4" t="n"/>
+      <c r="C15" s="4" t="inlineStr">
+        <is>
+          <t>人身险</t>
+        </is>
+      </c>
+      <c r="D15" s="4" t="n">
+        <v>300</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>9.978245999999997</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>1.35260668</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>1.773327352121342</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="n"/>
+      <c r="B16" s="4" t="n"/>
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t>财产险</t>
+        </is>
+      </c>
+      <c r="D16" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>4.001686</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>0.8136761533333334</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>8.426289208619538</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="4" t="n"/>
+      <c r="B17" s="4" t="n"/>
+      <c r="C17" s="4" t="inlineStr">
+        <is>
+          <t>驾意险</t>
+        </is>
+      </c>
+      <c r="D17" s="4" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>5.511799999999996</v>
+      </c>
+      <c r="F17" s="6" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+      <c r="G17" s="6" t="n">
+        <v>17.37266666666666</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="7" t="n"/>
+      <c r="B18" s="7" t="n"/>
+      <c r="C18" s="7" t="inlineStr">
+        <is>
+          <t>整体</t>
+        </is>
+      </c>
+      <c r="D18" s="7" t="n">
+        <v>6300</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>325.0680249999999</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>2.0983227010582</v>
+      </c>
+      <c r="G18" s="9" t="n">
+        <v>1.007178149093755</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B19" s="10" t="inlineStr">
+        <is>
+          <t>文山</t>
+        </is>
+      </c>
+      <c r="C19" s="10" t="inlineStr">
+        <is>
+          <t>车险</t>
+        </is>
+      </c>
+      <c r="D19" s="10" t="n">
+        <v>3460</v>
+      </c>
+      <c r="E19" s="11" t="n">
+        <v>253.5423620000001</v>
+      </c>
+      <c r="F19" s="12" t="n">
+        <v>2.979977665125242</v>
+      </c>
+      <c r="G19" s="12" t="n">
+        <v>1.386361325697678</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="10" t="n"/>
+      <c r="B20" s="10" t="n"/>
+      <c r="C20" s="10" t="inlineStr">
+        <is>
+          <t>人身险</t>
+        </is>
+      </c>
+      <c r="D20" s="10" t="n">
+        <v>170</v>
+      </c>
+      <c r="E20" s="11" t="n">
+        <v>5.283435999999998</v>
+      </c>
+      <c r="F20" s="12" t="n">
+        <v>1.263880768627451</v>
+      </c>
+      <c r="G20" s="12" t="n">
+        <v>2.836656030742998</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="10" t="n"/>
+      <c r="B21" s="10" t="n"/>
+      <c r="C21" s="10" t="inlineStr">
+        <is>
+          <t>财产险</t>
+        </is>
+      </c>
+      <c r="D21" s="10" t="n">
+        <v>70</v>
+      </c>
+      <c r="E21" s="11" t="n">
+        <v>1.684859</v>
+      </c>
+      <c r="F21" s="12" t="n">
+        <v>0.9788228476190477</v>
+      </c>
+      <c r="G21" s="12" t="n">
+        <v>3.960953878406709</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="10" t="n"/>
+      <c r="B22" s="10" t="n"/>
+      <c r="C22" s="10" t="inlineStr">
+        <is>
+          <t>驾意险</t>
+        </is>
+      </c>
+      <c r="D22" s="10" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+      <c r="E22" s="11" t="n">
+        <v>2.336407</v>
+      </c>
+      <c r="F22" s="12" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+      <c r="G22" s="12" t="n">
+        <v>12.38692710094024</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="13" t="n"/>
+      <c r="B23" s="13" t="n"/>
+      <c r="C23" s="13" t="inlineStr">
+        <is>
+          <t>整体</t>
+        </is>
+      </c>
+      <c r="D23" s="13" t="n">
+        <v>3700</v>
+      </c>
+      <c r="E23" s="14" t="n">
+        <v>260.5106570000001</v>
+      </c>
+      <c r="F23" s="15" t="n">
+        <v>2.863270284144145</v>
+      </c>
+      <c r="G23" s="15" t="n">
+        <v>1.412959157617717</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B24" s="4" t="inlineStr">
+        <is>
+          <t>大理</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="inlineStr">
+        <is>
+          <t>车险</t>
+        </is>
+      </c>
+      <c r="D24" s="4" t="n">
+        <v>3220</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>195.3632349999999</v>
+      </c>
+      <c r="F24" s="6" t="n">
+        <v>2.46732035921325</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>0.5484816127352834</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="4" t="n"/>
+      <c r="B25" s="4" t="n"/>
+      <c r="C25" s="4" t="inlineStr">
+        <is>
+          <t>人身险</t>
+        </is>
+      </c>
+      <c r="D25" s="4" t="n">
+        <v>130</v>
+      </c>
+      <c r="E25" s="5" t="n">
+        <v>10.82676299999999</v>
+      </c>
+      <c r="F25" s="6" t="n">
+        <v>3.386833553846152</v>
+      </c>
+      <c r="G25" s="6" t="n">
+        <v>0.3008270831711322</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="4" t="n"/>
+      <c r="B26" s="4" t="n"/>
+      <c r="C26" s="4" t="inlineStr">
+        <is>
+          <t>财产险</t>
+        </is>
+      </c>
+      <c r="D26" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="E26" s="5" t="n">
+        <v>1.627344</v>
+      </c>
+      <c r="F26" s="6" t="n">
+        <v>1.32357312</v>
+      </c>
+      <c r="G26" s="6" t="n">
+        <v>0.002907632442719299</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="4" t="n"/>
+      <c r="B27" s="4" t="n"/>
+      <c r="C27" s="4" t="inlineStr">
+        <is>
+          <t>驾意险</t>
+        </is>
+      </c>
+      <c r="D27" s="4" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+      <c r="E27" s="5" t="n">
+        <v>3.736040999999999</v>
+      </c>
+      <c r="F27" s="6" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+      <c r="G27" s="6" t="n">
+        <v>4.123106795583971</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="7" t="n"/>
+      <c r="B28" s="7" t="n"/>
+      <c r="C28" s="7" t="inlineStr">
+        <is>
+          <t>整体</t>
+        </is>
+      </c>
+      <c r="D28" s="7" t="n">
+        <v>3400</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>207.8173420000001</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>2.485658404313726</v>
+      </c>
+      <c r="G28" s="9" t="n">
+        <v>0.5268337745475542</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="B29" s="10" t="inlineStr">
+        <is>
+          <t>版纳</t>
+        </is>
+      </c>
+      <c r="C29" s="10" t="inlineStr">
+        <is>
+          <t>车险</t>
+        </is>
+      </c>
+      <c r="D29" s="10" t="n">
+        <v>1800</v>
+      </c>
+      <c r="E29" s="11" t="n">
+        <v>90.03727299999996</v>
+      </c>
+      <c r="F29" s="12" t="n">
+        <v>2.034175427037036</v>
+      </c>
+      <c r="G29" s="12" t="n">
+        <v>1.082918659030764</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="10" t="n"/>
+      <c r="B30" s="10" t="n"/>
+      <c r="C30" s="10" t="inlineStr">
+        <is>
+          <t>人身险</t>
+        </is>
+      </c>
+      <c r="D30" s="10" t="n">
+        <v>150</v>
+      </c>
+      <c r="E30" s="11" t="n">
+        <v>2.980673</v>
+      </c>
+      <c r="F30" s="12" t="n">
+        <v>0.8080935688888889</v>
+      </c>
+      <c r="G30" s="12" t="n">
+        <v>2.931228271019408</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="10" t="n"/>
+      <c r="B31" s="10" t="n"/>
+      <c r="C31" s="10" t="inlineStr">
+        <is>
+          <t>财产险</t>
+        </is>
+      </c>
+      <c r="D31" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="E31" s="11" t="n">
+        <v>0.6518869999999999</v>
+      </c>
+      <c r="F31" s="12" t="n">
+        <v>0.5302014266666666</v>
+      </c>
+      <c r="G31" s="12" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="10" t="n"/>
+      <c r="B32" s="10" t="n"/>
+      <c r="C32" s="10" t="inlineStr">
+        <is>
+          <t>驾意险</t>
+        </is>
+      </c>
+      <c r="D32" s="10" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+      <c r="E32" s="11" t="n">
+        <v>2.674096</v>
+      </c>
+      <c r="F32" s="12" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+      <c r="G32" s="12" t="n">
+        <v>2.543144248758487</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="13" t="n"/>
+      <c r="B33" s="13" t="n"/>
+      <c r="C33" s="13" t="inlineStr">
+        <is>
+          <t>整体</t>
+        </is>
+      </c>
+      <c r="D33" s="13" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E33" s="14" t="n">
+        <v>93.66983300000001</v>
+      </c>
+      <c r="F33" s="15" t="n">
+        <v>1.904619937666667</v>
+      </c>
+      <c r="G33" s="15" t="n">
+        <v>1.12960040945148</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="B34" s="4" t="inlineStr">
+        <is>
+          <t>保山</t>
+        </is>
+      </c>
+      <c r="C34" s="4" t="inlineStr">
+        <is>
+          <t>车险</t>
+        </is>
+      </c>
+      <c r="D34" s="4" t="n">
+        <v>1450</v>
+      </c>
+      <c r="E34" s="5" t="n">
+        <v>58.34596800000001</v>
+      </c>
+      <c r="F34" s="6" t="n">
+        <v>1.63636967724138</v>
+      </c>
+      <c r="G34" s="6" t="n">
+        <v>0.3545142463306681</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="4" t="n"/>
+      <c r="B35" s="4" t="n"/>
+      <c r="C35" s="4" t="inlineStr">
+        <is>
+          <t>人身险</t>
+        </is>
+      </c>
+      <c r="D35" s="4" t="n">
+        <v>280</v>
+      </c>
+      <c r="E35" s="5" t="n">
+        <v>19.82306699999999</v>
+      </c>
+      <c r="F35" s="6" t="n">
+        <v>2.879064492857142</v>
+      </c>
+      <c r="G35" s="6" t="n">
+        <v>-0.3644675023192384</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="4" t="n"/>
+      <c r="B36" s="4" t="n"/>
+      <c r="C36" s="4" t="inlineStr">
+        <is>
+          <t>财产险</t>
+        </is>
+      </c>
+      <c r="D36" s="4" t="n">
+        <v>120</v>
+      </c>
+      <c r="E36" s="5" t="n">
+        <v>4.189621</v>
+      </c>
+      <c r="F36" s="6" t="n">
+        <v>1.419816005555555</v>
+      </c>
+      <c r="G36" s="6" t="n">
+        <v>0.5308505246834525</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="4" t="n"/>
+      <c r="B37" s="4" t="n"/>
+      <c r="C37" s="4" t="inlineStr">
+        <is>
+          <t>驾意险</t>
+        </is>
+      </c>
+      <c r="D37" s="4" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+      <c r="E37" s="5" t="n">
+        <v>0.7870380000000001</v>
+      </c>
+      <c r="F37" s="6" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+      <c r="G37" s="6" t="n">
+        <v>1.10670042934998</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="7" t="n"/>
+      <c r="B38" s="7" t="n"/>
+      <c r="C38" s="7" t="inlineStr">
+        <is>
+          <t>整体</t>
+        </is>
+      </c>
+      <c r="D38" s="7" t="n">
+        <v>1850</v>
+      </c>
+      <c r="E38" s="8" t="n">
+        <v>82.35865600000007</v>
+      </c>
+      <c r="F38" s="9" t="n">
+        <v>1.810406492252254</v>
+      </c>
+      <c r="G38" s="9" t="n">
+        <v>0.06954762513827095</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="B39" s="10" t="inlineStr">
+        <is>
+          <t>怒江</t>
+        </is>
+      </c>
+      <c r="C39" s="10" t="inlineStr">
+        <is>
+          <t>车险</t>
+        </is>
+      </c>
+      <c r="D39" s="10" t="n">
+        <v>590</v>
+      </c>
+      <c r="E39" s="11" t="n">
+        <v>31.728108</v>
+      </c>
+      <c r="F39" s="12" t="n">
+        <v>2.18690913898305</v>
+      </c>
+      <c r="G39" s="12" t="n">
+        <v>0.4240254190903585</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="10" t="n"/>
+      <c r="B40" s="10" t="n"/>
+      <c r="C40" s="10" t="inlineStr">
+        <is>
+          <t>人身险</t>
+        </is>
+      </c>
+      <c r="D40" s="10" t="n">
+        <v>110</v>
+      </c>
+      <c r="E40" s="11" t="n">
+        <v>1.026833</v>
+      </c>
+      <c r="F40" s="12" t="n">
+        <v>0.3796170484848485</v>
+      </c>
+      <c r="G40" s="12" t="n">
+        <v>-0.3438049780519149</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="10" t="n"/>
+      <c r="B41" s="10" t="n"/>
+      <c r="C41" s="10" t="inlineStr">
+        <is>
+          <t>财产险</t>
+        </is>
+      </c>
+      <c r="D41" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="E41" s="11" t="n">
+        <v>14.510388</v>
+      </c>
+      <c r="F41" s="12" t="n">
+        <v>11.80178224</v>
+      </c>
+      <c r="G41" s="12" t="n">
+        <v>15.88178991052076</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="10" t="n"/>
+      <c r="B42" s="10" t="n"/>
+      <c r="C42" s="10" t="inlineStr">
+        <is>
+          <t>驾意险</t>
+        </is>
+      </c>
+      <c r="D42" s="10" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+      <c r="E42" s="11" t="n">
+        <v>0.9544140000000001</v>
+      </c>
+      <c r="F42" s="12" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+      <c r="G42" s="12" t="n">
+        <v>5.744498622005511</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="13" t="n"/>
+      <c r="B43" s="13" t="n"/>
+      <c r="C43" s="13" t="inlineStr">
+        <is>
+          <t>整体</t>
+        </is>
+      </c>
+      <c r="D43" s="13" t="n">
+        <v>750</v>
+      </c>
+      <c r="E43" s="14" t="n">
+        <v>47.26532899999999</v>
+      </c>
+      <c r="F43" s="15" t="n">
+        <v>2.562831172444445</v>
+      </c>
+      <c r="G43" s="15" t="n">
+        <v>0.9131938213964135</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="B44" s="4" t="inlineStr">
+        <is>
+          <t>昭通</t>
+        </is>
+      </c>
+      <c r="C44" s="4" t="inlineStr">
+        <is>
+          <t>车险</t>
+        </is>
+      </c>
+      <c r="D44" s="4" t="n">
+        <v>450</v>
+      </c>
+      <c r="E44" s="5" t="n">
+        <v>23.20117600000001</v>
+      </c>
+      <c r="F44" s="6" t="n">
+        <v>2.096698868148149</v>
+      </c>
+      <c r="G44" s="6" t="n">
+        <v>0.3645672432592479</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="4" t="n"/>
+      <c r="B45" s="4" t="n"/>
+      <c r="C45" s="4" t="inlineStr">
+        <is>
+          <t>人身险</t>
+        </is>
+      </c>
+      <c r="D45" s="4" t="n">
+        <v>150</v>
+      </c>
+      <c r="E45" s="5" t="n">
+        <v>0.9440299999999999</v>
+      </c>
+      <c r="F45" s="6" t="n">
+        <v>0.2559370222222222</v>
+      </c>
+      <c r="G45" s="6" t="n">
+        <v>6.817665374805391</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="4" t="n"/>
+      <c r="B46" s="4" t="n"/>
+      <c r="C46" s="4" t="inlineStr">
+        <is>
+          <t>财产险</t>
+        </is>
+      </c>
+      <c r="D46" s="4" t="n">
+        <v>300</v>
+      </c>
+      <c r="E46" s="5" t="n">
+        <v>2.540945</v>
+      </c>
+      <c r="F46" s="6" t="n">
+        <v>0.3444392111111111</v>
+      </c>
+      <c r="G46" s="6" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="4" t="n"/>
+      <c r="B47" s="4" t="n"/>
+      <c r="C47" s="4" t="inlineStr">
+        <is>
+          <t>驾意险</t>
+        </is>
+      </c>
+      <c r="D47" s="4" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+      <c r="E47" s="5" t="n">
+        <v>0.092492</v>
+      </c>
+      <c r="F47" s="6" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+      <c r="G47" s="6" t="n">
+        <v>-0.2340587631256419</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="7" t="n"/>
+      <c r="B48" s="7" t="n"/>
+      <c r="C48" s="7" t="inlineStr">
+        <is>
+          <t>整体</t>
+        </is>
+      </c>
+      <c r="D48" s="7" t="n">
+        <v>900</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>26.68615100000001</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>1.205818674814815</v>
+      </c>
+      <c r="G48" s="9" t="n">
+        <v>0.5584660006558304</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="A44:A48"/>
+    <mergeCell ref="B44:B48"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G127"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="5" customWidth="1" min="1" max="1"/>
+    <col width="11" customWidth="1" min="2" max="2"/>
+    <col width="9" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="10" customWidth="1" min="5" max="5"/>
+    <col width="10" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>2020年四级机构数据统计表</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="n"/>
+      <c r="C1" s="1" t="n"/>
+      <c r="D1" s="1" t="n"/>
+      <c r="E1" s="1" t="n"/>
+      <c r="F1" s="1" t="n"/>
+      <c r="G1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>数据统计范围：2020-01-01至2020-01-09</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="2" t="n"/>
+      <c r="D2" s="2" t="n"/>
+      <c r="E2" s="2" t="n"/>
+      <c r="F2" s="2" t="n"/>
+      <c r="G2" s="2" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>序号</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>机构</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>险种</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>计划任务</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>累计保费</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>时间进度
+达成率</t>
+        </is>
+      </c>
+      <c r="G3" s="3" t="inlineStr">
+        <is>
+          <t>同比增长率</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="10" t="inlineStr"/>
+      <c r="B4" s="10" t="inlineStr">
+        <is>
+          <t>分公司整体</t>
+        </is>
+      </c>
+      <c r="C4" s="10" t="inlineStr">
+        <is>
+          <t>车险</t>
+        </is>
+      </c>
+      <c r="D4" s="10" t="n">
+        <v>21670</v>
+      </c>
+      <c r="E4" s="11" t="n">
+        <v>1253.317555</v>
+      </c>
+      <c r="F4" s="12" t="n">
+        <v>2.352018792647284</v>
+      </c>
+      <c r="G4" s="12" t="n">
+        <v>0.9708542974525438</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="10" t="n"/>
+      <c r="B5" s="10" t="n"/>
+      <c r="C5" s="10" t="inlineStr">
+        <is>
+          <t>非车险</t>
+        </is>
+      </c>
+      <c r="D5" s="10" t="n">
+        <v>4700</v>
+      </c>
+      <c r="E5" s="11" t="n">
+        <v>130.4850590000001</v>
+      </c>
+      <c r="F5" s="12" t="n">
+        <v>1.129019659432625</v>
+      </c>
+      <c r="G5" s="12" t="n">
+        <v>0.08173873142699017</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="10" t="n"/>
+      <c r="B6" s="10" t="n"/>
+      <c r="C6" s="10" t="inlineStr">
+        <is>
+          <t>驾意险</t>
+        </is>
+      </c>
+      <c r="D6" s="10" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+      <c r="E6" s="11" t="n">
+        <v>18.72416799999994</v>
+      </c>
+      <c r="F6" s="12" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+      <c r="G6" s="12" t="n">
+        <v>5.421048119363737</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="13" t="n"/>
+      <c r="B7" s="13" t="n"/>
+      <c r="C7" s="13" t="inlineStr">
+        <is>
+          <t>整体</t>
+        </is>
+      </c>
+      <c r="D7" s="13" t="n">
+        <v>26370</v>
+      </c>
+      <c r="E7" s="14" t="n">
+        <v>1383.802613999998</v>
+      </c>
+      <c r="F7" s="15" t="n">
+        <v>2.134040183390213</v>
+      </c>
+      <c r="G7" s="15" t="n">
+        <v>0.8290928237648014</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>丘北</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>车险</t>
+        </is>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>800</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>68.10823699999999</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>3.462168714166666</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>1.105089589937342</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="n"/>
+      <c r="B9" s="4" t="n"/>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>非车险</t>
+        </is>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>45</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>2.328345</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>2.104134</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>24.37014437482975</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="n"/>
+      <c r="B10" s="4" t="n"/>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>驾意险</t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.386058</v>
+      </c>
+      <c r="F10" s="6" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+      <c r="G10" s="6" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="7" t="n"/>
+      <c r="B11" s="7" t="n"/>
+      <c r="C11" s="7" t="inlineStr">
+        <is>
+          <t>整体</t>
+        </is>
+      </c>
+      <c r="D11" s="7" t="n">
+        <v>845</v>
+      </c>
+      <c r="E11" s="8" t="n">
+        <v>70.436582</v>
+      </c>
+      <c r="F11" s="9" t="n">
+        <v>3.389847338856016</v>
+      </c>
+      <c r="G11" s="9" t="n">
+        <v>1.170896159154998</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B12" s="10" t="inlineStr">
+        <is>
+          <t>百大国际</t>
+        </is>
+      </c>
+      <c r="C12" s="10" t="inlineStr">
+        <is>
+          <t>车险</t>
+        </is>
+      </c>
+      <c r="D12" s="10" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E12" s="11" t="n">
+        <v>68.008498</v>
+      </c>
+      <c r="F12" s="12" t="n">
+        <v>2.304732432222222</v>
+      </c>
+      <c r="G12" s="12" t="n">
+        <v>1.469578970153747</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="10" t="n"/>
+      <c r="B13" s="10" t="n"/>
+      <c r="C13" s="10" t="inlineStr">
+        <is>
+          <t>非车险</t>
+        </is>
+      </c>
+      <c r="D13" s="10" t="n">
+        <v>30</v>
+      </c>
+      <c r="E13" s="11" t="n">
+        <v>0.139921</v>
+      </c>
+      <c r="F13" s="12" t="n">
+        <v>0.1896706888888889</v>
+      </c>
+      <c r="G13" s="12" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="10" t="n"/>
+      <c r="B14" s="10" t="n"/>
+      <c r="C14" s="10" t="inlineStr">
+        <is>
+          <t>驾意险</t>
+        </is>
+      </c>
+      <c r="D14" s="10" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+      <c r="E14" s="11" t="n">
+        <v>0.131434</v>
+      </c>
+      <c r="F14" s="12" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+      <c r="G14" s="12" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="13" t="n"/>
+      <c r="B15" s="13" t="n"/>
+      <c r="C15" s="13" t="inlineStr">
+        <is>
+          <t>整体</t>
+        </is>
+      </c>
+      <c r="D15" s="13" t="n">
+        <v>1230</v>
+      </c>
+      <c r="E15" s="14" t="n">
+        <v>68.148419</v>
+      </c>
+      <c r="F15" s="15" t="n">
+        <v>2.253145560433604</v>
+      </c>
+      <c r="G15" s="15" t="n">
+        <v>1.474659893409586</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>宜良</t>
+        </is>
+      </c>
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t>车险</t>
+        </is>
+      </c>
+      <c r="D16" s="4" t="n">
+        <v>850</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>56.47469299999999</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>2.701926488627451</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>0.800204059299729</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="4" t="n"/>
+      <c r="B17" s="4" t="n"/>
+      <c r="C17" s="4" t="inlineStr">
+        <is>
+          <t>非车险</t>
+        </is>
+      </c>
+      <c r="D17" s="4" t="n">
+        <v>70</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>1.453668</v>
+      </c>
+      <c r="F17" s="6" t="n">
+        <v>0.8445118857142858</v>
+      </c>
+      <c r="G17" s="6" t="n">
+        <v>12.82339292506656</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="4" t="n"/>
+      <c r="B18" s="4" t="n"/>
+      <c r="C18" s="4" t="inlineStr">
+        <is>
+          <t>驾意险</t>
+        </is>
+      </c>
+      <c r="D18" s="4" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>1.453668</v>
+      </c>
+      <c r="F18" s="6" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>37.52204791180836</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="7" t="n"/>
+      <c r="B19" s="7" t="n"/>
+      <c r="C19" s="7" t="inlineStr">
+        <is>
+          <t>整体</t>
+        </is>
+      </c>
+      <c r="D19" s="7" t="n">
+        <v>920</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>57.92836100000002</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>2.560601464492755</v>
+      </c>
+      <c r="G19" s="9" t="n">
+        <v>0.8403724780377761</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="B20" s="10" t="inlineStr">
+        <is>
+          <t>祥云</t>
+        </is>
+      </c>
+      <c r="C20" s="10" t="inlineStr">
+        <is>
+          <t>车险</t>
+        </is>
+      </c>
+      <c r="D20" s="10" t="n">
+        <v>600</v>
+      </c>
+      <c r="E20" s="11" t="n">
+        <v>53.90599700000001</v>
+      </c>
+      <c r="F20" s="12" t="n">
+        <v>3.653628685555556</v>
+      </c>
+      <c r="G20" s="12" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="10" t="n"/>
+      <c r="B21" s="10" t="n"/>
+      <c r="C21" s="10" t="inlineStr">
+        <is>
+          <t>非车险</t>
+        </is>
+      </c>
+      <c r="D21" s="10" t="n">
+        <v>15</v>
+      </c>
+      <c r="E21" s="11" t="n">
+        <v>2.185306000000001</v>
+      </c>
+      <c r="F21" s="12" t="n">
+        <v>5.924607377777779</v>
+      </c>
+      <c r="G21" s="12" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="10" t="n"/>
+      <c r="B22" s="10" t="n"/>
+      <c r="C22" s="10" t="inlineStr">
+        <is>
+          <t>驾意险</t>
+        </is>
+      </c>
+      <c r="D22" s="10" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+      <c r="E22" s="11" t="n">
+        <v>0.240982</v>
+      </c>
+      <c r="F22" s="12" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+      <c r="G22" s="12" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="13" t="n"/>
+      <c r="B23" s="13" t="n"/>
+      <c r="C23" s="13" t="inlineStr">
+        <is>
+          <t>整体</t>
+        </is>
+      </c>
+      <c r="D23" s="13" t="n">
+        <v>615</v>
+      </c>
+      <c r="E23" s="14" t="n">
+        <v>56.091303</v>
+      </c>
+      <c r="F23" s="15" t="n">
+        <v>3.709018409756098</v>
+      </c>
+      <c r="G23" s="15" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B24" s="4" t="inlineStr">
+        <is>
+          <t>春怡雅苑</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="inlineStr">
+        <is>
+          <t>车险</t>
+        </is>
+      </c>
+      <c r="D24" s="4" t="n">
+        <v>950</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>50.76822</v>
+      </c>
+      <c r="F24" s="6" t="n">
+        <v>2.173236084210526</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>1.653845864329933</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="4" t="n"/>
+      <c r="B25" s="4" t="n"/>
+      <c r="C25" s="4" t="inlineStr">
+        <is>
+          <t>非车险</t>
+        </is>
+      </c>
+      <c r="D25" s="4" t="n">
+        <v>150</v>
+      </c>
+      <c r="E25" s="5" t="n">
+        <v>4.579656</v>
+      </c>
+      <c r="F25" s="6" t="n">
+        <v>1.241595626666667</v>
+      </c>
+      <c r="G25" s="6" t="n">
+        <v>1.983631143370336</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="4" t="n"/>
+      <c r="B26" s="4" t="n"/>
+      <c r="C26" s="4" t="inlineStr">
+        <is>
+          <t>驾意险</t>
+        </is>
+      </c>
+      <c r="D26" s="4" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+      <c r="E26" s="5" t="n">
+        <v>0.340926</v>
+      </c>
+      <c r="F26" s="6" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+      <c r="G26" s="6" t="n">
+        <v>3.950355021853083</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="7" t="n"/>
+      <c r="B27" s="7" t="n"/>
+      <c r="C27" s="7" t="inlineStr">
+        <is>
+          <t>整体</t>
+        </is>
+      </c>
+      <c r="D27" s="7" t="n">
+        <v>1100</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>55.34787600000001</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>2.046194203636364</v>
+      </c>
+      <c r="G27" s="9" t="n">
+        <v>1.678341230670262</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="B28" s="10" t="inlineStr">
+        <is>
+          <t>师宗</t>
+        </is>
+      </c>
+      <c r="C28" s="10" t="inlineStr">
+        <is>
+          <t>车险</t>
+        </is>
+      </c>
+      <c r="D28" s="10" t="n">
+        <v>980</v>
+      </c>
+      <c r="E28" s="11" t="n">
+        <v>51.86073299999999</v>
+      </c>
+      <c r="F28" s="12" t="n">
+        <v>2.152044022448979</v>
+      </c>
+      <c r="G28" s="12" t="n">
+        <v>0.9702377867878766</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="10" t="n"/>
+      <c r="B29" s="10" t="n"/>
+      <c r="C29" s="10" t="inlineStr">
+        <is>
+          <t>非车险</t>
+        </is>
+      </c>
+      <c r="D29" s="10" t="n">
+        <v>30</v>
+      </c>
+      <c r="E29" s="11" t="n">
+        <v>2.229472</v>
+      </c>
+      <c r="F29" s="12" t="n">
+        <v>3.022173155555556</v>
+      </c>
+      <c r="G29" s="12" t="n">
+        <v>2.97945188363683</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="10" t="n"/>
+      <c r="B30" s="10" t="n"/>
+      <c r="C30" s="10" t="inlineStr">
+        <is>
+          <t>驾意险</t>
+        </is>
+      </c>
+      <c r="D30" s="10" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+      <c r="E30" s="11" t="n">
+        <v>2.166209</v>
+      </c>
+      <c r="F30" s="12" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+      <c r="G30" s="12" t="n">
+        <v>18.79429986476114</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="13" t="n"/>
+      <c r="B31" s="13" t="n"/>
+      <c r="C31" s="13" t="inlineStr">
+        <is>
+          <t>整体</t>
+        </is>
+      </c>
+      <c r="D31" s="13" t="n">
+        <v>1010</v>
+      </c>
+      <c r="E31" s="14" t="n">
+        <v>54.09020499999999</v>
+      </c>
+      <c r="F31" s="15" t="n">
+        <v>2.177889442244224</v>
+      </c>
+      <c r="G31" s="15" t="n">
+        <v>1.012111196975082</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="B32" s="4" t="inlineStr">
+        <is>
+          <t>富宁</t>
+        </is>
+      </c>
+      <c r="C32" s="4" t="inlineStr">
+        <is>
+          <t>车险</t>
+        </is>
+      </c>
+      <c r="D32" s="4" t="n">
+        <v>400</v>
+      </c>
+      <c r="E32" s="5" t="n">
+        <v>50.75389000000001</v>
+      </c>
+      <c r="F32" s="6" t="n">
+        <v>5.159978816666668</v>
+      </c>
+      <c r="G32" s="6" t="n">
+        <v>3.38950436218428</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="4" t="n"/>
+      <c r="B33" s="4" t="n"/>
+      <c r="C33" s="4" t="inlineStr">
+        <is>
+          <t>非车险</t>
+        </is>
+      </c>
+      <c r="D33" s="4" t="n">
+        <v>35</v>
+      </c>
+      <c r="E33" s="5" t="n">
+        <v>1.030843</v>
+      </c>
+      <c r="F33" s="6" t="n">
+        <v>1.19774139047619</v>
+      </c>
+      <c r="G33" s="6" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="4" t="n"/>
+      <c r="B34" s="4" t="n"/>
+      <c r="C34" s="4" t="inlineStr">
+        <is>
+          <t>驾意险</t>
+        </is>
+      </c>
+      <c r="D34" s="4" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+      <c r="E34" s="5" t="n">
+        <v>0.108626</v>
+      </c>
+      <c r="F34" s="6" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+      <c r="G34" s="6" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="7" t="n"/>
+      <c r="B35" s="7" t="n"/>
+      <c r="C35" s="7" t="inlineStr">
+        <is>
+          <t>整体</t>
+        </is>
+      </c>
+      <c r="D35" s="7" t="n">
+        <v>435</v>
+      </c>
+      <c r="E35" s="8" t="n">
+        <v>51.784733</v>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>4.841178104214559</v>
+      </c>
+      <c r="G35" s="9" t="n">
+        <v>3.478657919581103</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B36" s="10" t="inlineStr">
+        <is>
+          <t>宣威</t>
+        </is>
+      </c>
+      <c r="C36" s="10" t="inlineStr">
+        <is>
+          <t>车险</t>
+        </is>
+      </c>
+      <c r="D36" s="10" t="n">
+        <v>980</v>
+      </c>
+      <c r="E36" s="11" t="n">
+        <v>49.956402</v>
+      </c>
+      <c r="F36" s="12" t="n">
+        <v>2.073020763265306</v>
+      </c>
+      <c r="G36" s="12" t="n">
+        <v>2.610628675530207</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="10" t="n"/>
+      <c r="B37" s="10" t="n"/>
+      <c r="C37" s="10" t="inlineStr">
+        <is>
+          <t>非车险</t>
+        </is>
+      </c>
+      <c r="D37" s="10" t="n">
+        <v>30</v>
+      </c>
+      <c r="E37" s="11" t="n">
+        <v>1.139159</v>
+      </c>
+      <c r="F37" s="12" t="n">
+        <v>1.544193311111111</v>
+      </c>
+      <c r="G37" s="12" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="10" t="n"/>
+      <c r="B38" s="10" t="n"/>
+      <c r="C38" s="10" t="inlineStr">
+        <is>
+          <t>驾意险</t>
+        </is>
+      </c>
+      <c r="D38" s="10" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+      <c r="E38" s="11" t="n">
+        <v>0.8887630000000001</v>
+      </c>
+      <c r="F38" s="12" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+      <c r="G38" s="12" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="13" t="n"/>
+      <c r="B39" s="13" t="n"/>
+      <c r="C39" s="13" t="inlineStr">
+        <is>
+          <t>整体</t>
+        </is>
+      </c>
+      <c r="D39" s="13" t="n">
+        <v>1010</v>
+      </c>
+      <c r="E39" s="14" t="n">
+        <v>51.095561</v>
+      </c>
+      <c r="F39" s="15" t="n">
+        <v>2.057313017161716</v>
+      </c>
+      <c r="G39" s="15" t="n">
+        <v>2.692962069984604</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="B40" s="4" t="inlineStr">
+        <is>
+          <t>砚山</t>
+        </is>
+      </c>
+      <c r="C40" s="4" t="inlineStr">
+        <is>
+          <t>车险</t>
+        </is>
+      </c>
+      <c r="D40" s="4" t="n">
+        <v>600</v>
+      </c>
+      <c r="E40" s="5" t="n">
+        <v>47.72479399999999</v>
+      </c>
+      <c r="F40" s="6" t="n">
+        <v>3.234680482222222</v>
+      </c>
+      <c r="G40" s="6" t="n">
+        <v>0.993088786025992</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="4" t="n"/>
+      <c r="B41" s="4" t="n"/>
+      <c r="C41" s="4" t="inlineStr">
+        <is>
+          <t>非车险</t>
+        </is>
+      </c>
+      <c r="D41" s="4" t="n">
+        <v>35</v>
+      </c>
+      <c r="E41" s="5" t="n">
+        <v>1.826887</v>
+      </c>
+      <c r="F41" s="6" t="n">
+        <v>2.122668704761905</v>
+      </c>
+      <c r="G41" s="6" t="n">
+        <v>9.350106793421299</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="4" t="n"/>
+      <c r="B42" s="4" t="n"/>
+      <c r="C42" s="4" t="inlineStr">
+        <is>
+          <t>驾意险</t>
+        </is>
+      </c>
+      <c r="D42" s="4" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+      <c r="E42" s="5" t="n">
+        <v>0.2590020000000001</v>
+      </c>
+      <c r="F42" s="6" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+      <c r="G42" s="6" t="n">
+        <v>2.22989437454015</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="7" t="n"/>
+      <c r="B43" s="7" t="n"/>
+      <c r="C43" s="7" t="inlineStr">
+        <is>
+          <t>整体</t>
+        </is>
+      </c>
+      <c r="D43" s="7" t="n">
+        <v>635</v>
+      </c>
+      <c r="E43" s="8" t="n">
+        <v>49.55168099999999</v>
+      </c>
+      <c r="F43" s="9" t="n">
+        <v>3.173388494488189</v>
+      </c>
+      <c r="G43" s="9" t="n">
+        <v>1.054240856067439</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="B44" s="10" t="inlineStr">
+        <is>
+          <t>陆良</t>
+        </is>
+      </c>
+      <c r="C44" s="10" t="inlineStr">
+        <is>
+          <t>车险</t>
+        </is>
+      </c>
+      <c r="D44" s="10" t="n">
+        <v>780</v>
+      </c>
+      <c r="E44" s="11" t="n">
+        <v>46.13462599999998</v>
+      </c>
+      <c r="F44" s="12" t="n">
+        <v>2.405309560683759</v>
+      </c>
+      <c r="G44" s="12" t="n">
+        <v>1.489344107142971</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="10" t="n"/>
+      <c r="B45" s="10" t="n"/>
+      <c r="C45" s="10" t="inlineStr">
+        <is>
+          <t>非车险</t>
+        </is>
+      </c>
+      <c r="D45" s="10" t="n">
+        <v>30</v>
+      </c>
+      <c r="E45" s="11" t="n">
+        <v>0.289484</v>
+      </c>
+      <c r="F45" s="12" t="n">
+        <v>0.3924116444444445</v>
+      </c>
+      <c r="G45" s="12" t="n">
+        <v>3.631077124894016</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="10" t="n"/>
+      <c r="B46" s="10" t="n"/>
+      <c r="C46" s="10" t="inlineStr">
+        <is>
+          <t>驾意险</t>
+        </is>
+      </c>
+      <c r="D46" s="10" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+      <c r="E46" s="11" t="n">
+        <v>0.279852</v>
+      </c>
+      <c r="F46" s="12" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+      <c r="G46" s="12" t="n">
+        <v>58.32838668645326</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="13" t="n"/>
+      <c r="B47" s="13" t="n"/>
+      <c r="C47" s="13" t="inlineStr">
+        <is>
+          <t>整体</t>
+        </is>
+      </c>
+      <c r="D47" s="13" t="n">
+        <v>810</v>
+      </c>
+      <c r="E47" s="14" t="n">
+        <v>46.42410999999999</v>
+      </c>
+      <c r="F47" s="15" t="n">
+        <v>2.33075778600823</v>
+      </c>
+      <c r="G47" s="15" t="n">
+        <v>1.496543625711219</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="B48" s="4" t="inlineStr">
+        <is>
+          <t>沾益</t>
+        </is>
+      </c>
+      <c r="C48" s="4" t="inlineStr">
+        <is>
+          <t>车险</t>
+        </is>
+      </c>
+      <c r="D48" s="4" t="n">
+        <v>780</v>
+      </c>
+      <c r="E48" s="5" t="n">
+        <v>43.459397</v>
+      </c>
+      <c r="F48" s="6" t="n">
+        <v>2.265831809401709</v>
+      </c>
+      <c r="G48" s="6" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="4" t="n"/>
+      <c r="B49" s="4" t="n"/>
+      <c r="C49" s="4" t="inlineStr">
+        <is>
+          <t>非车险</t>
+        </is>
+      </c>
+      <c r="D49" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="E49" s="5" t="n">
+        <v>0.783999</v>
+      </c>
+      <c r="F49" s="6" t="n">
+        <v>1.0627542</v>
+      </c>
+      <c r="G49" s="6" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="4" t="n"/>
+      <c r="B50" s="4" t="n"/>
+      <c r="C50" s="4" t="inlineStr">
+        <is>
+          <t>驾意险</t>
+        </is>
+      </c>
+      <c r="D50" s="4" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+      <c r="E50" s="5" t="n">
+        <v>0.312031</v>
+      </c>
+      <c r="F50" s="6" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+      <c r="G50" s="6" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="7" t="n"/>
+      <c r="B51" s="7" t="n"/>
+      <c r="C51" s="7" t="inlineStr">
+        <is>
+          <t>整体</t>
+        </is>
+      </c>
+      <c r="D51" s="7" t="n">
+        <v>810</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>44.24339600000001</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>2.221273379423869</v>
+      </c>
+      <c r="G51" s="9" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="10" t="n">
+        <v>12</v>
+      </c>
+      <c r="B52" s="10" t="inlineStr">
+        <is>
+          <t>弥渡</t>
+        </is>
+      </c>
+      <c r="C52" s="10" t="inlineStr">
+        <is>
+          <t>车险</t>
+        </is>
+      </c>
+      <c r="D52" s="10" t="n">
+        <v>450</v>
+      </c>
+      <c r="E52" s="11" t="n">
+        <v>34.84417500000001</v>
+      </c>
+      <c r="F52" s="12" t="n">
+        <v>3.148881000000001</v>
+      </c>
+      <c r="G52" s="12" t="n">
+        <v>1.140797394487432</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="10" t="n"/>
+      <c r="B53" s="10" t="n"/>
+      <c r="C53" s="10" t="inlineStr">
+        <is>
+          <t>非车险</t>
+        </is>
+      </c>
+      <c r="D53" s="10" t="n">
+        <v>12</v>
+      </c>
+      <c r="E53" s="11" t="n">
+        <v>1.114337</v>
+      </c>
+      <c r="F53" s="12" t="n">
+        <v>3.776364277777779</v>
+      </c>
+      <c r="G53" s="12" t="n">
+        <v>10.73344494635205</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="10" t="n"/>
+      <c r="B54" s="10" t="n"/>
+      <c r="C54" s="10" t="inlineStr">
+        <is>
+          <t>驾意险</t>
+        </is>
+      </c>
+      <c r="D54" s="10" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+      <c r="E54" s="11" t="n">
+        <v>1.114337</v>
+      </c>
+      <c r="F54" s="12" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+      <c r="G54" s="12" t="n">
+        <v>17.17219223430799</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="13" t="n"/>
+      <c r="B55" s="13" t="n"/>
+      <c r="C55" s="13" t="inlineStr">
+        <is>
+          <t>整体</t>
+        </is>
+      </c>
+      <c r="D55" s="13" t="n">
+        <v>462</v>
+      </c>
+      <c r="E55" s="14" t="n">
+        <v>35.95851200000001</v>
+      </c>
+      <c r="F55" s="15" t="n">
+        <v>3.165179266955268</v>
+      </c>
+      <c r="G55" s="15" t="n">
+        <v>1.19644521539034</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="B56" s="4" t="inlineStr">
+        <is>
+          <t>东川</t>
+        </is>
+      </c>
+      <c r="C56" s="4" t="inlineStr">
+        <is>
+          <t>车险</t>
+        </is>
+      </c>
+      <c r="D56" s="4" t="n">
+        <v>800</v>
+      </c>
+      <c r="E56" s="5" t="n">
+        <v>35.320288</v>
+      </c>
+      <c r="F56" s="6" t="n">
+        <v>1.795447973333333</v>
+      </c>
+      <c r="G56" s="6" t="n">
+        <v>2.036251968346901</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="4" t="n"/>
+      <c r="B57" s="4" t="n"/>
+      <c r="C57" s="4" t="inlineStr">
+        <is>
+          <t>非车险</t>
+        </is>
+      </c>
+      <c r="D57" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="E57" s="5" t="n">
+        <v>0.06726900000000001</v>
+      </c>
+      <c r="F57" s="6" t="n">
+        <v>0.04559343333333334</v>
+      </c>
+      <c r="G57" s="6" t="n">
+        <v>-0.9536456926443917</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="4" t="n"/>
+      <c r="B58" s="4" t="n"/>
+      <c r="C58" s="4" t="inlineStr">
+        <is>
+          <t>驾意险</t>
+        </is>
+      </c>
+      <c r="D58" s="4" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+      <c r="E58" s="5" t="n">
+        <v>0.092736</v>
+      </c>
+      <c r="F58" s="6" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+      <c r="G58" s="6" t="n">
+        <v>-0.01700233199067203</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="7" t="n"/>
+      <c r="B59" s="7" t="n"/>
+      <c r="C59" s="7" t="inlineStr">
+        <is>
+          <t>整体</t>
+        </is>
+      </c>
+      <c r="D59" s="7" t="n">
+        <v>860</v>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>35.38755699999999</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>1.673365098449612</v>
+      </c>
+      <c r="G59" s="9" t="n">
+        <v>1.704633274865198</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="10" t="n">
+        <v>14</v>
+      </c>
+      <c r="B60" s="10" t="inlineStr">
+        <is>
+          <t>施甸</t>
+        </is>
+      </c>
+      <c r="C60" s="10" t="inlineStr">
+        <is>
+          <t>车险</t>
+        </is>
+      </c>
+      <c r="D60" s="10" t="n">
+        <v>370</v>
+      </c>
+      <c r="E60" s="11" t="n">
+        <v>16.750757</v>
+      </c>
+      <c r="F60" s="12" t="n">
+        <v>1.841074192792792</v>
+      </c>
+      <c r="G60" s="12" t="n">
+        <v>0.4718654000819458</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="10" t="n"/>
+      <c r="B61" s="10" t="n"/>
+      <c r="C61" s="10" t="inlineStr">
+        <is>
+          <t>非车险</t>
+        </is>
+      </c>
+      <c r="D61" s="10" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+      <c r="E61" s="11" t="n">
+        <v>17.663452</v>
+      </c>
+      <c r="F61" s="12" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+      <c r="G61" s="12" t="n">
+        <v>-0.3803023568572087</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="10" t="n"/>
+      <c r="B62" s="10" t="n"/>
+      <c r="C62" s="10" t="inlineStr">
+        <is>
+          <t>驾意险</t>
+        </is>
+      </c>
+      <c r="D62" s="10" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+      <c r="E62" s="11" t="n">
+        <v>0.396454</v>
+      </c>
+      <c r="F62" s="12" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+      <c r="G62" s="12" t="n">
+        <v>1.387701758612383</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="13" t="n"/>
+      <c r="B63" s="13" t="n"/>
+      <c r="C63" s="13" t="inlineStr">
+        <is>
+          <t>整体</t>
+        </is>
+      </c>
+      <c r="D63" s="13" t="n">
+        <v>370</v>
+      </c>
+      <c r="E63" s="14" t="n">
+        <v>34.41420900000001</v>
+      </c>
+      <c r="F63" s="15" t="n">
+        <v>3.782462610810811</v>
+      </c>
+      <c r="G63" s="15" t="n">
+        <v>-0.1371418391900298</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="B64" s="4" t="inlineStr">
+        <is>
+          <t>勐腊</t>
+        </is>
+      </c>
+      <c r="C64" s="4" t="inlineStr">
+        <is>
+          <t>车险</t>
+        </is>
+      </c>
+      <c r="D64" s="4" t="n">
+        <v>650</v>
+      </c>
+      <c r="E64" s="5" t="n">
+        <v>29.650821</v>
+      </c>
+      <c r="F64" s="6" t="n">
+        <v>1.855077006153846</v>
+      </c>
+      <c r="G64" s="6" t="n">
+        <v>0.4289449680578201</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="4" t="n"/>
+      <c r="B65" s="4" t="n"/>
+      <c r="C65" s="4" t="inlineStr">
+        <is>
+          <t>非车险</t>
+        </is>
+      </c>
+      <c r="D65" s="4" t="n">
+        <v>45</v>
+      </c>
+      <c r="E65" s="5" t="n">
+        <v>1.294278</v>
+      </c>
+      <c r="F65" s="6" t="n">
+        <v>1.169643822222223</v>
+      </c>
+      <c r="G65" s="6" t="n">
+        <v>1.834549547971128</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="4" t="n"/>
+      <c r="B66" s="4" t="n"/>
+      <c r="C66" s="4" t="inlineStr">
+        <is>
+          <t>驾意险</t>
+        </is>
+      </c>
+      <c r="D66" s="4" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+      <c r="E66" s="5" t="n">
+        <v>1.27541</v>
+      </c>
+      <c r="F66" s="6" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+      <c r="G66" s="6" t="n">
+        <v>1.793227451117809</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="7" t="n"/>
+      <c r="B67" s="7" t="n"/>
+      <c r="C67" s="7" t="inlineStr">
+        <is>
+          <t>整体</t>
+        </is>
+      </c>
+      <c r="D67" s="7" t="n">
+        <v>695</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>30.945099</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>1.81069644028777</v>
+      </c>
+      <c r="G67" s="9" t="n">
+        <v>0.4592093925535152</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="10" t="n">
+        <v>16</v>
+      </c>
+      <c r="B68" s="10" t="inlineStr">
+        <is>
+          <t>罗平</t>
+        </is>
+      </c>
+      <c r="C68" s="10" t="inlineStr">
+        <is>
+          <t>车险</t>
+        </is>
+      </c>
+      <c r="D68" s="10" t="n">
+        <v>440</v>
+      </c>
+      <c r="E68" s="11" t="n">
+        <v>29.608365</v>
+      </c>
+      <c r="F68" s="12" t="n">
+        <v>2.736530704545455</v>
+      </c>
+      <c r="G68" s="12" t="n">
+        <v>2.066201930022323</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="10" t="n"/>
+      <c r="B69" s="10" t="n"/>
+      <c r="C69" s="10" t="inlineStr">
+        <is>
+          <t>非车险</t>
+        </is>
+      </c>
+      <c r="D69" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="E69" s="11" t="n">
+        <v>1.009233</v>
+      </c>
+      <c r="F69" s="12" t="n">
+        <v>2.0521071</v>
+      </c>
+      <c r="G69" s="12" t="n">
+        <v>34.65942336230655</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="10" t="n"/>
+      <c r="B70" s="10" t="n"/>
+      <c r="C70" s="10" t="inlineStr">
+        <is>
+          <t>驾意险</t>
+        </is>
+      </c>
+      <c r="D70" s="10" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+      <c r="E70" s="11" t="n">
+        <v>1.009233</v>
+      </c>
+      <c r="F70" s="12" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+      <c r="G70" s="12" t="n">
+        <v>34.65942336230655</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="13" t="n"/>
+      <c r="B71" s="13" t="n"/>
+      <c r="C71" s="13" t="inlineStr">
+        <is>
+          <t>整体</t>
+        </is>
+      </c>
+      <c r="D71" s="13" t="n">
+        <v>460</v>
+      </c>
+      <c r="E71" s="14" t="n">
+        <v>30.61759800000002</v>
+      </c>
+      <c r="F71" s="15" t="n">
+        <v>2.706773156521741</v>
+      </c>
+      <c r="G71" s="15" t="n">
+        <v>2.16145077574686</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="4" t="n">
+        <v>17</v>
+      </c>
+      <c r="B72" s="4" t="inlineStr">
+        <is>
+          <t>香榭丽园</t>
+        </is>
+      </c>
+      <c r="C72" s="4" t="inlineStr">
+        <is>
+          <t>车险</t>
+        </is>
+      </c>
+      <c r="D72" s="4" t="n">
+        <v>650</v>
+      </c>
+      <c r="E72" s="5" t="n">
+        <v>28.95768100000001</v>
+      </c>
+      <c r="F72" s="6" t="n">
+        <v>1.811711324102565</v>
+      </c>
+      <c r="G72" s="6" t="n">
+        <v>0.9031110734314023</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="4" t="n"/>
+      <c r="B73" s="4" t="n"/>
+      <c r="C73" s="4" t="inlineStr">
+        <is>
+          <t>非车险</t>
+        </is>
+      </c>
+      <c r="D73" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="E73" s="5" t="n">
+        <v>0.273244</v>
+      </c>
+      <c r="F73" s="6" t="n">
+        <v>0.3703974222222222</v>
+      </c>
+      <c r="G73" s="6" t="n">
+        <v>-0.1756748603217128</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="4" t="n"/>
+      <c r="B74" s="4" t="n"/>
+      <c r="C74" s="4" t="inlineStr">
+        <is>
+          <t>驾意险</t>
+        </is>
+      </c>
+      <c r="D74" s="4" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+      <c r="E74" s="5" t="n">
+        <v>0.18268</v>
+      </c>
+      <c r="F74" s="6" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+      <c r="G74" s="6" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="7" t="n"/>
+      <c r="B75" s="7" t="n"/>
+      <c r="C75" s="7" t="inlineStr">
+        <is>
+          <t>整体</t>
+        </is>
+      </c>
+      <c r="D75" s="7" t="n">
+        <v>680</v>
+      </c>
+      <c r="E75" s="8" t="n">
+        <v>29.23092500000001</v>
+      </c>
+      <c r="F75" s="9" t="n">
+        <v>1.748123946078432</v>
+      </c>
+      <c r="G75" s="9" t="n">
+        <v>0.8801110484641668</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="10" t="n">
+        <v>18</v>
+      </c>
+      <c r="B76" s="10" t="inlineStr">
+        <is>
+          <t>云龙</t>
+        </is>
+      </c>
+      <c r="C76" s="10" t="inlineStr">
+        <is>
+          <t>车险</t>
+        </is>
+      </c>
+      <c r="D76" s="10" t="n">
+        <v>550</v>
+      </c>
+      <c r="E76" s="11" t="n">
+        <v>26.567861</v>
+      </c>
+      <c r="F76" s="12" t="n">
+        <v>1.96441154060606</v>
+      </c>
+      <c r="G76" s="12" t="n">
+        <v>0.9575381898040951</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="10" t="n"/>
+      <c r="B77" s="10" t="n"/>
+      <c r="C77" s="10" t="inlineStr">
+        <is>
+          <t>非车险</t>
+        </is>
+      </c>
+      <c r="D77" s="10" t="n">
+        <v>15</v>
+      </c>
+      <c r="E77" s="11" t="n">
+        <v>1.302837</v>
+      </c>
+      <c r="F77" s="12" t="n">
+        <v>3.532135866666667</v>
+      </c>
+      <c r="G77" s="12" t="n">
+        <v>5.834483048046709</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="10" t="n"/>
+      <c r="B78" s="10" t="n"/>
+      <c r="C78" s="10" t="inlineStr">
+        <is>
+          <t>驾意险</t>
+        </is>
+      </c>
+      <c r="D78" s="10" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+      <c r="E78" s="11" t="n">
+        <v>0.469387</v>
+      </c>
+      <c r="F78" s="12" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+      <c r="G78" s="12" t="n">
+        <v>1.591351249889586</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="13" t="n"/>
+      <c r="B79" s="13" t="n"/>
+      <c r="C79" s="13" t="inlineStr">
+        <is>
+          <t>整体</t>
+        </is>
+      </c>
+      <c r="D79" s="13" t="n">
+        <v>565</v>
+      </c>
+      <c r="E79" s="14" t="n">
+        <v>27.870698</v>
+      </c>
+      <c r="F79" s="15" t="n">
+        <v>2.006032540412979</v>
+      </c>
+      <c r="G79" s="15" t="n">
+        <v>1.02508867261196</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="4" t="n">
+        <v>19</v>
+      </c>
+      <c r="B80" s="4" t="inlineStr">
+        <is>
+          <t>勐海</t>
+        </is>
+      </c>
+      <c r="C80" s="4" t="inlineStr">
+        <is>
+          <t>车险</t>
+        </is>
+      </c>
+      <c r="D80" s="4" t="n">
+        <v>600</v>
+      </c>
+      <c r="E80" s="5" t="n">
+        <v>25.73017800000001</v>
+      </c>
+      <c r="F80" s="6" t="n">
+        <v>1.743934286666667</v>
+      </c>
+      <c r="G80" s="6" t="n">
+        <v>1.700833673253241</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="4" t="n"/>
+      <c r="B81" s="4" t="n"/>
+      <c r="C81" s="4" t="inlineStr">
+        <is>
+          <t>非车险</t>
+        </is>
+      </c>
+      <c r="D81" s="4" t="n">
+        <v>35</v>
+      </c>
+      <c r="E81" s="5" t="n">
+        <v>0.7329000000000001</v>
+      </c>
+      <c r="F81" s="6" t="n">
+        <v>0.8515600000000002</v>
+      </c>
+      <c r="G81" s="6" t="n">
+        <v>8.710886156455375</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="4" t="n"/>
+      <c r="B82" s="4" t="n"/>
+      <c r="C82" s="4" t="inlineStr">
+        <is>
+          <t>驾意险</t>
+        </is>
+      </c>
+      <c r="D82" s="4" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+      <c r="E82" s="5" t="n">
+        <v>0.547474</v>
+      </c>
+      <c r="F82" s="6" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+      <c r="G82" s="6" t="n">
+        <v>6.254001483994064</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="7" t="n"/>
+      <c r="B83" s="7" t="n"/>
+      <c r="C83" s="7" t="inlineStr">
+        <is>
+          <t>整体</t>
+        </is>
+      </c>
+      <c r="D83" s="7" t="n">
+        <v>635</v>
+      </c>
+      <c r="E83" s="8" t="n">
+        <v>26.463078</v>
+      </c>
+      <c r="F83" s="9" t="n">
+        <v>1.694748302362205</v>
+      </c>
+      <c r="G83" s="9" t="n">
+        <v>1.755931593361789</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="B84" s="10" t="inlineStr">
+        <is>
+          <t>马关</t>
+        </is>
+      </c>
+      <c r="C84" s="10" t="inlineStr">
+        <is>
+          <t>车险</t>
+        </is>
+      </c>
+      <c r="D84" s="10" t="n">
+        <v>450</v>
+      </c>
+      <c r="E84" s="11" t="n">
+        <v>23.552969</v>
+      </c>
+      <c r="F84" s="12" t="n">
+        <v>2.128490531851852</v>
+      </c>
+      <c r="G84" s="12" t="n">
+        <v>1.423625195692068</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="10" t="n"/>
+      <c r="B85" s="10" t="n"/>
+      <c r="C85" s="10" t="inlineStr">
+        <is>
+          <t>非车险</t>
+        </is>
+      </c>
+      <c r="D85" s="10" t="n">
+        <v>15</v>
+      </c>
+      <c r="E85" s="11" t="n">
+        <v>0.7965580000000001</v>
+      </c>
+      <c r="F85" s="12" t="n">
+        <v>2.159557244444445</v>
+      </c>
+      <c r="G85" s="12" t="n">
+        <v>-0.1838060048650429</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="10" t="n"/>
+      <c r="B86" s="10" t="n"/>
+      <c r="C86" s="10" t="inlineStr">
+        <is>
+          <t>驾意险</t>
+        </is>
+      </c>
+      <c r="D86" s="10" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+      <c r="E86" s="11" t="n">
+        <v>0.7965580000000001</v>
+      </c>
+      <c r="F86" s="12" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+      <c r="G86" s="12" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="13" t="n"/>
+      <c r="B87" s="13" t="n"/>
+      <c r="C87" s="13" t="inlineStr">
+        <is>
+          <t>整体</t>
+        </is>
+      </c>
+      <c r="D87" s="13" t="n">
+        <v>465</v>
+      </c>
+      <c r="E87" s="14" t="n">
+        <v>24.349527</v>
+      </c>
+      <c r="F87" s="15" t="n">
+        <v>2.129492683870968</v>
+      </c>
+      <c r="G87" s="15" t="n">
+        <v>1.276930107454486</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="4" t="n">
+        <v>21</v>
+      </c>
+      <c r="B88" s="4" t="inlineStr">
+        <is>
+          <t>广南</t>
+        </is>
+      </c>
+      <c r="C88" s="4" t="inlineStr">
+        <is>
+          <t>车险</t>
+        </is>
+      </c>
+      <c r="D88" s="4" t="n">
+        <v>300</v>
+      </c>
+      <c r="E88" s="5" t="n">
+        <v>19.771791</v>
+      </c>
+      <c r="F88" s="6" t="n">
+        <v>2.680176113333334</v>
+      </c>
+      <c r="G88" s="6" t="n">
+        <v>1.135730615112474</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="4" t="n"/>
+      <c r="B89" s="4" t="n"/>
+      <c r="C89" s="4" t="inlineStr">
+        <is>
+          <t>非车险</t>
+        </is>
+      </c>
+      <c r="D89" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E89" s="5" t="n">
+        <v>0.200009</v>
+      </c>
+      <c r="F89" s="6" t="n">
+        <v>1.626739866666667</v>
+      </c>
+      <c r="G89" s="6" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="4" t="n"/>
+      <c r="B90" s="4" t="n"/>
+      <c r="C90" s="4" t="inlineStr">
+        <is>
+          <t>驾意险</t>
+        </is>
+      </c>
+      <c r="D90" s="4" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+      <c r="E90" s="5" t="n">
+        <v>0.06793400000000001</v>
+      </c>
+      <c r="F90" s="6" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+      <c r="G90" s="6" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="7" t="n"/>
+      <c r="B91" s="7" t="n"/>
+      <c r="C91" s="7" t="inlineStr">
+        <is>
+          <t>整体</t>
+        </is>
+      </c>
+      <c r="D91" s="7" t="n">
+        <v>305</v>
+      </c>
+      <c r="E91" s="8" t="n">
+        <v>19.9718</v>
+      </c>
+      <c r="F91" s="9" t="n">
+        <v>2.662906666666667</v>
+      </c>
+      <c r="G91" s="9" t="n">
+        <v>1.157335402690799</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="10" t="n">
+        <v>22</v>
+      </c>
+      <c r="B92" s="10" t="inlineStr">
+        <is>
+          <t>漾濞</t>
+        </is>
+      </c>
+      <c r="C92" s="10" t="inlineStr">
+        <is>
+          <t>车险</t>
+        </is>
+      </c>
+      <c r="D92" s="10" t="n">
+        <v>350</v>
+      </c>
+      <c r="E92" s="11" t="n">
+        <v>15.2879</v>
+      </c>
+      <c r="F92" s="12" t="n">
+        <v>1.776308380952381</v>
+      </c>
+      <c r="G92" s="12" t="n">
+        <v>-0.1063477142653217</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="10" t="n"/>
+      <c r="B93" s="10" t="n"/>
+      <c r="C93" s="10" t="inlineStr">
+        <is>
+          <t>非车险</t>
+        </is>
+      </c>
+      <c r="D93" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="E93" s="11" t="n">
+        <v>3.767542999999999</v>
+      </c>
+      <c r="F93" s="12" t="n">
+        <v>30.64268306666666</v>
+      </c>
+      <c r="G93" s="12" t="n">
+        <v>32.82056230812042</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="10" t="n"/>
+      <c r="B94" s="10" t="n"/>
+      <c r="C94" s="10" t="inlineStr">
+        <is>
+          <t>驾意险</t>
+        </is>
+      </c>
+      <c r="D94" s="10" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+      <c r="E94" s="11" t="n">
+        <v>0.311512</v>
+      </c>
+      <c r="F94" s="12" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+      <c r="G94" s="12" t="n">
+        <v>2.05739635678392</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="13" t="n"/>
+      <c r="B95" s="13" t="n"/>
+      <c r="C95" s="13" t="inlineStr">
+        <is>
+          <t>整体</t>
+        </is>
+      </c>
+      <c r="D95" s="13" t="n">
+        <v>355</v>
+      </c>
+      <c r="E95" s="14" t="n">
+        <v>19.055443</v>
+      </c>
+      <c r="F95" s="15" t="n">
+        <v>2.182877038497653</v>
+      </c>
+      <c r="G95" s="15" t="n">
+        <v>0.1066771297638356</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="4" t="n">
+        <v>23</v>
+      </c>
+      <c r="B96" s="4" t="inlineStr">
+        <is>
+          <t>宾川</t>
+        </is>
+      </c>
+      <c r="C96" s="4" t="inlineStr">
+        <is>
+          <t>车险</t>
+        </is>
+      </c>
+      <c r="D96" s="4" t="n">
+        <v>500</v>
+      </c>
+      <c r="E96" s="5" t="n">
+        <v>17.946946</v>
+      </c>
+      <c r="F96" s="6" t="n">
+        <v>1.459684941333333</v>
+      </c>
+      <c r="G96" s="6" t="n">
+        <v>-0.1461808282836836</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="4" t="n"/>
+      <c r="B97" s="4" t="n"/>
+      <c r="C97" s="4" t="inlineStr">
+        <is>
+          <t>非车险</t>
+        </is>
+      </c>
+      <c r="D97" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="E97" s="5" t="n">
+        <v>0.813074</v>
+      </c>
+      <c r="F97" s="6" t="n">
+        <v>4.133126166666667</v>
+      </c>
+      <c r="G97" s="6" t="n">
+        <v>-0.8100261102706239</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="4" t="n"/>
+      <c r="B98" s="4" t="n"/>
+      <c r="C98" s="4" t="inlineStr">
+        <is>
+          <t>驾意险</t>
+        </is>
+      </c>
+      <c r="D98" s="4" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+      <c r="E98" s="5" t="n">
+        <v>0.519176</v>
+      </c>
+      <c r="F98" s="6" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+      <c r="G98" s="6" t="n">
+        <v>2.718386523806795</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="7" t="n"/>
+      <c r="B99" s="7" t="n"/>
+      <c r="C99" s="7" t="inlineStr">
+        <is>
+          <t>整体</t>
+        </is>
+      </c>
+      <c r="D99" s="7" t="n">
+        <v>508</v>
+      </c>
+      <c r="E99" s="8" t="n">
+        <v>18.76002</v>
+      </c>
+      <c r="F99" s="9" t="n">
+        <v>1.501786377952756</v>
+      </c>
+      <c r="G99" s="9" t="n">
+        <v>-0.2584836045405575</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="10" t="n">
+        <v>24</v>
+      </c>
+      <c r="B100" s="10" t="inlineStr">
+        <is>
+          <t>安宁</t>
+        </is>
+      </c>
+      <c r="C100" s="10" t="inlineStr">
+        <is>
+          <t>车险</t>
+        </is>
+      </c>
+      <c r="D100" s="10" t="n">
+        <v>350</v>
+      </c>
+      <c r="E100" s="11" t="n">
+        <v>17.124202</v>
+      </c>
+      <c r="F100" s="12" t="n">
+        <v>1.989669184761905</v>
+      </c>
+      <c r="G100" s="12" t="n">
+        <v>0.8118296777459169</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="10" t="n"/>
+      <c r="B101" s="10" t="n"/>
+      <c r="C101" s="10" t="inlineStr">
+        <is>
+          <t>非车险</t>
+        </is>
+      </c>
+      <c r="D101" s="10" t="n">
+        <v>30</v>
+      </c>
+      <c r="E101" s="11" t="n">
+        <v>0.362624</v>
+      </c>
+      <c r="F101" s="12" t="n">
+        <v>0.4915569777777778</v>
+      </c>
+      <c r="G101" s="12" t="n">
+        <v>2.002948093676504</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="10" t="n"/>
+      <c r="B102" s="10" t="n"/>
+      <c r="C102" s="10" t="inlineStr">
+        <is>
+          <t>驾意险</t>
+        </is>
+      </c>
+      <c r="D102" s="10" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+      <c r="E102" s="11" t="n">
+        <v>0.291284</v>
+      </c>
+      <c r="F102" s="12" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+      <c r="G102" s="12" t="n">
+        <v>1.412169995693795</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="13" t="n"/>
+      <c r="B103" s="13" t="n"/>
+      <c r="C103" s="13" t="inlineStr">
+        <is>
+          <t>整体</t>
+        </is>
+      </c>
+      <c r="D103" s="13" t="n">
+        <v>380</v>
+      </c>
+      <c r="E103" s="14" t="n">
+        <v>17.486826</v>
+      </c>
+      <c r="F103" s="15" t="n">
+        <v>1.871397168421052</v>
+      </c>
+      <c r="G103" s="15" t="n">
+        <v>0.8268561495523383</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="B104" s="4" t="inlineStr">
+        <is>
+          <t>兰坪</t>
+        </is>
+      </c>
+      <c r="C104" s="4" t="inlineStr">
+        <is>
+          <t>车险</t>
+        </is>
+      </c>
+      <c r="D104" s="4" t="n">
+        <v>228</v>
+      </c>
+      <c r="E104" s="5" t="n">
+        <v>13.79972599999999</v>
+      </c>
+      <c r="F104" s="6" t="n">
+        <v>2.4613546374269</v>
+      </c>
+      <c r="G104" s="6" t="n">
+        <v>1.029815044875982</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="4" t="n"/>
+      <c r="B105" s="4" t="n"/>
+      <c r="C105" s="4" t="inlineStr">
+        <is>
+          <t>非车险</t>
+        </is>
+      </c>
+      <c r="D105" s="4" t="n">
+        <v>72</v>
+      </c>
+      <c r="E105" s="5" t="n">
+        <v>1.084357</v>
+      </c>
+      <c r="F105" s="6" t="n">
+        <v>0.6124608981481482</v>
+      </c>
+      <c r="G105" s="6" t="n">
+        <v>-0.2300132076007612</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="4" t="n"/>
+      <c r="B106" s="4" t="n"/>
+      <c r="C106" s="4" t="inlineStr">
+        <is>
+          <t>驾意险</t>
+        </is>
+      </c>
+      <c r="D106" s="4" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+      <c r="E106" s="5" t="n">
+        <v>0.7541680000000001</v>
+      </c>
+      <c r="F106" s="6" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+      <c r="G106" s="6" t="n">
+        <v>5.149345248772851</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="7" t="n"/>
+      <c r="B107" s="7" t="n"/>
+      <c r="C107" s="7" t="inlineStr">
+        <is>
+          <t>整体</t>
+        </is>
+      </c>
+      <c r="D107" s="7" t="n">
+        <v>300</v>
+      </c>
+      <c r="E107" s="8" t="n">
+        <v>14.88408299999999</v>
+      </c>
+      <c r="F107" s="9" t="n">
+        <v>2.017620139999999</v>
+      </c>
+      <c r="G107" s="9" t="n">
+        <v>0.8136294148482337</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="10" t="n">
+        <v>26</v>
+      </c>
+      <c r="B108" s="10" t="inlineStr">
+        <is>
+          <t>会泽</t>
+        </is>
+      </c>
+      <c r="C108" s="10" t="inlineStr">
+        <is>
+          <t>车险</t>
+        </is>
+      </c>
+      <c r="D108" s="10" t="n">
+        <v>370</v>
+      </c>
+      <c r="E108" s="11" t="n">
+        <v>14.390619</v>
+      </c>
+      <c r="F108" s="12" t="n">
+        <v>1.581671637837838</v>
+      </c>
+      <c r="G108" s="12" t="n">
+        <v>1.050346741606299</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="10" t="n"/>
+      <c r="B109" s="10" t="n"/>
+      <c r="C109" s="10" t="inlineStr">
+        <is>
+          <t>非车险</t>
+        </is>
+      </c>
+      <c r="D109" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="E109" s="11" t="n">
+        <v>0.22968</v>
+      </c>
+      <c r="F109" s="12" t="n">
+        <v>0.467016</v>
+      </c>
+      <c r="G109" s="12" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="10" t="n"/>
+      <c r="B110" s="10" t="n"/>
+      <c r="C110" s="10" t="inlineStr">
+        <is>
+          <t>驾意险</t>
+        </is>
+      </c>
+      <c r="D110" s="10" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+      <c r="E110" s="11" t="n">
+        <v>0.22968</v>
+      </c>
+      <c r="F110" s="12" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+      <c r="G110" s="12" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="13" t="n"/>
+      <c r="B111" s="13" t="n"/>
+      <c r="C111" s="13" t="inlineStr">
+        <is>
+          <t>整体</t>
+        </is>
+      </c>
+      <c r="D111" s="13" t="n">
+        <v>390</v>
+      </c>
+      <c r="E111" s="14" t="n">
+        <v>14.620299</v>
+      </c>
+      <c r="F111" s="15" t="n">
+        <v>1.52450981025641</v>
+      </c>
+      <c r="G111" s="15" t="n">
+        <v>1.08307109068483</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="4" t="n">
+        <v>27</v>
+      </c>
+      <c r="B112" s="4" t="inlineStr">
+        <is>
+          <t>腾冲</t>
+        </is>
+      </c>
+      <c r="C112" s="4" t="inlineStr">
+        <is>
+          <t>车险</t>
+        </is>
+      </c>
+      <c r="D112" s="4" t="n">
+        <v>380</v>
+      </c>
+      <c r="E112" s="5" t="n">
+        <v>11.114704</v>
+      </c>
+      <c r="F112" s="6" t="n">
+        <v>1.189468322807018</v>
+      </c>
+      <c r="G112" s="6" t="n">
+        <v>0.4901476029502898</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="4" t="n"/>
+      <c r="B113" s="4" t="n"/>
+      <c r="C113" s="4" t="inlineStr">
+        <is>
+          <t>非车险</t>
+        </is>
+      </c>
+      <c r="D113" s="4" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+      <c r="E113" s="5" t="n">
+        <v>0.239826</v>
+      </c>
+      <c r="F113" s="6" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+      <c r="G113" s="6" t="n">
+        <v>24.42414926322484</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="4" t="n"/>
+      <c r="B114" s="4" t="n"/>
+      <c r="C114" s="4" t="inlineStr">
+        <is>
+          <t>驾意险</t>
+        </is>
+      </c>
+      <c r="D114" s="4" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+      <c r="E114" s="5" t="n">
+        <v>0.293414</v>
+      </c>
+      <c r="F114" s="6" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+      <c r="G114" s="6" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="7" t="n"/>
+      <c r="B115" s="7" t="n"/>
+      <c r="C115" s="7" t="inlineStr">
+        <is>
+          <t>整体</t>
+        </is>
+      </c>
+      <c r="D115" s="7" t="n">
+        <v>380</v>
+      </c>
+      <c r="E115" s="8" t="n">
+        <v>11.35453</v>
+      </c>
+      <c r="F115" s="9" t="n">
+        <v>1.215133912280702</v>
+      </c>
+      <c r="G115" s="9" t="n">
+        <v>0.5203782638101393</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="10" t="n">
+        <v>28</v>
+      </c>
+      <c r="B116" s="10" t="inlineStr">
+        <is>
+          <t>麻栗坡</t>
+        </is>
+      </c>
+      <c r="C116" s="10" t="inlineStr">
+        <is>
+          <t>车险</t>
+        </is>
+      </c>
+      <c r="D116" s="10" t="n">
+        <v>300</v>
+      </c>
+      <c r="E116" s="11" t="n">
+        <v>10.353592</v>
+      </c>
+      <c r="F116" s="12" t="n">
+        <v>1.403486915555556</v>
+      </c>
+      <c r="G116" s="12" t="n">
+        <v>0.3387369371351994</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="10" t="n"/>
+      <c r="B117" s="10" t="n"/>
+      <c r="C117" s="10" t="inlineStr">
+        <is>
+          <t>非车险</t>
+        </is>
+      </c>
+      <c r="D117" s="10" t="n">
+        <v>25</v>
+      </c>
+      <c r="E117" s="11" t="n">
+        <v>0.4282940000000001</v>
+      </c>
+      <c r="F117" s="12" t="n">
+        <v>0.6966915733333334</v>
+      </c>
+      <c r="G117" s="12" t="n">
+        <v>-0.04591819686482923</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="10" t="n"/>
+      <c r="B118" s="10" t="n"/>
+      <c r="C118" s="10" t="inlineStr">
+        <is>
+          <t>驾意险</t>
+        </is>
+      </c>
+      <c r="D118" s="10" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+      <c r="E118" s="11" t="n">
+        <v>0.3705020000000001</v>
+      </c>
+      <c r="F118" s="12" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+      <c r="G118" s="12" t="n">
+        <v>4.236407321037383</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="13" t="n"/>
+      <c r="B119" s="13" t="n"/>
+      <c r="C119" s="13" t="inlineStr">
+        <is>
+          <t>整体</t>
+        </is>
+      </c>
+      <c r="D119" s="13" t="n">
+        <v>325</v>
+      </c>
+      <c r="E119" s="14" t="n">
+        <v>10.781886</v>
+      </c>
+      <c r="F119" s="15" t="n">
+        <v>1.349118043076923</v>
+      </c>
+      <c r="G119" s="15" t="n">
+        <v>0.317634714359144</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="4" t="n">
+        <v>29</v>
+      </c>
+      <c r="B120" s="4" t="inlineStr">
+        <is>
+          <t>洱源</t>
+        </is>
+      </c>
+      <c r="C120" s="4" t="inlineStr">
+        <is>
+          <t>车险</t>
+        </is>
+      </c>
+      <c r="D120" s="4" t="n">
+        <v>300</v>
+      </c>
+      <c r="E120" s="5" t="n">
+        <v>8.973423</v>
+      </c>
+      <c r="F120" s="6" t="n">
+        <v>1.21639734</v>
+      </c>
+      <c r="G120" s="6" t="n">
+        <v>-0.4494727476088656</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="4" t="n"/>
+      <c r="B121" s="4" t="n"/>
+      <c r="C121" s="4" t="inlineStr">
+        <is>
+          <t>非车险</t>
+        </is>
+      </c>
+      <c r="D121" s="4" t="n">
+        <v>35</v>
+      </c>
+      <c r="E121" s="5" t="n">
+        <v>1.717766</v>
+      </c>
+      <c r="F121" s="6" t="n">
+        <v>1.995880495238095</v>
+      </c>
+      <c r="G121" s="6" t="n">
+        <v>0.4167504488774558</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="4" t="n"/>
+      <c r="B122" s="4" t="n"/>
+      <c r="C122" s="4" t="inlineStr">
+        <is>
+          <t>驾意险</t>
+        </is>
+      </c>
+      <c r="D122" s="4" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+      <c r="E122" s="5" t="n">
+        <v>0.116604</v>
+      </c>
+      <c r="F122" s="6" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+      <c r="G122" s="6" t="n">
+        <v>0.2359974560101759</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="7" t="n"/>
+      <c r="B123" s="7" t="n"/>
+      <c r="C123" s="7" t="inlineStr">
+        <is>
+          <t>整体</t>
+        </is>
+      </c>
+      <c r="D123" s="7" t="n">
+        <v>335</v>
+      </c>
+      <c r="E123" s="8" t="n">
+        <v>10.691189</v>
+      </c>
+      <c r="F123" s="9" t="n">
+        <v>1.297835878606965</v>
+      </c>
+      <c r="G123" s="9" t="n">
+        <v>-0.3894990554562152</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="10" t="n">
+        <v>30</v>
+      </c>
+      <c r="B124" s="10" t="inlineStr">
+        <is>
+          <t>春之城</t>
+        </is>
+      </c>
+      <c r="C124" s="10" t="inlineStr">
+        <is>
+          <t>车险</t>
+        </is>
+      </c>
+      <c r="D124" s="10" t="n">
+        <v>100</v>
+      </c>
+      <c r="E124" s="11" t="n">
+        <v>1.922795</v>
+      </c>
+      <c r="F124" s="12" t="n">
+        <v>0.7819366333333332</v>
+      </c>
+      <c r="G124" s="12" t="n">
+        <v>0.4524178575043543</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="10" t="n"/>
+      <c r="B125" s="10" t="n"/>
+      <c r="C125" s="10" t="inlineStr">
+        <is>
+          <t>非车险</t>
+        </is>
+      </c>
+      <c r="D125" s="10" t="n">
+        <v>940</v>
+      </c>
+      <c r="E125" s="11" t="n">
+        <v>2.059192</v>
+      </c>
+      <c r="F125" s="12" t="n">
+        <v>0.08908561134751773</v>
+      </c>
+      <c r="G125" s="12" t="n">
+        <v>-0.9498738528444739</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="10" t="n"/>
+      <c r="B126" s="10" t="n"/>
+      <c r="C126" s="10" t="inlineStr">
+        <is>
+          <t>驾意险</t>
+        </is>
+      </c>
+      <c r="D126" s="10" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+      <c r="E126" s="11" t="n">
+        <v>0.077736</v>
+      </c>
+      <c r="F126" s="12" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+      <c r="G126" s="12" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="13" t="n"/>
+      <c r="B127" s="13" t="n"/>
+      <c r="C127" s="13" t="inlineStr">
+        <is>
+          <t>整体</t>
+        </is>
+      </c>
+      <c r="D127" s="13" t="n">
+        <v>1040</v>
+      </c>
+      <c r="E127" s="14" t="n">
+        <v>3.981987</v>
+      </c>
+      <c r="F127" s="15" t="n">
+        <v>0.1557059019230769</v>
+      </c>
+      <c r="G127" s="15" t="n">
+        <v>-0.9060941931143142</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="64">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="A64:A67"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="A68:A71"/>
+    <mergeCell ref="B68:B71"/>
+    <mergeCell ref="A72:A75"/>
+    <mergeCell ref="B72:B75"/>
+    <mergeCell ref="A76:A79"/>
+    <mergeCell ref="B76:B79"/>
+    <mergeCell ref="A80:A83"/>
+    <mergeCell ref="B80:B83"/>
+    <mergeCell ref="A84:A87"/>
+    <mergeCell ref="B84:B87"/>
+    <mergeCell ref="A88:A91"/>
+    <mergeCell ref="B88:B91"/>
+    <mergeCell ref="A92:A95"/>
+    <mergeCell ref="B92:B95"/>
+    <mergeCell ref="A96:A99"/>
+    <mergeCell ref="B96:B99"/>
+    <mergeCell ref="A100:A103"/>
+    <mergeCell ref="B100:B103"/>
+    <mergeCell ref="A104:A107"/>
+    <mergeCell ref="B104:B107"/>
+    <mergeCell ref="A108:A111"/>
+    <mergeCell ref="B108:B111"/>
+    <mergeCell ref="A112:A115"/>
+    <mergeCell ref="B112:B115"/>
+    <mergeCell ref="A116:A119"/>
+    <mergeCell ref="B116:B119"/>
+    <mergeCell ref="A120:A123"/>
+    <mergeCell ref="B120:B123"/>
+    <mergeCell ref="A124:A127"/>
+    <mergeCell ref="B124:B127"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -602,7 +4860,7 @@
         <v>2.352018792647284</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.9708542974525434</v>
+        <v>0.9708542974525438</v>
       </c>
     </row>
     <row r="5">
@@ -910,7 +5168,7 @@
         <v>3.077570007333331</v>
       </c>
       <c r="G16" s="12" t="n">
-        <v>-0.08340768937609067</v>
+        <v>-0.08340768937609033</v>
       </c>
     </row>
     <row r="17">
@@ -1110,7 +5368,7 @@
         <v>1.307237960283687</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.812365368829278</v>
+        <v>0.8123653688292778</v>
       </c>
     </row>
     <row r="25">

--- a/2020年机构数据统计表.xlsx
+++ b/2020年机构数据统计表.xlsx
@@ -515,7 +515,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>数据统计范围：2020-01-01至2020-01-09</t>
+          <t>数据统计范围：2020-01-01至2020-01-12</t>
         </is>
       </c>
       <c r="B2" s="2" t="n"/>
@@ -579,13 +579,13 @@
         <v>21670</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1253.317555</v>
+        <v>1429.405549000001</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>2.352018792647284</v>
+        <v>2.011853679949239</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.9708542974525438</v>
+        <v>0.8204664451472976</v>
       </c>
     </row>
     <row r="5">
@@ -600,13 +600,13 @@
         <v>2800</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>95.92549999999989</v>
+        <v>108.9607769999998</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>1.393203690476189</v>
+        <v>1.186894178035713</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.3521169650559808</v>
+        <v>0.1675455323705513</v>
       </c>
     </row>
     <row r="6">
@@ -621,13 +621,13 @@
         <v>1900</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>34.559559</v>
+        <v>36.44615699999999</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>0.7396958242105263</v>
+        <v>0.5850567307894735</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>-0.3043654403374643</v>
+        <v>-0.4051060018646875</v>
       </c>
     </row>
     <row r="7">
@@ -644,7 +644,7 @@
         </is>
       </c>
       <c r="E7" s="5" t="n">
-        <v>18.72416799999994</v>
+        <v>20.83511099999992</v>
       </c>
       <c r="F7" s="6" t="inlineStr">
         <is>
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="G7" s="6" t="n">
-        <v>5.421048119363737</v>
+        <v>5.155245180411068</v>
       </c>
     </row>
     <row r="8">
@@ -667,13 +667,13 @@
         <v>26370</v>
       </c>
       <c r="E8" s="8" t="n">
-        <v>1383.802613999998</v>
+        <v>1574.812482999999</v>
       </c>
       <c r="F8" s="9" t="n">
-        <v>2.134040183390213</v>
+        <v>1.821455469529767</v>
       </c>
       <c r="G8" s="9" t="n">
-        <v>0.8290928237648014</v>
+        <v>0.6757316824929098</v>
       </c>
     </row>
     <row r="9">
@@ -694,13 +694,13 @@
         <v>4900</v>
       </c>
       <c r="E9" s="11" t="n">
-        <v>290.01134</v>
+        <v>331.0135149999999</v>
       </c>
       <c r="F9" s="12" t="n">
-        <v>2.40689683537415</v>
+        <v>2.060390246428571</v>
       </c>
       <c r="G9" s="12" t="n">
-        <v>1.416759837448757</v>
+        <v>1.112840108289167</v>
       </c>
     </row>
     <row r="10">
@@ -715,13 +715,13 @@
         <v>1510</v>
       </c>
       <c r="E10" s="11" t="n">
-        <v>45.06245200000001</v>
+        <v>53.31696600000003</v>
       </c>
       <c r="F10" s="12" t="n">
-        <v>1.21360246004415</v>
+        <v>1.076932094701987</v>
       </c>
       <c r="G10" s="12" t="n">
-        <v>0.8766947847382465</v>
+        <v>0.4466378800458957</v>
       </c>
     </row>
     <row r="11">
@@ -736,13 +736,13 @@
         <v>1060</v>
       </c>
       <c r="E11" s="11" t="n">
-        <v>5.352829</v>
+        <v>5.361318</v>
       </c>
       <c r="F11" s="12" t="n">
-        <v>0.2053601062893081</v>
+        <v>0.1542643386792453</v>
       </c>
       <c r="G11" s="12" t="n">
-        <v>-0.877502704500813</v>
+        <v>-0.8773084372186912</v>
       </c>
     </row>
     <row r="12">
@@ -759,7 +759,7 @@
         </is>
       </c>
       <c r="E12" s="11" t="n">
-        <v>2.631880000000001</v>
+        <v>2.968947000000001</v>
       </c>
       <c r="F12" s="12" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
         </is>
       </c>
       <c r="G12" s="12" t="n">
-        <v>7.181137142874908</v>
+        <v>8.228901992844291</v>
       </c>
     </row>
     <row r="13">
@@ -782,13 +782,13 @@
         <v>7470</v>
       </c>
       <c r="E13" s="14" t="n">
-        <v>340.4266210000003</v>
+        <v>389.6917990000001</v>
       </c>
       <c r="F13" s="15" t="n">
-        <v>1.853281917090586</v>
+        <v>1.591111093641232</v>
       </c>
       <c r="G13" s="15" t="n">
-        <v>0.8135851872320095</v>
+        <v>0.642738245224898</v>
       </c>
     </row>
     <row r="14">
@@ -809,13 +809,13 @@
         <v>5800</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>311.088093</v>
+        <v>355.414578</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>2.181192376206897</v>
+        <v>1.868990453275862</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9697809910378508</v>
+        <v>0.8344155554081825</v>
       </c>
     </row>
     <row r="15">
@@ -830,13 +830,13 @@
         <v>300</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>9.978245999999997</v>
+        <v>11.902978</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.35260668</v>
+        <v>1.210136096666666</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.773327352121342</v>
+        <v>2.184318133846477</v>
       </c>
     </row>
     <row r="16">
@@ -851,13 +851,13 @@
         <v>200</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4.001686</v>
+        <v>4.067719</v>
       </c>
       <c r="F16" s="6" t="n">
-        <v>0.8136761533333334</v>
+        <v>0.6203271475</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>8.426289208619538</v>
+        <v>-0.63723834409446</v>
       </c>
     </row>
     <row r="17">
@@ -874,7 +874,7 @@
         </is>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5.511799999999996</v>
+        <v>6.061768999999996</v>
       </c>
       <c r="F17" s="6" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="G17" s="6" t="n">
-        <v>17.37266666666666</v>
+        <v>15.47551138000575</v>
       </c>
     </row>
     <row r="18">
@@ -897,13 +897,13 @@
         <v>6300</v>
       </c>
       <c r="E18" s="8" t="n">
-        <v>325.0680249999999</v>
+        <v>371.3852749999999</v>
       </c>
       <c r="F18" s="9" t="n">
-        <v>2.0983227010582</v>
+        <v>1.797976331349206</v>
       </c>
       <c r="G18" s="9" t="n">
-        <v>1.007178149093755</v>
+        <v>0.7795231164282721</v>
       </c>
     </row>
     <row r="19">
@@ -924,13 +924,13 @@
         <v>3460</v>
       </c>
       <c r="E19" s="11" t="n">
-        <v>253.5423620000001</v>
+        <v>291.5504690000001</v>
       </c>
       <c r="F19" s="12" t="n">
-        <v>2.979977665125242</v>
+        <v>2.570025810549133</v>
       </c>
       <c r="G19" s="12" t="n">
-        <v>1.386361325697678</v>
+        <v>1.159735875135276</v>
       </c>
     </row>
     <row r="20">
@@ -945,13 +945,13 @@
         <v>170</v>
       </c>
       <c r="E20" s="11" t="n">
-        <v>5.283435999999998</v>
+        <v>6.778969999999997</v>
       </c>
       <c r="F20" s="12" t="n">
-        <v>1.263880768627451</v>
+        <v>1.216226970588234</v>
       </c>
       <c r="G20" s="12" t="n">
-        <v>2.836656030742998</v>
+        <v>2.226444684005491</v>
       </c>
     </row>
     <row r="21">
@@ -966,13 +966,13 @@
         <v>70</v>
       </c>
       <c r="E21" s="11" t="n">
-        <v>1.684859</v>
+        <v>1.873538</v>
       </c>
       <c r="F21" s="12" t="n">
-        <v>0.9788228476190477</v>
+        <v>0.8163272714285714</v>
       </c>
       <c r="G21" s="12" t="n">
-        <v>3.960953878406709</v>
+        <v>4.516506489529598</v>
       </c>
     </row>
     <row r="22">
@@ -989,7 +989,7 @@
         </is>
       </c>
       <c r="E22" s="11" t="n">
-        <v>2.336407</v>
+        <v>2.846336000000001</v>
       </c>
       <c r="F22" s="12" t="inlineStr">
         <is>
@@ -997,7 +997,7 @@
         </is>
       </c>
       <c r="G22" s="12" t="n">
-        <v>12.38692710094024</v>
+        <v>13.03304228643551</v>
       </c>
     </row>
     <row r="23">
@@ -1012,13 +1012,13 @@
         <v>3700</v>
       </c>
       <c r="E23" s="14" t="n">
-        <v>260.5106570000001</v>
+        <v>300.202977</v>
       </c>
       <c r="F23" s="15" t="n">
-        <v>2.863270284144145</v>
+        <v>2.474646161756756</v>
       </c>
       <c r="G23" s="15" t="n">
-        <v>1.412959157617717</v>
+        <v>1.184338650917952</v>
       </c>
     </row>
     <row r="24">
@@ -1039,13 +1039,13 @@
         <v>3220</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>195.3632349999999</v>
+        <v>212.064943</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>2.46732035921325</v>
+        <v>2.008689677484472</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.5484816127352834</v>
+        <v>0.4909341141860766</v>
       </c>
     </row>
     <row r="25">
@@ -1060,13 +1060,13 @@
         <v>130</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>10.82676299999999</v>
+        <v>11.52779599999999</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>3.386833553846152</v>
+        <v>2.704598292307691</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.3008270831711322</v>
+        <v>0.3304230007524733</v>
       </c>
     </row>
     <row r="26">
@@ -1084,7 +1084,7 @@
         <v>1.627344</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>1.32357312</v>
+        <v>0.99267984</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.002907632442719299</v>
@@ -1104,7 +1104,7 @@
         </is>
       </c>
       <c r="E27" s="5" t="n">
-        <v>3.736040999999999</v>
+        <v>3.965082999999998</v>
       </c>
       <c r="F27" s="6" t="inlineStr">
         <is>
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="G27" s="6" t="n">
-        <v>4.123106795583971</v>
+        <v>3.754455785086306</v>
       </c>
     </row>
     <row r="28">
@@ -1127,13 +1127,13 @@
         <v>3400</v>
       </c>
       <c r="E28" s="8" t="n">
-        <v>207.8173420000001</v>
+        <v>225.2200830000001</v>
       </c>
       <c r="F28" s="9" t="n">
-        <v>2.485658404313726</v>
+        <v>2.020356626911766</v>
       </c>
       <c r="G28" s="9" t="n">
-        <v>0.5268337745475542</v>
+        <v>0.4766237150847681</v>
       </c>
     </row>
     <row r="29">
@@ -1154,13 +1154,13 @@
         <v>1800</v>
       </c>
       <c r="E29" s="11" t="n">
-        <v>90.03727299999996</v>
+        <v>109.3411039999999</v>
       </c>
       <c r="F29" s="12" t="n">
-        <v>2.034175427037036</v>
+        <v>1.852724262222221</v>
       </c>
       <c r="G29" s="12" t="n">
-        <v>1.082918659030764</v>
+        <v>0.9600442541759149</v>
       </c>
     </row>
     <row r="30">
@@ -1175,13 +1175,13 @@
         <v>150</v>
       </c>
       <c r="E30" s="11" t="n">
-        <v>2.980673</v>
+        <v>3.426835</v>
       </c>
       <c r="F30" s="12" t="n">
-        <v>0.8080935688888889</v>
+        <v>0.6967897833333333</v>
       </c>
       <c r="G30" s="12" t="n">
-        <v>2.931228271019408</v>
+        <v>2.368585420901766</v>
       </c>
     </row>
     <row r="31">
@@ -1199,12 +1199,10 @@
         <v>0.6518869999999999</v>
       </c>
       <c r="F31" s="12" t="n">
-        <v>0.5302014266666666</v>
-      </c>
-      <c r="G31" s="12" t="inlineStr">
-        <is>
-          <t>——</t>
-        </is>
+        <v>0.3976510699999999</v>
+      </c>
+      <c r="G31" s="12" t="n">
+        <v>0.6452403426327395</v>
       </c>
     </row>
     <row r="32">
@@ -1221,7 +1219,7 @@
         </is>
       </c>
       <c r="E32" s="11" t="n">
-        <v>2.674096</v>
+        <v>3.095730000000001</v>
       </c>
       <c r="F32" s="12" t="inlineStr">
         <is>
@@ -1229,7 +1227,7 @@
         </is>
       </c>
       <c r="G32" s="12" t="n">
-        <v>2.543144248758487</v>
+        <v>2.143141140970398</v>
       </c>
     </row>
     <row r="33">
@@ -1244,13 +1242,13 @@
         <v>2000</v>
       </c>
       <c r="E33" s="14" t="n">
-        <v>93.66983300000001</v>
+        <v>113.419826</v>
       </c>
       <c r="F33" s="15" t="n">
-        <v>1.904619937666667</v>
+        <v>1.7296523465</v>
       </c>
       <c r="G33" s="15" t="n">
-        <v>1.12960040945148</v>
+        <v>0.9829148424358294</v>
       </c>
     </row>
     <row r="34">
@@ -1271,13 +1269,13 @@
         <v>1450</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>58.34596800000001</v>
+        <v>69.38276100000003</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>1.63636967724138</v>
+        <v>1.459430490000001</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.3545142463306681</v>
+        <v>0.2838541009873363</v>
       </c>
     </row>
     <row r="35">
@@ -1292,13 +1290,13 @@
         <v>280</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>19.82306699999999</v>
+        <v>19.842501</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>2.879064492857142</v>
+        <v>2.1614152875</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>-0.3644675023192384</v>
+        <v>-0.4932534848477882</v>
       </c>
     </row>
     <row r="36">
@@ -1313,13 +1311,13 @@
         <v>120</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>4.189621</v>
+        <v>4.416792</v>
       </c>
       <c r="F36" s="6" t="n">
-        <v>1.419816005555555</v>
+        <v>1.1226013</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.5308505246834525</v>
+        <v>0.6138568024691673</v>
       </c>
     </row>
     <row r="37">
@@ -1336,7 +1334,7 @@
         </is>
       </c>
       <c r="E37" s="5" t="n">
-        <v>0.7870380000000001</v>
+        <v>0.8064720000000001</v>
       </c>
       <c r="F37" s="6" t="inlineStr">
         <is>
@@ -1344,7 +1342,7 @@
         </is>
       </c>
       <c r="G37" s="6" t="n">
-        <v>1.10670042934998</v>
+        <v>1.054936094746927</v>
       </c>
     </row>
     <row r="38">
@@ -1359,13 +1357,13 @@
         <v>1850</v>
       </c>
       <c r="E38" s="8" t="n">
-        <v>82.35865600000007</v>
+        <v>93.64205400000009</v>
       </c>
       <c r="F38" s="9" t="n">
-        <v>1.810406492252254</v>
+        <v>1.543828457837839</v>
       </c>
       <c r="G38" s="9" t="n">
-        <v>0.06954762513827095</v>
+        <v>-0.02391133373357135</v>
       </c>
     </row>
     <row r="39">
@@ -1386,13 +1384,13 @@
         <v>590</v>
       </c>
       <c r="E39" s="11" t="n">
-        <v>31.728108</v>
+        <v>34.68476999999999</v>
       </c>
       <c r="F39" s="12" t="n">
-        <v>2.18690913898305</v>
+        <v>1.793026245762711</v>
       </c>
       <c r="G39" s="12" t="n">
-        <v>0.4240254190903585</v>
+        <v>0.3024203738423739</v>
       </c>
     </row>
     <row r="40">
@@ -1407,13 +1405,13 @@
         <v>110</v>
       </c>
       <c r="E40" s="11" t="n">
-        <v>1.026833</v>
+        <v>1.220701</v>
       </c>
       <c r="F40" s="12" t="n">
-        <v>0.3796170484848485</v>
+        <v>0.3384670954545455</v>
       </c>
       <c r="G40" s="12" t="n">
-        <v>-0.3438049780519149</v>
+        <v>-0.2608397367194074</v>
       </c>
     </row>
     <row r="41">
@@ -1428,13 +1426,13 @@
         <v>50</v>
       </c>
       <c r="E41" s="11" t="n">
-        <v>14.510388</v>
+        <v>15.906614</v>
       </c>
       <c r="F41" s="12" t="n">
-        <v>11.80178224</v>
+        <v>9.703034539999999</v>
       </c>
       <c r="G41" s="12" t="n">
-        <v>15.88178991052076</v>
+        <v>11.63469538024549</v>
       </c>
     </row>
     <row r="42">
@@ -1451,7 +1449,7 @@
         </is>
       </c>
       <c r="E42" s="11" t="n">
-        <v>0.9544140000000001</v>
+        <v>0.9982820000000001</v>
       </c>
       <c r="F42" s="12" t="inlineStr">
         <is>
@@ -1459,7 +1457,7 @@
         </is>
       </c>
       <c r="G42" s="12" t="n">
-        <v>5.744498622005511</v>
+        <v>6.054497915341671</v>
       </c>
     </row>
     <row r="43">
@@ -1474,13 +1472,13 @@
         <v>750</v>
       </c>
       <c r="E43" s="14" t="n">
-        <v>47.26532899999999</v>
+        <v>51.81208499999999</v>
       </c>
       <c r="F43" s="15" t="n">
-        <v>2.562831172444445</v>
+        <v>2.107024789999999</v>
       </c>
       <c r="G43" s="15" t="n">
-        <v>0.9131938213964135</v>
+        <v>0.7538779334509822</v>
       </c>
     </row>
     <row r="44">
@@ -1501,13 +1499,13 @@
         <v>450</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>23.20117600000001</v>
+        <v>25.953409</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>2.096698868148149</v>
+        <v>1.759064387777778</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.3645672432592479</v>
+        <v>0.2310531768360362</v>
       </c>
     </row>
     <row r="45">
@@ -1525,10 +1523,10 @@
         <v>0.9440299999999999</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.2559370222222222</v>
+        <v>0.1919527666666666</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>6.817665374805391</v>
+        <v>5.761230161003837</v>
       </c>
     </row>
     <row r="46">
@@ -1546,7 +1544,7 @@
         <v>2.540945</v>
       </c>
       <c r="F46" s="6" t="n">
-        <v>0.3444392111111111</v>
+        <v>0.2583294083333333</v>
       </c>
       <c r="G46" s="6" t="inlineStr">
         <is>
@@ -1576,7 +1574,7 @@
         </is>
       </c>
       <c r="G47" s="6" t="n">
-        <v>-0.2340587631256419</v>
+        <v>-0.3375637426230448</v>
       </c>
     </row>
     <row r="48">
@@ -1591,13 +1589,13 @@
         <v>900</v>
       </c>
       <c r="E48" s="8" t="n">
-        <v>26.68615100000001</v>
+        <v>29.438384</v>
       </c>
       <c r="F48" s="9" t="n">
-        <v>1.205818674814815</v>
+        <v>0.9976341244444444</v>
       </c>
       <c r="G48" s="9" t="n">
-        <v>0.5584660006558304</v>
+        <v>0.3871697192122954</v>
       </c>
     </row>
   </sheetData>
@@ -1666,7 +1664,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>数据统计范围：2020-01-01至2020-01-09</t>
+          <t>数据统计范围：2020-01-01至2020-01-12</t>
         </is>
       </c>
       <c r="B2" s="2" t="n"/>
@@ -1730,13 +1728,13 @@
         <v>21670</v>
       </c>
       <c r="E4" s="11" t="n">
-        <v>1253.317555</v>
+        <v>1429.405549000001</v>
       </c>
       <c r="F4" s="12" t="n">
-        <v>2.352018792647284</v>
+        <v>2.011853679949239</v>
       </c>
       <c r="G4" s="12" t="n">
-        <v>0.9708542974525438</v>
+        <v>0.8204664451472976</v>
       </c>
     </row>
     <row r="5">
@@ -1751,13 +1749,13 @@
         <v>4700</v>
       </c>
       <c r="E5" s="11" t="n">
-        <v>130.4850590000001</v>
+        <v>145.4069340000004</v>
       </c>
       <c r="F5" s="12" t="n">
-        <v>1.129019659432625</v>
+        <v>0.9435981887234068</v>
       </c>
       <c r="G5" s="12" t="n">
-        <v>0.08173873142699017</v>
+        <v>-0.05940033783253562</v>
       </c>
     </row>
     <row r="6">
@@ -1774,15 +1772,17 @@
         </is>
       </c>
       <c r="E6" s="11" t="n">
-        <v>18.72416799999994</v>
+        <v>0</v>
       </c>
       <c r="F6" s="12" t="inlineStr">
         <is>
           <t>——</t>
         </is>
       </c>
-      <c r="G6" s="12" t="n">
-        <v>5.421048119363737</v>
+      <c r="G6" s="12" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -1797,13 +1797,13 @@
         <v>26370</v>
       </c>
       <c r="E7" s="14" t="n">
-        <v>1383.802613999998</v>
+        <v>1574.812482999999</v>
       </c>
       <c r="F7" s="15" t="n">
-        <v>2.134040183390213</v>
+        <v>1.821455469529767</v>
       </c>
       <c r="G7" s="15" t="n">
-        <v>0.8290928237648014</v>
+        <v>0.6757316824929098</v>
       </c>
     </row>
     <row r="8">
@@ -1812,7 +1812,7 @@
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t>丘北</t>
+          <t>百大国际</t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
@@ -1821,16 +1821,16 @@
         </is>
       </c>
       <c r="D8" s="4" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>68.10823699999999</v>
+        <v>82.57591400000003</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>3.462168714166666</v>
+        <v>2.098804480833334</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>1.105089589937342</v>
+        <v>1.210584522942133</v>
       </c>
     </row>
     <row r="9">
@@ -1842,16 +1842,18 @@
         </is>
       </c>
       <c r="D9" s="4" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2.328345</v>
+        <v>0.197797</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>2.104134</v>
-      </c>
-      <c r="G9" s="6" t="n">
-        <v>24.37014437482975</v>
+        <v>0.2010936166666667</v>
+      </c>
+      <c r="G9" s="6" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -1868,7 +1870,7 @@
         </is>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.386058</v>
+        <v>0</v>
       </c>
       <c r="F10" s="6" t="inlineStr">
         <is>
@@ -1890,16 +1892,16 @@
         </is>
       </c>
       <c r="D11" s="7" t="n">
-        <v>845</v>
+        <v>1230</v>
       </c>
       <c r="E11" s="8" t="n">
-        <v>70.436582</v>
+        <v>82.77371100000002</v>
       </c>
       <c r="F11" s="9" t="n">
-        <v>3.389847338856016</v>
+        <v>2.05251885</v>
       </c>
       <c r="G11" s="9" t="n">
-        <v>1.170896159154998</v>
+        <v>1.215879614037152</v>
       </c>
     </row>
     <row r="12">
@@ -1908,7 +1910,7 @@
       </c>
       <c r="B12" s="10" t="inlineStr">
         <is>
-          <t>百大国际</t>
+          <t>丘北</t>
         </is>
       </c>
       <c r="C12" s="10" t="inlineStr">
@@ -1917,16 +1919,16 @@
         </is>
       </c>
       <c r="D12" s="10" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="E12" s="11" t="n">
-        <v>68.008498</v>
+        <v>75.43032199999998</v>
       </c>
       <c r="F12" s="12" t="n">
-        <v>2.304732432222222</v>
+        <v>2.875781026249999</v>
       </c>
       <c r="G12" s="12" t="n">
-        <v>1.469578970153747</v>
+        <v>0.8664094960173983</v>
       </c>
     </row>
     <row r="13">
@@ -1938,18 +1940,16 @@
         </is>
       </c>
       <c r="D13" s="10" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E13" s="11" t="n">
-        <v>0.139921</v>
+        <v>2.445629</v>
       </c>
       <c r="F13" s="12" t="n">
-        <v>0.1896706888888889</v>
-      </c>
-      <c r="G13" s="12" t="inlineStr">
-        <is>
-          <t>——</t>
-        </is>
+        <v>1.657592988888889</v>
+      </c>
+      <c r="G13" s="12" t="n">
+        <v>2.396612594094609</v>
       </c>
     </row>
     <row r="14">
@@ -1966,7 +1966,7 @@
         </is>
       </c>
       <c r="E14" s="11" t="n">
-        <v>0.131434</v>
+        <v>0</v>
       </c>
       <c r="F14" s="12" t="inlineStr">
         <is>
@@ -1988,16 +1988,16 @@
         </is>
       </c>
       <c r="D15" s="13" t="n">
-        <v>1230</v>
+        <v>845</v>
       </c>
       <c r="E15" s="14" t="n">
-        <v>68.148419</v>
+        <v>77.87595099999997</v>
       </c>
       <c r="F15" s="15" t="n">
-        <v>2.253145560433604</v>
+        <v>2.81090710710059</v>
       </c>
       <c r="G15" s="15" t="n">
-        <v>1.474659893409586</v>
+        <v>0.8931941116657027</v>
       </c>
     </row>
     <row r="16">
@@ -2018,13 +2018,13 @@
         <v>850</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>56.47469299999999</v>
+        <v>62.09050399999999</v>
       </c>
       <c r="F16" s="6" t="n">
-        <v>2.701926488627451</v>
+        <v>2.227953378823529</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.800204059299729</v>
+        <v>0.5792878474316032</v>
       </c>
     </row>
     <row r="17">
@@ -2039,13 +2039,13 @@
         <v>70</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.453668</v>
+        <v>1.566386</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>0.8445118857142858</v>
+        <v>0.6824967571428572</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>12.82339292506656</v>
+        <v>8.612560754087095</v>
       </c>
     </row>
     <row r="18">
@@ -2062,15 +2062,17 @@
         </is>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.453668</v>
+        <v>0</v>
       </c>
       <c r="F18" s="6" t="inlineStr">
         <is>
           <t>——</t>
         </is>
       </c>
-      <c r="G18" s="6" t="n">
-        <v>37.52204791180836</v>
+      <c r="G18" s="6" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -2085,13 +2087,13 @@
         <v>920</v>
       </c>
       <c r="E19" s="8" t="n">
-        <v>57.92836100000002</v>
+        <v>63.65689000000001</v>
       </c>
       <c r="F19" s="9" t="n">
-        <v>2.560601464492755</v>
+        <v>2.110364288043479</v>
       </c>
       <c r="G19" s="9" t="n">
-        <v>0.8403724780377761</v>
+        <v>0.6124461288510243</v>
       </c>
     </row>
     <row r="20">
@@ -2100,7 +2102,7 @@
       </c>
       <c r="B20" s="10" t="inlineStr">
         <is>
-          <t>祥云</t>
+          <t>师宗</t>
         </is>
       </c>
       <c r="C20" s="10" t="inlineStr">
@@ -2109,18 +2111,16 @@
         </is>
       </c>
       <c r="D20" s="10" t="n">
-        <v>600</v>
+        <v>980</v>
       </c>
       <c r="E20" s="11" t="n">
-        <v>53.90599700000001</v>
+        <v>59.41065899999999</v>
       </c>
       <c r="F20" s="12" t="n">
-        <v>3.653628685555556</v>
-      </c>
-      <c r="G20" s="12" t="inlineStr">
-        <is>
-          <t>——</t>
-        </is>
+        <v>1.849005203571428</v>
+      </c>
+      <c r="G20" s="12" t="n">
+        <v>0.680583560256272</v>
       </c>
     </row>
     <row r="21">
@@ -2132,18 +2132,16 @@
         </is>
       </c>
       <c r="D21" s="10" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E21" s="11" t="n">
-        <v>2.185306000000001</v>
+        <v>2.454908</v>
       </c>
       <c r="F21" s="12" t="n">
-        <v>5.924607377777779</v>
-      </c>
-      <c r="G21" s="12" t="inlineStr">
-        <is>
-          <t>——</t>
-        </is>
+        <v>2.495823133333333</v>
+      </c>
+      <c r="G21" s="12" t="n">
+        <v>3.116942313690897</v>
       </c>
     </row>
     <row r="22">
@@ -2160,7 +2158,7 @@
         </is>
       </c>
       <c r="E22" s="11" t="n">
-        <v>0.240982</v>
+        <v>0</v>
       </c>
       <c r="F22" s="12" t="inlineStr">
         <is>
@@ -2182,18 +2180,16 @@
         </is>
       </c>
       <c r="D23" s="13" t="n">
-        <v>615</v>
+        <v>1010</v>
       </c>
       <c r="E23" s="14" t="n">
-        <v>56.091303</v>
+        <v>61.86556699999999</v>
       </c>
       <c r="F23" s="15" t="n">
-        <v>3.709018409756098</v>
-      </c>
-      <c r="G23" s="15" t="inlineStr">
-        <is>
-          <t>——</t>
-        </is>
+        <v>1.868217617326732</v>
+      </c>
+      <c r="G23" s="15" t="n">
+        <v>0.7209976648725134</v>
       </c>
     </row>
     <row r="24">
@@ -2202,7 +2198,7 @@
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
-          <t>春怡雅苑</t>
+          <t>祥云</t>
         </is>
       </c>
       <c r="C24" s="4" t="inlineStr">
@@ -2211,16 +2207,18 @@
         </is>
       </c>
       <c r="D24" s="4" t="n">
-        <v>950</v>
+        <v>600</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>50.76822</v>
+        <v>57.29196500000003</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>2.173236084210526</v>
-      </c>
-      <c r="G24" s="6" t="n">
-        <v>1.653845864329933</v>
+        <v>2.912341554166668</v>
+      </c>
+      <c r="G24" s="6" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -2232,16 +2230,18 @@
         </is>
       </c>
       <c r="D25" s="4" t="n">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>4.579656</v>
+        <v>2.225554</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>1.241595626666667</v>
-      </c>
-      <c r="G25" s="6" t="n">
-        <v>1.983631143370336</v>
+        <v>4.525293133333334</v>
+      </c>
+      <c r="G25" s="6" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -2258,15 +2258,17 @@
         </is>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.340926</v>
+        <v>0</v>
       </c>
       <c r="F26" s="6" t="inlineStr">
         <is>
           <t>——</t>
         </is>
       </c>
-      <c r="G26" s="6" t="n">
-        <v>3.950355021853083</v>
+      <c r="G26" s="6" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -2278,16 +2280,18 @@
         </is>
       </c>
       <c r="D27" s="7" t="n">
-        <v>1100</v>
+        <v>615</v>
       </c>
       <c r="E27" s="8" t="n">
-        <v>55.34787600000001</v>
+        <v>59.51751900000001</v>
       </c>
       <c r="F27" s="9" t="n">
-        <v>2.046194203636364</v>
-      </c>
-      <c r="G27" s="9" t="n">
-        <v>1.678341230670262</v>
+        <v>2.951681836585367</v>
+      </c>
+      <c r="G27" s="9" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -2296,7 +2300,7 @@
       </c>
       <c r="B28" s="10" t="inlineStr">
         <is>
-          <t>师宗</t>
+          <t>春怡雅苑</t>
         </is>
       </c>
       <c r="C28" s="10" t="inlineStr">
@@ -2305,16 +2309,16 @@
         </is>
       </c>
       <c r="D28" s="10" t="n">
-        <v>980</v>
+        <v>950</v>
       </c>
       <c r="E28" s="11" t="n">
-        <v>51.86073299999999</v>
+        <v>54.44119299999998</v>
       </c>
       <c r="F28" s="12" t="n">
-        <v>2.152044022448979</v>
+        <v>1.747848827894736</v>
       </c>
       <c r="G28" s="12" t="n">
-        <v>0.9702377867878766</v>
+        <v>1.124366732896237</v>
       </c>
     </row>
     <row r="29">
@@ -2326,16 +2330,16 @@
         </is>
       </c>
       <c r="D29" s="10" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="E29" s="11" t="n">
-        <v>2.229472</v>
+        <v>4.60392</v>
       </c>
       <c r="F29" s="12" t="n">
-        <v>3.022173155555556</v>
+        <v>0.9361303999999998</v>
       </c>
       <c r="G29" s="12" t="n">
-        <v>2.97945188363683</v>
+        <v>1.999439061271318</v>
       </c>
     </row>
     <row r="30">
@@ -2352,15 +2356,17 @@
         </is>
       </c>
       <c r="E30" s="11" t="n">
-        <v>2.166209</v>
+        <v>0</v>
       </c>
       <c r="F30" s="12" t="inlineStr">
         <is>
           <t>——</t>
         </is>
       </c>
-      <c r="G30" s="12" t="n">
-        <v>18.79429986476114</v>
+      <c r="G30" s="12" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
       </c>
     </row>
     <row r="31">
@@ -2372,16 +2378,16 @@
         </is>
       </c>
       <c r="D31" s="13" t="n">
-        <v>1010</v>
+        <v>1100</v>
       </c>
       <c r="E31" s="14" t="n">
-        <v>54.09020499999999</v>
+        <v>59.04511300000001</v>
       </c>
       <c r="F31" s="15" t="n">
-        <v>2.177889442244224</v>
+        <v>1.637159951363637</v>
       </c>
       <c r="G31" s="15" t="n">
-        <v>1.012111196975082</v>
+        <v>1.17381723969808</v>
       </c>
     </row>
     <row r="32">
@@ -2390,7 +2396,7 @@
       </c>
       <c r="B32" s="4" t="inlineStr">
         <is>
-          <t>富宁</t>
+          <t>宣威</t>
         </is>
       </c>
       <c r="C32" s="4" t="inlineStr">
@@ -2399,16 +2405,16 @@
         </is>
       </c>
       <c r="D32" s="4" t="n">
-        <v>400</v>
+        <v>980</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>50.75389000000001</v>
+        <v>57.47479500000001</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>5.159978816666668</v>
+        <v>1.788756375</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>3.38950436218428</v>
+        <v>2.45679867364312</v>
       </c>
     </row>
     <row r="33">
@@ -2420,13 +2426,13 @@
         </is>
       </c>
       <c r="D33" s="4" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>1.030843</v>
+        <v>1.185801</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.19774139047619</v>
+        <v>1.20556435</v>
       </c>
       <c r="G33" s="6" t="inlineStr">
         <is>
@@ -2448,7 +2454,7 @@
         </is>
       </c>
       <c r="E34" s="5" t="n">
-        <v>0.108626</v>
+        <v>0</v>
       </c>
       <c r="F34" s="6" t="inlineStr">
         <is>
@@ -2470,16 +2476,16 @@
         </is>
       </c>
       <c r="D35" s="7" t="n">
-        <v>435</v>
+        <v>1010</v>
       </c>
       <c r="E35" s="8" t="n">
-        <v>51.784733</v>
+        <v>58.66059600000001</v>
       </c>
       <c r="F35" s="9" t="n">
-        <v>4.841178104214559</v>
+        <v>1.771433839603961</v>
       </c>
       <c r="G35" s="9" t="n">
-        <v>3.478657919581103</v>
+        <v>2.528118202908161</v>
       </c>
     </row>
     <row r="36">
@@ -2488,7 +2494,7 @@
       </c>
       <c r="B36" s="10" t="inlineStr">
         <is>
-          <t>宣威</t>
+          <t>富宁</t>
         </is>
       </c>
       <c r="C36" s="10" t="inlineStr">
@@ -2497,16 +2503,16 @@
         </is>
       </c>
       <c r="D36" s="10" t="n">
-        <v>980</v>
+        <v>400</v>
       </c>
       <c r="E36" s="11" t="n">
-        <v>49.956402</v>
+        <v>57.44232800000002</v>
       </c>
       <c r="F36" s="12" t="n">
-        <v>2.073020763265306</v>
+        <v>4.379977510000002</v>
       </c>
       <c r="G36" s="12" t="n">
-        <v>2.610628675530207</v>
+        <v>2.613016117839432</v>
       </c>
     </row>
     <row r="37">
@@ -2518,13 +2524,13 @@
         </is>
       </c>
       <c r="D37" s="10" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E37" s="11" t="n">
-        <v>1.139159</v>
+        <v>1.057811</v>
       </c>
       <c r="F37" s="12" t="n">
-        <v>1.544193311111111</v>
+        <v>0.9218067285714284</v>
       </c>
       <c r="G37" s="12" t="inlineStr">
         <is>
@@ -2546,7 +2552,7 @@
         </is>
       </c>
       <c r="E38" s="11" t="n">
-        <v>0.8887630000000001</v>
+        <v>0</v>
       </c>
       <c r="F38" s="12" t="inlineStr">
         <is>
@@ -2568,16 +2574,16 @@
         </is>
       </c>
       <c r="D39" s="13" t="n">
-        <v>1010</v>
+        <v>435</v>
       </c>
       <c r="E39" s="14" t="n">
-        <v>51.095561</v>
+        <v>58.500139</v>
       </c>
       <c r="F39" s="15" t="n">
-        <v>2.057313017161716</v>
+        <v>4.101733883908047</v>
       </c>
       <c r="G39" s="15" t="n">
-        <v>2.692962069984604</v>
+        <v>2.679550471959408</v>
       </c>
     </row>
     <row r="40">
@@ -2598,13 +2604,13 @@
         <v>600</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>47.72479399999999</v>
+        <v>53.28971799999998</v>
       </c>
       <c r="F40" s="6" t="n">
-        <v>3.234680482222222</v>
+        <v>2.708893998333332</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>0.993088786025992</v>
+        <v>0.8278154440623766</v>
       </c>
     </row>
     <row r="41">
@@ -2619,13 +2625,13 @@
         <v>35</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>1.826887</v>
+        <v>1.967897</v>
       </c>
       <c r="F41" s="6" t="n">
-        <v>2.122668704761905</v>
+        <v>1.714881671428571</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>9.350106793421299</v>
+        <v>8.383180912237874</v>
       </c>
     </row>
     <row r="42">
@@ -2642,15 +2648,17 @@
         </is>
       </c>
       <c r="E42" s="5" t="n">
-        <v>0.2590020000000001</v>
+        <v>0</v>
       </c>
       <c r="F42" s="6" t="inlineStr">
         <is>
           <t>——</t>
         </is>
       </c>
-      <c r="G42" s="6" t="n">
-        <v>2.22989437454015</v>
+      <c r="G42" s="6" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
       </c>
     </row>
     <row r="43">
@@ -2665,13 +2673,13 @@
         <v>635</v>
       </c>
       <c r="E43" s="8" t="n">
-        <v>49.55168099999999</v>
+        <v>55.257615</v>
       </c>
       <c r="F43" s="9" t="n">
-        <v>3.173388494488189</v>
+        <v>2.654105917322835</v>
       </c>
       <c r="G43" s="9" t="n">
-        <v>1.054240856067439</v>
+        <v>0.88177691133751</v>
       </c>
     </row>
     <row r="44">
@@ -2692,13 +2700,13 @@
         <v>780</v>
       </c>
       <c r="E44" s="11" t="n">
-        <v>46.13462599999998</v>
+        <v>51.72355199999998</v>
       </c>
       <c r="F44" s="12" t="n">
-        <v>2.405309560683759</v>
+        <v>2.022523507692307</v>
       </c>
       <c r="G44" s="12" t="n">
-        <v>1.489344107142971</v>
+        <v>1.016381781986401</v>
       </c>
     </row>
     <row r="45">
@@ -2713,13 +2721,13 @@
         <v>30</v>
       </c>
       <c r="E45" s="11" t="n">
-        <v>0.289484</v>
+        <v>0.316692</v>
       </c>
       <c r="F45" s="12" t="n">
-        <v>0.3924116444444445</v>
+        <v>0.3219702</v>
       </c>
       <c r="G45" s="12" t="n">
-        <v>3.631077124894016</v>
+        <v>3.18257458694877</v>
       </c>
     </row>
     <row r="46">
@@ -2736,15 +2744,17 @@
         </is>
       </c>
       <c r="E46" s="11" t="n">
-        <v>0.279852</v>
+        <v>0</v>
       </c>
       <c r="F46" s="12" t="inlineStr">
         <is>
           <t>——</t>
         </is>
       </c>
-      <c r="G46" s="12" t="n">
-        <v>58.32838668645326</v>
+      <c r="G46" s="12" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
       </c>
     </row>
     <row r="47">
@@ -2759,13 +2769,13 @@
         <v>810</v>
       </c>
       <c r="E47" s="14" t="n">
-        <v>46.42410999999999</v>
+        <v>52.04024399999999</v>
       </c>
       <c r="F47" s="15" t="n">
-        <v>2.33075778600823</v>
+        <v>1.959540051851852</v>
       </c>
       <c r="G47" s="15" t="n">
-        <v>1.496543625711219</v>
+        <v>1.022756997864881</v>
       </c>
     </row>
     <row r="48">
@@ -2786,10 +2796,10 @@
         <v>780</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>43.459397</v>
+        <v>50.56865299999999</v>
       </c>
       <c r="F48" s="6" t="n">
-        <v>2.265831809401709</v>
+        <v>1.97736399551282</v>
       </c>
       <c r="G48" s="6" t="inlineStr">
         <is>
@@ -2809,10 +2819,10 @@
         <v>30</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>0.783999</v>
+        <v>0.8515369999999999</v>
       </c>
       <c r="F49" s="6" t="n">
-        <v>1.0627542</v>
+        <v>0.8657292833333332</v>
       </c>
       <c r="G49" s="6" t="inlineStr">
         <is>
@@ -2834,7 +2844,7 @@
         </is>
       </c>
       <c r="E50" s="5" t="n">
-        <v>0.312031</v>
+        <v>0</v>
       </c>
       <c r="F50" s="6" t="inlineStr">
         <is>
@@ -2859,10 +2869,10 @@
         <v>810</v>
       </c>
       <c r="E51" s="8" t="n">
-        <v>44.24339600000001</v>
+        <v>51.42019000000001</v>
       </c>
       <c r="F51" s="9" t="n">
-        <v>2.221273379423869</v>
+        <v>1.936192339506173</v>
       </c>
       <c r="G51" s="9" t="inlineStr">
         <is>
@@ -2876,7 +2886,7 @@
       </c>
       <c r="B52" s="10" t="inlineStr">
         <is>
-          <t>弥渡</t>
+          <t>东川</t>
         </is>
       </c>
       <c r="C52" s="10" t="inlineStr">
@@ -2885,16 +2895,16 @@
         </is>
       </c>
       <c r="D52" s="10" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="E52" s="11" t="n">
-        <v>34.84417500000001</v>
+        <v>39.69384300000001</v>
       </c>
       <c r="F52" s="12" t="n">
-        <v>3.148881000000001</v>
+        <v>1.513327764375</v>
       </c>
       <c r="G52" s="12" t="n">
-        <v>1.140797394487432</v>
+        <v>1.426383179585585</v>
       </c>
     </row>
     <row r="53">
@@ -2906,16 +2916,16 @@
         </is>
       </c>
       <c r="D53" s="10" t="n">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="E53" s="11" t="n">
-        <v>1.114337</v>
+        <v>0.09447699999999999</v>
       </c>
       <c r="F53" s="12" t="n">
-        <v>3.776364277777779</v>
+        <v>0.04802580833333333</v>
       </c>
       <c r="G53" s="12" t="n">
-        <v>10.73344494635205</v>
+        <v>-0.9348969674584755</v>
       </c>
     </row>
     <row r="54">
@@ -2932,15 +2942,17 @@
         </is>
       </c>
       <c r="E54" s="11" t="n">
-        <v>1.114337</v>
+        <v>0</v>
       </c>
       <c r="F54" s="12" t="inlineStr">
         <is>
           <t>——</t>
         </is>
       </c>
-      <c r="G54" s="12" t="n">
-        <v>17.17219223430799</v>
+      <c r="G54" s="12" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
       </c>
     </row>
     <row r="55">
@@ -2952,16 +2964,16 @@
         </is>
       </c>
       <c r="D55" s="13" t="n">
-        <v>462</v>
+        <v>860</v>
       </c>
       <c r="E55" s="14" t="n">
-        <v>35.95851200000001</v>
+        <v>39.78832</v>
       </c>
       <c r="F55" s="15" t="n">
-        <v>3.165179266955268</v>
+        <v>1.411097395348837</v>
       </c>
       <c r="G55" s="15" t="n">
-        <v>1.19644521539034</v>
+        <v>1.23398659753574</v>
       </c>
     </row>
     <row r="56">
@@ -2970,7 +2982,7 @@
       </c>
       <c r="B56" s="4" t="inlineStr">
         <is>
-          <t>东川</t>
+          <t>弥渡</t>
         </is>
       </c>
       <c r="C56" s="4" t="inlineStr">
@@ -2979,16 +2991,16 @@
         </is>
       </c>
       <c r="D56" s="4" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>35.320288</v>
+        <v>36.40284600000001</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>1.795447973333333</v>
+        <v>2.467304006666667</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>2.036251968346901</v>
+        <v>0.9640933533964542</v>
       </c>
     </row>
     <row r="57">
@@ -3000,16 +3012,16 @@
         </is>
       </c>
       <c r="D57" s="4" t="n">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="E57" s="5" t="n">
-        <v>0.06726900000000001</v>
+        <v>1.141545</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.04559343333333334</v>
+        <v>2.901426875000001</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>-0.9536456926443917</v>
+        <v>11.01993240041697</v>
       </c>
     </row>
     <row r="58">
@@ -3026,15 +3038,17 @@
         </is>
       </c>
       <c r="E58" s="5" t="n">
-        <v>0.092736</v>
+        <v>0</v>
       </c>
       <c r="F58" s="6" t="inlineStr">
         <is>
           <t>——</t>
         </is>
       </c>
-      <c r="G58" s="6" t="n">
-        <v>-0.01700233199067203</v>
+      <c r="G58" s="6" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
       </c>
     </row>
     <row r="59">
@@ -3046,16 +3060,16 @@
         </is>
       </c>
       <c r="D59" s="7" t="n">
-        <v>860</v>
+        <v>462</v>
       </c>
       <c r="E59" s="8" t="n">
-        <v>35.38755699999999</v>
+        <v>37.54439100000001</v>
       </c>
       <c r="F59" s="9" t="n">
-        <v>1.673365098449612</v>
+        <v>2.478579925324676</v>
       </c>
       <c r="G59" s="9" t="n">
-        <v>1.704633274865198</v>
+        <v>1.015357817836398</v>
       </c>
     </row>
     <row r="60">
@@ -3064,7 +3078,7 @@
       </c>
       <c r="B60" s="10" t="inlineStr">
         <is>
-          <t>施甸</t>
+          <t>勐腊</t>
         </is>
       </c>
       <c r="C60" s="10" t="inlineStr">
@@ -3073,16 +3087,16 @@
         </is>
       </c>
       <c r="D60" s="10" t="n">
-        <v>370</v>
+        <v>650</v>
       </c>
       <c r="E60" s="11" t="n">
-        <v>16.750757</v>
+        <v>34.678365</v>
       </c>
       <c r="F60" s="12" t="n">
-        <v>1.841074192792792</v>
+        <v>1.627215588461538</v>
       </c>
       <c r="G60" s="12" t="n">
-        <v>0.4718654000819458</v>
+        <v>0.2464107393052166</v>
       </c>
     </row>
     <row r="61">
@@ -3093,21 +3107,17 @@
           <t>非车险</t>
         </is>
       </c>
-      <c r="D61" s="10" t="inlineStr">
-        <is>
-          <t>——</t>
-        </is>
+      <c r="D61" s="10" t="n">
+        <v>45</v>
       </c>
       <c r="E61" s="11" t="n">
-        <v>17.663452</v>
-      </c>
-      <c r="F61" s="12" t="inlineStr">
-        <is>
-          <t>——</t>
-        </is>
+        <v>1.457524</v>
+      </c>
+      <c r="F61" s="12" t="n">
+        <v>0.9878773777777778</v>
       </c>
       <c r="G61" s="12" t="n">
-        <v>-0.3803023568572087</v>
+        <v>0.4045148023304448</v>
       </c>
     </row>
     <row r="62">
@@ -3124,15 +3134,17 @@
         </is>
       </c>
       <c r="E62" s="11" t="n">
-        <v>0.396454</v>
+        <v>0</v>
       </c>
       <c r="F62" s="12" t="inlineStr">
         <is>
           <t>——</t>
         </is>
       </c>
-      <c r="G62" s="12" t="n">
-        <v>1.387701758612383</v>
+      <c r="G62" s="12" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
       </c>
     </row>
     <row r="63">
@@ -3144,16 +3156,16 @@
         </is>
       </c>
       <c r="D63" s="13" t="n">
-        <v>370</v>
+        <v>695</v>
       </c>
       <c r="E63" s="14" t="n">
-        <v>34.41420900000001</v>
+        <v>36.135889</v>
       </c>
       <c r="F63" s="15" t="n">
-        <v>3.782462610810811</v>
+        <v>1.585819589208633</v>
       </c>
       <c r="G63" s="15" t="n">
-        <v>-0.1371418391900298</v>
+        <v>0.2520957491676121</v>
       </c>
     </row>
     <row r="64">
@@ -3162,7 +3174,7 @@
       </c>
       <c r="B64" s="4" t="inlineStr">
         <is>
-          <t>勐腊</t>
+          <t>施甸</t>
         </is>
       </c>
       <c r="C64" s="4" t="inlineStr">
@@ -3171,16 +3183,16 @@
         </is>
       </c>
       <c r="D64" s="4" t="n">
-        <v>650</v>
+        <v>370</v>
       </c>
       <c r="E64" s="5" t="n">
-        <v>29.650821</v>
+        <v>18.32539299999999</v>
       </c>
       <c r="F64" s="6" t="n">
-        <v>1.855077006153846</v>
+        <v>1.51060672027027</v>
       </c>
       <c r="G64" s="6" t="n">
-        <v>0.4289449680578201</v>
+        <v>0.3250028054028002</v>
       </c>
     </row>
     <row r="65">
@@ -3191,17 +3203,21 @@
           <t>非车险</t>
         </is>
       </c>
-      <c r="D65" s="4" t="n">
-        <v>45</v>
+      <c r="D65" s="4" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
       </c>
       <c r="E65" s="5" t="n">
-        <v>1.294278</v>
-      </c>
-      <c r="F65" s="6" t="n">
-        <v>1.169643822222223</v>
+        <v>17.663452</v>
+      </c>
+      <c r="F65" s="6" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
       </c>
       <c r="G65" s="6" t="n">
-        <v>1.834549547971128</v>
+        <v>-0.4082654520991866</v>
       </c>
     </row>
     <row r="66">
@@ -3218,15 +3234,17 @@
         </is>
       </c>
       <c r="E66" s="5" t="n">
-        <v>1.27541</v>
+        <v>0</v>
       </c>
       <c r="F66" s="6" t="inlineStr">
         <is>
           <t>——</t>
         </is>
       </c>
-      <c r="G66" s="6" t="n">
-        <v>1.793227451117809</v>
+      <c r="G66" s="6" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
       </c>
     </row>
     <row r="67">
@@ -3238,16 +3256,16 @@
         </is>
       </c>
       <c r="D67" s="7" t="n">
-        <v>695</v>
+        <v>370</v>
       </c>
       <c r="E67" s="8" t="n">
-        <v>30.945099</v>
+        <v>35.988845</v>
       </c>
       <c r="F67" s="9" t="n">
-        <v>1.81069644028777</v>
+        <v>2.966648033783784</v>
       </c>
       <c r="G67" s="9" t="n">
-        <v>0.4592093925535152</v>
+        <v>-0.1760937591895448</v>
       </c>
     </row>
     <row r="68">
@@ -3268,13 +3286,13 @@
         <v>440</v>
       </c>
       <c r="E68" s="11" t="n">
-        <v>29.608365</v>
+        <v>32.84845100000001</v>
       </c>
       <c r="F68" s="12" t="n">
-        <v>2.736530704545455</v>
+        <v>2.276994898863637</v>
       </c>
       <c r="G68" s="12" t="n">
-        <v>2.066201930022323</v>
+        <v>1.754910282556421</v>
       </c>
     </row>
     <row r="69">
@@ -3292,10 +3310,10 @@
         <v>1.009233</v>
       </c>
       <c r="F69" s="12" t="n">
-        <v>2.0521071</v>
+        <v>1.539080325</v>
       </c>
       <c r="G69" s="12" t="n">
-        <v>34.65942336230655</v>
+        <v>25.74456752172992</v>
       </c>
     </row>
     <row r="70">
@@ -3312,15 +3330,17 @@
         </is>
       </c>
       <c r="E70" s="11" t="n">
-        <v>1.009233</v>
+        <v>0</v>
       </c>
       <c r="F70" s="12" t="inlineStr">
         <is>
           <t>——</t>
         </is>
       </c>
-      <c r="G70" s="12" t="n">
-        <v>34.65942336230655</v>
+      <c r="G70" s="12" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
       </c>
     </row>
     <row r="71">
@@ -3335,13 +3355,13 @@
         <v>460</v>
       </c>
       <c r="E71" s="14" t="n">
-        <v>30.61759800000002</v>
+        <v>33.85768400000002</v>
       </c>
       <c r="F71" s="15" t="n">
-        <v>2.706773156521741</v>
+        <v>2.244911656521741</v>
       </c>
       <c r="G71" s="15" t="n">
-        <v>2.16145077574686</v>
+        <v>1.83059360337394</v>
       </c>
     </row>
     <row r="72">
@@ -3350,7 +3370,7 @@
       </c>
       <c r="B72" s="4" t="inlineStr">
         <is>
-          <t>香榭丽园</t>
+          <t>勐海</t>
         </is>
       </c>
       <c r="C72" s="4" t="inlineStr">
@@ -3359,16 +3379,16 @@
         </is>
       </c>
       <c r="D72" s="4" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="E72" s="5" t="n">
-        <v>28.95768100000001</v>
+        <v>32.00277900000002</v>
       </c>
       <c r="F72" s="6" t="n">
-        <v>1.811711324102565</v>
+        <v>1.626807932500001</v>
       </c>
       <c r="G72" s="6" t="n">
-        <v>0.9031110734314023</v>
+        <v>1.597561328982039</v>
       </c>
     </row>
     <row r="73">
@@ -3380,16 +3400,16 @@
         </is>
       </c>
       <c r="D73" s="4" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E73" s="5" t="n">
-        <v>0.273244</v>
+        <v>0.7912020000000002</v>
       </c>
       <c r="F73" s="6" t="n">
-        <v>0.3703974222222222</v>
+        <v>0.6894760285714288</v>
       </c>
       <c r="G73" s="6" t="n">
-        <v>-0.1756748603217128</v>
+        <v>6.765409076633167</v>
       </c>
     </row>
     <row r="74">
@@ -3406,7 +3426,7 @@
         </is>
       </c>
       <c r="E74" s="5" t="n">
-        <v>0.18268</v>
+        <v>0</v>
       </c>
       <c r="F74" s="6" t="inlineStr">
         <is>
@@ -3428,16 +3448,16 @@
         </is>
       </c>
       <c r="D75" s="7" t="n">
-        <v>680</v>
+        <v>635</v>
       </c>
       <c r="E75" s="8" t="n">
-        <v>29.23092500000001</v>
+        <v>32.793981</v>
       </c>
       <c r="F75" s="9" t="n">
-        <v>1.748123946078432</v>
+        <v>1.575143969291339</v>
       </c>
       <c r="G75" s="9" t="n">
-        <v>0.8801110484641668</v>
+        <v>1.639948463255918</v>
       </c>
     </row>
     <row r="76">
@@ -3446,7 +3466,7 @@
       </c>
       <c r="B76" s="10" t="inlineStr">
         <is>
-          <t>云龙</t>
+          <t>香榭丽园</t>
         </is>
       </c>
       <c r="C76" s="10" t="inlineStr">
@@ -3455,16 +3475,16 @@
         </is>
       </c>
       <c r="D76" s="10" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="E76" s="11" t="n">
-        <v>26.567861</v>
+        <v>31.853491</v>
       </c>
       <c r="F76" s="12" t="n">
-        <v>1.96441154060606</v>
+        <v>1.494663808461538</v>
       </c>
       <c r="G76" s="12" t="n">
-        <v>0.9575381898040951</v>
+        <v>0.5646829970558693</v>
       </c>
     </row>
     <row r="77">
@@ -3476,16 +3496,16 @@
         </is>
       </c>
       <c r="D77" s="10" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E77" s="11" t="n">
-        <v>1.302837</v>
+        <v>0.336546</v>
       </c>
       <c r="F77" s="12" t="n">
-        <v>3.532135866666667</v>
+        <v>0.3421551</v>
       </c>
       <c r="G77" s="12" t="n">
-        <v>5.834483048046709</v>
+        <v>0.01529522499366465</v>
       </c>
     </row>
     <row r="78">
@@ -3502,15 +3522,17 @@
         </is>
       </c>
       <c r="E78" s="11" t="n">
-        <v>0.469387</v>
+        <v>0</v>
       </c>
       <c r="F78" s="12" t="inlineStr">
         <is>
           <t>——</t>
         </is>
       </c>
-      <c r="G78" s="12" t="n">
-        <v>1.591351249889586</v>
+      <c r="G78" s="12" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
       </c>
     </row>
     <row r="79">
@@ -3522,16 +3544,16 @@
         </is>
       </c>
       <c r="D79" s="13" t="n">
-        <v>565</v>
+        <v>680</v>
       </c>
       <c r="E79" s="14" t="n">
-        <v>27.870698</v>
+        <v>32.19003700000001</v>
       </c>
       <c r="F79" s="15" t="n">
-        <v>2.006032540412979</v>
+        <v>1.443817836029412</v>
       </c>
       <c r="G79" s="15" t="n">
-        <v>1.02508867261196</v>
+        <v>0.5558809040513184</v>
       </c>
     </row>
     <row r="80">
@@ -3540,7 +3562,7 @@
       </c>
       <c r="B80" s="4" t="inlineStr">
         <is>
-          <t>勐海</t>
+          <t>云龙</t>
         </is>
       </c>
       <c r="C80" s="4" t="inlineStr">
@@ -3549,16 +3571,16 @@
         </is>
       </c>
       <c r="D80" s="4" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="E80" s="5" t="n">
-        <v>25.73017800000001</v>
+        <v>29.130267</v>
       </c>
       <c r="F80" s="6" t="n">
-        <v>1.743934286666667</v>
+        <v>1.615405715454545</v>
       </c>
       <c r="G80" s="6" t="n">
-        <v>1.700833673253241</v>
+        <v>0.7788827485190308</v>
       </c>
     </row>
     <row r="81">
@@ -3570,16 +3592,16 @@
         </is>
       </c>
       <c r="D81" s="4" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E81" s="5" t="n">
-        <v>0.7329000000000001</v>
+        <v>1.312469</v>
       </c>
       <c r="F81" s="6" t="n">
-        <v>0.8515600000000002</v>
+        <v>2.668686966666667</v>
       </c>
       <c r="G81" s="6" t="n">
-        <v>8.710886156455375</v>
+        <v>4.558953833121559</v>
       </c>
     </row>
     <row r="82">
@@ -3596,15 +3618,17 @@
         </is>
       </c>
       <c r="E82" s="5" t="n">
-        <v>0.547474</v>
+        <v>0</v>
       </c>
       <c r="F82" s="6" t="inlineStr">
         <is>
           <t>——</t>
         </is>
       </c>
-      <c r="G82" s="6" t="n">
-        <v>6.254001483994064</v>
+      <c r="G82" s="6" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
       </c>
     </row>
     <row r="83">
@@ -3616,16 +3640,16 @@
         </is>
       </c>
       <c r="D83" s="7" t="n">
-        <v>635</v>
+        <v>565</v>
       </c>
       <c r="E83" s="8" t="n">
-        <v>26.463078</v>
+        <v>30.442736</v>
       </c>
       <c r="F83" s="9" t="n">
-        <v>1.694748302362205</v>
+        <v>1.643368934513274</v>
       </c>
       <c r="G83" s="9" t="n">
-        <v>1.755931593361789</v>
+        <v>0.832608432479836</v>
       </c>
     </row>
     <row r="84">
@@ -3646,13 +3670,13 @@
         <v>450</v>
       </c>
       <c r="E84" s="11" t="n">
-        <v>23.552969</v>
+        <v>27.022155</v>
       </c>
       <c r="F84" s="12" t="n">
-        <v>2.128490531851852</v>
+        <v>1.831501616666666</v>
       </c>
       <c r="G84" s="12" t="n">
-        <v>1.423625195692068</v>
+        <v>1.002475772679472</v>
       </c>
     </row>
     <row r="85">
@@ -3667,13 +3691,13 @@
         <v>15</v>
       </c>
       <c r="E85" s="11" t="n">
-        <v>0.7965580000000001</v>
+        <v>1.858669</v>
       </c>
       <c r="F85" s="12" t="n">
-        <v>2.159557244444445</v>
+        <v>3.779293633333333</v>
       </c>
       <c r="G85" s="12" t="n">
-        <v>-0.1838060048650429</v>
+        <v>0.8321576783936442</v>
       </c>
     </row>
     <row r="86">
@@ -3690,7 +3714,7 @@
         </is>
       </c>
       <c r="E86" s="11" t="n">
-        <v>0.7965580000000001</v>
+        <v>0</v>
       </c>
       <c r="F86" s="12" t="inlineStr">
         <is>
@@ -3715,13 +3739,13 @@
         <v>465</v>
       </c>
       <c r="E87" s="14" t="n">
-        <v>24.349527</v>
+        <v>28.880824</v>
       </c>
       <c r="F87" s="15" t="n">
-        <v>2.129492683870968</v>
+        <v>1.894333617204301</v>
       </c>
       <c r="G87" s="15" t="n">
-        <v>1.276930107454486</v>
+        <v>0.9905669942117366</v>
       </c>
     </row>
     <row r="88">
@@ -3742,13 +3766,13 @@
         <v>300</v>
       </c>
       <c r="E88" s="5" t="n">
-        <v>19.771791</v>
+        <v>25.040321</v>
       </c>
       <c r="F88" s="6" t="n">
-        <v>2.680176113333334</v>
+        <v>2.545765968333334</v>
       </c>
       <c r="G88" s="6" t="n">
-        <v>1.135730615112474</v>
+        <v>0.8019588423196127</v>
       </c>
     </row>
     <row r="89">
@@ -3763,10 +3787,10 @@
         <v>5</v>
       </c>
       <c r="E89" s="5" t="n">
-        <v>0.200009</v>
+        <v>0.388688</v>
       </c>
       <c r="F89" s="6" t="n">
-        <v>1.626739866666667</v>
+        <v>2.3709968</v>
       </c>
       <c r="G89" s="6" t="inlineStr">
         <is>
@@ -3788,7 +3812,7 @@
         </is>
       </c>
       <c r="E90" s="5" t="n">
-        <v>0.06793400000000001</v>
+        <v>0</v>
       </c>
       <c r="F90" s="6" t="inlineStr">
         <is>
@@ -3813,13 +3837,13 @@
         <v>305</v>
       </c>
       <c r="E91" s="8" t="n">
-        <v>19.9718</v>
+        <v>25.429009</v>
       </c>
       <c r="F91" s="9" t="n">
-        <v>2.662906666666667</v>
+        <v>2.5429009</v>
       </c>
       <c r="G91" s="9" t="n">
-        <v>1.157335402690799</v>
+        <v>0.8299297209079315</v>
       </c>
     </row>
     <row r="92">
@@ -3828,7 +3852,7 @@
       </c>
       <c r="B92" s="10" t="inlineStr">
         <is>
-          <t>漾濞</t>
+          <t>宾川</t>
         </is>
       </c>
       <c r="C92" s="10" t="inlineStr">
@@ -3837,16 +3861,16 @@
         </is>
       </c>
       <c r="D92" s="10" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="E92" s="11" t="n">
-        <v>15.2879</v>
+        <v>20.103258</v>
       </c>
       <c r="F92" s="12" t="n">
-        <v>1.776308380952381</v>
+        <v>1.226298738</v>
       </c>
       <c r="G92" s="12" t="n">
-        <v>-0.1063477142653217</v>
+        <v>-0.1346087735416066</v>
       </c>
     </row>
     <row r="93">
@@ -3858,16 +3882,16 @@
         </is>
       </c>
       <c r="D93" s="10" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E93" s="11" t="n">
-        <v>3.767542999999999</v>
+        <v>0.856942</v>
       </c>
       <c r="F93" s="12" t="n">
-        <v>30.64268306666666</v>
+        <v>3.267091375</v>
       </c>
       <c r="G93" s="12" t="n">
-        <v>32.82056230812042</v>
+        <v>-0.8010046115716336</v>
       </c>
     </row>
     <row r="94">
@@ -3884,15 +3908,17 @@
         </is>
       </c>
       <c r="E94" s="11" t="n">
-        <v>0.311512</v>
+        <v>0</v>
       </c>
       <c r="F94" s="12" t="inlineStr">
         <is>
           <t>——</t>
         </is>
       </c>
-      <c r="G94" s="12" t="n">
-        <v>2.05739635678392</v>
+      <c r="G94" s="12" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
       </c>
     </row>
     <row r="95">
@@ -3904,16 +3930,16 @@
         </is>
       </c>
       <c r="D95" s="13" t="n">
-        <v>355</v>
+        <v>508</v>
       </c>
       <c r="E95" s="14" t="n">
-        <v>19.055443</v>
+        <v>20.9602</v>
       </c>
       <c r="F95" s="15" t="n">
-        <v>2.182877038497653</v>
+        <v>1.25843720472441</v>
       </c>
       <c r="G95" s="15" t="n">
-        <v>0.1066771297638356</v>
+        <v>-0.238823826983692</v>
       </c>
     </row>
     <row r="96">
@@ -3922,7 +3948,7 @@
       </c>
       <c r="B96" s="4" t="inlineStr">
         <is>
-          <t>宾川</t>
+          <t>漾濞</t>
         </is>
       </c>
       <c r="C96" s="4" t="inlineStr">
@@ -3931,16 +3957,16 @@
         </is>
       </c>
       <c r="D96" s="4" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="E96" s="5" t="n">
-        <v>17.946946</v>
+        <v>16.689547</v>
       </c>
       <c r="F96" s="6" t="n">
-        <v>1.459684941333333</v>
+        <v>1.45437481</v>
       </c>
       <c r="G96" s="6" t="n">
-        <v>-0.1461808282836836</v>
+        <v>-0.2011878931258988</v>
       </c>
     </row>
     <row r="97">
@@ -3952,16 +3978,16 @@
         </is>
       </c>
       <c r="D97" s="4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E97" s="5" t="n">
-        <v>0.813074</v>
+        <v>3.791976999999998</v>
       </c>
       <c r="F97" s="6" t="n">
-        <v>4.133126166666667</v>
+        <v>23.13105969999999</v>
       </c>
       <c r="G97" s="6" t="n">
-        <v>-0.8100261102706239</v>
+        <v>27.09225606187445</v>
       </c>
     </row>
     <row r="98">
@@ -3978,15 +4004,17 @@
         </is>
       </c>
       <c r="E98" s="5" t="n">
-        <v>0.519176</v>
+        <v>0</v>
       </c>
       <c r="F98" s="6" t="inlineStr">
         <is>
           <t>——</t>
         </is>
       </c>
-      <c r="G98" s="6" t="n">
-        <v>2.718386523806795</v>
+      <c r="G98" s="6" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
       </c>
     </row>
     <row r="99">
@@ -3998,16 +4026,16 @@
         </is>
       </c>
       <c r="D99" s="7" t="n">
-        <v>508</v>
+        <v>355</v>
       </c>
       <c r="E99" s="8" t="n">
-        <v>18.76002</v>
+        <v>20.481524</v>
       </c>
       <c r="F99" s="9" t="n">
-        <v>1.501786377952756</v>
+        <v>1.759680230985916</v>
       </c>
       <c r="G99" s="9" t="n">
-        <v>-0.2584836045405575</v>
+        <v>-0.0259852367849629</v>
       </c>
     </row>
     <row r="100">
@@ -4028,13 +4056,13 @@
         <v>350</v>
       </c>
       <c r="E100" s="11" t="n">
-        <v>17.124202</v>
+        <v>19.56185</v>
       </c>
       <c r="F100" s="12" t="n">
-        <v>1.989669184761905</v>
+        <v>1.7046755</v>
       </c>
       <c r="G100" s="12" t="n">
-        <v>0.8118296777459169</v>
+        <v>0.9265750822459444</v>
       </c>
     </row>
     <row r="101">
@@ -4049,13 +4077,13 @@
         <v>30</v>
       </c>
       <c r="E101" s="11" t="n">
-        <v>0.362624</v>
+        <v>0.396548</v>
       </c>
       <c r="F101" s="12" t="n">
-        <v>0.4915569777777778</v>
+        <v>0.4031571333333333</v>
       </c>
       <c r="G101" s="12" t="n">
-        <v>2.002948093676504</v>
+        <v>2.283878233793765</v>
       </c>
     </row>
     <row r="102">
@@ -4072,15 +4100,17 @@
         </is>
       </c>
       <c r="E102" s="11" t="n">
-        <v>0.291284</v>
+        <v>0</v>
       </c>
       <c r="F102" s="12" t="inlineStr">
         <is>
           <t>——</t>
         </is>
       </c>
-      <c r="G102" s="12" t="n">
-        <v>1.412169995693795</v>
+      <c r="G102" s="12" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
       </c>
     </row>
     <row r="103">
@@ -4095,13 +4125,13 @@
         <v>380</v>
       </c>
       <c r="E103" s="14" t="n">
-        <v>17.486826</v>
+        <v>19.958398</v>
       </c>
       <c r="F103" s="15" t="n">
-        <v>1.871397168421052</v>
+        <v>1.60192405</v>
       </c>
       <c r="G103" s="15" t="n">
-        <v>0.8268561495523383</v>
+        <v>0.9425275206998949</v>
       </c>
     </row>
     <row r="104">
@@ -4122,13 +4152,13 @@
         <v>228</v>
       </c>
       <c r="E104" s="5" t="n">
-        <v>13.79972599999999</v>
+        <v>14.291465</v>
       </c>
       <c r="F104" s="6" t="n">
-        <v>2.4613546374269</v>
+        <v>1.911796853070175</v>
       </c>
       <c r="G104" s="6" t="n">
-        <v>1.029815044875982</v>
+        <v>0.7842950934043278</v>
       </c>
     </row>
     <row r="105">
@@ -4143,13 +4173,13 @@
         <v>72</v>
       </c>
       <c r="E105" s="5" t="n">
-        <v>1.084357</v>
+        <v>2.500017</v>
       </c>
       <c r="F105" s="6" t="n">
-        <v>0.6124608981481482</v>
+        <v>1.059034979166666</v>
       </c>
       <c r="G105" s="6" t="n">
-        <v>-0.2300132076007612</v>
+        <v>0.7752272275399776</v>
       </c>
     </row>
     <row r="106">
@@ -4166,15 +4196,17 @@
         </is>
       </c>
       <c r="E106" s="5" t="n">
-        <v>0.7541680000000001</v>
+        <v>0</v>
       </c>
       <c r="F106" s="6" t="inlineStr">
         <is>
           <t>——</t>
         </is>
       </c>
-      <c r="G106" s="6" t="n">
-        <v>5.149345248772851</v>
+      <c r="G106" s="6" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
       </c>
     </row>
     <row r="107">
@@ -4189,13 +4221,13 @@
         <v>300</v>
       </c>
       <c r="E107" s="8" t="n">
-        <v>14.88408299999999</v>
+        <v>16.79148199999999</v>
       </c>
       <c r="F107" s="9" t="n">
-        <v>2.017620139999999</v>
+        <v>1.707134003333333</v>
       </c>
       <c r="G107" s="9" t="n">
-        <v>0.8136294148482337</v>
+        <v>0.7829391499093317</v>
       </c>
     </row>
     <row r="108">
@@ -4216,13 +4248,13 @@
         <v>370</v>
       </c>
       <c r="E108" s="11" t="n">
-        <v>14.390619</v>
+        <v>15.9883</v>
       </c>
       <c r="F108" s="12" t="n">
-        <v>1.581671637837838</v>
+        <v>1.317954459459459</v>
       </c>
       <c r="G108" s="12" t="n">
-        <v>1.050346741606299</v>
+        <v>1.022563532198991</v>
       </c>
     </row>
     <row r="109">
@@ -4237,10 +4269,10 @@
         <v>20</v>
       </c>
       <c r="E109" s="11" t="n">
-        <v>0.22968</v>
+        <v>0.324946</v>
       </c>
       <c r="F109" s="12" t="n">
-        <v>0.467016</v>
+        <v>0.49554265</v>
       </c>
       <c r="G109" s="12" t="inlineStr">
         <is>
@@ -4262,7 +4294,7 @@
         </is>
       </c>
       <c r="E110" s="11" t="n">
-        <v>0.22968</v>
+        <v>0</v>
       </c>
       <c r="F110" s="12" t="inlineStr">
         <is>
@@ -4287,13 +4319,13 @@
         <v>390</v>
       </c>
       <c r="E111" s="14" t="n">
-        <v>14.620299</v>
+        <v>16.313246</v>
       </c>
       <c r="F111" s="15" t="n">
-        <v>1.52450981025641</v>
+        <v>1.275779494871794</v>
       </c>
       <c r="G111" s="15" t="n">
-        <v>1.08307109068483</v>
+        <v>1.063670086963033</v>
       </c>
     </row>
     <row r="112">
@@ -4302,7 +4334,7 @@
       </c>
       <c r="B112" s="4" t="inlineStr">
         <is>
-          <t>腾冲</t>
+          <t>麻栗坡</t>
         </is>
       </c>
       <c r="C112" s="4" t="inlineStr">
@@ -4311,16 +4343,16 @@
         </is>
       </c>
       <c r="D112" s="4" t="n">
-        <v>380</v>
+        <v>300</v>
       </c>
       <c r="E112" s="5" t="n">
-        <v>11.114704</v>
+        <v>13.269367</v>
       </c>
       <c r="F112" s="6" t="n">
-        <v>1.189468322807018</v>
+        <v>1.349052311666667</v>
       </c>
       <c r="G112" s="6" t="n">
-        <v>0.4901476029502898</v>
+        <v>0.4356874392887307</v>
       </c>
     </row>
     <row r="113">
@@ -4331,21 +4363,17 @@
           <t>非车险</t>
         </is>
       </c>
-      <c r="D113" s="4" t="inlineStr">
-        <is>
-          <t>——</t>
-        </is>
+      <c r="D113" s="4" t="n">
+        <v>25</v>
       </c>
       <c r="E113" s="5" t="n">
-        <v>0.239826</v>
-      </c>
-      <c r="F113" s="6" t="inlineStr">
-        <is>
-          <t>——</t>
-        </is>
+        <v>0.5103790000000001</v>
+      </c>
+      <c r="F113" s="6" t="n">
+        <v>0.6226623800000001</v>
       </c>
       <c r="G113" s="6" t="n">
-        <v>24.42414926322484</v>
+        <v>0.1369370493220203</v>
       </c>
     </row>
     <row r="114">
@@ -4362,7 +4390,7 @@
         </is>
       </c>
       <c r="E114" s="5" t="n">
-        <v>0.293414</v>
+        <v>0</v>
       </c>
       <c r="F114" s="6" t="inlineStr">
         <is>
@@ -4384,16 +4412,16 @@
         </is>
       </c>
       <c r="D115" s="7" t="n">
-        <v>380</v>
+        <v>325</v>
       </c>
       <c r="E115" s="8" t="n">
-        <v>11.35453</v>
+        <v>13.779746</v>
       </c>
       <c r="F115" s="9" t="n">
-        <v>1.215133912280702</v>
+        <v>1.293176163076923</v>
       </c>
       <c r="G115" s="9" t="n">
-        <v>0.5203782638101393</v>
+        <v>0.4218493152451779</v>
       </c>
     </row>
     <row r="116">
@@ -4402,7 +4430,7 @@
       </c>
       <c r="B116" s="10" t="inlineStr">
         <is>
-          <t>麻栗坡</t>
+          <t>腾冲</t>
         </is>
       </c>
       <c r="C116" s="10" t="inlineStr">
@@ -4411,16 +4439,16 @@
         </is>
       </c>
       <c r="D116" s="10" t="n">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="E116" s="11" t="n">
-        <v>10.353592</v>
+        <v>12.763493</v>
       </c>
       <c r="F116" s="12" t="n">
-        <v>1.403486915555556</v>
+        <v>1.024438253947368</v>
       </c>
       <c r="G116" s="12" t="n">
-        <v>0.3387369371351994</v>
+        <v>0.3382765764720082</v>
       </c>
     </row>
     <row r="117">
@@ -4431,17 +4459,21 @@
           <t>非车险</t>
         </is>
       </c>
-      <c r="D117" s="10" t="n">
-        <v>25</v>
+      <c r="D117" s="10" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
       </c>
       <c r="E117" s="11" t="n">
-        <v>0.4282940000000001</v>
-      </c>
-      <c r="F117" s="12" t="n">
-        <v>0.6966915733333334</v>
+        <v>0.25926</v>
+      </c>
+      <c r="F117" s="12" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
       </c>
       <c r="G117" s="12" t="n">
-        <v>-0.04591819686482923</v>
+        <v>-0.5114975015262171</v>
       </c>
     </row>
     <row r="118">
@@ -4458,15 +4490,17 @@
         </is>
       </c>
       <c r="E118" s="11" t="n">
-        <v>0.3705020000000001</v>
+        <v>0</v>
       </c>
       <c r="F118" s="12" t="inlineStr">
         <is>
           <t>——</t>
         </is>
       </c>
-      <c r="G118" s="12" t="n">
-        <v>4.236407321037383</v>
+      <c r="G118" s="12" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
       </c>
     </row>
     <row r="119">
@@ -4478,16 +4512,16 @@
         </is>
       </c>
       <c r="D119" s="13" t="n">
-        <v>325</v>
+        <v>380</v>
       </c>
       <c r="E119" s="14" t="n">
-        <v>10.781886</v>
+        <v>13.022753</v>
       </c>
       <c r="F119" s="15" t="n">
-        <v>1.349118043076923</v>
+        <v>1.045247280263158</v>
       </c>
       <c r="G119" s="15" t="n">
-        <v>0.317634714359144</v>
+        <v>0.2934815655764287</v>
       </c>
     </row>
     <row r="120">
@@ -4508,13 +4542,13 @@
         <v>300</v>
       </c>
       <c r="E120" s="5" t="n">
-        <v>8.973423</v>
+        <v>10.795533</v>
       </c>
       <c r="F120" s="6" t="n">
-        <v>1.21639734</v>
+        <v>1.097545855</v>
       </c>
       <c r="G120" s="6" t="n">
-        <v>-0.4494727476088656</v>
+        <v>-0.367220931098832</v>
       </c>
     </row>
     <row r="121">
@@ -4529,13 +4563,13 @@
         <v>35</v>
       </c>
       <c r="E121" s="5" t="n">
-        <v>1.717766</v>
+        <v>2.083804999999999</v>
       </c>
       <c r="F121" s="6" t="n">
-        <v>1.995880495238095</v>
+        <v>1.815887214285714</v>
       </c>
       <c r="G121" s="6" t="n">
-        <v>0.4167504488774558</v>
+        <v>0.4482081611803583</v>
       </c>
     </row>
     <row r="122">
@@ -4552,15 +4586,17 @@
         </is>
       </c>
       <c r="E122" s="5" t="n">
-        <v>0.116604</v>
+        <v>0</v>
       </c>
       <c r="F122" s="6" t="inlineStr">
         <is>
           <t>——</t>
         </is>
       </c>
-      <c r="G122" s="6" t="n">
-        <v>0.2359974560101759</v>
+      <c r="G122" s="6" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
       </c>
     </row>
     <row r="123">
@@ -4575,13 +4611,13 @@
         <v>335</v>
       </c>
       <c r="E123" s="8" t="n">
-        <v>10.691189</v>
+        <v>12.879338</v>
       </c>
       <c r="F123" s="9" t="n">
-        <v>1.297835878606965</v>
+        <v>1.172596444776119</v>
       </c>
       <c r="G123" s="9" t="n">
-        <v>-0.3894990554562152</v>
+        <v>-0.303796762207454</v>
       </c>
     </row>
     <row r="124">
@@ -4605,7 +4641,7 @@
         <v>1.922795</v>
       </c>
       <c r="F124" s="12" t="n">
-        <v>0.7819366333333332</v>
+        <v>0.5864524749999999</v>
       </c>
       <c r="G124" s="12" t="n">
         <v>0.4524178575043543</v>
@@ -4626,7 +4662,7 @@
         <v>2.059192</v>
       </c>
       <c r="F125" s="12" t="n">
-        <v>0.08908561134751773</v>
+        <v>0.0668142085106383</v>
       </c>
       <c r="G125" s="12" t="n">
         <v>-0.9498738528444739</v>
@@ -4646,7 +4682,7 @@
         </is>
       </c>
       <c r="E126" s="11" t="n">
-        <v>0.077736</v>
+        <v>0</v>
       </c>
       <c r="F126" s="12" t="inlineStr">
         <is>
@@ -4674,7 +4710,7 @@
         <v>3.981987</v>
       </c>
       <c r="F127" s="15" t="n">
-        <v>0.1557059019230769</v>
+        <v>0.1167794264423077</v>
       </c>
       <c r="G127" s="15" t="n">
         <v>-0.9060941931143142</v>
@@ -4790,7 +4826,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>数据统计范围：2020-01-01至2020-01-09</t>
+          <t>数据统计范围：2020-01-01至2020-01-12</t>
         </is>
       </c>
       <c r="B2" s="2" t="n"/>
@@ -4854,13 +4890,13 @@
         <v>21670</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1253.317555</v>
+        <v>1429.405549000001</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>2.352018792647284</v>
+        <v>2.011853679949239</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.9708542974525438</v>
+        <v>0.8204664451472976</v>
       </c>
     </row>
     <row r="5">
@@ -4875,13 +4911,13 @@
         <v>4700</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>130.4850590000001</v>
+        <v>145.4069340000004</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>1.129019659432625</v>
+        <v>0.9435981887234068</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.08173873142699017</v>
+        <v>-0.05940033783253562</v>
       </c>
     </row>
     <row r="6">
@@ -4898,7 +4934,7 @@
         </is>
       </c>
       <c r="E6" s="5" t="n">
-        <v>18.72416799999994</v>
+        <v>20.83511099999992</v>
       </c>
       <c r="F6" s="6" t="inlineStr">
         <is>
@@ -4906,7 +4942,7 @@
         </is>
       </c>
       <c r="G6" s="6" t="n">
-        <v>5.421048119363737</v>
+        <v>5.155245180411068</v>
       </c>
     </row>
     <row r="7">
@@ -4921,13 +4957,13 @@
         <v>26370</v>
       </c>
       <c r="E7" s="8" t="n">
-        <v>1383.802613999998</v>
+        <v>1574.812482999999</v>
       </c>
       <c r="F7" s="9" t="n">
-        <v>2.134040183390213</v>
+        <v>1.821455469529767</v>
       </c>
       <c r="G7" s="9" t="n">
-        <v>0.8290928237648014</v>
+        <v>0.6757316824929098</v>
       </c>
     </row>
     <row r="8">
@@ -4950,7 +4986,7 @@
         </is>
       </c>
       <c r="E8" s="11" t="n">
-        <v>31.434963</v>
+        <v>38.87392500000001</v>
       </c>
       <c r="F8" s="12" t="inlineStr">
         <is>
@@ -4958,7 +4994,7 @@
         </is>
       </c>
       <c r="G8" s="12" t="n">
-        <v>6.249391347904085</v>
+        <v>5.294718022838761</v>
       </c>
     </row>
     <row r="9">
@@ -4973,13 +5009,13 @@
         <v>1260</v>
       </c>
       <c r="E9" s="11" t="n">
-        <v>41.47970699999999</v>
+        <v>21.991529</v>
       </c>
       <c r="F9" s="12" t="n">
-        <v>1.33876303015873</v>
+        <v>0.5323346305555555</v>
       </c>
       <c r="G9" s="12" t="n">
-        <v>0.7967920797122894</v>
+        <v>0.4020725514129251</v>
       </c>
     </row>
     <row r="10">
@@ -4996,7 +5032,7 @@
         </is>
       </c>
       <c r="E10" s="11" t="n">
-        <v>0.061416</v>
+        <v>0.08862399999999999</v>
       </c>
       <c r="F10" s="12" t="inlineStr">
         <is>
@@ -5021,13 +5057,13 @@
         <v>1260</v>
       </c>
       <c r="E11" s="14" t="n">
-        <v>72.91467</v>
+        <v>60.86545399999998</v>
       </c>
       <c r="F11" s="15" t="n">
-        <v>2.353330619047619</v>
+        <v>1.473330434126984</v>
       </c>
       <c r="G11" s="15" t="n">
-        <v>1.659018815246131</v>
+        <v>1.784246328918659</v>
       </c>
     </row>
     <row r="12">
@@ -5050,7 +5086,7 @@
         </is>
       </c>
       <c r="E12" s="5" t="n">
-        <v>30.060878</v>
+        <v>36.795417</v>
       </c>
       <c r="F12" s="6" t="inlineStr">
         <is>
@@ -5077,7 +5113,7 @@
         </is>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.09994399999999998</v>
+        <v>0.127152</v>
       </c>
       <c r="F13" s="6" t="inlineStr">
         <is>
@@ -5104,7 +5140,7 @@
         </is>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.061416</v>
+        <v>0.08862399999999999</v>
       </c>
       <c r="F14" s="6" t="inlineStr">
         <is>
@@ -5131,7 +5167,7 @@
         </is>
       </c>
       <c r="E15" s="8" t="n">
-        <v>30.160822</v>
+        <v>36.922569</v>
       </c>
       <c r="F15" s="9" t="inlineStr">
         <is>
@@ -5162,13 +5198,13 @@
         <v>1000</v>
       </c>
       <c r="E16" s="11" t="n">
-        <v>75.67795099999994</v>
+        <v>87.40016799999989</v>
       </c>
       <c r="F16" s="12" t="n">
-        <v>3.077570007333331</v>
+        <v>2.665705123999996</v>
       </c>
       <c r="G16" s="12" t="n">
-        <v>-0.08340768937609033</v>
+        <v>-0.09232435222200674</v>
       </c>
     </row>
     <row r="17">
@@ -5183,13 +5219,13 @@
         <v>340</v>
       </c>
       <c r="E17" s="11" t="n">
-        <v>8.298905</v>
+        <v>9.827579999999999</v>
       </c>
       <c r="F17" s="12" t="n">
-        <v>0.9926141274509803</v>
+        <v>0.8815917352941176</v>
       </c>
       <c r="G17" s="12" t="n">
-        <v>1.461560479326096</v>
+        <v>-0.3099313188009202</v>
       </c>
     </row>
     <row r="18">
@@ -5206,7 +5242,7 @@
         </is>
       </c>
       <c r="E18" s="11" t="n">
-        <v>0.6260320000000001</v>
+        <v>0.7620710000000002</v>
       </c>
       <c r="F18" s="12" t="inlineStr">
         <is>
@@ -5214,7 +5250,7 @@
         </is>
       </c>
       <c r="G18" s="12" t="n">
-        <v>2.973671014630741</v>
+        <v>3.319812031993108</v>
       </c>
     </row>
     <row r="19">
@@ -5229,13 +5265,13 @@
         <v>1340</v>
       </c>
       <c r="E19" s="14" t="n">
-        <v>83.97685599999994</v>
+        <v>97.22774799999988</v>
       </c>
       <c r="F19" s="15" t="n">
-        <v>2.54855135124378</v>
+        <v>2.21301963731343</v>
       </c>
       <c r="G19" s="15" t="n">
-        <v>-0.02279614068454938</v>
+        <v>-0.1203619527964606</v>
       </c>
     </row>
     <row r="20">
@@ -5258,7 +5294,7 @@
         </is>
       </c>
       <c r="E20" s="5" t="n">
-        <v>28.111316</v>
+        <v>32.50226000000001</v>
       </c>
       <c r="F20" s="6" t="inlineStr">
         <is>
@@ -5266,7 +5302,7 @@
         </is>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.4154369166391764</v>
+        <v>-0.4116908875390657</v>
       </c>
     </row>
     <row r="21">
@@ -5283,7 +5319,7 @@
         </is>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.069963</v>
+        <v>0.132152</v>
       </c>
       <c r="F21" s="6" t="inlineStr">
         <is>
@@ -5291,7 +5327,7 @@
         </is>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.9451640032323321</v>
+        <v>-0.9890239293821185</v>
       </c>
     </row>
     <row r="22">
@@ -5308,7 +5344,7 @@
         </is>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.069963</v>
+        <v>0.132152</v>
       </c>
       <c r="F22" s="6" t="inlineStr">
         <is>
@@ -5316,7 +5352,7 @@
         </is>
       </c>
       <c r="G22" s="6" t="n">
-        <v>1.472016111935552</v>
+        <v>2.502013991944032</v>
       </c>
     </row>
     <row r="23">
@@ -5333,7 +5369,7 @@
         </is>
       </c>
       <c r="E23" s="8" t="n">
-        <v>28.181279</v>
+        <v>32.634412</v>
       </c>
       <c r="F23" s="9" t="inlineStr">
         <is>
@@ -5341,7 +5377,7 @@
         </is>
       </c>
       <c r="G23" s="9" t="n">
-        <v>-0.4291278488352154</v>
+        <v>-0.5149961911616134</v>
       </c>
     </row>
     <row r="24">
@@ -5362,13 +5398,13 @@
         <v>470</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>15.108242</v>
+        <v>18.10766899999999</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>1.307237960283687</v>
+        <v>1.175072137234042</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.8123653688292778</v>
+        <v>0.7804112443658111</v>
       </c>
     </row>
     <row r="25">
@@ -5383,13 +5419,13 @@
         <v>30</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2.069821</v>
+        <v>2.163062</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>2.805757355555556</v>
+        <v>2.199113033333334</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.1126000217163905</v>
+        <v>0.1418763081974659</v>
       </c>
     </row>
     <row r="26">
@@ -5406,7 +5442,7 @@
         </is>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.151586</v>
+        <v>0.178794</v>
       </c>
       <c r="F26" s="6" t="inlineStr">
         <is>
@@ -5431,13 +5467,13 @@
         <v>530</v>
       </c>
       <c r="E27" s="8" t="n">
-        <v>17.17806299999999</v>
+        <v>20.27073099999999</v>
       </c>
       <c r="F27" s="9" t="n">
-        <v>1.318065211320754</v>
+        <v>1.166523199056603</v>
       </c>
       <c r="G27" s="9" t="n">
-        <v>0.6846941420463217</v>
+        <v>0.6801543299132187</v>
       </c>
     </row>
     <row r="28">
@@ -5460,7 +5496,7 @@
         </is>
       </c>
       <c r="E28" s="5" t="n">
-        <v>29.382282</v>
+        <v>33.58524499999999</v>
       </c>
       <c r="F28" s="6" t="inlineStr">
         <is>
@@ -5487,7 +5523,7 @@
         </is>
       </c>
       <c r="E29" s="5" t="n">
-        <v>6.159120999999998</v>
+        <v>7.532365999999999</v>
       </c>
       <c r="F29" s="6" t="inlineStr">
         <is>
@@ -5514,7 +5550,7 @@
         </is>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.404483</v>
+        <v>0.451125</v>
       </c>
       <c r="F30" s="6" t="inlineStr">
         <is>
@@ -5541,7 +5577,7 @@
         </is>
       </c>
       <c r="E31" s="8" t="n">
-        <v>35.541403</v>
+        <v>41.11761099999999</v>
       </c>
       <c r="F31" s="9" t="inlineStr">
         <is>
@@ -5572,13 +5608,13 @@
         <v>610</v>
       </c>
       <c r="E32" s="11" t="n">
-        <v>33.277089</v>
+        <v>40.05625800000001</v>
       </c>
       <c r="F32" s="12" t="n">
-        <v>2.2184726</v>
+        <v>2.0028129</v>
       </c>
       <c r="G32" s="12" t="n">
-        <v>1.850261826473591</v>
+        <v>2.10699999736276</v>
       </c>
     </row>
     <row r="33">
@@ -5593,13 +5629,13 @@
         <v>80</v>
       </c>
       <c r="E33" s="11" t="n">
-        <v>0.357359</v>
+        <v>0.4234350000000001</v>
       </c>
       <c r="F33" s="12" t="n">
-        <v>0.1816574916666667</v>
+        <v>0.16143459375</v>
       </c>
       <c r="G33" s="12" t="n">
-        <v>14.15196099215603</v>
+        <v>7.902051885800784</v>
       </c>
     </row>
     <row r="34">
@@ -5616,7 +5652,7 @@
         </is>
       </c>
       <c r="E34" s="11" t="n">
-        <v>0.3477270000000001</v>
+        <v>0.4138030000000001</v>
       </c>
       <c r="F34" s="12" t="inlineStr">
         <is>
@@ -5624,7 +5660,7 @@
         </is>
       </c>
       <c r="G34" s="12" t="n">
-        <v>13.7435658257367</v>
+        <v>13.62098084940994</v>
       </c>
     </row>
     <row r="35">
@@ -5639,13 +5675,13 @@
         <v>690</v>
       </c>
       <c r="E35" s="14" t="n">
-        <v>33.63444799999998</v>
+        <v>40.47969299999998</v>
       </c>
       <c r="F35" s="15" t="n">
-        <v>1.982320123671497</v>
+        <v>1.789319763043477</v>
       </c>
       <c r="G35" s="15" t="n">
-        <v>1.875062528400629</v>
+        <v>2.128302246366797</v>
       </c>
     </row>
     <row r="36">
@@ -5666,13 +5702,13 @@
         <v>160</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>15.661342</v>
+        <v>18.208969</v>
       </c>
       <c r="F36" s="6" t="n">
-        <v>3.980591091666666</v>
+        <v>3.471084715624999</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.800358707402633</v>
+        <v>0.8362895975514748</v>
       </c>
     </row>
     <row r="37">
@@ -5687,15 +5723,13 @@
         <v>65</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>0.135811</v>
+        <v>0.155245</v>
       </c>
       <c r="F37" s="6" t="n">
-        <v>0.08496893333333333</v>
-      </c>
-      <c r="G37" s="6" t="inlineStr">
-        <is>
-          <t>——</t>
-        </is>
+        <v>0.07284573076923076</v>
+      </c>
+      <c r="G37" s="6" t="n">
+        <v>5.473666652766774</v>
       </c>
     </row>
     <row r="38">
@@ -5712,17 +5746,15 @@
         </is>
       </c>
       <c r="E38" s="5" t="n">
-        <v>0.126179</v>
+        <v>0.145613</v>
       </c>
       <c r="F38" s="6" t="inlineStr">
         <is>
           <t>——</t>
         </is>
       </c>
-      <c r="G38" s="6" t="inlineStr">
-        <is>
-          <t>——</t>
-        </is>
+      <c r="G38" s="6" t="n">
+        <v>29.86983252066992</v>
       </c>
     </row>
     <row r="39">
@@ -5737,13 +5769,13 @@
         <v>225</v>
       </c>
       <c r="E39" s="8" t="n">
-        <v>15.79715299999999</v>
+        <v>18.364214</v>
       </c>
       <c r="F39" s="9" t="n">
-        <v>2.855189134814814</v>
+        <v>2.489371231111111</v>
       </c>
       <c r="G39" s="9" t="n">
-        <v>0.8159709401481445</v>
+        <v>0.8474774440159685</v>
       </c>
     </row>
     <row r="40">
@@ -5764,13 +5796,13 @@
         <v>450</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>17.28617</v>
+        <v>21.517712</v>
       </c>
       <c r="F40" s="6" t="n">
-        <v>1.562157585185185</v>
+        <v>1.458422702222222</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>8.85374014906443</v>
+        <v>11.26587165638227</v>
       </c>
     </row>
     <row r="41">
@@ -5785,13 +5817,13 @@
         <v>15</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>0.221548</v>
+        <v>0.26819</v>
       </c>
       <c r="F41" s="6" t="n">
-        <v>0.6006412444444444</v>
+        <v>0.5453196666666666</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>8.393597625609498</v>
+        <v>10.37121051515794</v>
       </c>
     </row>
     <row r="42">
@@ -5808,7 +5840,7 @@
         </is>
       </c>
       <c r="E42" s="5" t="n">
-        <v>0.221548</v>
+        <v>0.26819</v>
       </c>
       <c r="F42" s="6" t="inlineStr">
         <is>
@@ -5816,7 +5848,7 @@
         </is>
       </c>
       <c r="G42" s="6" t="n">
-        <v>8.393597625609498</v>
+        <v>10.37121051515794</v>
       </c>
     </row>
     <row r="43">
@@ -5831,13 +5863,13 @@
         <v>465</v>
       </c>
       <c r="E43" s="8" t="n">
-        <v>17.507718</v>
+        <v>21.78590199999999</v>
       </c>
       <c r="F43" s="9" t="n">
-        <v>1.531140929032258</v>
+        <v>1.428967765591397</v>
       </c>
       <c r="G43" s="9" t="n">
-        <v>8.847635921838615</v>
+        <v>11.25400312735536</v>
       </c>
     </row>
     <row r="44">
@@ -5858,13 +5890,13 @@
         <v>470</v>
       </c>
       <c r="E44" s="11" t="n">
-        <v>37.83693299999999</v>
+        <v>41.65152699999999</v>
       </c>
       <c r="F44" s="12" t="n">
-        <v>3.273833919148935</v>
+        <v>2.702918241489361</v>
       </c>
       <c r="G44" s="12" t="n">
-        <v>-0.09674503929835687</v>
+        <v>-0.09733428857075954</v>
       </c>
     </row>
     <row r="45">
@@ -5879,13 +5911,13 @@
         <v>90</v>
       </c>
       <c r="E45" s="11" t="n">
-        <v>1.553244</v>
+        <v>1.742848</v>
       </c>
       <c r="F45" s="12" t="n">
-        <v>0.7018361777777778</v>
+        <v>0.5906318222222223</v>
       </c>
       <c r="G45" s="12" t="n">
-        <v>-0.6170710661650503</v>
+        <v>-0.5724232883050635</v>
       </c>
     </row>
     <row r="46">
@@ -5902,7 +5934,7 @@
         </is>
       </c>
       <c r="E46" s="11" t="n">
-        <v>0.964043</v>
+        <v>1.057327</v>
       </c>
       <c r="F46" s="12" t="inlineStr">
         <is>
@@ -5910,7 +5942,7 @@
         </is>
       </c>
       <c r="G46" s="12" t="n">
-        <v>5.386759327962689</v>
+        <v>5.592718452655603</v>
       </c>
     </row>
     <row r="47">
@@ -5925,13 +5957,13 @@
         <v>560</v>
       </c>
       <c r="E47" s="14" t="n">
-        <v>39.39017699999999</v>
+        <v>43.394375</v>
       </c>
       <c r="F47" s="15" t="n">
-        <v>2.860477139285713</v>
+        <v>2.363443638392857</v>
       </c>
       <c r="G47" s="15" t="n">
-        <v>-0.1426808760016542</v>
+        <v>-0.1358957213527731</v>
       </c>
     </row>
     <row r="48">
@@ -5954,7 +5986,7 @@
         </is>
       </c>
       <c r="E48" s="5" t="n">
-        <v>37.34151999999999</v>
+        <v>41.15611399999999</v>
       </c>
       <c r="F48" s="6" t="inlineStr">
         <is>
@@ -5962,7 +5994,7 @@
         </is>
       </c>
       <c r="G48" s="6" t="n">
-        <v>-0.1092775580905582</v>
+        <v>-0.1087120148995151</v>
       </c>
     </row>
     <row r="49">
@@ -5979,7 +6011,7 @@
         </is>
       </c>
       <c r="E49" s="5" t="n">
-        <v>1.442319</v>
+        <v>1.631923</v>
       </c>
       <c r="F49" s="6" t="inlineStr">
         <is>
@@ -5987,7 +6019,7 @@
         </is>
       </c>
       <c r="G49" s="6" t="n">
-        <v>-0.6444179556335701</v>
+        <v>-0.5996367611637184</v>
       </c>
     </row>
     <row r="50">
@@ -6004,7 +6036,7 @@
         </is>
       </c>
       <c r="E50" s="5" t="n">
-        <v>0.9096270000000002</v>
+        <v>1.002911</v>
       </c>
       <c r="F50" s="6" t="inlineStr">
         <is>
@@ -6012,7 +6044,7 @@
         </is>
       </c>
       <c r="G50" s="6" t="n">
-        <v>5.026254769980921</v>
+        <v>5.253420045143352</v>
       </c>
     </row>
     <row r="51">
@@ -6029,7 +6061,7 @@
         </is>
       </c>
       <c r="E51" s="8" t="n">
-        <v>38.78383899999999</v>
+        <v>42.788037</v>
       </c>
       <c r="F51" s="9" t="inlineStr">
         <is>
@@ -6037,7 +6069,7 @@
         </is>
       </c>
       <c r="G51" s="9" t="n">
-        <v>-0.1564871397465893</v>
+        <v>-0.1485324615051953</v>
       </c>
     </row>
     <row r="52">
@@ -6172,13 +6204,13 @@
         <v>550</v>
       </c>
       <c r="E56" s="11" t="n">
-        <v>34.656274</v>
+        <v>42.65996000000001</v>
       </c>
       <c r="F56" s="12" t="n">
-        <v>2.562463895757576</v>
+        <v>2.365688690909091</v>
       </c>
       <c r="G56" s="12" t="n">
-        <v>1.676244471640497</v>
+        <v>1.727249421897379</v>
       </c>
     </row>
     <row r="57">
@@ -6193,13 +6225,13 @@
         <v>120</v>
       </c>
       <c r="E57" s="11" t="n">
-        <v>1.605382</v>
+        <v>1.829996</v>
       </c>
       <c r="F57" s="12" t="n">
-        <v>0.5440461222222223</v>
+        <v>0.4651239833333334</v>
       </c>
       <c r="G57" s="12" t="n">
-        <v>6.099564840529974</v>
+        <v>5.681548662226896</v>
       </c>
     </row>
     <row r="58">
@@ -6216,7 +6248,7 @@
         </is>
       </c>
       <c r="E58" s="11" t="n">
-        <v>0.8512120000000003</v>
+        <v>1.051298</v>
       </c>
       <c r="F58" s="12" t="inlineStr">
         <is>
@@ -6224,7 +6256,7 @@
         </is>
       </c>
       <c r="G58" s="12" t="n">
-        <v>2.823197571010224</v>
+        <v>3.352984530789362</v>
       </c>
     </row>
     <row r="59">
@@ -6239,13 +6271,13 @@
         <v>670</v>
       </c>
       <c r="E59" s="14" t="n">
-        <v>36.26165600000002</v>
+        <v>44.48995600000003</v>
       </c>
       <c r="F59" s="15" t="n">
-        <v>2.200956234825872</v>
+        <v>2.025289041791046</v>
       </c>
       <c r="G59" s="15" t="n">
-        <v>1.752158288779146</v>
+        <v>1.795296332805083</v>
       </c>
     </row>
     <row r="60">
@@ -6268,7 +6300,7 @@
         </is>
       </c>
       <c r="E60" s="5" t="n">
-        <v>34.656274</v>
+        <v>42.65996000000001</v>
       </c>
       <c r="F60" s="6" t="inlineStr">
         <is>
@@ -6276,7 +6308,7 @@
         </is>
       </c>
       <c r="G60" s="6" t="n">
-        <v>1.669092109982423</v>
+        <v>1.721212592860032</v>
       </c>
     </row>
     <row r="61">
@@ -6293,7 +6325,7 @@
         </is>
       </c>
       <c r="E61" s="5" t="n">
-        <v>1.605382</v>
+        <v>1.829996</v>
       </c>
       <c r="F61" s="6" t="inlineStr">
         <is>
@@ -6301,7 +6333,7 @@
         </is>
       </c>
       <c r="G61" s="6" t="n">
-        <v>6.099564840529974</v>
+        <v>5.681548662226896</v>
       </c>
     </row>
     <row r="62">
@@ -6318,7 +6350,7 @@
         </is>
       </c>
       <c r="E62" s="5" t="n">
-        <v>0.8512120000000003</v>
+        <v>1.051298</v>
       </c>
       <c r="F62" s="6" t="inlineStr">
         <is>
@@ -6326,7 +6358,7 @@
         </is>
       </c>
       <c r="G62" s="6" t="n">
-        <v>2.823197571010224</v>
+        <v>3.352984530789362</v>
       </c>
     </row>
     <row r="63">
@@ -6343,7 +6375,7 @@
         </is>
       </c>
       <c r="E63" s="8" t="n">
-        <v>36.26165600000002</v>
+        <v>44.48995600000003</v>
       </c>
       <c r="F63" s="9" t="inlineStr">
         <is>
@@ -6351,7 +6383,7 @@
         </is>
       </c>
       <c r="G63" s="9" t="n">
-        <v>1.74492894508932</v>
+        <v>1.789215124494789</v>
       </c>
     </row>
     <row r="64">
@@ -6372,13 +6404,13 @@
         <v>700</v>
       </c>
       <c r="E64" s="11" t="n">
-        <v>30.48050699999999</v>
+        <v>38.29387499999999</v>
       </c>
       <c r="F64" s="12" t="n">
-        <v>1.770772311428571</v>
+        <v>1.668518839285714</v>
       </c>
       <c r="G64" s="12" t="n">
-        <v>0.2576660235952044</v>
+        <v>0.2483805132557813</v>
       </c>
     </row>
     <row r="65">
@@ -6395,7 +6427,7 @@
         </is>
       </c>
       <c r="E65" s="11" t="n">
-        <v>6.10941</v>
+        <v>6.336581000000001</v>
       </c>
       <c r="F65" s="12" t="inlineStr">
         <is>
@@ -6403,7 +6435,7 @@
         </is>
       </c>
       <c r="G65" s="12" t="n">
-        <v>0.1281771826565985</v>
+        <v>-0.4495879758508019</v>
       </c>
     </row>
     <row r="66">
@@ -6428,7 +6460,7 @@
         </is>
       </c>
       <c r="G66" s="12" t="n">
-        <v>-0.531819145450691</v>
+        <v>-0.5708342166631334</v>
       </c>
     </row>
     <row r="67">
@@ -6443,13 +6475,13 @@
         <v>700</v>
       </c>
       <c r="E67" s="14" t="n">
-        <v>36.58991699999998</v>
+        <v>44.63045599999997</v>
       </c>
       <c r="F67" s="15" t="n">
-        <v>2.125699939999999</v>
+        <v>1.944612725714284</v>
       </c>
       <c r="G67" s="15" t="n">
-        <v>0.23401695689514</v>
+        <v>0.05791277246308901</v>
       </c>
     </row>
     <row r="68">
@@ -6470,13 +6502,13 @@
         <v>550</v>
       </c>
       <c r="E68" s="5" t="n">
-        <v>19.1701</v>
+        <v>21.233327</v>
       </c>
       <c r="F68" s="6" t="n">
-        <v>1.417425575757576</v>
+        <v>1.177484497272727</v>
       </c>
       <c r="G68" s="6" t="n">
-        <v>0.2431168518557423</v>
+        <v>0.01073159265625989</v>
       </c>
     </row>
     <row r="69">
@@ -6501,7 +6533,7 @@
         </is>
       </c>
       <c r="G69" s="6" t="n">
-        <v>-0.9448861392073812</v>
+        <v>-0.9560511405107388</v>
       </c>
     </row>
     <row r="70">
@@ -6526,7 +6558,7 @@
         </is>
       </c>
       <c r="G70" s="6" t="n">
-        <v>-0.7190914872704146</v>
+        <v>-0.74250052999788</v>
       </c>
     </row>
     <row r="71">
@@ -6541,13 +6573,13 @@
         <v>550</v>
       </c>
       <c r="E71" s="8" t="n">
-        <v>19.33237400000001</v>
+        <v>21.395601</v>
       </c>
       <c r="F71" s="9" t="n">
-        <v>1.429424016969697</v>
+        <v>1.186483328181818</v>
       </c>
       <c r="G71" s="9" t="n">
-        <v>0.05265555431953173</v>
+        <v>-0.1337889109957581</v>
       </c>
     </row>
     <row r="72">
@@ -6568,13 +6600,13 @@
         <v>150</v>
       </c>
       <c r="E72" s="5" t="n">
-        <v>11.281768</v>
+        <v>17.031909</v>
       </c>
       <c r="F72" s="6" t="n">
-        <v>3.058612657777778</v>
+        <v>3.46315483</v>
       </c>
       <c r="G72" s="6" t="n">
-        <v>0.2798700727051939</v>
+        <v>0.7977278338245477</v>
       </c>
     </row>
     <row r="73">
@@ -6591,7 +6623,7 @@
         </is>
       </c>
       <c r="E73" s="5" t="n">
-        <v>4.079245999999999</v>
+        <v>4.306417</v>
       </c>
       <c r="F73" s="6" t="inlineStr">
         <is>
@@ -6599,7 +6631,7 @@
         </is>
       </c>
       <c r="G73" s="6" t="n">
-        <v>0.6508803084802941</v>
+        <v>-0.4493139789222509</v>
       </c>
     </row>
     <row r="74">
@@ -6641,13 +6673,13 @@
         <v>150</v>
       </c>
       <c r="E75" s="8" t="n">
-        <v>15.361014</v>
+        <v>21.338326</v>
       </c>
       <c r="F75" s="9" t="n">
-        <v>4.164541573333334</v>
+        <v>4.338792953333333</v>
       </c>
       <c r="G75" s="9" t="n">
-        <v>0.3611008523331409</v>
+        <v>0.2338410519210279</v>
       </c>
     </row>
     <row r="76">
@@ -6668,13 +6700,13 @@
         <v>362</v>
       </c>
       <c r="E76" s="11" t="n">
-        <v>17.928382</v>
+        <v>20.393305</v>
       </c>
       <c r="F76" s="12" t="n">
-        <v>2.014053963167588</v>
+        <v>1.718220448895028</v>
       </c>
       <c r="G76" s="12" t="n">
-        <v>0.1580098853750946</v>
+        <v>0.09515281967694822</v>
       </c>
     </row>
     <row r="77">
@@ -6689,13 +6721,13 @@
         <v>88</v>
       </c>
       <c r="E77" s="11" t="n">
-        <v>14.452864</v>
+        <v>14.627298</v>
       </c>
       <c r="F77" s="12" t="n">
-        <v>6.67897503030303</v>
+        <v>5.069688511363635</v>
       </c>
       <c r="G77" s="12" t="n">
-        <v>13.22416782963512</v>
+        <v>8.737555362203448</v>
       </c>
     </row>
     <row r="78">
@@ -6712,7 +6744,7 @@
         </is>
       </c>
       <c r="E78" s="11" t="n">
-        <v>0.200246</v>
+        <v>0.22468</v>
       </c>
       <c r="F78" s="12" t="inlineStr">
         <is>
@@ -6720,7 +6752,7 @@
         </is>
       </c>
       <c r="G78" s="12" t="n">
-        <v>9.612995548017807</v>
+        <v>10.90799236803053</v>
       </c>
     </row>
     <row r="79">
@@ -6735,13 +6767,13 @@
         <v>450</v>
       </c>
       <c r="E79" s="14" t="n">
-        <v>32.38124599999998</v>
+        <v>35.02060299999997</v>
       </c>
       <c r="F79" s="15" t="n">
-        <v>2.926305194074073</v>
+        <v>2.373618647777775</v>
       </c>
       <c r="G79" s="15" t="n">
-        <v>0.9627208907961191</v>
+        <v>0.7402772379880558</v>
       </c>
     </row>
     <row r="80">
@@ -6764,7 +6796,7 @@
         </is>
       </c>
       <c r="E80" s="5" t="n">
-        <v>17.928382</v>
+        <v>20.393305</v>
       </c>
       <c r="F80" s="6" t="inlineStr">
         <is>
@@ -6772,7 +6804,7 @@
         </is>
       </c>
       <c r="G80" s="6" t="n">
-        <v>0.1580098853750946</v>
+        <v>0.09515281967694822</v>
       </c>
     </row>
     <row r="81">
@@ -6789,7 +6821,7 @@
         </is>
       </c>
       <c r="E81" s="5" t="n">
-        <v>14.502853</v>
+        <v>14.677287</v>
       </c>
       <c r="F81" s="6" t="inlineStr">
         <is>
@@ -6797,7 +6829,7 @@
         </is>
       </c>
       <c r="G81" s="6" t="n">
-        <v>14.11392406382449</v>
+        <v>9.152767209631138</v>
       </c>
     </row>
     <row r="82">
@@ -6814,7 +6846,7 @@
         </is>
       </c>
       <c r="E82" s="5" t="n">
-        <v>0.200246</v>
+        <v>0.22468</v>
       </c>
       <c r="F82" s="6" t="inlineStr">
         <is>
@@ -6822,7 +6854,7 @@
         </is>
       </c>
       <c r="G82" s="6" t="n">
-        <v>9.612995548017807</v>
+        <v>10.90799236803053</v>
       </c>
     </row>
     <row r="83">
@@ -6839,7 +6871,7 @@
         </is>
       </c>
       <c r="E83" s="8" t="n">
-        <v>32.43123499999999</v>
+        <v>35.07059199999998</v>
       </c>
       <c r="F83" s="9" t="inlineStr">
         <is>
@@ -6847,7 +6879,7 @@
         </is>
       </c>
       <c r="G83" s="9" t="n">
-        <v>0.9725070479621478</v>
+        <v>0.7476689668864414</v>
       </c>
     </row>
   </sheetData>

--- a/2020年机构数据统计表.xlsx
+++ b/2020年机构数据统计表.xlsx
@@ -515,7 +515,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>数据统计范围：2020-01-01至2020-01-12</t>
+          <t>数据统计范围：2020-01-01至2020-01-16</t>
         </is>
       </c>
       <c r="B2" s="2" t="n"/>
@@ -579,13 +579,13 @@
         <v>21670</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1429.405549000001</v>
+        <v>1845.691190000003</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>2.011853679949239</v>
+        <v>1.948324225715277</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.8204664451472976</v>
+        <v>0.8387666650381573</v>
       </c>
     </row>
     <row r="5">
@@ -600,13 +600,13 @@
         <v>2800</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>108.9607769999998</v>
+        <v>150.3507990000003</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>1.186894178035713</v>
+        <v>1.228312331116074</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.1675455323705513</v>
+        <v>0.1653258760107637</v>
       </c>
     </row>
     <row r="6">
@@ -621,13 +621,13 @@
         <v>1900</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>36.44615699999999</v>
+        <v>64.68605900000001</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>0.5850567307894735</v>
+        <v>0.7787861050657896</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>-0.4051060018646875</v>
+        <v>0.05442798548364092</v>
       </c>
     </row>
     <row r="7">
@@ -644,7 +644,7 @@
         </is>
       </c>
       <c r="E7" s="5" t="n">
-        <v>20.83511099999992</v>
+        <v>25.73370899999988</v>
       </c>
       <c r="F7" s="6" t="inlineStr">
         <is>
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="G7" s="6" t="n">
-        <v>5.155245180411068</v>
+        <v>5.095519100882968</v>
       </c>
     </row>
     <row r="8">
@@ -667,13 +667,13 @@
         <v>26370</v>
       </c>
       <c r="E8" s="8" t="n">
-        <v>1574.812482999999</v>
+        <v>2060.728048000003</v>
       </c>
       <c r="F8" s="9" t="n">
-        <v>1.821455469529767</v>
+        <v>1.787605388623438</v>
       </c>
       <c r="G8" s="9" t="n">
-        <v>0.6757316824929098</v>
+        <v>0.7257102195972922</v>
       </c>
     </row>
     <row r="9">
@@ -694,13 +694,13 @@
         <v>4900</v>
       </c>
       <c r="E9" s="11" t="n">
-        <v>331.0135149999999</v>
+        <v>444.4729809999999</v>
       </c>
       <c r="F9" s="12" t="n">
-        <v>2.060390246428571</v>
+        <v>2.074963151096938</v>
       </c>
       <c r="G9" s="12" t="n">
-        <v>1.112840108289167</v>
+        <v>1.228170123736131</v>
       </c>
     </row>
     <row r="10">
@@ -715,13 +715,13 @@
         <v>1510</v>
       </c>
       <c r="E10" s="11" t="n">
-        <v>53.31696600000003</v>
+        <v>69.45151500000001</v>
       </c>
       <c r="F10" s="12" t="n">
-        <v>1.076932094701987</v>
+        <v>1.052121460678808</v>
       </c>
       <c r="G10" s="12" t="n">
-        <v>0.4466378800458957</v>
+        <v>0.1454276630133957</v>
       </c>
     </row>
     <row r="11">
@@ -736,13 +736,13 @@
         <v>1060</v>
       </c>
       <c r="E11" s="11" t="n">
-        <v>5.361318</v>
+        <v>29.53303</v>
       </c>
       <c r="F11" s="12" t="n">
-        <v>0.1542643386792453</v>
+        <v>0.6373283596698114</v>
       </c>
       <c r="G11" s="12" t="n">
-        <v>-0.8773084372186912</v>
+        <v>-0.38648189970754</v>
       </c>
     </row>
     <row r="12">
@@ -759,7 +759,7 @@
         </is>
       </c>
       <c r="E12" s="11" t="n">
-        <v>2.968947000000001</v>
+        <v>3.582837</v>
       </c>
       <c r="F12" s="12" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
         </is>
       </c>
       <c r="G12" s="12" t="n">
-        <v>8.228901992844291</v>
+        <v>7.690532152550885</v>
       </c>
     </row>
     <row r="13">
@@ -782,13 +782,13 @@
         <v>7470</v>
       </c>
       <c r="E13" s="14" t="n">
-        <v>389.6917990000001</v>
+        <v>543.4575259999998</v>
       </c>
       <c r="F13" s="15" t="n">
-        <v>1.591111093641232</v>
+        <v>1.664202263353413</v>
       </c>
       <c r="G13" s="15" t="n">
-        <v>0.642738245224898</v>
+        <v>0.7630425850623661</v>
       </c>
     </row>
     <row r="14">
@@ -809,13 +809,13 @@
         <v>5800</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>355.414578</v>
+        <v>436.389015</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>1.868990453275862</v>
+        <v>1.721103227262931</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8344155554081825</v>
+        <v>0.7422757937338997</v>
       </c>
     </row>
     <row r="15">
@@ -830,13 +830,13 @@
         <v>300</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>11.902978</v>
+        <v>13.66365899999999</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.210136096666666</v>
+        <v>1.04185399875</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>2.184318133846477</v>
+        <v>0.9751225773101835</v>
       </c>
     </row>
     <row r="16">
@@ -851,13 +851,13 @@
         <v>200</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4.067719</v>
+        <v>4.21866</v>
       </c>
       <c r="F16" s="6" t="n">
-        <v>0.6203271475</v>
+        <v>0.4825092375</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>-0.63723834409446</v>
+        <v>-0.3287622692941506</v>
       </c>
     </row>
     <row r="17">
@@ -874,7 +874,7 @@
         </is>
       </c>
       <c r="E17" s="5" t="n">
-        <v>6.061768999999996</v>
+        <v>7.203698999999991</v>
       </c>
       <c r="F17" s="6" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="G17" s="6" t="n">
-        <v>15.47551138000575</v>
+        <v>12.2337253648428</v>
       </c>
     </row>
     <row r="18">
@@ -897,13 +897,13 @@
         <v>6300</v>
       </c>
       <c r="E18" s="8" t="n">
-        <v>371.3852749999999</v>
+        <v>454.2713339999999</v>
       </c>
       <c r="F18" s="9" t="n">
-        <v>1.797976331349206</v>
+        <v>1.649437581785714</v>
       </c>
       <c r="G18" s="9" t="n">
-        <v>0.7795231164282721</v>
+        <v>0.7228557202208872</v>
       </c>
     </row>
     <row r="19">
@@ -924,13 +924,13 @@
         <v>3460</v>
       </c>
       <c r="E19" s="11" t="n">
-        <v>291.5504690000001</v>
+        <v>372.2316649999997</v>
       </c>
       <c r="F19" s="12" t="n">
-        <v>2.570025810549133</v>
+        <v>2.460924663836704</v>
       </c>
       <c r="G19" s="12" t="n">
-        <v>1.159735875135276</v>
+        <v>1.162660439834467</v>
       </c>
     </row>
     <row r="20">
@@ -945,13 +945,13 @@
         <v>170</v>
       </c>
       <c r="E20" s="11" t="n">
-        <v>6.778969999999997</v>
+        <v>7.842634999999999</v>
       </c>
       <c r="F20" s="12" t="n">
-        <v>1.216226970588234</v>
+        <v>1.055295738970588</v>
       </c>
       <c r="G20" s="12" t="n">
-        <v>2.226444684005491</v>
+        <v>0.7489949445605466</v>
       </c>
     </row>
     <row r="21">
@@ -966,13 +966,13 @@
         <v>70</v>
       </c>
       <c r="E21" s="11" t="n">
-        <v>1.873538</v>
+        <v>2.41599</v>
       </c>
       <c r="F21" s="12" t="n">
-        <v>0.8163272714285714</v>
+        <v>0.7895110178571428</v>
       </c>
       <c r="G21" s="12" t="n">
-        <v>4.516506489529598</v>
+        <v>1.984785683841198</v>
       </c>
     </row>
     <row r="22">
@@ -989,7 +989,7 @@
         </is>
       </c>
       <c r="E22" s="11" t="n">
-        <v>2.846336000000001</v>
+        <v>3.623002999999999</v>
       </c>
       <c r="F22" s="12" t="inlineStr">
         <is>
@@ -997,7 +997,7 @@
         </is>
       </c>
       <c r="G22" s="12" t="n">
-        <v>13.03304228643551</v>
+        <v>14.06026595501461</v>
       </c>
     </row>
     <row r="23">
@@ -1012,13 +1012,13 @@
         <v>3700</v>
       </c>
       <c r="E23" s="14" t="n">
-        <v>300.202977</v>
+        <v>382.4902899999996</v>
       </c>
       <c r="F23" s="15" t="n">
-        <v>2.474646161756756</v>
+        <v>2.364720373986484</v>
       </c>
       <c r="G23" s="15" t="n">
-        <v>1.184338650917952</v>
+        <v>1.15595593635019</v>
       </c>
     </row>
     <row r="24">
@@ -1039,13 +1039,13 @@
         <v>3220</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>212.064943</v>
+        <v>255.039584</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>2.008689677484472</v>
+        <v>1.81181070931677</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.4909341141860766</v>
+        <v>0.519194720646776</v>
       </c>
     </row>
     <row r="25">
@@ -1060,13 +1060,13 @@
         <v>130</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>11.52779599999999</v>
+        <v>13.64908399999999</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>2.704598292307691</v>
+        <v>2.401713819230768</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.3304230007524733</v>
+        <v>0.5309859257618292</v>
       </c>
     </row>
     <row r="26">
@@ -1084,7 +1084,7 @@
         <v>1.627344</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.99267984</v>
+        <v>0.74450988</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.002907632442719299</v>
@@ -1104,7 +1104,7 @@
         </is>
       </c>
       <c r="E27" s="5" t="n">
-        <v>3.965082999999998</v>
+        <v>4.825298999999998</v>
       </c>
       <c r="F27" s="6" t="inlineStr">
         <is>
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="G27" s="6" t="n">
-        <v>3.754455785086306</v>
+        <v>4.161194713124877</v>
       </c>
     </row>
     <row r="28">
@@ -1127,13 +1127,13 @@
         <v>3400</v>
       </c>
       <c r="E28" s="8" t="n">
-        <v>225.2200830000001</v>
+        <v>270.3160120000001</v>
       </c>
       <c r="F28" s="9" t="n">
-        <v>2.020356626911766</v>
+        <v>1.818670227794118</v>
       </c>
       <c r="G28" s="9" t="n">
-        <v>0.4766237150847681</v>
+        <v>0.5150884765704684</v>
       </c>
     </row>
     <row r="29">
@@ -1154,13 +1154,13 @@
         <v>1800</v>
       </c>
       <c r="E29" s="11" t="n">
-        <v>109.3411039999999</v>
+        <v>163.2959799999999</v>
       </c>
       <c r="F29" s="12" t="n">
-        <v>1.852724262222221</v>
+        <v>2.075219745833333</v>
       </c>
       <c r="G29" s="12" t="n">
-        <v>0.9600442541759149</v>
+        <v>1.157100717630784</v>
       </c>
     </row>
     <row r="30">
@@ -1175,13 +1175,13 @@
         <v>150</v>
       </c>
       <c r="E30" s="11" t="n">
-        <v>3.426835</v>
+        <v>4.497679999999994</v>
       </c>
       <c r="F30" s="12" t="n">
-        <v>0.6967897833333333</v>
+        <v>0.6858961999999991</v>
       </c>
       <c r="G30" s="12" t="n">
-        <v>2.368585420901766</v>
+        <v>2.400622256834046</v>
       </c>
     </row>
     <row r="31">
@@ -1196,13 +1196,13 @@
         <v>50</v>
       </c>
       <c r="E31" s="11" t="n">
-        <v>0.6518869999999999</v>
+        <v>1.169746</v>
       </c>
       <c r="F31" s="12" t="n">
-        <v>0.3976510699999999</v>
+        <v>0.535158795</v>
       </c>
       <c r="G31" s="12" t="n">
-        <v>0.6452403426327395</v>
+        <v>1.952219188039149</v>
       </c>
     </row>
     <row r="32">
@@ -1219,7 +1219,7 @@
         </is>
       </c>
       <c r="E32" s="11" t="n">
-        <v>3.095730000000001</v>
+        <v>4.156942999999997</v>
       </c>
       <c r="F32" s="12" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         </is>
       </c>
       <c r="G32" s="12" t="n">
-        <v>2.143141140970398</v>
+        <v>2.295674496742728</v>
       </c>
     </row>
     <row r="33">
@@ -1242,13 +1242,13 @@
         <v>2000</v>
       </c>
       <c r="E33" s="14" t="n">
-        <v>113.419826</v>
+        <v>168.9634060000002</v>
       </c>
       <c r="F33" s="15" t="n">
-        <v>1.7296523465</v>
+        <v>1.932518956125002</v>
       </c>
       <c r="G33" s="15" t="n">
-        <v>0.9829148424358294</v>
+        <v>1.182413601329254</v>
       </c>
     </row>
     <row r="34">
@@ -1269,13 +1269,13 @@
         <v>1450</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>69.38276100000003</v>
+        <v>90.48283300000004</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>1.459430490000001</v>
+        <v>1.427444693017242</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.2838541009873363</v>
+        <v>0.1616504785316064</v>
       </c>
     </row>
     <row r="35">
@@ -1290,13 +1290,13 @@
         <v>280</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>19.842501</v>
+        <v>38.81560699999999</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>2.1614152875</v>
+        <v>3.171096464732142</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>-0.4932534848477882</v>
+        <v>-0.01240756970190615</v>
       </c>
     </row>
     <row r="36">
@@ -1311,13 +1311,13 @@
         <v>120</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>4.416792</v>
+        <v>4.73717</v>
       </c>
       <c r="F36" s="6" t="n">
-        <v>1.1226013</v>
+        <v>0.9030230312500001</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.6138568024691673</v>
+        <v>0.7309200951624766</v>
       </c>
     </row>
     <row r="37">
@@ -1334,7 +1334,7 @@
         </is>
       </c>
       <c r="E37" s="5" t="n">
-        <v>0.8064720000000001</v>
+        <v>0.9852660000000002</v>
       </c>
       <c r="F37" s="6" t="inlineStr">
         <is>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="G37" s="6" t="n">
-        <v>1.054936094746927</v>
+        <v>0.9817287675365824</v>
       </c>
     </row>
     <row r="38">
@@ -1357,13 +1357,13 @@
         <v>1850</v>
       </c>
       <c r="E38" s="8" t="n">
-        <v>93.64205400000009</v>
+        <v>134.0356100000002</v>
       </c>
       <c r="F38" s="9" t="n">
-        <v>1.543828457837839</v>
+        <v>1.657332204729732</v>
       </c>
       <c r="G38" s="9" t="n">
-        <v>-0.02391133373357135</v>
+        <v>0.1175997593429761</v>
       </c>
     </row>
     <row r="39">
@@ -1384,13 +1384,13 @@
         <v>590</v>
       </c>
       <c r="E39" s="11" t="n">
-        <v>34.68476999999999</v>
+        <v>46.02887699999999</v>
       </c>
       <c r="F39" s="12" t="n">
-        <v>1.793026245762711</v>
+        <v>1.784594171822034</v>
       </c>
       <c r="G39" s="12" t="n">
-        <v>0.3024203738423739</v>
+        <v>0.3316941301407923</v>
       </c>
     </row>
     <row r="40">
@@ -1405,13 +1405,13 @@
         <v>110</v>
       </c>
       <c r="E40" s="11" t="n">
-        <v>1.220701</v>
+        <v>1.467721</v>
       </c>
       <c r="F40" s="12" t="n">
-        <v>0.3384670954545455</v>
+        <v>0.305219253409091</v>
       </c>
       <c r="G40" s="12" t="n">
-        <v>-0.2608397367194074</v>
+        <v>-0.1237774282038497</v>
       </c>
     </row>
     <row r="41">
@@ -1426,13 +1426,13 @@
         <v>50</v>
       </c>
       <c r="E41" s="11" t="n">
-        <v>15.906614</v>
+        <v>18.443174</v>
       </c>
       <c r="F41" s="12" t="n">
-        <v>9.703034539999999</v>
+        <v>8.437752104999998</v>
       </c>
       <c r="G41" s="12" t="n">
-        <v>11.63469538024549</v>
+        <v>12.56208476020787</v>
       </c>
     </row>
     <row r="42">
@@ -1449,7 +1449,7 @@
         </is>
       </c>
       <c r="E42" s="11" t="n">
-        <v>0.9982820000000001</v>
+        <v>1.245302</v>
       </c>
       <c r="F42" s="12" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         </is>
       </c>
       <c r="G42" s="12" t="n">
-        <v>6.054497915341671</v>
+        <v>6.542941942517945</v>
       </c>
     </row>
     <row r="43">
@@ -1472,13 +1472,13 @@
         <v>750</v>
       </c>
       <c r="E43" s="14" t="n">
-        <v>51.81208499999999</v>
+        <v>65.93977199999995</v>
       </c>
       <c r="F43" s="15" t="n">
-        <v>2.107024789999999</v>
+        <v>2.011163045999999</v>
       </c>
       <c r="G43" s="15" t="n">
-        <v>0.7538779334509822</v>
+        <v>0.7537587123398348</v>
       </c>
     </row>
     <row r="44">
@@ -1499,13 +1499,13 @@
         <v>450</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>25.953409</v>
+        <v>37.750255</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>1.759064387777778</v>
+        <v>1.918971295833333</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.2310531768360362</v>
+        <v>0.4709848541408546</v>
       </c>
     </row>
     <row r="45">
@@ -1520,13 +1520,13 @@
         <v>150</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>0.9440299999999999</v>
+        <v>0.9628979999999999</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.1919527666666666</v>
+        <v>0.146841945</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>5.761230161003837</v>
+        <v>-0.8330789091669322</v>
       </c>
     </row>
     <row r="46">
@@ -1544,7 +1544,7 @@
         <v>2.540945</v>
       </c>
       <c r="F46" s="6" t="n">
-        <v>0.2583294083333333</v>
+        <v>0.19374705625</v>
       </c>
       <c r="G46" s="6" t="inlineStr">
         <is>
@@ -1566,7 +1566,7 @@
         </is>
       </c>
       <c r="E47" s="5" t="n">
-        <v>0.092492</v>
+        <v>0.11136</v>
       </c>
       <c r="F47" s="6" t="inlineStr">
         <is>
@@ -1574,7 +1574,7 @@
         </is>
       </c>
       <c r="G47" s="6" t="n">
-        <v>-0.3375637426230448</v>
+        <v>-0.3293182365695013</v>
       </c>
     </row>
     <row r="48">
@@ -1589,13 +1589,13 @@
         <v>900</v>
       </c>
       <c r="E48" s="8" t="n">
-        <v>29.438384</v>
+        <v>41.254098</v>
       </c>
       <c r="F48" s="9" t="n">
-        <v>0.9976341244444444</v>
+        <v>1.0485416575</v>
       </c>
       <c r="G48" s="9" t="n">
-        <v>0.3871697192122954</v>
+        <v>0.3124941420853775</v>
       </c>
     </row>
   </sheetData>
@@ -1664,7 +1664,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>数据统计范围：2020-01-01至2020-01-12</t>
+          <t>数据统计范围：2020-01-01至2020-01-16</t>
         </is>
       </c>
       <c r="B2" s="2" t="n"/>
@@ -1728,13 +1728,13 @@
         <v>21670</v>
       </c>
       <c r="E4" s="11" t="n">
-        <v>1429.405549000001</v>
+        <v>1845.691190000003</v>
       </c>
       <c r="F4" s="12" t="n">
-        <v>2.011853679949239</v>
+        <v>1.948324225715277</v>
       </c>
       <c r="G4" s="12" t="n">
-        <v>0.8204664451472976</v>
+        <v>0.8387666650381573</v>
       </c>
     </row>
     <row r="5">
@@ -1749,13 +1749,13 @@
         <v>4700</v>
       </c>
       <c r="E5" s="11" t="n">
-        <v>145.4069340000004</v>
+        <v>215.0368580000008</v>
       </c>
       <c r="F5" s="12" t="n">
-        <v>0.9435981887234068</v>
+        <v>1.046588963138302</v>
       </c>
       <c r="G5" s="12" t="n">
-        <v>-0.05940033783253562</v>
+        <v>0.1295883605144903</v>
       </c>
     </row>
     <row r="6">
@@ -1772,17 +1772,15 @@
         </is>
       </c>
       <c r="E6" s="11" t="n">
-        <v>0</v>
+        <v>25.73370899999988</v>
       </c>
       <c r="F6" s="12" t="inlineStr">
         <is>
           <t>——</t>
         </is>
       </c>
-      <c r="G6" s="12" t="inlineStr">
-        <is>
-          <t>——</t>
-        </is>
+      <c r="G6" s="12" t="n">
+        <v>5.095519100882968</v>
       </c>
     </row>
     <row r="7">
@@ -1797,13 +1795,13 @@
         <v>26370</v>
       </c>
       <c r="E7" s="14" t="n">
-        <v>1574.812482999999</v>
+        <v>2060.728048000003</v>
       </c>
       <c r="F7" s="15" t="n">
-        <v>1.821455469529767</v>
+        <v>1.787605388623438</v>
       </c>
       <c r="G7" s="15" t="n">
-        <v>0.6757316824929098</v>
+        <v>0.7257102195972922</v>
       </c>
     </row>
     <row r="8">
@@ -1824,13 +1822,13 @@
         <v>1200</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>82.57591400000003</v>
+        <v>106.239738</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>2.098804480833334</v>
+        <v>2.025195005625001</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>1.210584522942133</v>
+        <v>1.305377066571443</v>
       </c>
     </row>
     <row r="9">
@@ -1845,10 +1843,10 @@
         <v>30</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.197797</v>
+        <v>1.320504</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.2010936166666667</v>
+        <v>1.0068843</v>
       </c>
       <c r="G9" s="6" t="inlineStr">
         <is>
@@ -1870,7 +1868,7 @@
         </is>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0</v>
+        <v>0.243151</v>
       </c>
       <c r="F10" s="6" t="inlineStr">
         <is>
@@ -1895,13 +1893,13 @@
         <v>1230</v>
       </c>
       <c r="E11" s="8" t="n">
-        <v>82.77371100000002</v>
+        <v>107.560242</v>
       </c>
       <c r="F11" s="9" t="n">
-        <v>2.05251885</v>
+        <v>2.000358159146342</v>
       </c>
       <c r="G11" s="9" t="n">
-        <v>1.215879614037152</v>
+        <v>1.334031689551743</v>
       </c>
     </row>
     <row r="12">
@@ -1922,13 +1920,13 @@
         <v>800</v>
       </c>
       <c r="E12" s="11" t="n">
-        <v>75.43032199999998</v>
+        <v>92.38716400000001</v>
       </c>
       <c r="F12" s="12" t="n">
-        <v>2.875781026249999</v>
+        <v>2.641695470625</v>
       </c>
       <c r="G12" s="12" t="n">
-        <v>0.8664094960173983</v>
+        <v>0.8493472558619537</v>
       </c>
     </row>
     <row r="13">
@@ -1943,13 +1941,13 @@
         <v>45</v>
       </c>
       <c r="E13" s="11" t="n">
-        <v>2.445629</v>
+        <v>2.641619</v>
       </c>
       <c r="F13" s="12" t="n">
-        <v>1.657592988888889</v>
+        <v>1.342822991666667</v>
       </c>
       <c r="G13" s="12" t="n">
-        <v>2.396612594094609</v>
+        <v>2.011909132577321</v>
       </c>
     </row>
     <row r="14">
@@ -1966,7 +1964,7 @@
         </is>
       </c>
       <c r="E14" s="11" t="n">
-        <v>0</v>
+        <v>0.53755</v>
       </c>
       <c r="F14" s="12" t="inlineStr">
         <is>
@@ -1991,13 +1989,13 @@
         <v>845</v>
       </c>
       <c r="E15" s="14" t="n">
-        <v>77.87595099999997</v>
+        <v>95.028783</v>
       </c>
       <c r="F15" s="15" t="n">
-        <v>2.81090710710059</v>
+        <v>2.572524746893491</v>
       </c>
       <c r="G15" s="15" t="n">
-        <v>0.8931941116657027</v>
+        <v>0.8694054919323972</v>
       </c>
     </row>
     <row r="16">
@@ -2018,13 +2016,13 @@
         <v>850</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>62.09050399999999</v>
+        <v>77.168842</v>
       </c>
       <c r="F16" s="6" t="n">
-        <v>2.227953378823529</v>
+        <v>2.076749718529412</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.5792878474316032</v>
+        <v>0.6955951656904997</v>
       </c>
     </row>
     <row r="17">
@@ -2039,13 +2037,13 @@
         <v>70</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.566386</v>
+        <v>17.318834</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>0.6824967571428572</v>
+        <v>5.659547539285716</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>8.612560754087095</v>
+        <v>82.16925987821512</v>
       </c>
     </row>
     <row r="18">
@@ -2062,17 +2060,15 @@
         </is>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0</v>
+        <v>1.783482</v>
       </c>
       <c r="F18" s="6" t="inlineStr">
         <is>
           <t>——</t>
         </is>
       </c>
-      <c r="G18" s="6" t="inlineStr">
-        <is>
-          <t>——</t>
-        </is>
+      <c r="G18" s="6" t="n">
+        <v>20.48255841965791</v>
       </c>
     </row>
     <row r="19">
@@ -2087,13 +2083,13 @@
         <v>920</v>
       </c>
       <c r="E19" s="8" t="n">
-        <v>63.65689000000001</v>
+        <v>94.48767600000002</v>
       </c>
       <c r="F19" s="9" t="n">
-        <v>2.110364288043479</v>
+        <v>2.349353900543479</v>
       </c>
       <c r="G19" s="9" t="n">
-        <v>0.6124461288510243</v>
+        <v>1.066677842035175</v>
       </c>
     </row>
     <row r="20">
@@ -2102,7 +2098,7 @@
       </c>
       <c r="B20" s="10" t="inlineStr">
         <is>
-          <t>师宗</t>
+          <t>春怡雅苑</t>
         </is>
       </c>
       <c r="C20" s="10" t="inlineStr">
@@ -2111,16 +2107,16 @@
         </is>
       </c>
       <c r="D20" s="10" t="n">
-        <v>980</v>
+        <v>950</v>
       </c>
       <c r="E20" s="11" t="n">
-        <v>59.41065899999999</v>
+        <v>67.06045899999999</v>
       </c>
       <c r="F20" s="12" t="n">
-        <v>1.849005203571428</v>
+        <v>1.614745262763158</v>
       </c>
       <c r="G20" s="12" t="n">
-        <v>0.680583560256272</v>
+        <v>0.9348313949952325</v>
       </c>
     </row>
     <row r="21">
@@ -2132,16 +2128,16 @@
         </is>
       </c>
       <c r="D21" s="10" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="E21" s="11" t="n">
-        <v>2.454908</v>
+        <v>8.553569</v>
       </c>
       <c r="F21" s="12" t="n">
-        <v>2.495823133333333</v>
+        <v>1.3044192725</v>
       </c>
       <c r="G21" s="12" t="n">
-        <v>3.116942313690897</v>
+        <v>0.5995564625692595</v>
       </c>
     </row>
     <row r="22">
@@ -2158,17 +2154,15 @@
         </is>
       </c>
       <c r="E22" s="11" t="n">
-        <v>0</v>
+        <v>0.449813</v>
       </c>
       <c r="F22" s="12" t="inlineStr">
         <is>
           <t>——</t>
         </is>
       </c>
-      <c r="G22" s="12" t="inlineStr">
-        <is>
-          <t>——</t>
-        </is>
+      <c r="G22" s="12" t="n">
+        <v>5.531429235214683</v>
       </c>
     </row>
     <row r="23">
@@ -2180,16 +2174,16 @@
         </is>
       </c>
       <c r="D23" s="13" t="n">
-        <v>1010</v>
+        <v>1100</v>
       </c>
       <c r="E23" s="14" t="n">
-        <v>61.86556699999999</v>
+        <v>75.61402800000002</v>
       </c>
       <c r="F23" s="15" t="n">
-        <v>1.868217617326732</v>
+        <v>1.572428082272727</v>
       </c>
       <c r="G23" s="15" t="n">
-        <v>0.7209976648725134</v>
+        <v>0.8900175371586383</v>
       </c>
     </row>
     <row r="24">
@@ -2198,7 +2192,7 @@
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
-          <t>祥云</t>
+          <t>师宗</t>
         </is>
       </c>
       <c r="C24" s="4" t="inlineStr">
@@ -2207,18 +2201,16 @@
         </is>
       </c>
       <c r="D24" s="4" t="n">
-        <v>600</v>
+        <v>980</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>57.29196500000003</v>
+        <v>72.412856</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>2.912341554166668</v>
-      </c>
-      <c r="G24" s="6" t="inlineStr">
-        <is>
-          <t>——</t>
-        </is>
+        <v>1.690249062244898</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>0.6229999768472192</v>
       </c>
     </row>
     <row r="25">
@@ -2230,18 +2222,16 @@
         </is>
       </c>
       <c r="D25" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2.225554</v>
+        <v>2.961544</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>4.525293133333334</v>
-      </c>
-      <c r="G25" s="6" t="inlineStr">
-        <is>
-          <t>——</t>
-        </is>
+        <v>2.2581773</v>
+      </c>
+      <c r="G25" s="6" t="n">
+        <v>2.217939788530765</v>
       </c>
     </row>
     <row r="26">
@@ -2258,17 +2248,15 @@
         </is>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0</v>
+        <v>2.830857000000001</v>
       </c>
       <c r="F26" s="6" t="inlineStr">
         <is>
           <t>——</t>
         </is>
       </c>
-      <c r="G26" s="6" t="inlineStr">
-        <is>
-          <t>——</t>
-        </is>
+      <c r="G26" s="6" t="n">
+        <v>14.62835107322675</v>
       </c>
     </row>
     <row r="27">
@@ -2280,18 +2268,16 @@
         </is>
       </c>
       <c r="D27" s="7" t="n">
-        <v>615</v>
+        <v>1010</v>
       </c>
       <c r="E27" s="8" t="n">
-        <v>59.51751900000001</v>
+        <v>75.37440000000001</v>
       </c>
       <c r="F27" s="9" t="n">
-        <v>2.951681836585367</v>
-      </c>
-      <c r="G27" s="9" t="inlineStr">
-        <is>
-          <t>——</t>
-        </is>
+        <v>1.707118217821782</v>
+      </c>
+      <c r="G27" s="9" t="n">
+        <v>0.6552344232471736</v>
       </c>
     </row>
     <row r="28">
@@ -2300,7 +2286,7 @@
       </c>
       <c r="B28" s="10" t="inlineStr">
         <is>
-          <t>春怡雅苑</t>
+          <t>宣威</t>
         </is>
       </c>
       <c r="C28" s="10" t="inlineStr">
@@ -2309,16 +2295,16 @@
         </is>
       </c>
       <c r="D28" s="10" t="n">
-        <v>950</v>
+        <v>980</v>
       </c>
       <c r="E28" s="11" t="n">
-        <v>54.44119299999998</v>
+        <v>70.62944800000004</v>
       </c>
       <c r="F28" s="12" t="n">
-        <v>1.747848827894736</v>
+        <v>1.648621043877552</v>
       </c>
       <c r="G28" s="12" t="n">
-        <v>1.124366732896237</v>
+        <v>1.986715124309933</v>
       </c>
     </row>
     <row r="29">
@@ -2330,16 +2316,18 @@
         </is>
       </c>
       <c r="D29" s="10" t="n">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="E29" s="11" t="n">
-        <v>4.60392</v>
+        <v>1.435264</v>
       </c>
       <c r="F29" s="12" t="n">
-        <v>0.9361303999999998</v>
-      </c>
-      <c r="G29" s="12" t="n">
-        <v>1.999439061271318</v>
+        <v>1.0943888</v>
+      </c>
+      <c r="G29" s="12" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
       </c>
     </row>
     <row r="30">
@@ -2356,7 +2344,7 @@
         </is>
       </c>
       <c r="E30" s="11" t="n">
-        <v>0</v>
+        <v>1.184868</v>
       </c>
       <c r="F30" s="12" t="inlineStr">
         <is>
@@ -2378,16 +2366,16 @@
         </is>
       </c>
       <c r="D31" s="13" t="n">
-        <v>1100</v>
+        <v>1010</v>
       </c>
       <c r="E31" s="14" t="n">
-        <v>59.04511300000001</v>
+        <v>72.06471200000003</v>
       </c>
       <c r="F31" s="15" t="n">
-        <v>1.637159951363637</v>
+        <v>1.632158700000001</v>
       </c>
       <c r="G31" s="15" t="n">
-        <v>1.17381723969808</v>
+        <v>2.047408288670747</v>
       </c>
     </row>
     <row r="32">
@@ -2396,7 +2384,7 @@
       </c>
       <c r="B32" s="4" t="inlineStr">
         <is>
-          <t>宣威</t>
+          <t>富宁</t>
         </is>
       </c>
       <c r="C32" s="4" t="inlineStr">
@@ -2405,16 +2393,16 @@
         </is>
       </c>
       <c r="D32" s="4" t="n">
-        <v>980</v>
+        <v>400</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>57.47479500000001</v>
+        <v>70.86291600000004</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>1.788756375</v>
+        <v>4.052473008750002</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>2.45679867364312</v>
+        <v>2.360357474970257</v>
       </c>
     </row>
     <row r="33">
@@ -2426,18 +2414,16 @@
         </is>
       </c>
       <c r="D33" s="4" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>1.185801</v>
+        <v>1.101679</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.20556435</v>
-      </c>
-      <c r="G33" s="6" t="inlineStr">
-        <is>
-          <t>——</t>
-        </is>
+        <v>0.7200259178571428</v>
+      </c>
+      <c r="G33" s="6" t="n">
+        <v>-0.5736328474221266</v>
       </c>
     </row>
     <row r="34">
@@ -2454,7 +2440,7 @@
         </is>
       </c>
       <c r="E34" s="5" t="n">
-        <v>0</v>
+        <v>0.176928</v>
       </c>
       <c r="F34" s="6" t="inlineStr">
         <is>
@@ -2476,16 +2462,16 @@
         </is>
       </c>
       <c r="D35" s="7" t="n">
-        <v>1010</v>
+        <v>435</v>
       </c>
       <c r="E35" s="8" t="n">
-        <v>58.66059600000001</v>
+        <v>71.964595</v>
       </c>
       <c r="F35" s="9" t="n">
-        <v>1.771433839603961</v>
+        <v>3.784345081896552</v>
       </c>
       <c r="G35" s="9" t="n">
-        <v>2.528118202908161</v>
+        <v>2.040100188477556</v>
       </c>
     </row>
     <row r="36">
@@ -2494,7 +2480,7 @@
       </c>
       <c r="B36" s="10" t="inlineStr">
         <is>
-          <t>富宁</t>
+          <t>砚山</t>
         </is>
       </c>
       <c r="C36" s="10" t="inlineStr">
@@ -2503,16 +2489,16 @@
         </is>
       </c>
       <c r="D36" s="10" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="E36" s="11" t="n">
-        <v>57.44232800000002</v>
+        <v>65.42441399999996</v>
       </c>
       <c r="F36" s="12" t="n">
-        <v>4.379977510000002</v>
+        <v>2.494305783749998</v>
       </c>
       <c r="G36" s="12" t="n">
-        <v>2.613016117839432</v>
+        <v>0.8672259594823302</v>
       </c>
     </row>
     <row r="37">
@@ -2527,15 +2513,13 @@
         <v>35</v>
       </c>
       <c r="E37" s="11" t="n">
-        <v>1.057811</v>
+        <v>2.060747</v>
       </c>
       <c r="F37" s="12" t="n">
-        <v>0.9218067285714284</v>
-      </c>
-      <c r="G37" s="12" t="inlineStr">
-        <is>
-          <t>——</t>
-        </is>
+        <v>1.346845360714286</v>
+      </c>
+      <c r="G37" s="12" t="n">
+        <v>6.154675934284168</v>
       </c>
     </row>
     <row r="38">
@@ -2552,17 +2536,15 @@
         </is>
       </c>
       <c r="E38" s="11" t="n">
-        <v>0</v>
+        <v>0.444702</v>
       </c>
       <c r="F38" s="12" t="inlineStr">
         <is>
           <t>——</t>
         </is>
       </c>
-      <c r="G38" s="12" t="inlineStr">
-        <is>
-          <t>——</t>
-        </is>
+      <c r="G38" s="12" t="n">
+        <v>2.250911961869394</v>
       </c>
     </row>
     <row r="39">
@@ -2574,16 +2556,16 @@
         </is>
       </c>
       <c r="D39" s="13" t="n">
-        <v>435</v>
+        <v>635</v>
       </c>
       <c r="E39" s="14" t="n">
-        <v>58.500139</v>
+        <v>67.48516099999998</v>
       </c>
       <c r="F39" s="15" t="n">
-        <v>4.101733883908047</v>
+        <v>2.431059933661416</v>
       </c>
       <c r="G39" s="15" t="n">
-        <v>2.679550471959408</v>
+        <v>0.9103364083490924</v>
       </c>
     </row>
     <row r="40">
@@ -2592,7 +2574,7 @@
       </c>
       <c r="B40" s="4" t="inlineStr">
         <is>
-          <t>砚山</t>
+          <t>祥云</t>
         </is>
       </c>
       <c r="C40" s="4" t="inlineStr">
@@ -2604,13 +2586,15 @@
         <v>600</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>53.28971799999998</v>
+        <v>63.98583300000003</v>
       </c>
       <c r="F40" s="6" t="n">
-        <v>2.708893998333332</v>
-      </c>
-      <c r="G40" s="6" t="n">
-        <v>0.8278154440623766</v>
+        <v>2.439459883125001</v>
+      </c>
+      <c r="G40" s="6" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
       </c>
     </row>
     <row r="41">
@@ -2622,16 +2606,18 @@
         </is>
       </c>
       <c r="D41" s="4" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>1.967897</v>
+        <v>2.225554</v>
       </c>
       <c r="F41" s="6" t="n">
-        <v>1.714881671428571</v>
-      </c>
-      <c r="G41" s="6" t="n">
-        <v>8.383180912237874</v>
+        <v>3.393969850000001</v>
+      </c>
+      <c r="G41" s="6" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
       </c>
     </row>
     <row r="42">
@@ -2648,7 +2634,7 @@
         </is>
       </c>
       <c r="E42" s="5" t="n">
-        <v>0</v>
+        <v>0.28123</v>
       </c>
       <c r="F42" s="6" t="inlineStr">
         <is>
@@ -2670,16 +2656,18 @@
         </is>
       </c>
       <c r="D43" s="7" t="n">
-        <v>635</v>
+        <v>615</v>
       </c>
       <c r="E43" s="8" t="n">
-        <v>55.257615</v>
+        <v>66.21138700000003</v>
       </c>
       <c r="F43" s="9" t="n">
-        <v>2.654105917322835</v>
-      </c>
-      <c r="G43" s="9" t="n">
-        <v>0.88177691133751</v>
+        <v>2.462740614024391</v>
+      </c>
+      <c r="G43" s="9" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
       </c>
     </row>
     <row r="44">
@@ -2700,13 +2688,13 @@
         <v>780</v>
       </c>
       <c r="E44" s="11" t="n">
-        <v>51.72355199999998</v>
+        <v>62.82822799999998</v>
       </c>
       <c r="F44" s="12" t="n">
-        <v>2.022523507692307</v>
+        <v>1.842558609615384</v>
       </c>
       <c r="G44" s="12" t="n">
-        <v>1.016381781986401</v>
+        <v>0.7787141841070071</v>
       </c>
     </row>
     <row r="45">
@@ -2721,13 +2709,13 @@
         <v>30</v>
       </c>
       <c r="E45" s="11" t="n">
-        <v>0.316692</v>
+        <v>0.600588</v>
       </c>
       <c r="F45" s="12" t="n">
-        <v>0.3219702</v>
+        <v>0.4579483500000001</v>
       </c>
       <c r="G45" s="12" t="n">
-        <v>3.18257458694877</v>
+        <v>2.256843520888466</v>
       </c>
     </row>
     <row r="46">
@@ -2744,17 +2732,15 @@
         </is>
       </c>
       <c r="E46" s="11" t="n">
-        <v>0</v>
+        <v>0.388684</v>
       </c>
       <c r="F46" s="12" t="inlineStr">
         <is>
           <t>——</t>
         </is>
       </c>
-      <c r="G46" s="12" t="inlineStr">
-        <is>
-          <t>——</t>
-        </is>
+      <c r="G46" s="12" t="n">
+        <v>2.322539834507282</v>
       </c>
     </row>
     <row r="47">
@@ -2769,13 +2755,13 @@
         <v>810</v>
       </c>
       <c r="E47" s="14" t="n">
-        <v>52.04024399999999</v>
+        <v>63.42881599999998</v>
       </c>
       <c r="F47" s="15" t="n">
-        <v>1.959540051851852</v>
+        <v>1.791276748148148</v>
       </c>
       <c r="G47" s="15" t="n">
-        <v>1.022756997864881</v>
+        <v>0.7863910175101967</v>
       </c>
     </row>
     <row r="48">
@@ -2796,10 +2782,10 @@
         <v>780</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>50.56865299999999</v>
+        <v>61.83111700000001</v>
       </c>
       <c r="F48" s="6" t="n">
-        <v>1.97736399551282</v>
+        <v>1.813316412019231</v>
       </c>
       <c r="G48" s="6" t="inlineStr">
         <is>
@@ -2819,10 +2805,10 @@
         <v>30</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>0.8515369999999999</v>
+        <v>1.031123</v>
       </c>
       <c r="F49" s="6" t="n">
-        <v>0.8657292833333332</v>
+        <v>0.7862312874999998</v>
       </c>
       <c r="G49" s="6" t="inlineStr">
         <is>
@@ -2844,7 +2830,7 @@
         </is>
       </c>
       <c r="E50" s="5" t="n">
-        <v>0</v>
+        <v>0.405043</v>
       </c>
       <c r="F50" s="6" t="inlineStr">
         <is>
@@ -2869,10 +2855,10 @@
         <v>810</v>
       </c>
       <c r="E51" s="8" t="n">
-        <v>51.42019000000001</v>
+        <v>62.86224000000004</v>
       </c>
       <c r="F51" s="9" t="n">
-        <v>1.936192339506173</v>
+        <v>1.775276222222223</v>
       </c>
       <c r="G51" s="9" t="inlineStr">
         <is>
@@ -2898,13 +2884,13 @@
         <v>800</v>
       </c>
       <c r="E52" s="11" t="n">
-        <v>39.69384300000001</v>
+        <v>52.68176200000001</v>
       </c>
       <c r="F52" s="12" t="n">
-        <v>1.513327764375</v>
+        <v>1.5063691321875</v>
       </c>
       <c r="G52" s="12" t="n">
-        <v>1.426383179585585</v>
+        <v>1.46033988169094</v>
       </c>
     </row>
     <row r="53">
@@ -2919,13 +2905,13 @@
         <v>60</v>
       </c>
       <c r="E53" s="11" t="n">
-        <v>0.09447699999999999</v>
+        <v>0.191788</v>
       </c>
       <c r="F53" s="12" t="n">
-        <v>0.04802580833333333</v>
+        <v>0.07311917500000001</v>
       </c>
       <c r="G53" s="12" t="n">
-        <v>-0.9348969674584755</v>
+        <v>-0.8678410575582004</v>
       </c>
     </row>
     <row r="54">
@@ -2942,17 +2928,15 @@
         </is>
       </c>
       <c r="E54" s="11" t="n">
-        <v>0</v>
+        <v>0.217255</v>
       </c>
       <c r="F54" s="12" t="inlineStr">
         <is>
           <t>——</t>
         </is>
       </c>
-      <c r="G54" s="12" t="inlineStr">
-        <is>
-          <t>——</t>
-        </is>
+      <c r="G54" s="12" t="n">
+        <v>1.302893788424847</v>
       </c>
     </row>
     <row r="55">
@@ -2967,13 +2951,13 @@
         <v>860</v>
       </c>
       <c r="E55" s="14" t="n">
-        <v>39.78832</v>
+        <v>52.87355</v>
       </c>
       <c r="F55" s="15" t="n">
-        <v>1.411097395348837</v>
+        <v>1.406374949127907</v>
       </c>
       <c r="G55" s="15" t="n">
-        <v>1.23398659753574</v>
+        <v>1.312566131364183</v>
       </c>
     </row>
     <row r="56">
@@ -2982,7 +2966,7 @@
       </c>
       <c r="B56" s="4" t="inlineStr">
         <is>
-          <t>弥渡</t>
+          <t>勐腊</t>
         </is>
       </c>
       <c r="C56" s="4" t="inlineStr">
@@ -2991,16 +2975,16 @@
         </is>
       </c>
       <c r="D56" s="4" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>36.40284600000001</v>
+        <v>49.666473</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>2.467304006666667</v>
+        <v>1.747877799807692</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>0.9640933533964542</v>
+        <v>0.4236938630423908</v>
       </c>
     </row>
     <row r="57">
@@ -3012,16 +2996,16 @@
         </is>
       </c>
       <c r="D57" s="4" t="n">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="E57" s="5" t="n">
-        <v>1.141545</v>
+        <v>1.79179</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>2.901426875000001</v>
+        <v>0.9108265833333336</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>11.01993240041697</v>
+        <v>0.57225590761914</v>
       </c>
     </row>
     <row r="58">
@@ -3038,17 +3022,15 @@
         </is>
       </c>
       <c r="E58" s="5" t="n">
-        <v>0</v>
+        <v>1.772922000000001</v>
       </c>
       <c r="F58" s="6" t="inlineStr">
         <is>
           <t>——</t>
         </is>
       </c>
-      <c r="G58" s="6" t="inlineStr">
-        <is>
-          <t>——</t>
-        </is>
+      <c r="G58" s="6" t="n">
+        <v>1.384870137906173</v>
       </c>
     </row>
     <row r="59">
@@ -3060,16 +3042,16 @@
         </is>
       </c>
       <c r="D59" s="7" t="n">
-        <v>462</v>
+        <v>695</v>
       </c>
       <c r="E59" s="8" t="n">
-        <v>37.54439100000001</v>
+        <v>51.45826300000003</v>
       </c>
       <c r="F59" s="9" t="n">
-        <v>2.478579925324676</v>
+        <v>1.693680239028778</v>
       </c>
       <c r="G59" s="9" t="n">
-        <v>1.015357817836398</v>
+        <v>0.4283935018837206</v>
       </c>
     </row>
     <row r="60">
@@ -3078,7 +3060,7 @@
       </c>
       <c r="B60" s="10" t="inlineStr">
         <is>
-          <t>勐腊</t>
+          <t>勐海</t>
         </is>
       </c>
       <c r="C60" s="10" t="inlineStr">
@@ -3087,16 +3069,16 @@
         </is>
       </c>
       <c r="D60" s="10" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="E60" s="11" t="n">
-        <v>34.678365</v>
+        <v>47.82127300000002</v>
       </c>
       <c r="F60" s="12" t="n">
-        <v>1.627215588461538</v>
+        <v>1.823186033125001</v>
       </c>
       <c r="G60" s="12" t="n">
-        <v>0.2464107393052166</v>
+        <v>1.777294497003076</v>
       </c>
     </row>
     <row r="61">
@@ -3108,16 +3090,16 @@
         </is>
       </c>
       <c r="D61" s="10" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E61" s="11" t="n">
-        <v>1.457524</v>
+        <v>1.0866</v>
       </c>
       <c r="F61" s="12" t="n">
-        <v>0.9878773777777778</v>
+        <v>0.7101707142857144</v>
       </c>
       <c r="G61" s="12" t="n">
-        <v>0.4045148023304448</v>
+        <v>5.657721081558003</v>
       </c>
     </row>
     <row r="62">
@@ -3134,17 +3116,15 @@
         </is>
       </c>
       <c r="E62" s="11" t="n">
-        <v>0</v>
+        <v>0.9011740000000001</v>
       </c>
       <c r="F62" s="12" t="inlineStr">
         <is>
           <t>——</t>
         </is>
       </c>
-      <c r="G62" s="12" t="inlineStr">
-        <is>
-          <t>——</t>
-        </is>
+      <c r="G62" s="12" t="n">
+        <v>4.521595010079102</v>
       </c>
     </row>
     <row r="63">
@@ -3156,16 +3136,16 @@
         </is>
       </c>
       <c r="D63" s="13" t="n">
-        <v>695</v>
+        <v>635</v>
       </c>
       <c r="E63" s="14" t="n">
-        <v>36.135889</v>
+        <v>48.90787300000002</v>
       </c>
       <c r="F63" s="15" t="n">
-        <v>1.585819589208633</v>
+        <v>1.761838732086615</v>
       </c>
       <c r="G63" s="15" t="n">
-        <v>0.2520957491676121</v>
+        <v>1.813730208321168</v>
       </c>
     </row>
     <row r="64">
@@ -3174,7 +3154,7 @@
       </c>
       <c r="B64" s="4" t="inlineStr">
         <is>
-          <t>施甸</t>
+          <t>弥渡</t>
         </is>
       </c>
       <c r="C64" s="4" t="inlineStr">
@@ -3183,16 +3163,16 @@
         </is>
       </c>
       <c r="D64" s="4" t="n">
-        <v>370</v>
+        <v>450</v>
       </c>
       <c r="E64" s="5" t="n">
-        <v>18.32539299999999</v>
+        <v>43.78662200000001</v>
       </c>
       <c r="F64" s="6" t="n">
-        <v>1.51060672027027</v>
+        <v>2.225819951666667</v>
       </c>
       <c r="G64" s="6" t="n">
-        <v>0.3250028054028002</v>
+        <v>0.9957869647782296</v>
       </c>
     </row>
     <row r="65">
@@ -3203,21 +3183,17 @@
           <t>非车险</t>
         </is>
       </c>
-      <c r="D65" s="4" t="inlineStr">
-        <is>
-          <t>——</t>
-        </is>
+      <c r="D65" s="4" t="n">
+        <v>12</v>
       </c>
       <c r="E65" s="5" t="n">
-        <v>17.663452</v>
-      </c>
-      <c r="F65" s="6" t="inlineStr">
-        <is>
-          <t>——</t>
-        </is>
+        <v>1.315338</v>
+      </c>
+      <c r="F65" s="6" t="n">
+        <v>2.507363062500001</v>
       </c>
       <c r="G65" s="6" t="n">
-        <v>-0.4082654520991866</v>
+        <v>4.162966510181974</v>
       </c>
     </row>
     <row r="66">
@@ -3234,17 +3210,15 @@
         </is>
       </c>
       <c r="E66" s="5" t="n">
-        <v>0</v>
+        <v>1.292697</v>
       </c>
       <c r="F66" s="6" t="inlineStr">
         <is>
           <t>——</t>
         </is>
       </c>
-      <c r="G66" s="6" t="inlineStr">
-        <is>
-          <t>——</t>
-        </is>
+      <c r="G66" s="6" t="n">
+        <v>13.73377252470451</v>
       </c>
     </row>
     <row r="67">
@@ -3256,16 +3230,16 @@
         </is>
       </c>
       <c r="D67" s="7" t="n">
-        <v>370</v>
+        <v>462</v>
       </c>
       <c r="E67" s="8" t="n">
-        <v>35.988845</v>
+        <v>45.10196000000001</v>
       </c>
       <c r="F67" s="9" t="n">
-        <v>2.966648033783784</v>
+        <v>2.23313275974026</v>
       </c>
       <c r="G67" s="9" t="n">
-        <v>-0.1760937591895448</v>
+        <v>1.032142409955787</v>
       </c>
     </row>
     <row r="68">
@@ -3274,7 +3248,7 @@
       </c>
       <c r="B68" s="10" t="inlineStr">
         <is>
-          <t>罗平</t>
+          <t>香榭丽园</t>
         </is>
       </c>
       <c r="C68" s="10" t="inlineStr">
@@ -3283,16 +3257,16 @@
         </is>
       </c>
       <c r="D68" s="10" t="n">
-        <v>440</v>
+        <v>650</v>
       </c>
       <c r="E68" s="11" t="n">
-        <v>32.84845100000001</v>
+        <v>42.47493000000001</v>
       </c>
       <c r="F68" s="12" t="n">
-        <v>2.276994898863637</v>
+        <v>1.494790805769231</v>
       </c>
       <c r="G68" s="12" t="n">
-        <v>1.754910282556421</v>
+        <v>0.5440094117298091</v>
       </c>
     </row>
     <row r="69">
@@ -3304,16 +3278,16 @@
         </is>
       </c>
       <c r="D69" s="10" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E69" s="11" t="n">
-        <v>1.009233</v>
+        <v>2.393855</v>
       </c>
       <c r="F69" s="12" t="n">
-        <v>1.539080325</v>
+        <v>1.8253144375</v>
       </c>
       <c r="G69" s="12" t="n">
-        <v>25.74456752172992</v>
+        <v>0.4439157942229011</v>
       </c>
     </row>
     <row r="70">
@@ -3330,7 +3304,7 @@
         </is>
       </c>
       <c r="E70" s="11" t="n">
-        <v>0</v>
+        <v>0.28485</v>
       </c>
       <c r="F70" s="12" t="inlineStr">
         <is>
@@ -3352,16 +3326,16 @@
         </is>
       </c>
       <c r="D71" s="13" t="n">
-        <v>460</v>
+        <v>680</v>
       </c>
       <c r="E71" s="14" t="n">
-        <v>33.85768400000002</v>
+        <v>44.86878500000002</v>
       </c>
       <c r="F71" s="15" t="n">
-        <v>2.244911656521741</v>
+        <v>1.50937273069853</v>
       </c>
       <c r="G71" s="15" t="n">
-        <v>1.83059360337394</v>
+        <v>0.5383200342930896</v>
       </c>
     </row>
     <row r="72">
@@ -3370,7 +3344,7 @@
       </c>
       <c r="B72" s="4" t="inlineStr">
         <is>
-          <t>勐海</t>
+          <t>罗平</t>
         </is>
       </c>
       <c r="C72" s="4" t="inlineStr">
@@ -3379,16 +3353,16 @@
         </is>
       </c>
       <c r="D72" s="4" t="n">
-        <v>600</v>
+        <v>440</v>
       </c>
       <c r="E72" s="5" t="n">
-        <v>32.00277900000002</v>
+        <v>43.339316</v>
       </c>
       <c r="F72" s="6" t="n">
-        <v>1.626807932500001</v>
+        <v>2.253151939772727</v>
       </c>
       <c r="G72" s="6" t="n">
-        <v>1.597561328982039</v>
+        <v>1.915861926981871</v>
       </c>
     </row>
     <row r="73">
@@ -3400,16 +3374,16 @@
         </is>
       </c>
       <c r="D73" s="4" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E73" s="5" t="n">
-        <v>0.7912020000000002</v>
+        <v>1.136291</v>
       </c>
       <c r="F73" s="6" t="n">
-        <v>0.6894760285714288</v>
+        <v>1.29963283125</v>
       </c>
       <c r="G73" s="6" t="n">
-        <v>6.765409076633167</v>
+        <v>21.30514496594233</v>
       </c>
     </row>
     <row r="74">
@@ -3426,17 +3400,15 @@
         </is>
       </c>
       <c r="E74" s="5" t="n">
-        <v>0</v>
+        <v>1.136291</v>
       </c>
       <c r="F74" s="6" t="inlineStr">
         <is>
           <t>——</t>
         </is>
       </c>
-      <c r="G74" s="6" t="inlineStr">
-        <is>
-          <t>——</t>
-        </is>
+      <c r="G74" s="6" t="n">
+        <v>21.30514496594233</v>
       </c>
     </row>
     <row r="75">
@@ -3448,16 +3420,16 @@
         </is>
       </c>
       <c r="D75" s="7" t="n">
-        <v>635</v>
+        <v>460</v>
       </c>
       <c r="E75" s="8" t="n">
-        <v>32.793981</v>
+        <v>44.475607</v>
       </c>
       <c r="F75" s="9" t="n">
-        <v>1.575143969291339</v>
+        <v>2.211694587228261</v>
       </c>
       <c r="G75" s="9" t="n">
-        <v>1.639948463255918</v>
+        <v>1.982090469523151</v>
       </c>
     </row>
     <row r="76">
@@ -3466,7 +3438,7 @@
       </c>
       <c r="B76" s="10" t="inlineStr">
         <is>
-          <t>香榭丽园</t>
+          <t>施甸</t>
         </is>
       </c>
       <c r="C76" s="10" t="inlineStr">
@@ -3475,16 +3447,16 @@
         </is>
       </c>
       <c r="D76" s="10" t="n">
-        <v>650</v>
+        <v>370</v>
       </c>
       <c r="E76" s="11" t="n">
-        <v>31.853491</v>
+        <v>24.772406</v>
       </c>
       <c r="F76" s="12" t="n">
-        <v>1.494663808461538</v>
+        <v>1.531537262837838</v>
       </c>
       <c r="G76" s="12" t="n">
-        <v>0.5646829970558693</v>
+        <v>0.2768698953681752</v>
       </c>
     </row>
     <row r="77">
@@ -3496,16 +3468,16 @@
         </is>
       </c>
       <c r="D77" s="10" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E77" s="11" t="n">
-        <v>0.336546</v>
+        <v>17.74507599999999</v>
       </c>
       <c r="F77" s="12" t="n">
-        <v>0.3421551</v>
+        <v>10.1479653375</v>
       </c>
       <c r="G77" s="12" t="n">
-        <v>0.01529522499366465</v>
+        <v>-0.4065625440603269</v>
       </c>
     </row>
     <row r="78">
@@ -3522,17 +3494,15 @@
         </is>
       </c>
       <c r="E78" s="11" t="n">
-        <v>0</v>
+        <v>0.4780780000000001</v>
       </c>
       <c r="F78" s="12" t="inlineStr">
         <is>
           <t>——</t>
         </is>
       </c>
-      <c r="G78" s="12" t="inlineStr">
-        <is>
-          <t>——</t>
-        </is>
+      <c r="G78" s="12" t="n">
+        <v>1.193752953970825</v>
       </c>
     </row>
     <row r="79">
@@ -3544,16 +3514,16 @@
         </is>
       </c>
       <c r="D79" s="13" t="n">
-        <v>680</v>
+        <v>370</v>
       </c>
       <c r="E79" s="14" t="n">
-        <v>32.19003700000001</v>
+        <v>42.517482</v>
       </c>
       <c r="F79" s="15" t="n">
-        <v>1.443817836029412</v>
+        <v>2.628614596621622</v>
       </c>
       <c r="G79" s="15" t="n">
-        <v>0.5558809040513184</v>
+        <v>-0.1376301138576177</v>
       </c>
     </row>
     <row r="80">
@@ -3562,7 +3532,7 @@
       </c>
       <c r="B80" s="4" t="inlineStr">
         <is>
-          <t>云龙</t>
+          <t>马关</t>
         </is>
       </c>
       <c r="C80" s="4" t="inlineStr">
@@ -3571,16 +3541,16 @@
         </is>
       </c>
       <c r="D80" s="4" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="E80" s="5" t="n">
-        <v>29.130267</v>
+        <v>39.03612600000001</v>
       </c>
       <c r="F80" s="6" t="n">
-        <v>1.615405715454545</v>
+        <v>1.984336405000001</v>
       </c>
       <c r="G80" s="6" t="n">
-        <v>0.7788827485190308</v>
+        <v>1.314481638066186</v>
       </c>
     </row>
     <row r="81">
@@ -3595,13 +3565,13 @@
         <v>15</v>
       </c>
       <c r="E81" s="5" t="n">
-        <v>1.312469</v>
+        <v>2.239843</v>
       </c>
       <c r="F81" s="6" t="n">
-        <v>2.668686966666667</v>
+        <v>3.415760575</v>
       </c>
       <c r="G81" s="6" t="n">
-        <v>4.558953833121559</v>
+        <v>1.187128821152581</v>
       </c>
     </row>
     <row r="82">
@@ -3618,7 +3588,7 @@
         </is>
       </c>
       <c r="E82" s="5" t="n">
-        <v>0</v>
+        <v>1.314564</v>
       </c>
       <c r="F82" s="6" t="inlineStr">
         <is>
@@ -3640,16 +3610,16 @@
         </is>
       </c>
       <c r="D83" s="7" t="n">
-        <v>565</v>
+        <v>465</v>
       </c>
       <c r="E83" s="8" t="n">
-        <v>30.442736</v>
+        <v>41.27596900000002</v>
       </c>
       <c r="F83" s="9" t="n">
-        <v>1.643368934513274</v>
+        <v>2.030511378225807</v>
       </c>
       <c r="G83" s="9" t="n">
-        <v>0.832608432479836</v>
+        <v>1.307191460143176</v>
       </c>
     </row>
     <row r="84">
@@ -3658,7 +3628,7 @@
       </c>
       <c r="B84" s="10" t="inlineStr">
         <is>
-          <t>马关</t>
+          <t>云龙</t>
         </is>
       </c>
       <c r="C84" s="10" t="inlineStr">
@@ -3667,16 +3637,16 @@
         </is>
       </c>
       <c r="D84" s="10" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="E84" s="11" t="n">
-        <v>27.022155</v>
+        <v>38.88766399999999</v>
       </c>
       <c r="F84" s="12" t="n">
-        <v>1.831501616666666</v>
+        <v>1.617373298181818</v>
       </c>
       <c r="G84" s="12" t="n">
-        <v>1.002475772679472</v>
+        <v>0.8444462162225856</v>
       </c>
     </row>
     <row r="85">
@@ -3691,13 +3661,13 @@
         <v>15</v>
       </c>
       <c r="E85" s="11" t="n">
-        <v>1.858669</v>
+        <v>1.597897</v>
       </c>
       <c r="F85" s="12" t="n">
-        <v>3.779293633333333</v>
+        <v>2.436792925</v>
       </c>
       <c r="G85" s="12" t="n">
-        <v>0.8321576783936442</v>
+        <v>4.678705967645637</v>
       </c>
     </row>
     <row r="86">
@@ -3714,17 +3684,15 @@
         </is>
       </c>
       <c r="E86" s="11" t="n">
-        <v>0</v>
+        <v>0.725919</v>
       </c>
       <c r="F86" s="12" t="inlineStr">
         <is>
           <t>——</t>
         </is>
       </c>
-      <c r="G86" s="12" t="inlineStr">
-        <is>
-          <t>——</t>
-        </is>
+      <c r="G86" s="12" t="n">
+        <v>1.871106171589489</v>
       </c>
     </row>
     <row r="87">
@@ -3736,16 +3704,16 @@
         </is>
       </c>
       <c r="D87" s="13" t="n">
-        <v>465</v>
+        <v>565</v>
       </c>
       <c r="E87" s="14" t="n">
-        <v>28.880824</v>
+        <v>40.485561</v>
       </c>
       <c r="F87" s="15" t="n">
-        <v>1.894333617204301</v>
+        <v>1.639127801548673</v>
       </c>
       <c r="G87" s="15" t="n">
-        <v>0.9905669942117366</v>
+        <v>0.8949445769740521</v>
       </c>
     </row>
     <row r="88">
@@ -3754,7 +3722,7 @@
       </c>
       <c r="B88" s="4" t="inlineStr">
         <is>
-          <t>广南</t>
+          <t>腾冲</t>
         </is>
       </c>
       <c r="C88" s="4" t="inlineStr">
@@ -3763,16 +3731,16 @@
         </is>
       </c>
       <c r="D88" s="4" t="n">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="E88" s="5" t="n">
-        <v>25.040321</v>
+        <v>16.56279899999999</v>
       </c>
       <c r="F88" s="6" t="n">
-        <v>2.545765968333334</v>
+        <v>0.9970369134868418</v>
       </c>
       <c r="G88" s="6" t="n">
-        <v>0.8019588423196127</v>
+        <v>0.33385242241347</v>
       </c>
     </row>
     <row r="89">
@@ -3784,18 +3752,16 @@
         </is>
       </c>
       <c r="D89" s="4" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="E89" s="5" t="n">
-        <v>0.388688</v>
+        <v>19.111874</v>
       </c>
       <c r="F89" s="6" t="n">
-        <v>2.3709968</v>
-      </c>
-      <c r="G89" s="6" t="inlineStr">
-        <is>
-          <t>——</t>
-        </is>
+        <v>8.743682355000001</v>
+      </c>
+      <c r="G89" s="6" t="n">
+        <v>35.01094730971277</v>
       </c>
     </row>
     <row r="90">
@@ -3812,7 +3778,7 @@
         </is>
       </c>
       <c r="E90" s="5" t="n">
-        <v>0</v>
+        <v>0.37115</v>
       </c>
       <c r="F90" s="6" t="inlineStr">
         <is>
@@ -3834,16 +3800,16 @@
         </is>
       </c>
       <c r="D91" s="7" t="n">
-        <v>305</v>
+        <v>380</v>
       </c>
       <c r="E91" s="8" t="n">
-        <v>25.429009</v>
+        <v>35.67467299999999</v>
       </c>
       <c r="F91" s="9" t="n">
-        <v>2.5429009</v>
+        <v>2.147521433881578</v>
       </c>
       <c r="G91" s="9" t="n">
-        <v>0.8299297209079315</v>
+        <v>1.755228862180838</v>
       </c>
     </row>
     <row r="92">
@@ -3852,7 +3818,7 @@
       </c>
       <c r="B92" s="10" t="inlineStr">
         <is>
-          <t>宾川</t>
+          <t>广南</t>
         </is>
       </c>
       <c r="C92" s="10" t="inlineStr">
@@ -3861,16 +3827,16 @@
         </is>
       </c>
       <c r="D92" s="10" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E92" s="11" t="n">
-        <v>20.103258</v>
+        <v>32.74355900000001</v>
       </c>
       <c r="F92" s="12" t="n">
-        <v>1.226298738</v>
+        <v>2.496696373750001</v>
       </c>
       <c r="G92" s="12" t="n">
-        <v>-0.1346087735416066</v>
+        <v>0.6958865754402344</v>
       </c>
     </row>
     <row r="93">
@@ -3882,16 +3848,18 @@
         </is>
       </c>
       <c r="D93" s="10" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E93" s="11" t="n">
-        <v>0.856942</v>
+        <v>0.534914</v>
       </c>
       <c r="F93" s="12" t="n">
-        <v>3.267091375</v>
-      </c>
-      <c r="G93" s="12" t="n">
-        <v>-0.8010046115716336</v>
+        <v>2.44723155</v>
+      </c>
+      <c r="G93" s="12" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
       </c>
     </row>
     <row r="94">
@@ -3908,7 +3876,7 @@
         </is>
       </c>
       <c r="E94" s="11" t="n">
-        <v>0</v>
+        <v>0.06793400000000001</v>
       </c>
       <c r="F94" s="12" t="inlineStr">
         <is>
@@ -3930,16 +3898,16 @@
         </is>
       </c>
       <c r="D95" s="13" t="n">
-        <v>508</v>
+        <v>305</v>
       </c>
       <c r="E95" s="14" t="n">
-        <v>20.9602</v>
+        <v>33.27847300000001</v>
       </c>
       <c r="F95" s="15" t="n">
-        <v>1.25843720472441</v>
+        <v>2.495885475000001</v>
       </c>
       <c r="G95" s="15" t="n">
-        <v>-0.238823826983692</v>
+        <v>0.7235913668349336</v>
       </c>
     </row>
     <row r="96">
@@ -3948,7 +3916,7 @@
       </c>
       <c r="B96" s="4" t="inlineStr">
         <is>
-          <t>漾濞</t>
+          <t>春之城</t>
         </is>
       </c>
       <c r="C96" s="4" t="inlineStr">
@@ -3957,16 +3925,16 @@
         </is>
       </c>
       <c r="D96" s="4" t="n">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="E96" s="5" t="n">
-        <v>16.689547</v>
+        <v>25.624404</v>
       </c>
       <c r="F96" s="6" t="n">
-        <v>1.45437481</v>
+        <v>5.861582415</v>
       </c>
       <c r="G96" s="6" t="n">
-        <v>-0.2011878931258988</v>
+        <v>12.61535114076714</v>
       </c>
     </row>
     <row r="97">
@@ -3978,16 +3946,16 @@
         </is>
       </c>
       <c r="D97" s="4" t="n">
-        <v>5</v>
+        <v>940</v>
       </c>
       <c r="E97" s="5" t="n">
-        <v>3.791976999999998</v>
+        <v>4.220004</v>
       </c>
       <c r="F97" s="6" t="n">
-        <v>23.13105969999999</v>
+        <v>0.1026942462765957</v>
       </c>
       <c r="G97" s="6" t="n">
-        <v>27.09225606187445</v>
+        <v>-0.8972740077171489</v>
       </c>
     </row>
     <row r="98">
@@ -4004,7 +3972,7 @@
         </is>
       </c>
       <c r="E98" s="5" t="n">
-        <v>0</v>
+        <v>0.077736</v>
       </c>
       <c r="F98" s="6" t="inlineStr">
         <is>
@@ -4026,16 +3994,16 @@
         </is>
       </c>
       <c r="D99" s="7" t="n">
-        <v>355</v>
+        <v>1040</v>
       </c>
       <c r="E99" s="8" t="n">
-        <v>20.481524</v>
+        <v>29.844408</v>
       </c>
       <c r="F99" s="9" t="n">
-        <v>1.759680230985916</v>
+        <v>0.6564334932692307</v>
       </c>
       <c r="G99" s="9" t="n">
-        <v>-0.0259852367849629</v>
+        <v>-0.3053336629252399</v>
       </c>
     </row>
     <row r="100">
@@ -4044,7 +4012,7 @@
       </c>
       <c r="B100" s="10" t="inlineStr">
         <is>
-          <t>安宁</t>
+          <t>宾川</t>
         </is>
       </c>
       <c r="C100" s="10" t="inlineStr">
@@ -4053,16 +4021,16 @@
         </is>
       </c>
       <c r="D100" s="10" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="E100" s="11" t="n">
-        <v>19.56185</v>
+        <v>24.937166</v>
       </c>
       <c r="F100" s="12" t="n">
-        <v>1.7046755</v>
+        <v>1.1408753445</v>
       </c>
       <c r="G100" s="12" t="n">
-        <v>0.9265750822459444</v>
+        <v>-0.06398456382428963</v>
       </c>
     </row>
     <row r="101">
@@ -4074,16 +4042,16 @@
         </is>
       </c>
       <c r="D101" s="10" t="n">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="E101" s="11" t="n">
-        <v>0.396548</v>
+        <v>0.943125</v>
       </c>
       <c r="F101" s="12" t="n">
-        <v>0.4031571333333333</v>
+        <v>2.696748046875</v>
       </c>
       <c r="G101" s="12" t="n">
-        <v>2.283878233793765</v>
+        <v>-0.7812326174889574</v>
       </c>
     </row>
     <row r="102">
@@ -4100,17 +4068,15 @@
         </is>
       </c>
       <c r="E102" s="11" t="n">
-        <v>0</v>
+        <v>0.636894</v>
       </c>
       <c r="F102" s="12" t="inlineStr">
         <is>
           <t>——</t>
         </is>
       </c>
-      <c r="G102" s="12" t="inlineStr">
-        <is>
-          <t>——</t>
-        </is>
+      <c r="G102" s="12" t="n">
+        <v>2.835786557456034</v>
       </c>
     </row>
     <row r="103">
@@ -4122,16 +4088,16 @@
         </is>
       </c>
       <c r="D103" s="13" t="n">
-        <v>380</v>
+        <v>508</v>
       </c>
       <c r="E103" s="14" t="n">
-        <v>19.958398</v>
+        <v>25.88029100000001</v>
       </c>
       <c r="F103" s="15" t="n">
-        <v>1.60192405</v>
+        <v>1.165377276820867</v>
       </c>
       <c r="G103" s="15" t="n">
-        <v>0.9425275206998949</v>
+        <v>-0.1638820288284289</v>
       </c>
     </row>
     <row r="104">
@@ -4140,7 +4106,7 @@
       </c>
       <c r="B104" s="4" t="inlineStr">
         <is>
-          <t>兰坪</t>
+          <t>漾濞</t>
         </is>
       </c>
       <c r="C104" s="4" t="inlineStr">
@@ -4149,16 +4115,16 @@
         </is>
       </c>
       <c r="D104" s="4" t="n">
-        <v>228</v>
+        <v>350</v>
       </c>
       <c r="E104" s="5" t="n">
-        <v>14.291465</v>
+        <v>20.184694</v>
       </c>
       <c r="F104" s="6" t="n">
-        <v>1.911796853070175</v>
+        <v>1.319213929285714</v>
       </c>
       <c r="G104" s="6" t="n">
-        <v>0.7842950934043278</v>
+        <v>-0.1957869514305329</v>
       </c>
     </row>
     <row r="105">
@@ -4170,16 +4136,16 @@
         </is>
       </c>
       <c r="D105" s="4" t="n">
-        <v>72</v>
+        <v>5</v>
       </c>
       <c r="E105" s="5" t="n">
-        <v>2.500017</v>
+        <v>3.985515999999998</v>
       </c>
       <c r="F105" s="6" t="n">
-        <v>1.059034979166666</v>
+        <v>18.23373569999999</v>
       </c>
       <c r="G105" s="6" t="n">
-        <v>0.7752272275399776</v>
+        <v>34.77726709635719</v>
       </c>
     </row>
     <row r="106">
@@ -4196,17 +4162,15 @@
         </is>
       </c>
       <c r="E106" s="5" t="n">
-        <v>0</v>
+        <v>0.52474</v>
       </c>
       <c r="F106" s="6" t="inlineStr">
         <is>
           <t>——</t>
         </is>
       </c>
-      <c r="G106" s="6" t="inlineStr">
-        <is>
-          <t>——</t>
-        </is>
+      <c r="G106" s="6" t="n">
+        <v>4.150164886934673</v>
       </c>
     </row>
     <row r="107">
@@ -4218,16 +4182,16 @@
         </is>
       </c>
       <c r="D107" s="7" t="n">
-        <v>300</v>
+        <v>355</v>
       </c>
       <c r="E107" s="8" t="n">
-        <v>16.79148199999999</v>
+        <v>24.17021</v>
       </c>
       <c r="F107" s="9" t="n">
-        <v>1.707134003333333</v>
+        <v>1.55744663028169</v>
       </c>
       <c r="G107" s="9" t="n">
-        <v>0.7829391499093317</v>
+        <v>-0.0412484875102378</v>
       </c>
     </row>
     <row r="108">
@@ -4236,7 +4200,7 @@
       </c>
       <c r="B108" s="10" t="inlineStr">
         <is>
-          <t>会泽</t>
+          <t>安宁</t>
         </is>
       </c>
       <c r="C108" s="10" t="inlineStr">
@@ -4245,16 +4209,16 @@
         </is>
       </c>
       <c r="D108" s="10" t="n">
-        <v>370</v>
+        <v>350</v>
       </c>
       <c r="E108" s="11" t="n">
-        <v>15.9883</v>
+        <v>22.698819</v>
       </c>
       <c r="F108" s="12" t="n">
-        <v>1.317954459459459</v>
+        <v>1.483529956071428</v>
       </c>
       <c r="G108" s="12" t="n">
-        <v>1.022563532198991</v>
+        <v>0.6919901194562446</v>
       </c>
     </row>
     <row r="109">
@@ -4266,18 +4230,16 @@
         </is>
       </c>
       <c r="D109" s="10" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E109" s="11" t="n">
-        <v>0.324946</v>
+        <v>0.435416</v>
       </c>
       <c r="F109" s="12" t="n">
-        <v>0.49554265</v>
-      </c>
-      <c r="G109" s="12" t="inlineStr">
-        <is>
-          <t>——</t>
-        </is>
+        <v>0.3320047</v>
+      </c>
+      <c r="G109" s="12" t="n">
+        <v>1.622356058781016</v>
       </c>
     </row>
     <row r="110">
@@ -4294,17 +4256,15 @@
         </is>
       </c>
       <c r="E110" s="11" t="n">
-        <v>0</v>
+        <v>0.364076</v>
       </c>
       <c r="F110" s="12" t="inlineStr">
         <is>
           <t>——</t>
         </is>
       </c>
-      <c r="G110" s="12" t="inlineStr">
-        <is>
-          <t>——</t>
-        </is>
+      <c r="G110" s="12" t="n">
+        <v>1.192700554083353</v>
       </c>
     </row>
     <row r="111">
@@ -4316,16 +4276,16 @@
         </is>
       </c>
       <c r="D111" s="13" t="n">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="E111" s="14" t="n">
-        <v>16.313246</v>
+        <v>23.13423499999999</v>
       </c>
       <c r="F111" s="15" t="n">
-        <v>1.275779494871794</v>
+        <v>1.39262006743421</v>
       </c>
       <c r="G111" s="15" t="n">
-        <v>1.063670086963033</v>
+        <v>0.7033642685606942</v>
       </c>
     </row>
     <row r="112">
@@ -4334,7 +4294,7 @@
       </c>
       <c r="B112" s="4" t="inlineStr">
         <is>
-          <t>麻栗坡</t>
+          <t>兰坪</t>
         </is>
       </c>
       <c r="C112" s="4" t="inlineStr">
@@ -4343,16 +4303,16 @@
         </is>
       </c>
       <c r="D112" s="4" t="n">
-        <v>300</v>
+        <v>228</v>
       </c>
       <c r="E112" s="5" t="n">
-        <v>13.269367</v>
+        <v>19.05046699999999</v>
       </c>
       <c r="F112" s="6" t="n">
-        <v>1.349052311666667</v>
+        <v>1.911313300986842</v>
       </c>
       <c r="G112" s="6" t="n">
-        <v>0.4356874392887307</v>
+        <v>0.6855668493139289</v>
       </c>
     </row>
     <row r="113">
@@ -4364,16 +4324,16 @@
         </is>
       </c>
       <c r="D113" s="4" t="n">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="E113" s="5" t="n">
-        <v>0.5103790000000001</v>
+        <v>3.413075</v>
       </c>
       <c r="F113" s="6" t="n">
-        <v>0.6226623800000001</v>
+        <v>1.084362369791667</v>
       </c>
       <c r="G113" s="6" t="n">
-        <v>0.1369370493220203</v>
+        <v>1.264307848875202</v>
       </c>
     </row>
     <row r="114">
@@ -4390,17 +4350,15 @@
         </is>
       </c>
       <c r="E114" s="5" t="n">
-        <v>0</v>
+        <v>0.9734520000000001</v>
       </c>
       <c r="F114" s="6" t="inlineStr">
         <is>
           <t>——</t>
         </is>
       </c>
-      <c r="G114" s="6" t="inlineStr">
-        <is>
-          <t>——</t>
-        </is>
+      <c r="G114" s="6" t="n">
+        <v>5.657128984387289</v>
       </c>
     </row>
     <row r="115">
@@ -4412,16 +4370,16 @@
         </is>
       </c>
       <c r="D115" s="7" t="n">
-        <v>325</v>
+        <v>300</v>
       </c>
       <c r="E115" s="8" t="n">
-        <v>13.779746</v>
+        <v>22.46354199999999</v>
       </c>
       <c r="F115" s="9" t="n">
-        <v>1.293176163076923</v>
+        <v>1.712845077499999</v>
       </c>
       <c r="G115" s="9" t="n">
-        <v>0.4218493152451779</v>
+        <v>0.7536695174265868</v>
       </c>
     </row>
     <row r="116">
@@ -4430,7 +4388,7 @@
       </c>
       <c r="B116" s="10" t="inlineStr">
         <is>
-          <t>腾冲</t>
+          <t>麻栗坡</t>
         </is>
       </c>
       <c r="C116" s="10" t="inlineStr">
@@ -4439,16 +4397,16 @@
         </is>
       </c>
       <c r="D116" s="10" t="n">
-        <v>380</v>
+        <v>300</v>
       </c>
       <c r="E116" s="11" t="n">
-        <v>12.763493</v>
+        <v>20.256634</v>
       </c>
       <c r="F116" s="12" t="n">
-        <v>1.024438253947368</v>
+        <v>1.5445683425</v>
       </c>
       <c r="G116" s="12" t="n">
-        <v>0.3382765764720082</v>
+        <v>0.6597946904128302</v>
       </c>
     </row>
     <row r="117">
@@ -4459,21 +4417,17 @@
           <t>非车险</t>
         </is>
       </c>
-      <c r="D117" s="10" t="inlineStr">
-        <is>
-          <t>——</t>
-        </is>
+      <c r="D117" s="10" t="n">
+        <v>25</v>
       </c>
       <c r="E117" s="11" t="n">
-        <v>0.25926</v>
-      </c>
-      <c r="F117" s="12" t="inlineStr">
-        <is>
-          <t>——</t>
-        </is>
+        <v>0.7552180000000002</v>
+      </c>
+      <c r="F117" s="12" t="n">
+        <v>0.6910244700000002</v>
       </c>
       <c r="G117" s="12" t="n">
-        <v>-0.5114975015262171</v>
+        <v>0.6131242644247512</v>
       </c>
     </row>
     <row r="118">
@@ -4490,17 +4444,15 @@
         </is>
       </c>
       <c r="E118" s="11" t="n">
-        <v>0</v>
+        <v>0.5625780000000001</v>
       </c>
       <c r="F118" s="12" t="inlineStr">
         <is>
           <t>——</t>
         </is>
       </c>
-      <c r="G118" s="12" t="inlineStr">
-        <is>
-          <t>——</t>
-        </is>
+      <c r="G118" s="12" t="n">
+        <v>6.951070595717619</v>
       </c>
     </row>
     <row r="119">
@@ -4512,16 +4464,16 @@
         </is>
       </c>
       <c r="D119" s="13" t="n">
-        <v>380</v>
+        <v>325</v>
       </c>
       <c r="E119" s="14" t="n">
-        <v>13.022753</v>
+        <v>21.011852</v>
       </c>
       <c r="F119" s="15" t="n">
-        <v>1.045247280263158</v>
+        <v>1.478911121538461</v>
       </c>
       <c r="G119" s="15" t="n">
-        <v>0.2934815655764287</v>
+        <v>0.6580705011618881</v>
       </c>
     </row>
     <row r="120">
@@ -4530,7 +4482,7 @@
       </c>
       <c r="B120" s="4" t="inlineStr">
         <is>
-          <t>洱源</t>
+          <t>会泽</t>
         </is>
       </c>
       <c r="C120" s="4" t="inlineStr">
@@ -4539,16 +4491,16 @@
         </is>
       </c>
       <c r="D120" s="4" t="n">
-        <v>300</v>
+        <v>370</v>
       </c>
       <c r="E120" s="5" t="n">
-        <v>10.795533</v>
+        <v>20.504222</v>
       </c>
       <c r="F120" s="6" t="n">
-        <v>1.097545855</v>
+        <v>1.267659670945946</v>
       </c>
       <c r="G120" s="6" t="n">
-        <v>-0.367220931098832</v>
+        <v>0.8630478402135753</v>
       </c>
     </row>
     <row r="121">
@@ -4560,16 +4512,18 @@
         </is>
       </c>
       <c r="D121" s="4" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E121" s="5" t="n">
-        <v>2.083804999999999</v>
+        <v>0.369706</v>
       </c>
       <c r="F121" s="6" t="n">
-        <v>1.815887214285714</v>
-      </c>
-      <c r="G121" s="6" t="n">
-        <v>0.4482081611803583</v>
+        <v>0.4228512375</v>
+      </c>
+      <c r="G121" s="6" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
       </c>
     </row>
     <row r="122">
@@ -4586,7 +4540,7 @@
         </is>
       </c>
       <c r="E122" s="5" t="n">
-        <v>0</v>
+        <v>0.369706</v>
       </c>
       <c r="F122" s="6" t="inlineStr">
         <is>
@@ -4608,16 +4562,16 @@
         </is>
       </c>
       <c r="D123" s="7" t="n">
-        <v>335</v>
+        <v>390</v>
       </c>
       <c r="E123" s="8" t="n">
-        <v>12.879338</v>
+        <v>20.873928</v>
       </c>
       <c r="F123" s="9" t="n">
-        <v>1.172596444776119</v>
+        <v>1.224336161538461</v>
       </c>
       <c r="G123" s="9" t="n">
-        <v>-0.303796762207454</v>
+        <v>0.8966399445525743</v>
       </c>
     </row>
     <row r="124">
@@ -4626,7 +4580,7 @@
       </c>
       <c r="B124" s="10" t="inlineStr">
         <is>
-          <t>春之城</t>
+          <t>洱源</t>
         </is>
       </c>
       <c r="C124" s="10" t="inlineStr">
@@ -4635,16 +4589,16 @@
         </is>
       </c>
       <c r="D124" s="10" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E124" s="11" t="n">
-        <v>1.922795</v>
+        <v>12.324914</v>
       </c>
       <c r="F124" s="12" t="n">
-        <v>0.5864524749999999</v>
+        <v>0.9397746924999999</v>
       </c>
       <c r="G124" s="12" t="n">
-        <v>0.4524178575043543</v>
+        <v>-0.3754645600647919</v>
       </c>
     </row>
     <row r="125">
@@ -4656,16 +4610,16 @@
         </is>
       </c>
       <c r="D125" s="10" t="n">
-        <v>940</v>
+        <v>35</v>
       </c>
       <c r="E125" s="11" t="n">
-        <v>2.059192</v>
+        <v>3.276262</v>
       </c>
       <c r="F125" s="12" t="n">
-        <v>0.0668142085106383</v>
+        <v>2.141271235714286</v>
       </c>
       <c r="G125" s="12" t="n">
-        <v>-0.9498738528444739</v>
+        <v>1.215924431927322</v>
       </c>
     </row>
     <row r="126">
@@ -4682,17 +4636,15 @@
         </is>
       </c>
       <c r="E126" s="11" t="n">
-        <v>0</v>
+        <v>0.116604</v>
       </c>
       <c r="F126" s="12" t="inlineStr">
         <is>
           <t>——</t>
         </is>
       </c>
-      <c r="G126" s="12" t="inlineStr">
-        <is>
-          <t>——</t>
-        </is>
+      <c r="G126" s="12" t="n">
+        <v>-0.2275015899936401</v>
       </c>
     </row>
     <row r="127">
@@ -4704,16 +4656,16 @@
         </is>
       </c>
       <c r="D127" s="13" t="n">
-        <v>1040</v>
+        <v>335</v>
       </c>
       <c r="E127" s="14" t="n">
-        <v>3.981987</v>
+        <v>15.60117600000001</v>
       </c>
       <c r="F127" s="15" t="n">
-        <v>0.1167794264423077</v>
+        <v>1.065304182089553</v>
       </c>
       <c r="G127" s="15" t="n">
-        <v>-0.9060941931143142</v>
+        <v>-0.2645478094864195</v>
       </c>
     </row>
   </sheetData>
@@ -4826,7 +4778,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>数据统计范围：2020-01-01至2020-01-12</t>
+          <t>数据统计范围：2020-01-01至2020-01-16</t>
         </is>
       </c>
       <c r="B2" s="2" t="n"/>
@@ -4890,13 +4842,13 @@
         <v>21670</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1429.405549000001</v>
+        <v>1845.691190000003</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>2.011853679949239</v>
+        <v>1.948324225715277</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.8204664451472976</v>
+        <v>0.8387666650381573</v>
       </c>
     </row>
     <row r="5">
@@ -4911,13 +4863,13 @@
         <v>4700</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>145.4069340000004</v>
+        <v>215.0368580000008</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>0.9435981887234068</v>
+        <v>1.046588963138302</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.05940033783253562</v>
+        <v>0.1295883605144903</v>
       </c>
     </row>
     <row r="6">
@@ -4934,7 +4886,7 @@
         </is>
       </c>
       <c r="E6" s="5" t="n">
-        <v>20.83511099999992</v>
+        <v>25.73370899999988</v>
       </c>
       <c r="F6" s="6" t="inlineStr">
         <is>
@@ -4942,7 +4894,7 @@
         </is>
       </c>
       <c r="G6" s="6" t="n">
-        <v>5.155245180411068</v>
+        <v>5.095519100882968</v>
       </c>
     </row>
     <row r="7">
@@ -4957,13 +4909,13 @@
         <v>26370</v>
       </c>
       <c r="E7" s="8" t="n">
-        <v>1574.812482999999</v>
+        <v>2060.728048000003</v>
       </c>
       <c r="F7" s="9" t="n">
-        <v>1.821455469529767</v>
+        <v>1.787605388623438</v>
       </c>
       <c r="G7" s="9" t="n">
-        <v>0.6757316824929098</v>
+        <v>0.7257102195972922</v>
       </c>
     </row>
     <row r="8">
@@ -4986,7 +4938,7 @@
         </is>
       </c>
       <c r="E8" s="11" t="n">
-        <v>38.87392500000001</v>
+        <v>50.52402700000001</v>
       </c>
       <c r="F8" s="12" t="inlineStr">
         <is>
@@ -4994,7 +4946,7 @@
         </is>
       </c>
       <c r="G8" s="12" t="n">
-        <v>5.294718022838761</v>
+        <v>4.610570284781487</v>
       </c>
     </row>
     <row r="9">
@@ -5009,13 +4961,13 @@
         <v>1260</v>
       </c>
       <c r="E9" s="11" t="n">
-        <v>21.991529</v>
+        <v>24.426737</v>
       </c>
       <c r="F9" s="12" t="n">
-        <v>0.5323346305555555</v>
+        <v>0.4434615943452381</v>
       </c>
       <c r="G9" s="12" t="n">
-        <v>0.4020725514129251</v>
+        <v>-0.005831416871336925</v>
       </c>
     </row>
     <row r="10">
@@ -5032,7 +4984,7 @@
         </is>
       </c>
       <c r="E10" s="11" t="n">
-        <v>0.08862399999999999</v>
+        <v>0.162474</v>
       </c>
       <c r="F10" s="12" t="inlineStr">
         <is>
@@ -5057,13 +5009,13 @@
         <v>1260</v>
       </c>
       <c r="E11" s="14" t="n">
-        <v>60.86545399999998</v>
+        <v>74.95076399999998</v>
       </c>
       <c r="F11" s="15" t="n">
-        <v>1.473330434126984</v>
+        <v>1.360713275</v>
       </c>
       <c r="G11" s="15" t="n">
-        <v>1.784246328918659</v>
+        <v>1.232327495635539</v>
       </c>
     </row>
     <row r="12">
@@ -5086,7 +5038,7 @@
         </is>
       </c>
       <c r="E12" s="5" t="n">
-        <v>36.795417</v>
+        <v>48.445519</v>
       </c>
       <c r="F12" s="6" t="inlineStr">
         <is>
@@ -5113,7 +5065,7 @@
         </is>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.127152</v>
+        <v>0.210634</v>
       </c>
       <c r="F13" s="6" t="inlineStr">
         <is>
@@ -5140,7 +5092,7 @@
         </is>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.08862399999999999</v>
+        <v>0.162474</v>
       </c>
       <c r="F14" s="6" t="inlineStr">
         <is>
@@ -5167,7 +5119,7 @@
         </is>
       </c>
       <c r="E15" s="8" t="n">
-        <v>36.922569</v>
+        <v>48.65615300000002</v>
       </c>
       <c r="F15" s="9" t="inlineStr">
         <is>
@@ -5198,13 +5150,13 @@
         <v>1000</v>
       </c>
       <c r="E16" s="11" t="n">
-        <v>87.40016799999989</v>
+        <v>104.8438279999999</v>
       </c>
       <c r="F16" s="12" t="n">
-        <v>2.665705123999996</v>
+        <v>2.398302565499998</v>
       </c>
       <c r="G16" s="12" t="n">
-        <v>-0.09232435222200674</v>
+        <v>-0.133628324156415</v>
       </c>
     </row>
     <row r="17">
@@ -5219,13 +5171,13 @@
         <v>340</v>
       </c>
       <c r="E17" s="11" t="n">
-        <v>9.827579999999999</v>
+        <v>10.347803</v>
       </c>
       <c r="F17" s="12" t="n">
-        <v>0.8815917352941176</v>
+        <v>0.6961940988970586</v>
       </c>
       <c r="G17" s="12" t="n">
-        <v>-0.3099313188009202</v>
+        <v>-0.1410545872360013</v>
       </c>
     </row>
     <row r="18">
@@ -5242,7 +5194,7 @@
         </is>
       </c>
       <c r="E18" s="11" t="n">
-        <v>0.7620710000000002</v>
+        <v>0.8882500000000002</v>
       </c>
       <c r="F18" s="12" t="inlineStr">
         <is>
@@ -5250,7 +5202,7 @@
         </is>
       </c>
       <c r="G18" s="12" t="n">
-        <v>3.319812031993108</v>
+        <v>3.548573593949234</v>
       </c>
     </row>
     <row r="19">
@@ -5265,13 +5217,13 @@
         <v>1340</v>
       </c>
       <c r="E19" s="14" t="n">
-        <v>97.22774799999988</v>
+        <v>115.1916309999999</v>
       </c>
       <c r="F19" s="15" t="n">
-        <v>2.21301963731343</v>
+        <v>1.966424297854475</v>
       </c>
       <c r="G19" s="15" t="n">
-        <v>-0.1203619527964606</v>
+        <v>-0.1343006798187388</v>
       </c>
     </row>
     <row r="20">
@@ -5294,7 +5246,7 @@
         </is>
       </c>
       <c r="E20" s="5" t="n">
-        <v>32.50226000000001</v>
+        <v>38.94691600000001</v>
       </c>
       <c r="F20" s="6" t="inlineStr">
         <is>
@@ -5302,7 +5254,7 @@
         </is>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.4116908875390657</v>
+        <v>-0.4537169461360687</v>
       </c>
     </row>
     <row r="21">
@@ -5327,7 +5279,7 @@
         </is>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.9890239293821185</v>
+        <v>-0.9863987572882362</v>
       </c>
     </row>
     <row r="22">
@@ -5369,7 +5321,7 @@
         </is>
       </c>
       <c r="E23" s="8" t="n">
-        <v>32.634412</v>
+        <v>39.07906800000001</v>
       </c>
       <c r="F23" s="9" t="inlineStr">
         <is>
@@ -5377,7 +5329,7 @@
         </is>
       </c>
       <c r="G23" s="9" t="n">
-        <v>-0.5149961911616134</v>
+        <v>-0.5176052543965286</v>
       </c>
     </row>
     <row r="24">
@@ -5398,13 +5350,13 @@
         <v>470</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>18.10766899999999</v>
+        <v>20.917262</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>1.175072137234042</v>
+        <v>1.018047592021276</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.7804112443658111</v>
+        <v>0.7348195240515025</v>
       </c>
     </row>
     <row r="25">
@@ -5419,13 +5371,13 @@
         <v>30</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2.163062</v>
+        <v>2.333437</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>2.199113033333334</v>
+        <v>1.779245712500001</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.1418763081974659</v>
+        <v>0.1983956933626554</v>
       </c>
     </row>
     <row r="26">
@@ -5442,7 +5394,7 @@
         </is>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.178794</v>
+        <v>0.198228</v>
       </c>
       <c r="F26" s="6" t="inlineStr">
         <is>
@@ -5467,13 +5419,13 @@
         <v>530</v>
       </c>
       <c r="E27" s="8" t="n">
-        <v>20.27073099999999</v>
+        <v>23.25069899999999</v>
       </c>
       <c r="F27" s="9" t="n">
-        <v>1.166523199056603</v>
+        <v>1.003508942688679</v>
       </c>
       <c r="G27" s="9" t="n">
-        <v>0.6801543299132187</v>
+        <v>0.66023685190854</v>
       </c>
     </row>
     <row r="28">
@@ -5496,7 +5448,7 @@
         </is>
       </c>
       <c r="E28" s="5" t="n">
-        <v>33.58524499999999</v>
+        <v>41.22402399999999</v>
       </c>
       <c r="F28" s="6" t="inlineStr">
         <is>
@@ -5523,7 +5475,7 @@
         </is>
       </c>
       <c r="E29" s="5" t="n">
-        <v>7.532365999999999</v>
+        <v>7.882213999999997</v>
       </c>
       <c r="F29" s="6" t="inlineStr">
         <is>
@@ -5550,7 +5502,7 @@
         </is>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.451125</v>
+        <v>0.5578700000000001</v>
       </c>
       <c r="F30" s="6" t="inlineStr">
         <is>
@@ -5577,7 +5529,7 @@
         </is>
       </c>
       <c r="E31" s="8" t="n">
-        <v>41.11761099999999</v>
+        <v>49.10623799999998</v>
       </c>
       <c r="F31" s="9" t="inlineStr">
         <is>
@@ -5608,13 +5560,13 @@
         <v>610</v>
       </c>
       <c r="E32" s="11" t="n">
-        <v>40.05625800000001</v>
+        <v>51.52085200000001</v>
       </c>
       <c r="F32" s="12" t="n">
-        <v>2.0028129</v>
+        <v>1.93203195</v>
       </c>
       <c r="G32" s="12" t="n">
-        <v>2.10699999736276</v>
+        <v>1.917925581781526</v>
       </c>
     </row>
     <row r="33">
@@ -5629,13 +5581,13 @@
         <v>80</v>
       </c>
       <c r="E33" s="11" t="n">
-        <v>0.4234350000000001</v>
+        <v>0.9246050000000001</v>
       </c>
       <c r="F33" s="12" t="n">
-        <v>0.16143459375</v>
+        <v>0.2643792421875</v>
       </c>
       <c r="G33" s="12" t="n">
-        <v>7.902051885800784</v>
+        <v>16.68462023984852</v>
       </c>
     </row>
     <row r="34">
@@ -5652,7 +5604,7 @@
         </is>
       </c>
       <c r="E34" s="11" t="n">
-        <v>0.4138030000000001</v>
+        <v>0.5187470000000001</v>
       </c>
       <c r="F34" s="12" t="inlineStr">
         <is>
@@ -5660,7 +5612,7 @@
         </is>
       </c>
       <c r="G34" s="12" t="n">
-        <v>13.62098084940994</v>
+        <v>14.71056058632909</v>
       </c>
     </row>
     <row r="35">
@@ -5675,13 +5627,13 @@
         <v>690</v>
       </c>
       <c r="E35" s="14" t="n">
-        <v>40.47969299999998</v>
+        <v>52.445457</v>
       </c>
       <c r="F35" s="15" t="n">
-        <v>1.789319763043477</v>
+        <v>1.738680911413043</v>
       </c>
       <c r="G35" s="15" t="n">
-        <v>2.128302246366797</v>
+        <v>1.961522007454534</v>
       </c>
     </row>
     <row r="36">
@@ -5702,13 +5654,15 @@
         <v>160</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>18.208969</v>
+        <v>0</v>
       </c>
       <c r="F36" s="6" t="n">
-        <v>3.471084715624999</v>
-      </c>
-      <c r="G36" s="6" t="n">
-        <v>0.8362895975514748</v>
+        <v>0</v>
+      </c>
+      <c r="G36" s="6" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
       </c>
     </row>
     <row r="37">
@@ -5723,13 +5677,15 @@
         <v>65</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>0.155245</v>
+        <v>0</v>
       </c>
       <c r="F37" s="6" t="n">
-        <v>0.07284573076923076</v>
-      </c>
-      <c r="G37" s="6" t="n">
-        <v>5.473666652766774</v>
+        <v>0</v>
+      </c>
+      <c r="G37" s="6" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
       </c>
     </row>
     <row r="38">
@@ -5746,15 +5702,17 @@
         </is>
       </c>
       <c r="E38" s="5" t="n">
-        <v>0.145613</v>
+        <v>0</v>
       </c>
       <c r="F38" s="6" t="inlineStr">
         <is>
           <t>——</t>
         </is>
       </c>
-      <c r="G38" s="6" t="n">
-        <v>29.86983252066992</v>
+      <c r="G38" s="6" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
       </c>
     </row>
     <row r="39">
@@ -5769,13 +5727,15 @@
         <v>225</v>
       </c>
       <c r="E39" s="8" t="n">
-        <v>18.364214</v>
+        <v>0</v>
       </c>
       <c r="F39" s="9" t="n">
-        <v>2.489371231111111</v>
-      </c>
-      <c r="G39" s="9" t="n">
-        <v>0.8474774440159685</v>
+        <v>0</v>
+      </c>
+      <c r="G39" s="9" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
       </c>
     </row>
     <row r="40">
@@ -5796,13 +5756,15 @@
         <v>450</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>21.517712</v>
+        <v>0</v>
       </c>
       <c r="F40" s="6" t="n">
-        <v>1.458422702222222</v>
-      </c>
-      <c r="G40" s="6" t="n">
-        <v>11.26587165638227</v>
+        <v>0</v>
+      </c>
+      <c r="G40" s="6" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
       </c>
     </row>
     <row r="41">
@@ -5817,13 +5779,15 @@
         <v>15</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>0.26819</v>
+        <v>0</v>
       </c>
       <c r="F41" s="6" t="n">
-        <v>0.5453196666666666</v>
-      </c>
-      <c r="G41" s="6" t="n">
-        <v>10.37121051515794</v>
+        <v>0</v>
+      </c>
+      <c r="G41" s="6" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
       </c>
     </row>
     <row r="42">
@@ -5840,15 +5804,17 @@
         </is>
       </c>
       <c r="E42" s="5" t="n">
-        <v>0.26819</v>
+        <v>0</v>
       </c>
       <c r="F42" s="6" t="inlineStr">
         <is>
           <t>——</t>
         </is>
       </c>
-      <c r="G42" s="6" t="n">
-        <v>10.37121051515794</v>
+      <c r="G42" s="6" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
       </c>
     </row>
     <row r="43">
@@ -5863,13 +5829,15 @@
         <v>465</v>
       </c>
       <c r="E43" s="8" t="n">
-        <v>21.78590199999999</v>
+        <v>0</v>
       </c>
       <c r="F43" s="9" t="n">
-        <v>1.428967765591397</v>
-      </c>
-      <c r="G43" s="9" t="n">
-        <v>11.25400312735536</v>
+        <v>0</v>
+      </c>
+      <c r="G43" s="9" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
       </c>
     </row>
     <row r="44">
@@ -5890,13 +5858,13 @@
         <v>470</v>
       </c>
       <c r="E44" s="11" t="n">
-        <v>41.65152699999999</v>
+        <v>50.93269100000001</v>
       </c>
       <c r="F44" s="12" t="n">
-        <v>2.702918241489361</v>
+        <v>2.478904907712767</v>
       </c>
       <c r="G44" s="12" t="n">
-        <v>-0.09733428857075954</v>
+        <v>-0.04584526533551225</v>
       </c>
     </row>
     <row r="45">
@@ -5911,13 +5879,13 @@
         <v>90</v>
       </c>
       <c r="E45" s="11" t="n">
-        <v>1.742848</v>
+        <v>1.932736</v>
       </c>
       <c r="F45" s="12" t="n">
-        <v>0.5906318222222223</v>
+        <v>0.4912370666666666</v>
       </c>
       <c r="G45" s="12" t="n">
-        <v>-0.5724232883050635</v>
+        <v>-0.5286827089253547</v>
       </c>
     </row>
     <row r="46">
@@ -5934,7 +5902,7 @@
         </is>
       </c>
       <c r="E46" s="11" t="n">
-        <v>1.057327</v>
+        <v>1.247215</v>
       </c>
       <c r="F46" s="12" t="inlineStr">
         <is>
@@ -5942,7 +5910,7 @@
         </is>
       </c>
       <c r="G46" s="12" t="n">
-        <v>5.592718452655603</v>
+        <v>6.107691167922314</v>
       </c>
     </row>
     <row r="47">
@@ -5957,13 +5925,13 @@
         <v>560</v>
       </c>
       <c r="E47" s="14" t="n">
-        <v>43.394375</v>
+        <v>52.86542700000003</v>
       </c>
       <c r="F47" s="15" t="n">
-        <v>2.363443638392857</v>
+        <v>2.159458290401787</v>
       </c>
       <c r="G47" s="15" t="n">
-        <v>-0.1358957213527731</v>
+        <v>-0.080291255741195</v>
       </c>
     </row>
     <row r="48">
@@ -5986,7 +5954,7 @@
         </is>
       </c>
       <c r="E48" s="5" t="n">
-        <v>41.15611399999999</v>
+        <v>50.34765500000002</v>
       </c>
       <c r="F48" s="6" t="inlineStr">
         <is>
@@ -5994,7 +5962,7 @@
         </is>
       </c>
       <c r="G48" s="6" t="n">
-        <v>-0.1087120148995151</v>
+        <v>-0.05739131089238492</v>
       </c>
     </row>
     <row r="49">
@@ -6011,7 +5979,7 @@
         </is>
       </c>
       <c r="E49" s="5" t="n">
-        <v>1.631923</v>
+        <v>1.821811</v>
       </c>
       <c r="F49" s="6" t="inlineStr">
         <is>
@@ -6019,7 +5987,7 @@
         </is>
       </c>
       <c r="G49" s="6" t="n">
-        <v>-0.5996367611637184</v>
+        <v>-0.555732896075827</v>
       </c>
     </row>
     <row r="50">
@@ -6036,7 +6004,7 @@
         </is>
       </c>
       <c r="E50" s="5" t="n">
-        <v>1.002911</v>
+        <v>1.192799</v>
       </c>
       <c r="F50" s="6" t="inlineStr">
         <is>
@@ -6044,7 +6012,7 @@
         </is>
       </c>
       <c r="G50" s="6" t="n">
-        <v>5.253420045143352</v>
+        <v>5.797582547841848</v>
       </c>
     </row>
     <row r="51">
@@ -6061,7 +6029,7 @@
         </is>
       </c>
       <c r="E51" s="8" t="n">
-        <v>42.788037</v>
+        <v>52.16946600000003</v>
       </c>
       <c r="F51" s="9" t="inlineStr">
         <is>
@@ -6069,7 +6037,7 @@
         </is>
       </c>
       <c r="G51" s="9" t="n">
-        <v>-0.1485324615051953</v>
+        <v>-0.09292285849795912</v>
       </c>
     </row>
     <row r="52">
@@ -6092,7 +6060,7 @@
         </is>
       </c>
       <c r="E52" s="5" t="n">
-        <v>0.495413</v>
+        <v>0.5850360000000001</v>
       </c>
       <c r="F52" s="6" t="inlineStr">
         <is>
@@ -6173,7 +6141,7 @@
         </is>
       </c>
       <c r="E55" s="8" t="n">
-        <v>0.606338</v>
+        <v>0.6959610000000001</v>
       </c>
       <c r="F55" s="9" t="inlineStr">
         <is>
@@ -6204,13 +6172,13 @@
         <v>550</v>
       </c>
       <c r="E56" s="11" t="n">
-        <v>42.65996000000001</v>
+        <v>65.80823400000001</v>
       </c>
       <c r="F56" s="12" t="n">
-        <v>2.365688690909091</v>
+        <v>2.737024277727273</v>
       </c>
       <c r="G56" s="12" t="n">
-        <v>1.727249421897379</v>
+        <v>1.788802722276741</v>
       </c>
     </row>
     <row r="57">
@@ -6225,13 +6193,13 @@
         <v>120</v>
       </c>
       <c r="E57" s="11" t="n">
-        <v>1.829996</v>
+        <v>2.789036</v>
       </c>
       <c r="F57" s="12" t="n">
-        <v>0.4651239833333334</v>
+        <v>0.5316599875</v>
       </c>
       <c r="G57" s="12" t="n">
-        <v>5.681548662226896</v>
+        <v>5.704542395046058</v>
       </c>
     </row>
     <row r="58">
@@ -6248,7 +6216,7 @@
         </is>
       </c>
       <c r="E58" s="11" t="n">
-        <v>1.051298</v>
+        <v>1.482847</v>
       </c>
       <c r="F58" s="12" t="inlineStr">
         <is>
@@ -6256,7 +6224,7 @@
         </is>
       </c>
       <c r="G58" s="12" t="n">
-        <v>3.352984530789362</v>
+        <v>3.180330965268382</v>
       </c>
     </row>
     <row r="59">
@@ -6271,13 +6239,13 @@
         <v>670</v>
       </c>
       <c r="E59" s="14" t="n">
-        <v>44.48995600000003</v>
+        <v>68.59727000000005</v>
       </c>
       <c r="F59" s="15" t="n">
-        <v>2.025289041791046</v>
+        <v>2.342033658582091</v>
       </c>
       <c r="G59" s="15" t="n">
-        <v>1.795296332805083</v>
+        <v>1.856636649549904</v>
       </c>
     </row>
     <row r="60">
@@ -6300,15 +6268,17 @@
         </is>
       </c>
       <c r="E60" s="5" t="n">
-        <v>42.65996000000001</v>
+        <v>0</v>
       </c>
       <c r="F60" s="6" t="inlineStr">
         <is>
           <t>——</t>
         </is>
       </c>
-      <c r="G60" s="6" t="n">
-        <v>1.721212592860032</v>
+      <c r="G60" s="6" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
       </c>
     </row>
     <row r="61">
@@ -6325,15 +6295,17 @@
         </is>
       </c>
       <c r="E61" s="5" t="n">
-        <v>1.829996</v>
+        <v>0</v>
       </c>
       <c r="F61" s="6" t="inlineStr">
         <is>
           <t>——</t>
         </is>
       </c>
-      <c r="G61" s="6" t="n">
-        <v>5.681548662226896</v>
+      <c r="G61" s="6" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
       </c>
     </row>
     <row r="62">
@@ -6350,15 +6322,17 @@
         </is>
       </c>
       <c r="E62" s="5" t="n">
-        <v>1.051298</v>
+        <v>0</v>
       </c>
       <c r="F62" s="6" t="inlineStr">
         <is>
           <t>——</t>
         </is>
       </c>
-      <c r="G62" s="6" t="n">
-        <v>3.352984530789362</v>
+      <c r="G62" s="6" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
       </c>
     </row>
     <row r="63">
@@ -6375,15 +6349,17 @@
         </is>
       </c>
       <c r="E63" s="8" t="n">
-        <v>44.48995600000003</v>
+        <v>0</v>
       </c>
       <c r="F63" s="9" t="inlineStr">
         <is>
           <t>——</t>
         </is>
       </c>
-      <c r="G63" s="9" t="n">
-        <v>1.789215124494789</v>
+      <c r="G63" s="9" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
       </c>
     </row>
     <row r="64">
@@ -6404,13 +6380,13 @@
         <v>700</v>
       </c>
       <c r="E64" s="11" t="n">
-        <v>38.29387499999999</v>
+        <v>49.14762799999997</v>
       </c>
       <c r="F64" s="12" t="n">
-        <v>1.668518839285714</v>
+        <v>1.606074272142856</v>
       </c>
       <c r="G64" s="12" t="n">
-        <v>0.2483805132557813</v>
+        <v>0.06672304618888414</v>
       </c>
     </row>
     <row r="65">
@@ -6421,21 +6397,17 @@
           <t>非车险</t>
         </is>
       </c>
-      <c r="D65" s="10" t="inlineStr">
-        <is>
-          <t>——</t>
-        </is>
+      <c r="D65" s="10" t="n">
+        <v>310</v>
       </c>
       <c r="E65" s="11" t="n">
-        <v>6.336581000000001</v>
-      </c>
-      <c r="F65" s="12" t="inlineStr">
-        <is>
-          <t>——</t>
-        </is>
+        <v>6.695826999999999</v>
+      </c>
+      <c r="F65" s="12" t="n">
+        <v>0.4940872342741935</v>
       </c>
       <c r="G65" s="12" t="n">
-        <v>-0.4495879758508019</v>
+        <v>-0.4231291057667043</v>
       </c>
     </row>
     <row r="66">
@@ -6452,7 +6424,7 @@
         </is>
       </c>
       <c r="E66" s="11" t="n">
-        <v>0.09717000000000001</v>
+        <v>0.136038</v>
       </c>
       <c r="F66" s="12" t="inlineStr">
         <is>
@@ -6460,7 +6432,7 @@
         </is>
       </c>
       <c r="G66" s="12" t="n">
-        <v>-0.5708342166631334</v>
+        <v>-0.5128416318111499</v>
       </c>
     </row>
     <row r="67">
@@ -6475,13 +6447,13 @@
         <v>700</v>
       </c>
       <c r="E67" s="14" t="n">
-        <v>44.63045599999997</v>
+        <v>55.84345499999997</v>
       </c>
       <c r="F67" s="15" t="n">
-        <v>1.944612725714284</v>
+        <v>1.824884333035713</v>
       </c>
       <c r="G67" s="15" t="n">
-        <v>0.05791277246308901</v>
+        <v>-0.0318505787108796</v>
       </c>
     </row>
     <row r="68">
@@ -6502,13 +6474,13 @@
         <v>550</v>
       </c>
       <c r="E68" s="5" t="n">
-        <v>21.233327</v>
+        <v>24.172083</v>
       </c>
       <c r="F68" s="6" t="n">
-        <v>1.177484497272727</v>
+        <v>1.005338906590909</v>
       </c>
       <c r="G68" s="6" t="n">
-        <v>0.01073159265625989</v>
+        <v>-0.3360504028634664</v>
       </c>
     </row>
     <row r="69">
@@ -6519,21 +6491,17 @@
           <t>非车险</t>
         </is>
       </c>
-      <c r="D69" s="4" t="inlineStr">
-        <is>
-          <t>——</t>
-        </is>
+      <c r="D69" s="4" t="n">
+        <v>50</v>
       </c>
       <c r="E69" s="5" t="n">
-        <v>0.162274</v>
-      </c>
-      <c r="F69" s="6" t="inlineStr">
-        <is>
-          <t>——</t>
-        </is>
+        <v>0.181708</v>
+      </c>
+      <c r="F69" s="6" t="n">
+        <v>0.08313140999999999</v>
       </c>
       <c r="G69" s="6" t="n">
-        <v>-0.9560511405107388</v>
+        <v>-0.9520186530166581</v>
       </c>
     </row>
     <row r="70">
@@ -6550,7 +6518,7 @@
         </is>
       </c>
       <c r="E70" s="5" t="n">
-        <v>0.058302</v>
+        <v>0.077736</v>
       </c>
       <c r="F70" s="6" t="inlineStr">
         <is>
@@ -6558,7 +6526,7 @@
         </is>
       </c>
       <c r="G70" s="6" t="n">
-        <v>-0.74250052999788</v>
+        <v>-0.7216237896063714</v>
       </c>
     </row>
     <row r="71">
@@ -6573,13 +6541,13 @@
         <v>550</v>
       </c>
       <c r="E71" s="8" t="n">
-        <v>21.395601</v>
+        <v>24.353791</v>
       </c>
       <c r="F71" s="9" t="n">
-        <v>1.186483328181818</v>
+        <v>1.0128963075</v>
       </c>
       <c r="G71" s="9" t="n">
-        <v>-0.1337889109957581</v>
+        <v>-0.3940872067110852</v>
       </c>
     </row>
     <row r="72">
@@ -6600,13 +6568,13 @@
         <v>150</v>
       </c>
       <c r="E72" s="5" t="n">
-        <v>17.031909</v>
+        <v>24.946906</v>
       </c>
       <c r="F72" s="6" t="n">
-        <v>3.46315483</v>
+        <v>3.804403165</v>
       </c>
       <c r="G72" s="6" t="n">
-        <v>0.7977278338245477</v>
+        <v>1.633160339454879</v>
       </c>
     </row>
     <row r="73">
@@ -6617,21 +6585,17 @@
           <t>非车险</t>
         </is>
       </c>
-      <c r="D73" s="4" t="inlineStr">
-        <is>
-          <t>——</t>
-        </is>
+      <c r="D73" s="4" t="n">
+        <v>260</v>
       </c>
       <c r="E73" s="5" t="n">
-        <v>4.306417</v>
-      </c>
-      <c r="F73" s="6" t="inlineStr">
-        <is>
-          <t>——</t>
-        </is>
+        <v>4.646228999999999</v>
+      </c>
+      <c r="F73" s="6" t="n">
+        <v>0.4087788014423075</v>
       </c>
       <c r="G73" s="6" t="n">
-        <v>-0.4493139789222509</v>
+        <v>-0.4058602868635228</v>
       </c>
     </row>
     <row r="74">
@@ -6648,7 +6612,7 @@
         </is>
       </c>
       <c r="E74" s="5" t="n">
-        <v>0.038868</v>
+        <v>0.058302</v>
       </c>
       <c r="F74" s="6" t="inlineStr">
         <is>
@@ -6673,13 +6637,13 @@
         <v>150</v>
       </c>
       <c r="E75" s="8" t="n">
-        <v>21.338326</v>
+        <v>29.593135</v>
       </c>
       <c r="F75" s="9" t="n">
-        <v>4.338792953333333</v>
+        <v>4.5129530875</v>
       </c>
       <c r="G75" s="9" t="n">
-        <v>0.2338410519210279</v>
+        <v>0.7111569491459164</v>
       </c>
     </row>
     <row r="76">
@@ -6700,13 +6664,13 @@
         <v>362</v>
       </c>
       <c r="E76" s="11" t="n">
-        <v>20.393305</v>
+        <v>26.97841000000001</v>
       </c>
       <c r="F76" s="12" t="n">
-        <v>1.718220448895028</v>
+        <v>1.704782123618785</v>
       </c>
       <c r="G76" s="12" t="n">
-        <v>0.09515281967694822</v>
+        <v>0.1597612384607063</v>
       </c>
     </row>
     <row r="77">
@@ -6721,13 +6685,13 @@
         <v>88</v>
       </c>
       <c r="E77" s="11" t="n">
-        <v>14.627298</v>
+        <v>16.49782</v>
       </c>
       <c r="F77" s="12" t="n">
-        <v>5.069688511363635</v>
+        <v>4.288495823863636</v>
       </c>
       <c r="G77" s="12" t="n">
-        <v>8.737555362203448</v>
+        <v>9.79965305621471</v>
       </c>
     </row>
     <row r="78">
@@ -6744,7 +6708,7 @@
         </is>
       </c>
       <c r="E78" s="11" t="n">
-        <v>0.22468</v>
+        <v>0.27185</v>
       </c>
       <c r="F78" s="12" t="inlineStr">
         <is>
@@ -6752,7 +6716,7 @@
         </is>
       </c>
       <c r="G78" s="12" t="n">
-        <v>10.90799236803053</v>
+        <v>13.40799236803053</v>
       </c>
     </row>
     <row r="79">
@@ -6767,13 +6731,13 @@
         <v>450</v>
       </c>
       <c r="E79" s="14" t="n">
-        <v>35.02060299999997</v>
+        <v>43.47622999999997</v>
       </c>
       <c r="F79" s="15" t="n">
-        <v>2.373618647777775</v>
+        <v>2.210041691666665</v>
       </c>
       <c r="G79" s="15" t="n">
-        <v>0.7402772379880558</v>
+        <v>0.7538048016223526</v>
       </c>
     </row>
     <row r="80">
@@ -6796,15 +6760,17 @@
         </is>
       </c>
       <c r="E80" s="5" t="n">
-        <v>20.393305</v>
+        <v>0</v>
       </c>
       <c r="F80" s="6" t="inlineStr">
         <is>
           <t>——</t>
         </is>
       </c>
-      <c r="G80" s="6" t="n">
-        <v>0.09515281967694822</v>
+      <c r="G80" s="6" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
       </c>
     </row>
     <row r="81">
@@ -6821,15 +6787,17 @@
         </is>
       </c>
       <c r="E81" s="5" t="n">
-        <v>14.677287</v>
+        <v>0</v>
       </c>
       <c r="F81" s="6" t="inlineStr">
         <is>
           <t>——</t>
         </is>
       </c>
-      <c r="G81" s="6" t="n">
-        <v>9.152767209631138</v>
+      <c r="G81" s="6" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
       </c>
     </row>
     <row r="82">
@@ -6846,15 +6814,17 @@
         </is>
       </c>
       <c r="E82" s="5" t="n">
-        <v>0.22468</v>
+        <v>0</v>
       </c>
       <c r="F82" s="6" t="inlineStr">
         <is>
           <t>——</t>
         </is>
       </c>
-      <c r="G82" s="6" t="n">
-        <v>10.90799236803053</v>
+      <c r="G82" s="6" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
       </c>
     </row>
     <row r="83">
@@ -6871,15 +6841,17 @@
         </is>
       </c>
       <c r="E83" s="8" t="n">
-        <v>35.07059199999998</v>
+        <v>0</v>
       </c>
       <c r="F83" s="9" t="inlineStr">
         <is>
           <t>——</t>
         </is>
       </c>
-      <c r="G83" s="9" t="n">
-        <v>0.7476689668864414</v>
+      <c r="G83" s="9" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/2020年机构数据统计表.xlsx
+++ b/2020年机构数据统计表.xlsx
@@ -515,7 +515,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>数据统计范围：2020-01-01至2020-01-16</t>
+          <t>数据统计范围：2020-01-01至2020-01-18</t>
         </is>
       </c>
       <c r="B2" s="2" t="n"/>
@@ -579,13 +579,13 @@
         <v>21670</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1845.691190000003</v>
+        <v>2017.023442000003</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>1.948324225715277</v>
+        <v>1.892607752068915</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.8387666650381573</v>
+        <v>0.8162747250343929</v>
       </c>
     </row>
     <row r="5">
@@ -600,13 +600,13 @@
         <v>2800</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>150.3507990000003</v>
+        <v>161.2964790000004</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>1.228312331116074</v>
+        <v>1.171319668928575</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.1653258760107637</v>
+        <v>0.1631767345728921</v>
       </c>
     </row>
     <row r="6">
@@ -621,13 +621,13 @@
         <v>1900</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>64.68605900000001</v>
+        <v>72.93040100000002</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>0.7787861050657896</v>
+        <v>0.78048323877193</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.05442798548364092</v>
+        <v>-0.09751675670020776</v>
       </c>
     </row>
     <row r="7">
@@ -644,7 +644,7 @@
         </is>
       </c>
       <c r="E7" s="5" t="n">
-        <v>25.73370899999988</v>
+        <v>26.91359999999989</v>
       </c>
       <c r="F7" s="6" t="inlineStr">
         <is>
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="G7" s="6" t="n">
-        <v>5.095519100882968</v>
+        <v>4.894241104631424</v>
       </c>
     </row>
     <row r="8">
@@ -667,13 +667,13 @@
         <v>26370</v>
       </c>
       <c r="E8" s="8" t="n">
-        <v>2060.728048000003</v>
+        <v>2251.250322000004</v>
       </c>
       <c r="F8" s="9" t="n">
-        <v>1.787605388623438</v>
+        <v>1.735890148426245</v>
       </c>
       <c r="G8" s="9" t="n">
-        <v>0.7257102195972922</v>
+        <v>0.6926599068705495</v>
       </c>
     </row>
     <row r="9">
@@ -694,13 +694,13 @@
         <v>4900</v>
       </c>
       <c r="E9" s="11" t="n">
-        <v>444.4729809999999</v>
+        <v>507.9095350000002</v>
       </c>
       <c r="F9" s="12" t="n">
-        <v>2.074963151096938</v>
+        <v>2.107651811904763</v>
       </c>
       <c r="G9" s="12" t="n">
-        <v>1.228170123736131</v>
+        <v>1.280449839762459</v>
       </c>
     </row>
     <row r="10">
@@ -715,13 +715,13 @@
         <v>1510</v>
       </c>
       <c r="E10" s="11" t="n">
-        <v>69.45151500000001</v>
+        <v>75.52014700000004</v>
       </c>
       <c r="F10" s="12" t="n">
-        <v>1.052121460678808</v>
+        <v>1.016937961810155</v>
       </c>
       <c r="G10" s="12" t="n">
-        <v>0.1454276630133957</v>
+        <v>0.1055174862092016</v>
       </c>
     </row>
     <row r="11">
@@ -736,13 +736,13 @@
         <v>1060</v>
       </c>
       <c r="E11" s="11" t="n">
-        <v>29.53303</v>
+        <v>34.91888699999999</v>
       </c>
       <c r="F11" s="12" t="n">
-        <v>0.6373283596698114</v>
+        <v>0.6698277066037734</v>
       </c>
       <c r="G11" s="12" t="n">
-        <v>-0.38648189970754</v>
+        <v>-0.4530362966783084</v>
       </c>
     </row>
     <row r="12">
@@ -759,7 +759,7 @@
         </is>
       </c>
       <c r="E12" s="11" t="n">
-        <v>3.582837</v>
+        <v>3.693627</v>
       </c>
       <c r="F12" s="12" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
         </is>
       </c>
       <c r="G12" s="12" t="n">
-        <v>7.690532152550885</v>
+        <v>7.56717702261694</v>
       </c>
     </row>
     <row r="13">
@@ -782,13 +782,13 @@
         <v>7470</v>
       </c>
       <c r="E13" s="14" t="n">
-        <v>543.4575259999998</v>
+        <v>618.348569</v>
       </c>
       <c r="F13" s="15" t="n">
-        <v>1.664202263353413</v>
+        <v>1.683144252967425</v>
       </c>
       <c r="G13" s="15" t="n">
-        <v>0.7630425850623661</v>
+        <v>0.7424318781950985</v>
       </c>
     </row>
     <row r="14">
@@ -809,13 +809,13 @@
         <v>5800</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>436.389015</v>
+        <v>468.8672190000002</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>1.721103227262931</v>
+        <v>1.643729905689656</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7422757937338997</v>
+        <v>0.6999912626885014</v>
       </c>
     </row>
     <row r="15">
@@ -830,13 +830,13 @@
         <v>300</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>13.66365899999999</v>
+        <v>17.39271999999999</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.04185399875</v>
+        <v>1.178839911111111</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.9751225773101835</v>
+        <v>1.387188662311472</v>
       </c>
     </row>
     <row r="16">
@@ -851,13 +851,13 @@
         <v>200</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4.21866</v>
+        <v>4.367711</v>
       </c>
       <c r="F16" s="6" t="n">
-        <v>0.4825092375</v>
+        <v>0.4440506183333333</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>-0.3287622692941506</v>
+        <v>-0.3270669486352328</v>
       </c>
     </row>
     <row r="17">
@@ -874,7 +874,7 @@
         </is>
       </c>
       <c r="E17" s="5" t="n">
-        <v>7.203698999999991</v>
+        <v>7.57969999999999</v>
       </c>
       <c r="F17" s="6" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="G17" s="6" t="n">
-        <v>12.2337253648428</v>
+        <v>11.97967179652273</v>
       </c>
     </row>
     <row r="18">
@@ -897,13 +897,13 @@
         <v>6300</v>
       </c>
       <c r="E18" s="8" t="n">
-        <v>454.2713339999999</v>
+        <v>490.6276500000001</v>
       </c>
       <c r="F18" s="9" t="n">
-        <v>1.649437581785714</v>
+        <v>1.583507230158731</v>
       </c>
       <c r="G18" s="9" t="n">
-        <v>0.7228557202208872</v>
+        <v>0.694261082404477</v>
       </c>
     </row>
     <row r="19">
@@ -924,13 +924,13 @@
         <v>3460</v>
       </c>
       <c r="E19" s="11" t="n">
-        <v>372.2316649999997</v>
+        <v>409.3417479999999</v>
       </c>
       <c r="F19" s="12" t="n">
-        <v>2.460924663836704</v>
+        <v>2.405572892870905</v>
       </c>
       <c r="G19" s="12" t="n">
-        <v>1.162660439834467</v>
+        <v>1.138310196065032</v>
       </c>
     </row>
     <row r="20">
@@ -945,13 +945,13 @@
         <v>170</v>
       </c>
       <c r="E20" s="11" t="n">
-        <v>7.842634999999999</v>
+        <v>8.051777</v>
       </c>
       <c r="F20" s="12" t="n">
-        <v>1.055295738970588</v>
+        <v>0.9630556803921568</v>
       </c>
       <c r="G20" s="12" t="n">
-        <v>0.7489949445605466</v>
+        <v>0.671042309339833</v>
       </c>
     </row>
     <row r="21">
@@ -966,13 +966,13 @@
         <v>70</v>
       </c>
       <c r="E21" s="11" t="n">
-        <v>2.41599</v>
+        <v>2.604669</v>
       </c>
       <c r="F21" s="12" t="n">
-        <v>0.7895110178571428</v>
+        <v>0.7565943285714285</v>
       </c>
       <c r="G21" s="12" t="n">
-        <v>1.984785683841198</v>
+        <v>0.265995368930227</v>
       </c>
     </row>
     <row r="22">
@@ -989,7 +989,7 @@
         </is>
       </c>
       <c r="E22" s="11" t="n">
-        <v>3.623002999999999</v>
+        <v>3.764720999999998</v>
       </c>
       <c r="F22" s="12" t="inlineStr">
         <is>
@@ -997,7 +997,7 @@
         </is>
       </c>
       <c r="G22" s="12" t="n">
-        <v>14.06026595501461</v>
+        <v>14.3484165294108</v>
       </c>
     </row>
     <row r="23">
@@ -1012,13 +1012,13 @@
         <v>3700</v>
       </c>
       <c r="E23" s="14" t="n">
-        <v>382.4902899999996</v>
+        <v>419.9981939999997</v>
       </c>
       <c r="F23" s="15" t="n">
-        <v>2.364720373986484</v>
+        <v>2.308098183243241</v>
       </c>
       <c r="G23" s="15" t="n">
-        <v>1.15595593635019</v>
+        <v>1.117906606724608</v>
       </c>
     </row>
     <row r="24">
@@ -1039,13 +1039,13 @@
         <v>3220</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>255.039584</v>
+        <v>266.473086</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>1.81181070931677</v>
+        <v>1.682697540993789</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.519194720646776</v>
+        <v>0.4623452650204367</v>
       </c>
     </row>
     <row r="25">
@@ -1060,13 +1060,13 @@
         <v>130</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>13.64908399999999</v>
+        <v>14.01720099999999</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>2.401713819230768</v>
+        <v>2.192434002564101</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.5309859257618292</v>
+        <v>0.4291442345455412</v>
       </c>
     </row>
     <row r="26">
@@ -1081,13 +1081,13 @@
         <v>50</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1.627344</v>
+        <v>2.119797</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.74450988</v>
+        <v>0.8620507799999999</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.002907632442719299</v>
+        <v>0.3440442359708287</v>
       </c>
     </row>
     <row r="27">
@@ -1104,7 +1104,7 @@
         </is>
       </c>
       <c r="E27" s="5" t="n">
-        <v>4.825298999999998</v>
+        <v>5.005574999999998</v>
       </c>
       <c r="F27" s="6" t="inlineStr">
         <is>
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="G27" s="6" t="n">
-        <v>4.161194713124877</v>
+        <v>4.024466995904597</v>
       </c>
     </row>
     <row r="28">
@@ -1127,13 +1127,13 @@
         <v>3400</v>
       </c>
       <c r="E28" s="8" t="n">
-        <v>270.3160120000001</v>
+        <v>282.610084</v>
       </c>
       <c r="F28" s="9" t="n">
-        <v>1.818670227794118</v>
+        <v>1.690119129803922</v>
       </c>
       <c r="G28" s="9" t="n">
-        <v>0.5150884765704684</v>
+        <v>0.4596996096011039</v>
       </c>
     </row>
     <row r="29">
@@ -1154,13 +1154,13 @@
         <v>1800</v>
       </c>
       <c r="E29" s="11" t="n">
-        <v>163.2959799999999</v>
+        <v>180.163958</v>
       </c>
       <c r="F29" s="12" t="n">
-        <v>2.075219745833333</v>
+        <v>2.035185451481482</v>
       </c>
       <c r="G29" s="12" t="n">
-        <v>1.157100717630784</v>
+        <v>1.091982700045429</v>
       </c>
     </row>
     <row r="30">
@@ -1175,13 +1175,13 @@
         <v>150</v>
       </c>
       <c r="E30" s="11" t="n">
-        <v>4.497679999999994</v>
+        <v>4.839719999999994</v>
       </c>
       <c r="F30" s="12" t="n">
-        <v>0.6858961999999991</v>
+        <v>0.6560509333333324</v>
       </c>
       <c r="G30" s="12" t="n">
-        <v>2.400622256834046</v>
+        <v>2.26678560074195</v>
       </c>
     </row>
     <row r="31">
@@ -1196,13 +1196,13 @@
         <v>50</v>
       </c>
       <c r="E31" s="11" t="n">
-        <v>1.169746</v>
+        <v>1.499935</v>
       </c>
       <c r="F31" s="12" t="n">
-        <v>0.535158795</v>
+        <v>0.6099735666666666</v>
       </c>
       <c r="G31" s="12" t="n">
-        <v>1.952219188039149</v>
+        <v>-0.3319617170753086</v>
       </c>
     </row>
     <row r="32">
@@ -1219,7 +1219,7 @@
         </is>
       </c>
       <c r="E32" s="11" t="n">
-        <v>4.156942999999997</v>
+        <v>4.498982999999996</v>
       </c>
       <c r="F32" s="12" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         </is>
       </c>
       <c r="G32" s="12" t="n">
-        <v>2.295674496742728</v>
+        <v>2.211364088976318</v>
       </c>
     </row>
     <row r="33">
@@ -1242,13 +1242,13 @@
         <v>2000</v>
       </c>
       <c r="E33" s="14" t="n">
-        <v>168.9634060000002</v>
+        <v>186.5036130000002</v>
       </c>
       <c r="F33" s="15" t="n">
-        <v>1.932518956125002</v>
+        <v>1.896120065500002</v>
       </c>
       <c r="G33" s="15" t="n">
-        <v>1.182413601329254</v>
+        <v>1.075769794889093</v>
       </c>
     </row>
     <row r="34">
@@ -1269,13 +1269,13 @@
         <v>1450</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>90.48283300000004</v>
+        <v>94.75752000000001</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>1.427444693017242</v>
+        <v>1.328783613793104</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.1616504785316064</v>
+        <v>0.1239026984120335</v>
       </c>
     </row>
     <row r="35">
@@ -1293,10 +1293,10 @@
         <v>38.81560699999999</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>3.171096464732142</v>
+        <v>2.818752413095237</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>-0.01240756970190615</v>
+        <v>-0.01382992032104091</v>
       </c>
     </row>
     <row r="36">
@@ -1314,7 +1314,7 @@
         <v>4.73717</v>
       </c>
       <c r="F36" s="6" t="n">
-        <v>0.9030230312500001</v>
+        <v>0.8026871388888889</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.7309200951624766</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.9817287675365824</v>
+        <v>0.7791682241471782</v>
       </c>
     </row>
     <row r="38">
@@ -1357,13 +1357,13 @@
         <v>1850</v>
       </c>
       <c r="E38" s="8" t="n">
-        <v>134.0356100000002</v>
+        <v>138.3102970000002</v>
       </c>
       <c r="F38" s="9" t="n">
-        <v>1.657332204729732</v>
+        <v>1.520167228288291</v>
       </c>
       <c r="G38" s="9" t="n">
-        <v>0.1175997593429761</v>
+        <v>0.09415876083744945</v>
       </c>
     </row>
     <row r="39">
@@ -1384,13 +1384,13 @@
         <v>590</v>
       </c>
       <c r="E39" s="11" t="n">
-        <v>46.02887699999999</v>
+        <v>49.49158799999999</v>
       </c>
       <c r="F39" s="12" t="n">
-        <v>1.784594171822034</v>
+        <v>1.705642298305084</v>
       </c>
       <c r="G39" s="12" t="n">
-        <v>0.3316941301407923</v>
+        <v>0.2355457888962622</v>
       </c>
     </row>
     <row r="40">
@@ -1405,13 +1405,13 @@
         <v>110</v>
       </c>
       <c r="E40" s="11" t="n">
-        <v>1.467721</v>
+        <v>1.696409</v>
       </c>
       <c r="F40" s="12" t="n">
-        <v>0.305219253409091</v>
+        <v>0.3135786333333334</v>
       </c>
       <c r="G40" s="12" t="n">
-        <v>-0.1237774282038497</v>
+        <v>-0.001313403664107371</v>
       </c>
     </row>
     <row r="41">
@@ -1426,13 +1426,13 @@
         <v>50</v>
       </c>
       <c r="E41" s="11" t="n">
-        <v>18.443174</v>
+        <v>20.141287</v>
       </c>
       <c r="F41" s="12" t="n">
-        <v>8.437752104999998</v>
+        <v>8.190790046666667</v>
       </c>
       <c r="G41" s="12" t="n">
-        <v>12.56208476020787</v>
+        <v>9.815478463054399</v>
       </c>
     </row>
     <row r="42">
@@ -1449,7 +1449,7 @@
         </is>
       </c>
       <c r="E42" s="11" t="n">
-        <v>1.245302</v>
+        <v>1.274368</v>
       </c>
       <c r="F42" s="12" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         </is>
       </c>
       <c r="G42" s="12" t="n">
-        <v>6.542941942517945</v>
+        <v>5.754123383506467</v>
       </c>
     </row>
     <row r="43">
@@ -1472,13 +1472,13 @@
         <v>750</v>
       </c>
       <c r="E43" s="14" t="n">
-        <v>65.93977199999995</v>
+        <v>71.32928399999994</v>
       </c>
       <c r="F43" s="15" t="n">
-        <v>2.011163045999999</v>
+        <v>1.933816143999999</v>
       </c>
       <c r="G43" s="15" t="n">
-        <v>0.7537587123398348</v>
+        <v>0.6353415037951733</v>
       </c>
     </row>
     <row r="44">
@@ -1499,13 +1499,13 @@
         <v>450</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>37.750255</v>
+        <v>40.01878799999999</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>1.918971295833333</v>
+        <v>1.808256346666667</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.4709848541408546</v>
+        <v>0.4367099852752505</v>
       </c>
     </row>
     <row r="45">
@@ -1523,10 +1523,10 @@
         <v>0.9628979999999999</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.146841945</v>
+        <v>0.1305261733333333</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>-0.8330789091669322</v>
+        <v>-0.836919508288178</v>
       </c>
     </row>
     <row r="46">
@@ -1544,7 +1544,7 @@
         <v>2.540945</v>
       </c>
       <c r="F46" s="6" t="n">
-        <v>0.19374705625</v>
+        <v>0.1722196055555556</v>
       </c>
       <c r="G46" s="6" t="inlineStr">
         <is>
@@ -1589,13 +1589,13 @@
         <v>900</v>
       </c>
       <c r="E48" s="8" t="n">
-        <v>41.254098</v>
+        <v>43.522631</v>
       </c>
       <c r="F48" s="9" t="n">
-        <v>1.0485416575</v>
+        <v>0.9832890707407407</v>
       </c>
       <c r="G48" s="9" t="n">
-        <v>0.3124941420853775</v>
+        <v>0.2892195032782316</v>
       </c>
     </row>
   </sheetData>
@@ -1664,7 +1664,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>数据统计范围：2020-01-01至2020-01-16</t>
+          <t>数据统计范围：2020-01-01至2020-01-18</t>
         </is>
       </c>
       <c r="B2" s="2" t="n"/>
@@ -1728,13 +1728,13 @@
         <v>21670</v>
       </c>
       <c r="E4" s="11" t="n">
-        <v>1845.691190000003</v>
+        <v>2017.023442000003</v>
       </c>
       <c r="F4" s="12" t="n">
-        <v>1.948324225715277</v>
+        <v>1.892607752068915</v>
       </c>
       <c r="G4" s="12" t="n">
-        <v>0.8387666650381573</v>
+        <v>0.8162747250343929</v>
       </c>
     </row>
     <row r="5">
@@ -1749,13 +1749,13 @@
         <v>4700</v>
       </c>
       <c r="E5" s="11" t="n">
-        <v>215.0368580000008</v>
+        <v>234.2268800000006</v>
       </c>
       <c r="F5" s="12" t="n">
-        <v>1.046588963138302</v>
+        <v>1.01332196312057</v>
       </c>
       <c r="G5" s="12" t="n">
-        <v>0.1295883605144903</v>
+        <v>0.0671913304218219</v>
       </c>
     </row>
     <row r="6">
@@ -1772,7 +1772,7 @@
         </is>
       </c>
       <c r="E6" s="11" t="n">
-        <v>25.73370899999988</v>
+        <v>26.91359999999989</v>
       </c>
       <c r="F6" s="12" t="inlineStr">
         <is>
@@ -1780,7 +1780,7 @@
         </is>
       </c>
       <c r="G6" s="12" t="n">
-        <v>5.095519100882968</v>
+        <v>4.894241104631424</v>
       </c>
     </row>
     <row r="7">
@@ -1795,13 +1795,13 @@
         <v>26370</v>
       </c>
       <c r="E7" s="14" t="n">
-        <v>2060.728048000003</v>
+        <v>2251.250322000004</v>
       </c>
       <c r="F7" s="15" t="n">
-        <v>1.787605388623438</v>
+        <v>1.735890148426245</v>
       </c>
       <c r="G7" s="15" t="n">
-        <v>0.7257102195972922</v>
+        <v>0.6926599068705495</v>
       </c>
     </row>
     <row r="8">
@@ -1822,13 +1822,13 @@
         <v>1200</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>106.239738</v>
+        <v>113.567641</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>2.025195005625001</v>
+        <v>1.924340583611112</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>1.305377066571443</v>
+        <v>1.173810882372702</v>
       </c>
     </row>
     <row r="9">
@@ -1846,7 +1846,7 @@
         <v>1.320504</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.0068843</v>
+        <v>0.8950082666666668</v>
       </c>
       <c r="G9" s="6" t="inlineStr">
         <is>
@@ -1893,13 +1893,13 @@
         <v>1230</v>
       </c>
       <c r="E11" s="8" t="n">
-        <v>107.560242</v>
+        <v>114.888145</v>
       </c>
       <c r="F11" s="9" t="n">
-        <v>2.000358159146342</v>
+        <v>1.899234917344174</v>
       </c>
       <c r="G11" s="9" t="n">
-        <v>1.334031689551743</v>
+        <v>1.199086796710103</v>
       </c>
     </row>
     <row r="12">
@@ -1920,13 +1920,13 @@
         <v>800</v>
       </c>
       <c r="E12" s="11" t="n">
-        <v>92.38716400000001</v>
+        <v>99.82971500000001</v>
       </c>
       <c r="F12" s="12" t="n">
-        <v>2.641695470625</v>
+        <v>2.537338589583333</v>
       </c>
       <c r="G12" s="12" t="n">
-        <v>0.8493472558619537</v>
+        <v>0.8309982002316603</v>
       </c>
     </row>
     <row r="13">
@@ -1941,13 +1941,13 @@
         <v>45</v>
       </c>
       <c r="E13" s="11" t="n">
-        <v>2.641619</v>
+        <v>2.666053</v>
       </c>
       <c r="F13" s="12" t="n">
-        <v>1.342822991666667</v>
+        <v>1.204660985185185</v>
       </c>
       <c r="G13" s="12" t="n">
-        <v>2.011909132577321</v>
+        <v>1.422090369611274</v>
       </c>
     </row>
     <row r="14">
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="E14" s="11" t="n">
-        <v>0.53755</v>
+        <v>0.561984</v>
       </c>
       <c r="F14" s="12" t="inlineStr">
         <is>
@@ -1989,13 +1989,13 @@
         <v>845</v>
       </c>
       <c r="E15" s="14" t="n">
-        <v>95.028783</v>
+        <v>102.495768</v>
       </c>
       <c r="F15" s="15" t="n">
-        <v>2.572524746893491</v>
+        <v>2.466367592899408</v>
       </c>
       <c r="G15" s="15" t="n">
-        <v>0.8694054919323972</v>
+        <v>0.8426953824515764</v>
       </c>
     </row>
     <row r="16">
@@ -2016,13 +2016,13 @@
         <v>850</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>77.168842</v>
+        <v>81.89334600000001</v>
       </c>
       <c r="F16" s="6" t="n">
-        <v>2.076749718529412</v>
+        <v>1.959017296470589</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.6955951656904997</v>
+        <v>0.6737667051759662</v>
       </c>
     </row>
     <row r="17">
@@ -2037,13 +2037,13 @@
         <v>70</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>17.318834</v>
+        <v>17.338268</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>5.659547539285716</v>
+        <v>5.036354038095239</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>82.16925987821512</v>
+        <v>0.2342114597659906</v>
       </c>
     </row>
     <row r="18">
@@ -2060,7 +2060,7 @@
         </is>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.783482</v>
+        <v>1.802916</v>
       </c>
       <c r="F18" s="6" t="inlineStr">
         <is>
@@ -2068,7 +2068,7 @@
         </is>
       </c>
       <c r="G18" s="6" t="n">
-        <v>20.48255841965791</v>
+        <v>20.71664659118284</v>
       </c>
     </row>
     <row r="19">
@@ -2083,13 +2083,13 @@
         <v>920</v>
       </c>
       <c r="E19" s="8" t="n">
-        <v>94.48767600000002</v>
+        <v>99.23161400000004</v>
       </c>
       <c r="F19" s="9" t="n">
-        <v>2.349353900543479</v>
+        <v>2.193162483333334</v>
       </c>
       <c r="G19" s="9" t="n">
-        <v>1.066677842035175</v>
+        <v>0.5757145605598413</v>
       </c>
     </row>
     <row r="20">
@@ -2098,7 +2098,7 @@
       </c>
       <c r="B20" s="10" t="inlineStr">
         <is>
-          <t>春怡雅苑</t>
+          <t>富宁</t>
         </is>
       </c>
       <c r="C20" s="10" t="inlineStr">
@@ -2107,16 +2107,16 @@
         </is>
       </c>
       <c r="D20" s="10" t="n">
-        <v>950</v>
+        <v>400</v>
       </c>
       <c r="E20" s="11" t="n">
-        <v>67.06045899999999</v>
+        <v>82.45959600000002</v>
       </c>
       <c r="F20" s="12" t="n">
-        <v>1.614745262763158</v>
+        <v>4.191696130000001</v>
       </c>
       <c r="G20" s="12" t="n">
-        <v>0.9348313949952325</v>
+        <v>2.412348640946663</v>
       </c>
     </row>
     <row r="21">
@@ -2128,16 +2128,16 @@
         </is>
       </c>
       <c r="D21" s="10" t="n">
-        <v>150</v>
+        <v>35</v>
       </c>
       <c r="E21" s="11" t="n">
-        <v>8.553569</v>
+        <v>1.101679</v>
       </c>
       <c r="F21" s="12" t="n">
-        <v>1.3044192725</v>
+        <v>0.640023038095238</v>
       </c>
       <c r="G21" s="12" t="n">
-        <v>0.5995564625692595</v>
+        <v>-0.7124940009347973</v>
       </c>
     </row>
     <row r="22">
@@ -2154,15 +2154,17 @@
         </is>
       </c>
       <c r="E22" s="11" t="n">
-        <v>0.449813</v>
+        <v>0.176928</v>
       </c>
       <c r="F22" s="12" t="inlineStr">
         <is>
           <t>——</t>
         </is>
       </c>
-      <c r="G22" s="12" t="n">
-        <v>5.531429235214683</v>
+      <c r="G22" s="12" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -2174,16 +2176,16 @@
         </is>
       </c>
       <c r="D23" s="13" t="n">
-        <v>1100</v>
+        <v>435</v>
       </c>
       <c r="E23" s="14" t="n">
-        <v>75.61402800000002</v>
+        <v>83.56127499999999</v>
       </c>
       <c r="F23" s="15" t="n">
-        <v>1.572428082272727</v>
+        <v>3.905929329501916</v>
       </c>
       <c r="G23" s="15" t="n">
-        <v>0.8900175371586383</v>
+        <v>1.984661374867069</v>
       </c>
     </row>
     <row r="24">
@@ -2192,7 +2194,7 @@
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
-          <t>师宗</t>
+          <t>春怡雅苑</t>
         </is>
       </c>
       <c r="C24" s="4" t="inlineStr">
@@ -2201,16 +2203,16 @@
         </is>
       </c>
       <c r="D24" s="4" t="n">
-        <v>980</v>
+        <v>950</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>72.412856</v>
+        <v>74.43929999999999</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>1.690249062244898</v>
+        <v>1.593262210526316</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.6229999768472192</v>
+        <v>0.8772039354371963</v>
       </c>
     </row>
     <row r="25">
@@ -2222,16 +2224,16 @@
         </is>
       </c>
       <c r="D25" s="4" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2.961544</v>
+        <v>8.601056999999997</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>2.2581773</v>
+        <v>1.16592106</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>2.217939788530765</v>
+        <v>0.2538473806265316</v>
       </c>
     </row>
     <row r="26">
@@ -2248,7 +2250,7 @@
         </is>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2.830857000000001</v>
+        <v>0.497301</v>
       </c>
       <c r="F26" s="6" t="inlineStr">
         <is>
@@ -2256,7 +2258,7 @@
         </is>
       </c>
       <c r="G26" s="6" t="n">
-        <v>14.62835107322675</v>
+        <v>6.220970247861883</v>
       </c>
     </row>
     <row r="27">
@@ -2268,16 +2270,16 @@
         </is>
       </c>
       <c r="D27" s="7" t="n">
-        <v>1010</v>
+        <v>1100</v>
       </c>
       <c r="E27" s="8" t="n">
-        <v>75.37440000000001</v>
+        <v>83.040357</v>
       </c>
       <c r="F27" s="9" t="n">
-        <v>1.707118217821782</v>
+        <v>1.534988417272727</v>
       </c>
       <c r="G27" s="9" t="n">
-        <v>0.6552344232471736</v>
+        <v>0.7852735174967782</v>
       </c>
     </row>
     <row r="28">
@@ -2298,13 +2300,13 @@
         <v>980</v>
       </c>
       <c r="E28" s="11" t="n">
-        <v>70.62944800000004</v>
+        <v>76.43946600000004</v>
       </c>
       <c r="F28" s="12" t="n">
-        <v>1.648621043877552</v>
+        <v>1.585988920408164</v>
       </c>
       <c r="G28" s="12" t="n">
-        <v>1.986715124309933</v>
+        <v>1.859137245942618</v>
       </c>
     </row>
     <row r="29">
@@ -2319,10 +2321,10 @@
         <v>30</v>
       </c>
       <c r="E29" s="11" t="n">
-        <v>1.435264</v>
+        <v>4.773684</v>
       </c>
       <c r="F29" s="12" t="n">
-        <v>1.0943888</v>
+        <v>3.235496933333334</v>
       </c>
       <c r="G29" s="12" t="inlineStr">
         <is>
@@ -2344,7 +2346,7 @@
         </is>
       </c>
       <c r="E30" s="11" t="n">
-        <v>1.184868</v>
+        <v>1.237652</v>
       </c>
       <c r="F30" s="12" t="inlineStr">
         <is>
@@ -2369,13 +2371,13 @@
         <v>1010</v>
       </c>
       <c r="E31" s="14" t="n">
-        <v>72.06471200000003</v>
+        <v>81.21315000000004</v>
       </c>
       <c r="F31" s="15" t="n">
-        <v>1.632158700000001</v>
+        <v>1.634984207920793</v>
       </c>
       <c r="G31" s="15" t="n">
-        <v>2.047408288670747</v>
+        <v>2.037691838733211</v>
       </c>
     </row>
     <row r="32">
@@ -2384,7 +2386,7 @@
       </c>
       <c r="B32" s="4" t="inlineStr">
         <is>
-          <t>富宁</t>
+          <t>师宗</t>
         </is>
       </c>
       <c r="C32" s="4" t="inlineStr">
@@ -2393,16 +2395,16 @@
         </is>
       </c>
       <c r="D32" s="4" t="n">
-        <v>400</v>
+        <v>980</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>70.86291600000004</v>
+        <v>76.34993500000002</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>4.052473008750002</v>
+        <v>1.584131304421769</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>2.360357474970257</v>
+        <v>0.590638027852169</v>
       </c>
     </row>
     <row r="33">
@@ -2414,16 +2416,16 @@
         </is>
       </c>
       <c r="D33" s="4" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>1.101679</v>
+        <v>3.066487999999999</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.7200259178571428</v>
+        <v>2.078397422222222</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>-0.5736328474221266</v>
+        <v>2.198086042565528</v>
       </c>
     </row>
     <row r="34">
@@ -2440,17 +2442,15 @@
         </is>
       </c>
       <c r="E34" s="5" t="n">
-        <v>0.176928</v>
+        <v>2.935801000000001</v>
       </c>
       <c r="F34" s="6" t="inlineStr">
         <is>
           <t>——</t>
         </is>
       </c>
-      <c r="G34" s="6" t="inlineStr">
-        <is>
-          <t>——</t>
-        </is>
+      <c r="G34" s="6" t="n">
+        <v>15.20771685363484</v>
       </c>
     </row>
     <row r="35">
@@ -2462,16 +2462,16 @@
         </is>
       </c>
       <c r="D35" s="7" t="n">
-        <v>435</v>
+        <v>1010</v>
       </c>
       <c r="E35" s="8" t="n">
-        <v>71.964595</v>
+        <v>79.41642300000002</v>
       </c>
       <c r="F35" s="9" t="n">
-        <v>3.784345081896552</v>
+        <v>1.598812476237624</v>
       </c>
       <c r="G35" s="9" t="n">
-        <v>2.040100188477556</v>
+        <v>0.6221199104538047</v>
       </c>
     </row>
     <row r="36">
@@ -2492,13 +2492,13 @@
         <v>600</v>
       </c>
       <c r="E36" s="11" t="n">
-        <v>65.42441399999996</v>
+        <v>70.84746799999994</v>
       </c>
       <c r="F36" s="12" t="n">
-        <v>2.494305783749998</v>
+        <v>2.400941971111109</v>
       </c>
       <c r="G36" s="12" t="n">
-        <v>0.8672259594823302</v>
+        <v>0.9107339023073839</v>
       </c>
     </row>
     <row r="37">
@@ -2513,13 +2513,13 @@
         <v>35</v>
       </c>
       <c r="E37" s="11" t="n">
-        <v>2.060747</v>
+        <v>2.143823</v>
       </c>
       <c r="F37" s="12" t="n">
-        <v>1.346845360714286</v>
+        <v>1.245459076190476</v>
       </c>
       <c r="G37" s="12" t="n">
-        <v>6.154675934284168</v>
+        <v>6.443106225783605</v>
       </c>
     </row>
     <row r="38">
@@ -2536,7 +2536,7 @@
         </is>
       </c>
       <c r="E38" s="11" t="n">
-        <v>0.444702</v>
+        <v>0.5277780000000001</v>
       </c>
       <c r="F38" s="12" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         </is>
       </c>
       <c r="G38" s="12" t="n">
-        <v>2.250911961869394</v>
+        <v>2.858223739518836</v>
       </c>
     </row>
     <row r="39">
@@ -2559,13 +2559,13 @@
         <v>635</v>
       </c>
       <c r="E39" s="14" t="n">
-        <v>67.48516099999998</v>
+        <v>72.99129099999996</v>
       </c>
       <c r="F39" s="15" t="n">
-        <v>2.431059933661416</v>
+        <v>2.337253937532807</v>
       </c>
       <c r="G39" s="15" t="n">
-        <v>0.9103364083490924</v>
+        <v>0.9533782435567737</v>
       </c>
     </row>
     <row r="40">
@@ -2574,7 +2574,7 @@
       </c>
       <c r="B40" s="4" t="inlineStr">
         <is>
-          <t>祥云</t>
+          <t>沾益</t>
         </is>
       </c>
       <c r="C40" s="4" t="inlineStr">
@@ -2583,13 +2583,13 @@
         </is>
       </c>
       <c r="D40" s="4" t="n">
-        <v>600</v>
+        <v>780</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>63.98583300000003</v>
+        <v>66.90631499999999</v>
       </c>
       <c r="F40" s="6" t="n">
-        <v>2.439459883125001</v>
+        <v>1.74413898076923</v>
       </c>
       <c r="G40" s="6" t="inlineStr">
         <is>
@@ -2606,13 +2606,13 @@
         </is>
       </c>
       <c r="D41" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>2.225554</v>
+        <v>1.12197</v>
       </c>
       <c r="F41" s="6" t="n">
-        <v>3.393969850000001</v>
+        <v>0.7604463333333332</v>
       </c>
       <c r="G41" s="6" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         </is>
       </c>
       <c r="E42" s="5" t="n">
-        <v>0.28123</v>
+        <v>0.44773</v>
       </c>
       <c r="F42" s="6" t="inlineStr">
         <is>
@@ -2656,13 +2656,13 @@
         </is>
       </c>
       <c r="D43" s="7" t="n">
-        <v>615</v>
+        <v>810</v>
       </c>
       <c r="E43" s="8" t="n">
-        <v>66.21138700000003</v>
+        <v>68.02828500000003</v>
       </c>
       <c r="F43" s="9" t="n">
-        <v>2.462740614024391</v>
+        <v>1.707705919753087</v>
       </c>
       <c r="G43" s="9" t="inlineStr">
         <is>
@@ -2676,7 +2676,7 @@
       </c>
       <c r="B44" s="10" t="inlineStr">
         <is>
-          <t>陆良</t>
+          <t>祥云</t>
         </is>
       </c>
       <c r="C44" s="10" t="inlineStr">
@@ -2685,16 +2685,18 @@
         </is>
       </c>
       <c r="D44" s="10" t="n">
-        <v>780</v>
+        <v>600</v>
       </c>
       <c r="E44" s="11" t="n">
-        <v>62.82822799999998</v>
+        <v>65.58587300000003</v>
       </c>
       <c r="F44" s="12" t="n">
-        <v>1.842558609615384</v>
-      </c>
-      <c r="G44" s="12" t="n">
-        <v>0.7787141841070071</v>
+        <v>2.222632362777779</v>
+      </c>
+      <c r="G44" s="12" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
       </c>
     </row>
     <row r="45">
@@ -2706,16 +2708,18 @@
         </is>
       </c>
       <c r="D45" s="10" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E45" s="11" t="n">
-        <v>0.600588</v>
+        <v>2.244988000000001</v>
       </c>
       <c r="F45" s="12" t="n">
-        <v>0.4579483500000001</v>
-      </c>
-      <c r="G45" s="12" t="n">
-        <v>2.256843520888466</v>
+        <v>3.043205955555556</v>
+      </c>
+      <c r="G45" s="12" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
       </c>
     </row>
     <row r="46">
@@ -2732,15 +2736,17 @@
         </is>
       </c>
       <c r="E46" s="11" t="n">
-        <v>0.388684</v>
+        <v>0.300664</v>
       </c>
       <c r="F46" s="12" t="inlineStr">
         <is>
           <t>——</t>
         </is>
       </c>
-      <c r="G46" s="12" t="n">
-        <v>2.322539834507282</v>
+      <c r="G46" s="12" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
       </c>
     </row>
     <row r="47">
@@ -2752,16 +2758,18 @@
         </is>
       </c>
       <c r="D47" s="13" t="n">
-        <v>810</v>
+        <v>615</v>
       </c>
       <c r="E47" s="14" t="n">
-        <v>63.42881599999998</v>
+        <v>67.83086100000003</v>
       </c>
       <c r="F47" s="15" t="n">
-        <v>1.791276748148148</v>
-      </c>
-      <c r="G47" s="15" t="n">
-        <v>0.7863910175101967</v>
+        <v>2.242646352845529</v>
+      </c>
+      <c r="G47" s="15" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
       </c>
     </row>
     <row r="48">
@@ -2770,7 +2778,7 @@
       </c>
       <c r="B48" s="4" t="inlineStr">
         <is>
-          <t>沾益</t>
+          <t>陆良</t>
         </is>
       </c>
       <c r="C48" s="4" t="inlineStr">
@@ -2782,15 +2790,13 @@
         <v>780</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>61.83111700000001</v>
+        <v>66.69905199999995</v>
       </c>
       <c r="F48" s="6" t="n">
-        <v>1.813316412019231</v>
-      </c>
-      <c r="G48" s="6" t="inlineStr">
-        <is>
-          <t>——</t>
-        </is>
+        <v>1.73873597094017</v>
+      </c>
+      <c r="G48" s="6" t="n">
+        <v>0.6061839200643622</v>
       </c>
     </row>
     <row r="49">
@@ -2805,15 +2811,13 @@
         <v>30</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>1.031123</v>
+        <v>0.6198520000000001</v>
       </c>
       <c r="F49" s="6" t="n">
-        <v>0.7862312874999998</v>
-      </c>
-      <c r="G49" s="6" t="inlineStr">
-        <is>
-          <t>——</t>
-        </is>
+        <v>0.4201219111111111</v>
+      </c>
+      <c r="G49" s="6" t="n">
+        <v>2.02126601775174</v>
       </c>
     </row>
     <row r="50">
@@ -2830,17 +2834,15 @@
         </is>
       </c>
       <c r="E50" s="5" t="n">
-        <v>0.405043</v>
+        <v>0.388684</v>
       </c>
       <c r="F50" s="6" t="inlineStr">
         <is>
           <t>——</t>
         </is>
       </c>
-      <c r="G50" s="6" t="inlineStr">
-        <is>
-          <t>——</t>
-        </is>
+      <c r="G50" s="6" t="n">
+        <v>1.82188777325231</v>
       </c>
     </row>
     <row r="51">
@@ -2855,15 +2857,13 @@
         <v>810</v>
       </c>
       <c r="E51" s="8" t="n">
-        <v>62.86224000000004</v>
+        <v>67.31890399999996</v>
       </c>
       <c r="F51" s="9" t="n">
-        <v>1.775276222222223</v>
-      </c>
-      <c r="G51" s="9" t="inlineStr">
-        <is>
-          <t>——</t>
-        </is>
+        <v>1.689898413168723</v>
+      </c>
+      <c r="G51" s="9" t="n">
+        <v>0.6131408226572226</v>
       </c>
     </row>
     <row r="52">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B52" s="10" t="inlineStr">
         <is>
-          <t>东川</t>
+          <t>春之城</t>
         </is>
       </c>
       <c r="C52" s="10" t="inlineStr">
@@ -2881,16 +2881,16 @@
         </is>
       </c>
       <c r="D52" s="10" t="n">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="E52" s="11" t="n">
-        <v>52.68176200000001</v>
+        <v>56.764929</v>
       </c>
       <c r="F52" s="12" t="n">
-        <v>1.5063691321875</v>
+        <v>11.54220223</v>
       </c>
       <c r="G52" s="12" t="n">
-        <v>1.46033988169094</v>
+        <v>23.70855017454666</v>
       </c>
     </row>
     <row r="53">
@@ -2902,16 +2902,16 @@
         </is>
       </c>
       <c r="D53" s="10" t="n">
-        <v>60</v>
+        <v>940</v>
       </c>
       <c r="E53" s="11" t="n">
-        <v>0.191788</v>
+        <v>9.597367999999999</v>
       </c>
       <c r="F53" s="12" t="n">
-        <v>0.07311917500000001</v>
+        <v>0.2076026411347517</v>
       </c>
       <c r="G53" s="12" t="n">
-        <v>-0.8678410575582004</v>
+        <v>-0.7663748301888621</v>
       </c>
     </row>
     <row r="54">
@@ -2928,15 +2928,17 @@
         </is>
       </c>
       <c r="E54" s="11" t="n">
-        <v>0.217255</v>
+        <v>0.077736</v>
       </c>
       <c r="F54" s="12" t="inlineStr">
         <is>
           <t>——</t>
         </is>
       </c>
-      <c r="G54" s="12" t="n">
-        <v>1.302893788424847</v>
+      <c r="G54" s="12" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
       </c>
     </row>
     <row r="55">
@@ -2948,16 +2950,16 @@
         </is>
       </c>
       <c r="D55" s="13" t="n">
-        <v>860</v>
+        <v>1040</v>
       </c>
       <c r="E55" s="14" t="n">
-        <v>52.87355</v>
+        <v>66.362297</v>
       </c>
       <c r="F55" s="15" t="n">
-        <v>1.406374949127907</v>
+        <v>1.297467986217949</v>
       </c>
       <c r="G55" s="15" t="n">
-        <v>1.312566131364183</v>
+        <v>0.5298756083125622</v>
       </c>
     </row>
     <row r="56">
@@ -2978,13 +2980,13 @@
         <v>650</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>49.666473</v>
+        <v>57.48432699999999</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>1.747877799807692</v>
+        <v>1.798227665128205</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>0.4236938630423908</v>
+        <v>0.4900394421181393</v>
       </c>
     </row>
     <row r="57">
@@ -2999,13 +3001,13 @@
         <v>45</v>
       </c>
       <c r="E57" s="5" t="n">
-        <v>1.79179</v>
+        <v>2.273565000000001</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.9108265833333336</v>
+        <v>1.027314555555556</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.57225590761914</v>
+        <v>0.9310605198383517</v>
       </c>
     </row>
     <row r="58">
@@ -3022,7 +3024,7 @@
         </is>
       </c>
       <c r="E58" s="5" t="n">
-        <v>1.772922000000001</v>
+        <v>1.924508000000001</v>
       </c>
       <c r="F58" s="6" t="inlineStr">
         <is>
@@ -3030,7 +3032,7 @@
         </is>
       </c>
       <c r="G58" s="6" t="n">
-        <v>1.384870137906173</v>
+        <v>1.463717131372098</v>
       </c>
     </row>
     <row r="59">
@@ -3045,13 +3047,13 @@
         <v>695</v>
       </c>
       <c r="E59" s="8" t="n">
-        <v>51.45826300000003</v>
+        <v>59.75789200000004</v>
       </c>
       <c r="F59" s="9" t="n">
-        <v>1.693680239028778</v>
+        <v>1.748312427817747</v>
       </c>
       <c r="G59" s="9" t="n">
-        <v>0.4283935018837206</v>
+        <v>0.5031000519915907</v>
       </c>
     </row>
     <row r="60">
@@ -3060,7 +3062,7 @@
       </c>
       <c r="B60" s="10" t="inlineStr">
         <is>
-          <t>勐海</t>
+          <t>东川</t>
         </is>
       </c>
       <c r="C60" s="10" t="inlineStr">
@@ -3069,16 +3071,16 @@
         </is>
       </c>
       <c r="D60" s="10" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="E60" s="11" t="n">
-        <v>47.82127300000002</v>
+        <v>56.009177</v>
       </c>
       <c r="F60" s="12" t="n">
-        <v>1.823186033125001</v>
+        <v>1.423566582083333</v>
       </c>
       <c r="G60" s="12" t="n">
-        <v>1.777294497003076</v>
+        <v>1.384901457114873</v>
       </c>
     </row>
     <row r="61">
@@ -3090,16 +3092,16 @@
         </is>
       </c>
       <c r="D61" s="10" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="E61" s="11" t="n">
-        <v>1.0866</v>
+        <v>0.216222</v>
       </c>
       <c r="F61" s="12" t="n">
-        <v>0.7101707142857144</v>
+        <v>0.07327523333333334</v>
       </c>
       <c r="G61" s="12" t="n">
-        <v>5.657721081558003</v>
+        <v>-0.8510038644093958</v>
       </c>
     </row>
     <row r="62">
@@ -3116,7 +3118,7 @@
         </is>
       </c>
       <c r="E62" s="11" t="n">
-        <v>0.9011740000000001</v>
+        <v>0.241689</v>
       </c>
       <c r="F62" s="12" t="inlineStr">
         <is>
@@ -3124,7 +3126,7 @@
         </is>
       </c>
       <c r="G62" s="12" t="n">
-        <v>4.521595010079102</v>
+        <v>1.561893152427391</v>
       </c>
     </row>
     <row r="63">
@@ -3136,16 +3138,16 @@
         </is>
       </c>
       <c r="D63" s="13" t="n">
-        <v>635</v>
+        <v>860</v>
       </c>
       <c r="E63" s="14" t="n">
-        <v>48.90787300000002</v>
+        <v>56.22539899999999</v>
       </c>
       <c r="F63" s="15" t="n">
-        <v>1.761838732086615</v>
+        <v>1.329360208914729</v>
       </c>
       <c r="G63" s="15" t="n">
-        <v>1.813730208321168</v>
+        <v>1.254779718106612</v>
       </c>
     </row>
     <row r="64">
@@ -3154,7 +3156,7 @@
       </c>
       <c r="B64" s="4" t="inlineStr">
         <is>
-          <t>弥渡</t>
+          <t>勐海</t>
         </is>
       </c>
       <c r="C64" s="4" t="inlineStr">
@@ -3163,16 +3165,16 @@
         </is>
       </c>
       <c r="D64" s="4" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="E64" s="5" t="n">
-        <v>43.78662200000001</v>
+        <v>52.52057800000001</v>
       </c>
       <c r="F64" s="6" t="n">
-        <v>2.225819951666667</v>
+        <v>1.779864032222223</v>
       </c>
       <c r="G64" s="6" t="n">
-        <v>0.9957869647782296</v>
+        <v>1.574362222503032</v>
       </c>
     </row>
     <row r="65">
@@ -3184,16 +3186,16 @@
         </is>
       </c>
       <c r="D65" s="4" t="n">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="E65" s="5" t="n">
-        <v>1.315338</v>
+        <v>1.17211</v>
       </c>
       <c r="F65" s="6" t="n">
-        <v>2.507363062500001</v>
+        <v>0.6809400952380953</v>
       </c>
       <c r="G65" s="6" t="n">
-        <v>4.162966510181974</v>
+        <v>4.832989126377864</v>
       </c>
     </row>
     <row r="66">
@@ -3210,7 +3212,7 @@
         </is>
       </c>
       <c r="E66" s="5" t="n">
-        <v>1.292697</v>
+        <v>0.9866840000000002</v>
       </c>
       <c r="F66" s="6" t="inlineStr">
         <is>
@@ -3218,7 +3220,7 @@
         </is>
       </c>
       <c r="G66" s="6" t="n">
-        <v>13.73377252470451</v>
+        <v>3.910219214212844</v>
       </c>
     </row>
     <row r="67">
@@ -3230,16 +3232,16 @@
         </is>
       </c>
       <c r="D67" s="7" t="n">
-        <v>462</v>
+        <v>635</v>
       </c>
       <c r="E67" s="8" t="n">
-        <v>45.10196000000001</v>
+        <v>53.69268800000003</v>
       </c>
       <c r="F67" s="9" t="n">
-        <v>2.23313275974026</v>
+        <v>1.719293421522311</v>
       </c>
       <c r="G67" s="9" t="n">
-        <v>1.032142409955787</v>
+        <v>1.606145253701535</v>
       </c>
     </row>
     <row r="68">
@@ -3248,7 +3250,7 @@
       </c>
       <c r="B68" s="10" t="inlineStr">
         <is>
-          <t>香榭丽园</t>
+          <t>弥渡</t>
         </is>
       </c>
       <c r="C68" s="10" t="inlineStr">
@@ -3257,16 +3259,16 @@
         </is>
       </c>
       <c r="D68" s="10" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="E68" s="11" t="n">
-        <v>42.47493000000001</v>
+        <v>45.83991200000001</v>
       </c>
       <c r="F68" s="12" t="n">
-        <v>1.494790805769231</v>
+        <v>2.071284912592593</v>
       </c>
       <c r="G68" s="12" t="n">
-        <v>0.5440094117298091</v>
+        <v>0.8393405197222308</v>
       </c>
     </row>
     <row r="69">
@@ -3278,16 +3280,16 @@
         </is>
       </c>
       <c r="D69" s="10" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="E69" s="11" t="n">
-        <v>2.393855</v>
+        <v>1.867575</v>
       </c>
       <c r="F69" s="12" t="n">
-        <v>1.8253144375</v>
+        <v>3.164502083333334</v>
       </c>
       <c r="G69" s="12" t="n">
-        <v>0.4439157942229011</v>
+        <v>7.184513375170917</v>
       </c>
     </row>
     <row r="70">
@@ -3304,17 +3306,15 @@
         </is>
       </c>
       <c r="E70" s="11" t="n">
-        <v>0.28485</v>
+        <v>1.352481</v>
       </c>
       <c r="F70" s="12" t="inlineStr">
         <is>
           <t>——</t>
         </is>
       </c>
-      <c r="G70" s="12" t="inlineStr">
-        <is>
-          <t>——</t>
-        </is>
+      <c r="G70" s="12" t="n">
+        <v>11.68684395666244</v>
       </c>
     </row>
     <row r="71">
@@ -3326,16 +3326,16 @@
         </is>
       </c>
       <c r="D71" s="13" t="n">
-        <v>680</v>
+        <v>462</v>
       </c>
       <c r="E71" s="14" t="n">
-        <v>44.86878500000002</v>
+        <v>47.70748700000001</v>
       </c>
       <c r="F71" s="15" t="n">
-        <v>1.50937273069853</v>
+        <v>2.099680163780664</v>
       </c>
       <c r="G71" s="15" t="n">
-        <v>0.5383200342930896</v>
+        <v>0.8969095246971479</v>
       </c>
     </row>
     <row r="72">
@@ -3344,7 +3344,7 @@
       </c>
       <c r="B72" s="4" t="inlineStr">
         <is>
-          <t>罗平</t>
+          <t>香榭丽园</t>
         </is>
       </c>
       <c r="C72" s="4" t="inlineStr">
@@ -3353,16 +3353,16 @@
         </is>
       </c>
       <c r="D72" s="4" t="n">
-        <v>440</v>
+        <v>650</v>
       </c>
       <c r="E72" s="5" t="n">
-        <v>43.339316</v>
+        <v>45.29117500000001</v>
       </c>
       <c r="F72" s="6" t="n">
-        <v>2.253151939772727</v>
+        <v>1.416800858974359</v>
       </c>
       <c r="G72" s="6" t="n">
-        <v>1.915861926981871</v>
+        <v>0.5166916137936934</v>
       </c>
     </row>
     <row r="73">
@@ -3374,16 +3374,16 @@
         </is>
       </c>
       <c r="D73" s="4" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E73" s="5" t="n">
-        <v>1.136291</v>
+        <v>2.413289</v>
       </c>
       <c r="F73" s="6" t="n">
-        <v>1.29963283125</v>
+        <v>1.635673655555556</v>
       </c>
       <c r="G73" s="6" t="n">
-        <v>21.30514496594233</v>
+        <v>-0.3435606468621442</v>
       </c>
     </row>
     <row r="74">
@@ -3400,15 +3400,17 @@
         </is>
       </c>
       <c r="E74" s="5" t="n">
-        <v>1.136291</v>
+        <v>0.304284</v>
       </c>
       <c r="F74" s="6" t="inlineStr">
         <is>
           <t>——</t>
         </is>
       </c>
-      <c r="G74" s="6" t="n">
-        <v>21.30514496594233</v>
+      <c r="G74" s="6" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
       </c>
     </row>
     <row r="75">
@@ -3420,16 +3422,16 @@
         </is>
       </c>
       <c r="D75" s="7" t="n">
-        <v>460</v>
+        <v>680</v>
       </c>
       <c r="E75" s="8" t="n">
-        <v>44.475607</v>
+        <v>47.70446400000002</v>
       </c>
       <c r="F75" s="9" t="n">
-        <v>2.211694587228261</v>
+        <v>1.426457011764707</v>
       </c>
       <c r="G75" s="9" t="n">
-        <v>1.982090469523151</v>
+        <v>0.422393850299573</v>
       </c>
     </row>
     <row r="76">
@@ -3438,7 +3440,7 @@
       </c>
       <c r="B76" s="10" t="inlineStr">
         <is>
-          <t>施甸</t>
+          <t>罗平</t>
         </is>
       </c>
       <c r="C76" s="10" t="inlineStr">
@@ -3447,16 +3449,16 @@
         </is>
       </c>
       <c r="D76" s="10" t="n">
-        <v>370</v>
+        <v>440</v>
       </c>
       <c r="E76" s="11" t="n">
-        <v>24.772406</v>
+        <v>44.24372199999999</v>
       </c>
       <c r="F76" s="12" t="n">
-        <v>1.531537262837838</v>
+        <v>2.044596243939393</v>
       </c>
       <c r="G76" s="12" t="n">
-        <v>0.2768698953681752</v>
+        <v>1.511105314411726</v>
       </c>
     </row>
     <row r="77">
@@ -3468,16 +3470,16 @@
         </is>
       </c>
       <c r="D77" s="10" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E77" s="11" t="n">
-        <v>17.74507599999999</v>
+        <v>1.136291</v>
       </c>
       <c r="F77" s="12" t="n">
-        <v>10.1479653375</v>
+        <v>1.155229183333333</v>
       </c>
       <c r="G77" s="12" t="n">
-        <v>-0.4065625440603269</v>
+        <v>21.30514496594233</v>
       </c>
     </row>
     <row r="78">
@@ -3494,7 +3496,7 @@
         </is>
       </c>
       <c r="E78" s="11" t="n">
-        <v>0.4780780000000001</v>
+        <v>1.136291</v>
       </c>
       <c r="F78" s="12" t="inlineStr">
         <is>
@@ -3502,7 +3504,7 @@
         </is>
       </c>
       <c r="G78" s="12" t="n">
-        <v>1.193752953970825</v>
+        <v>21.30514496594233</v>
       </c>
     </row>
     <row r="79">
@@ -3514,16 +3516,16 @@
         </is>
       </c>
       <c r="D79" s="13" t="n">
-        <v>370</v>
+        <v>460</v>
       </c>
       <c r="E79" s="14" t="n">
-        <v>42.517482</v>
+        <v>45.380013</v>
       </c>
       <c r="F79" s="15" t="n">
-        <v>2.628614596621622</v>
+        <v>2.005928110869565</v>
       </c>
       <c r="G79" s="15" t="n">
-        <v>-0.1376301138576177</v>
+        <v>1.568171434731934</v>
       </c>
     </row>
     <row r="80">
@@ -3544,13 +3546,13 @@
         <v>450</v>
       </c>
       <c r="E80" s="5" t="n">
-        <v>39.03612600000001</v>
+        <v>42.59837100000001</v>
       </c>
       <c r="F80" s="6" t="n">
-        <v>1.984336405000001</v>
+        <v>1.924815282222223</v>
       </c>
       <c r="G80" s="6" t="n">
-        <v>1.314481638066186</v>
+        <v>1.25958542448015</v>
       </c>
     </row>
     <row r="81">
@@ -3565,13 +3567,13 @@
         <v>15</v>
       </c>
       <c r="E81" s="5" t="n">
-        <v>2.239843</v>
+        <v>2.274051</v>
       </c>
       <c r="F81" s="6" t="n">
-        <v>3.415760575</v>
+        <v>3.082602466666667</v>
       </c>
       <c r="G81" s="6" t="n">
-        <v>1.187128821152581</v>
+        <v>1.220531743908322</v>
       </c>
     </row>
     <row r="82">
@@ -3588,7 +3590,7 @@
         </is>
       </c>
       <c r="E82" s="5" t="n">
-        <v>1.314564</v>
+        <v>1.348772</v>
       </c>
       <c r="F82" s="6" t="inlineStr">
         <is>
@@ -3613,13 +3615,13 @@
         <v>465</v>
       </c>
       <c r="E83" s="8" t="n">
-        <v>41.27596900000002</v>
+        <v>44.87242200000001</v>
       </c>
       <c r="F83" s="9" t="n">
-        <v>2.030511378225807</v>
+        <v>1.962163255913979</v>
       </c>
       <c r="G83" s="9" t="n">
-        <v>1.307191460143176</v>
+        <v>1.257573241267016</v>
       </c>
     </row>
     <row r="84">
@@ -3628,7 +3630,7 @@
       </c>
       <c r="B84" s="10" t="inlineStr">
         <is>
-          <t>云龙</t>
+          <t>施甸</t>
         </is>
       </c>
       <c r="C84" s="10" t="inlineStr">
@@ -3637,16 +3639,16 @@
         </is>
       </c>
       <c r="D84" s="10" t="n">
-        <v>550</v>
+        <v>370</v>
       </c>
       <c r="E84" s="11" t="n">
-        <v>38.88766399999999</v>
+        <v>26.912139</v>
       </c>
       <c r="F84" s="12" t="n">
-        <v>1.617373298181818</v>
+        <v>1.478955386486487</v>
       </c>
       <c r="G84" s="12" t="n">
-        <v>0.8444462162225856</v>
+        <v>0.2177660524759795</v>
       </c>
     </row>
     <row r="85">
@@ -3658,16 +3660,16 @@
         </is>
       </c>
       <c r="D85" s="10" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E85" s="11" t="n">
-        <v>1.597897</v>
+        <v>17.74507599999999</v>
       </c>
       <c r="F85" s="12" t="n">
-        <v>2.436792925</v>
+        <v>9.02041363333333</v>
       </c>
       <c r="G85" s="12" t="n">
-        <v>4.678705967645637</v>
+        <v>-0.4073105071757039</v>
       </c>
     </row>
     <row r="86">
@@ -3684,7 +3686,7 @@
         </is>
       </c>
       <c r="E86" s="11" t="n">
-        <v>0.725919</v>
+        <v>0.4780780000000001</v>
       </c>
       <c r="F86" s="12" t="inlineStr">
         <is>
@@ -3692,7 +3694,7 @@
         </is>
       </c>
       <c r="G86" s="12" t="n">
-        <v>1.871106171589489</v>
+        <v>0.8699538063779275</v>
       </c>
     </row>
     <row r="87">
@@ -3704,16 +3706,16 @@
         </is>
       </c>
       <c r="D87" s="13" t="n">
-        <v>565</v>
+        <v>370</v>
       </c>
       <c r="E87" s="14" t="n">
-        <v>40.485561</v>
+        <v>44.65721500000001</v>
       </c>
       <c r="F87" s="15" t="n">
-        <v>1.639127801548673</v>
+        <v>2.454135238738739</v>
       </c>
       <c r="G87" s="15" t="n">
-        <v>0.8949445769740521</v>
+        <v>-0.141859541086824</v>
       </c>
     </row>
     <row r="88">
@@ -3722,7 +3724,7 @@
       </c>
       <c r="B88" s="4" t="inlineStr">
         <is>
-          <t>腾冲</t>
+          <t>云龙</t>
         </is>
       </c>
       <c r="C88" s="4" t="inlineStr">
@@ -3731,16 +3733,16 @@
         </is>
       </c>
       <c r="D88" s="4" t="n">
-        <v>380</v>
+        <v>550</v>
       </c>
       <c r="E88" s="5" t="n">
-        <v>16.56279899999999</v>
+        <v>42.717479</v>
       </c>
       <c r="F88" s="6" t="n">
-        <v>0.9970369134868418</v>
+        <v>1.579252253939394</v>
       </c>
       <c r="G88" s="6" t="n">
-        <v>0.33385242241347</v>
+        <v>0.7140259412592065</v>
       </c>
     </row>
     <row r="89">
@@ -3752,16 +3754,16 @@
         </is>
       </c>
       <c r="D89" s="4" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E89" s="5" t="n">
-        <v>19.111874</v>
+        <v>1.830522</v>
       </c>
       <c r="F89" s="6" t="n">
-        <v>8.743682355000001</v>
+        <v>2.481374266666667</v>
       </c>
       <c r="G89" s="6" t="n">
-        <v>35.01094730971277</v>
+        <v>0.6983858801392837</v>
       </c>
     </row>
     <row r="90">
@@ -3778,17 +3780,15 @@
         </is>
       </c>
       <c r="E90" s="5" t="n">
-        <v>0.37115</v>
+        <v>0.780335</v>
       </c>
       <c r="F90" s="6" t="inlineStr">
         <is>
           <t>——</t>
         </is>
       </c>
-      <c r="G90" s="6" t="inlineStr">
-        <is>
-          <t>——</t>
-        </is>
+      <c r="G90" s="6" t="n">
+        <v>1.872004092689104</v>
       </c>
     </row>
     <row r="91">
@@ -3800,16 +3800,16 @@
         </is>
       </c>
       <c r="D91" s="7" t="n">
-        <v>380</v>
+        <v>565</v>
       </c>
       <c r="E91" s="8" t="n">
-        <v>35.67467299999999</v>
+        <v>44.54800100000001</v>
       </c>
       <c r="F91" s="9" t="n">
-        <v>2.147521433881578</v>
+        <v>1.603202395870207</v>
       </c>
       <c r="G91" s="9" t="n">
-        <v>1.755228862180838</v>
+        <v>0.7133776026383267</v>
       </c>
     </row>
     <row r="92">
@@ -3830,13 +3830,13 @@
         <v>300</v>
       </c>
       <c r="E92" s="11" t="n">
-        <v>32.74355900000001</v>
+        <v>35.77461900000001</v>
       </c>
       <c r="F92" s="12" t="n">
-        <v>2.496696373750001</v>
+        <v>2.424724176666667</v>
       </c>
       <c r="G92" s="12" t="n">
-        <v>0.6958865754402344</v>
+        <v>0.4607612086289343</v>
       </c>
     </row>
     <row r="93">
@@ -3851,10 +3851,10 @@
         <v>5</v>
       </c>
       <c r="E93" s="11" t="n">
-        <v>0.534914</v>
+        <v>0.723593</v>
       </c>
       <c r="F93" s="12" t="n">
-        <v>2.44723155</v>
+        <v>2.942611533333333</v>
       </c>
       <c r="G93" s="12" t="inlineStr">
         <is>
@@ -3901,13 +3901,13 @@
         <v>305</v>
       </c>
       <c r="E95" s="14" t="n">
-        <v>33.27847300000001</v>
+        <v>36.49821200000001</v>
       </c>
       <c r="F95" s="15" t="n">
-        <v>2.495885475000001</v>
+        <v>2.433214133333334</v>
       </c>
       <c r="G95" s="15" t="n">
-        <v>0.7235913668349336</v>
+        <v>0.4903072000267865</v>
       </c>
     </row>
     <row r="96">
@@ -3916,7 +3916,7 @@
       </c>
       <c r="B96" s="4" t="inlineStr">
         <is>
-          <t>春之城</t>
+          <t>腾冲</t>
         </is>
       </c>
       <c r="C96" s="4" t="inlineStr">
@@ -3925,16 +3925,16 @@
         </is>
       </c>
       <c r="D96" s="4" t="n">
-        <v>100</v>
+        <v>380</v>
       </c>
       <c r="E96" s="5" t="n">
-        <v>25.624404</v>
+        <v>17.14173099999999</v>
       </c>
       <c r="F96" s="6" t="n">
-        <v>5.861582415</v>
+        <v>0.9172329745614032</v>
       </c>
       <c r="G96" s="6" t="n">
-        <v>12.61535114076714</v>
+        <v>0.2337705915059074</v>
       </c>
     </row>
     <row r="97">
@@ -3946,16 +3946,16 @@
         </is>
       </c>
       <c r="D97" s="4" t="n">
-        <v>940</v>
+        <v>50</v>
       </c>
       <c r="E97" s="5" t="n">
-        <v>4.220004</v>
+        <v>19.111874</v>
       </c>
       <c r="F97" s="6" t="n">
-        <v>0.1026942462765957</v>
+        <v>7.772162093333334</v>
       </c>
       <c r="G97" s="6" t="n">
-        <v>-0.8972740077171489</v>
+        <v>35.0053164332799</v>
       </c>
     </row>
     <row r="98">
@@ -3972,7 +3972,7 @@
         </is>
       </c>
       <c r="E98" s="5" t="n">
-        <v>0.077736</v>
+        <v>0.37115</v>
       </c>
       <c r="F98" s="6" t="inlineStr">
         <is>
@@ -3994,16 +3994,16 @@
         </is>
       </c>
       <c r="D99" s="7" t="n">
-        <v>1040</v>
+        <v>380</v>
       </c>
       <c r="E99" s="8" t="n">
-        <v>29.844408</v>
+        <v>36.25360499999999</v>
       </c>
       <c r="F99" s="9" t="n">
-        <v>0.6564334932692307</v>
+        <v>1.939885881578947</v>
       </c>
       <c r="G99" s="9" t="n">
-        <v>-0.3053336629252399</v>
+        <v>1.513321009925971</v>
       </c>
     </row>
     <row r="100">
@@ -4024,13 +4024,13 @@
         <v>500</v>
       </c>
       <c r="E100" s="11" t="n">
-        <v>24.937166</v>
+        <v>25.718313</v>
       </c>
       <c r="F100" s="12" t="n">
-        <v>1.1408753445</v>
+        <v>1.045878062</v>
       </c>
       <c r="G100" s="12" t="n">
-        <v>-0.06398456382428963</v>
+        <v>-0.09222568425065336</v>
       </c>
     </row>
     <row r="101">
@@ -4048,10 +4048,10 @@
         <v>0.943125</v>
       </c>
       <c r="F101" s="12" t="n">
-        <v>2.696748046875</v>
+        <v>2.397109375</v>
       </c>
       <c r="G101" s="12" t="n">
-        <v>-0.7812326174889574</v>
+        <v>-0.781713183216038</v>
       </c>
     </row>
     <row r="102">
@@ -4091,13 +4091,13 @@
         <v>508</v>
       </c>
       <c r="E103" s="14" t="n">
-        <v>25.88029100000001</v>
+        <v>26.66143800000001</v>
       </c>
       <c r="F103" s="15" t="n">
-        <v>1.165377276820867</v>
+        <v>1.067157295275591</v>
       </c>
       <c r="G103" s="15" t="n">
-        <v>-0.1638820288284289</v>
+        <v>-0.1834607221076527</v>
       </c>
     </row>
     <row r="104">
@@ -4106,7 +4106,7 @@
       </c>
       <c r="B104" s="4" t="inlineStr">
         <is>
-          <t>漾濞</t>
+          <t>会泽</t>
         </is>
       </c>
       <c r="C104" s="4" t="inlineStr">
@@ -4115,16 +4115,16 @@
         </is>
       </c>
       <c r="D104" s="4" t="n">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="E104" s="5" t="n">
-        <v>20.184694</v>
+        <v>25.439182</v>
       </c>
       <c r="F104" s="6" t="n">
-        <v>1.319213929285714</v>
+        <v>1.398009100900901</v>
       </c>
       <c r="G104" s="6" t="n">
-        <v>-0.1957869514305329</v>
+        <v>1.100397090195966</v>
       </c>
     </row>
     <row r="105">
@@ -4136,16 +4136,18 @@
         </is>
       </c>
       <c r="D105" s="4" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E105" s="5" t="n">
-        <v>3.985515999999998</v>
+        <v>0.48699</v>
       </c>
       <c r="F105" s="6" t="n">
-        <v>18.23373569999999</v>
-      </c>
-      <c r="G105" s="6" t="n">
-        <v>34.77726709635719</v>
+        <v>0.4951065</v>
+      </c>
+      <c r="G105" s="6" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
       </c>
     </row>
     <row r="106">
@@ -4162,15 +4164,17 @@
         </is>
       </c>
       <c r="E106" s="5" t="n">
-        <v>0.52474</v>
+        <v>0.48699</v>
       </c>
       <c r="F106" s="6" t="inlineStr">
         <is>
           <t>——</t>
         </is>
       </c>
-      <c r="G106" s="6" t="n">
-        <v>4.150164886934673</v>
+      <c r="G106" s="6" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
       </c>
     </row>
     <row r="107">
@@ -4182,16 +4186,16 @@
         </is>
       </c>
       <c r="D107" s="7" t="n">
-        <v>355</v>
+        <v>390</v>
       </c>
       <c r="E107" s="8" t="n">
-        <v>24.17021</v>
+        <v>25.92617199999999</v>
       </c>
       <c r="F107" s="9" t="n">
-        <v>1.55744663028169</v>
+        <v>1.351706403418803</v>
       </c>
       <c r="G107" s="9" t="n">
-        <v>-0.0412484875102378</v>
+        <v>1.14060563066533</v>
       </c>
     </row>
     <row r="108">
@@ -4212,13 +4216,13 @@
         <v>350</v>
       </c>
       <c r="E108" s="11" t="n">
-        <v>22.698819</v>
+        <v>24.424521</v>
       </c>
       <c r="F108" s="12" t="n">
-        <v>1.483529956071428</v>
+        <v>1.418948362857143</v>
       </c>
       <c r="G108" s="12" t="n">
-        <v>0.6919901194562446</v>
+        <v>0.4693081525372094</v>
       </c>
     </row>
     <row r="109">
@@ -4236,10 +4240,10 @@
         <v>0.435416</v>
       </c>
       <c r="F109" s="12" t="n">
-        <v>0.3320047</v>
+        <v>0.2951152888888889</v>
       </c>
       <c r="G109" s="12" t="n">
-        <v>1.622356058781016</v>
+        <v>1.354771021264628</v>
       </c>
     </row>
     <row r="110">
@@ -4264,7 +4268,7 @@
         </is>
       </c>
       <c r="G110" s="12" t="n">
-        <v>1.192700554083353</v>
+        <v>0.9689575356393443</v>
       </c>
     </row>
     <row r="111">
@@ -4279,13 +4283,13 @@
         <v>380</v>
       </c>
       <c r="E111" s="14" t="n">
-        <v>23.13423499999999</v>
+        <v>24.859937</v>
       </c>
       <c r="F111" s="15" t="n">
-        <v>1.39262006743421</v>
+        <v>1.330224699122807</v>
       </c>
       <c r="G111" s="15" t="n">
-        <v>0.7033642685606942</v>
+        <v>0.4790492675772302</v>
       </c>
     </row>
     <row r="112">
@@ -4294,7 +4298,7 @@
       </c>
       <c r="B112" s="4" t="inlineStr">
         <is>
-          <t>兰坪</t>
+          <t>漾濞</t>
         </is>
       </c>
       <c r="C112" s="4" t="inlineStr">
@@ -4303,16 +4307,16 @@
         </is>
       </c>
       <c r="D112" s="4" t="n">
-        <v>228</v>
+        <v>350</v>
       </c>
       <c r="E112" s="5" t="n">
-        <v>19.05046699999999</v>
+        <v>20.738374</v>
       </c>
       <c r="F112" s="6" t="n">
-        <v>1.911313300986842</v>
+        <v>1.204800775238095</v>
       </c>
       <c r="G112" s="6" t="n">
-        <v>0.6855668493139289</v>
+        <v>-0.2509653787040705</v>
       </c>
     </row>
     <row r="113">
@@ -4324,16 +4328,16 @@
         </is>
       </c>
       <c r="D113" s="4" t="n">
-        <v>72</v>
+        <v>5</v>
       </c>
       <c r="E113" s="5" t="n">
-        <v>3.413075</v>
+        <v>4.004949999999998</v>
       </c>
       <c r="F113" s="6" t="n">
-        <v>1.084362369791667</v>
+        <v>16.28679666666666</v>
       </c>
       <c r="G113" s="6" t="n">
-        <v>1.264307848875202</v>
+        <v>28.67003252261395</v>
       </c>
     </row>
     <row r="114">
@@ -4350,7 +4354,7 @@
         </is>
       </c>
       <c r="E114" s="5" t="n">
-        <v>0.9734520000000001</v>
+        <v>0.5441739999999999</v>
       </c>
       <c r="F114" s="6" t="inlineStr">
         <is>
@@ -4358,7 +4362,7 @@
         </is>
       </c>
       <c r="G114" s="6" t="n">
-        <v>5.657128984387289</v>
+        <v>3.336980864409075</v>
       </c>
     </row>
     <row r="115">
@@ -4370,16 +4374,16 @@
         </is>
       </c>
       <c r="D115" s="7" t="n">
-        <v>300</v>
+        <v>355</v>
       </c>
       <c r="E115" s="8" t="n">
-        <v>22.46354199999999</v>
+        <v>24.743324</v>
       </c>
       <c r="F115" s="9" t="n">
-        <v>1.712845077499999</v>
+        <v>1.41722325258216</v>
       </c>
       <c r="G115" s="9" t="n">
-        <v>0.7536695174265868</v>
+        <v>-0.1106493307079565</v>
       </c>
     </row>
     <row r="116">
@@ -4388,7 +4392,7 @@
       </c>
       <c r="B116" s="10" t="inlineStr">
         <is>
-          <t>麻栗坡</t>
+          <t>兰坪</t>
         </is>
       </c>
       <c r="C116" s="10" t="inlineStr">
@@ -4397,16 +4401,16 @@
         </is>
       </c>
       <c r="D116" s="10" t="n">
-        <v>300</v>
+        <v>228</v>
       </c>
       <c r="E116" s="11" t="n">
-        <v>20.256634</v>
+        <v>20.48771</v>
       </c>
       <c r="F116" s="12" t="n">
-        <v>1.5445683425</v>
+        <v>1.82712033625731</v>
       </c>
       <c r="G116" s="12" t="n">
-        <v>0.6597946904128302</v>
+        <v>0.6760911313006268</v>
       </c>
     </row>
     <row r="117">
@@ -4418,16 +4422,16 @@
         </is>
       </c>
       <c r="D117" s="10" t="n">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="E117" s="11" t="n">
-        <v>0.7552180000000002</v>
+        <v>3.442141</v>
       </c>
       <c r="F117" s="12" t="n">
-        <v>0.6910244700000002</v>
+        <v>0.9720861157407409</v>
       </c>
       <c r="G117" s="12" t="n">
-        <v>0.6131242644247512</v>
+        <v>1.248410435018898</v>
       </c>
     </row>
     <row r="118">
@@ -4444,7 +4448,7 @@
         </is>
       </c>
       <c r="E118" s="11" t="n">
-        <v>0.5625780000000001</v>
+        <v>1.002518</v>
       </c>
       <c r="F118" s="12" t="inlineStr">
         <is>
@@ -4452,7 +4456,7 @@
         </is>
       </c>
       <c r="G118" s="12" t="n">
-        <v>6.951070595717619</v>
+        <v>4.903693496337127</v>
       </c>
     </row>
     <row r="119">
@@ -4464,16 +4468,16 @@
         </is>
       </c>
       <c r="D119" s="13" t="n">
-        <v>325</v>
+        <v>300</v>
       </c>
       <c r="E119" s="14" t="n">
-        <v>21.011852</v>
+        <v>23.92985099999999</v>
       </c>
       <c r="F119" s="15" t="n">
-        <v>1.478911121538461</v>
+        <v>1.621912123333333</v>
       </c>
       <c r="G119" s="15" t="n">
-        <v>0.6580705011618881</v>
+        <v>0.739792523542236</v>
       </c>
     </row>
     <row r="120">
@@ -4482,7 +4486,7 @@
       </c>
       <c r="B120" s="4" t="inlineStr">
         <is>
-          <t>会泽</t>
+          <t>麻栗坡</t>
         </is>
       </c>
       <c r="C120" s="4" t="inlineStr">
@@ -4491,16 +4495,16 @@
         </is>
       </c>
       <c r="D120" s="4" t="n">
-        <v>370</v>
+        <v>300</v>
       </c>
       <c r="E120" s="5" t="n">
-        <v>20.504222</v>
+        <v>22.294992</v>
       </c>
       <c r="F120" s="6" t="n">
-        <v>1.267659670945946</v>
+        <v>1.511105013333333</v>
       </c>
       <c r="G120" s="6" t="n">
-        <v>0.8630478402135753</v>
+        <v>0.6411996846422077</v>
       </c>
     </row>
     <row r="121">
@@ -4512,18 +4516,16 @@
         </is>
       </c>
       <c r="D121" s="4" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E121" s="5" t="n">
-        <v>0.369706</v>
+        <v>0.8226420000000002</v>
       </c>
       <c r="F121" s="6" t="n">
-        <v>0.4228512375</v>
-      </c>
-      <c r="G121" s="6" t="inlineStr">
-        <is>
-          <t>——</t>
-        </is>
+        <v>0.6690821600000001</v>
+      </c>
+      <c r="G121" s="6" t="n">
+        <v>0.4328671730622189</v>
       </c>
     </row>
     <row r="122">
@@ -4540,17 +4542,15 @@
         </is>
       </c>
       <c r="E122" s="5" t="n">
-        <v>0.369706</v>
+        <v>0.5625780000000001</v>
       </c>
       <c r="F122" s="6" t="inlineStr">
         <is>
           <t>——</t>
         </is>
       </c>
-      <c r="G122" s="6" t="inlineStr">
-        <is>
-          <t>——</t>
-        </is>
+      <c r="G122" s="6" t="n">
+        <v>6.951070595717619</v>
       </c>
     </row>
     <row r="123">
@@ -4562,16 +4562,16 @@
         </is>
       </c>
       <c r="D123" s="7" t="n">
-        <v>390</v>
+        <v>325</v>
       </c>
       <c r="E123" s="8" t="n">
-        <v>20.873928</v>
+        <v>23.117634</v>
       </c>
       <c r="F123" s="9" t="n">
-        <v>1.224336161538461</v>
+        <v>1.446334024615385</v>
       </c>
       <c r="G123" s="9" t="n">
-        <v>0.8966399445525743</v>
+        <v>0.6327519778838342</v>
       </c>
     </row>
     <row r="124">
@@ -4592,13 +4592,13 @@
         <v>300</v>
       </c>
       <c r="E124" s="11" t="n">
-        <v>12.324914</v>
+        <v>12.547559</v>
       </c>
       <c r="F124" s="12" t="n">
-        <v>0.9397746924999999</v>
+        <v>0.8504456655555556</v>
       </c>
       <c r="G124" s="12" t="n">
-        <v>-0.3754645600647919</v>
+        <v>-0.394323090269498</v>
       </c>
     </row>
     <row r="125">
@@ -4613,13 +4613,13 @@
         <v>35</v>
       </c>
       <c r="E125" s="11" t="n">
-        <v>3.276262</v>
+        <v>3.285894</v>
       </c>
       <c r="F125" s="12" t="n">
-        <v>2.141271235714286</v>
+        <v>1.908947942857143</v>
       </c>
       <c r="G125" s="12" t="n">
-        <v>1.215924431927322</v>
+        <v>1.169822122994451</v>
       </c>
     </row>
     <row r="126">
@@ -4659,13 +4659,13 @@
         <v>335</v>
       </c>
       <c r="E127" s="14" t="n">
-        <v>15.60117600000001</v>
+        <v>15.83345300000001</v>
       </c>
       <c r="F127" s="15" t="n">
-        <v>1.065304182089553</v>
+        <v>0.9610354557213934</v>
       </c>
       <c r="G127" s="15" t="n">
-        <v>-0.2645478094864195</v>
+        <v>-0.287774309589752</v>
       </c>
     </row>
   </sheetData>
@@ -4778,7 +4778,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>数据统计范围：2020-01-01至2020-01-16</t>
+          <t>数据统计范围：2020-01-01至2020-01-18</t>
         </is>
       </c>
       <c r="B2" s="2" t="n"/>
@@ -4842,13 +4842,13 @@
         <v>21670</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1845.691190000003</v>
+        <v>2017.023442000003</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>1.948324225715277</v>
+        <v>1.892607752068915</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.8387666650381573</v>
+        <v>0.8162747250343929</v>
       </c>
     </row>
     <row r="5">
@@ -4863,13 +4863,13 @@
         <v>4700</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>215.0368580000008</v>
+        <v>234.2268800000006</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>1.046588963138302</v>
+        <v>1.01332196312057</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.1295883605144903</v>
+        <v>0.0671913304218219</v>
       </c>
     </row>
     <row r="6">
@@ -4886,7 +4886,7 @@
         </is>
       </c>
       <c r="E6" s="5" t="n">
-        <v>25.73370899999988</v>
+        <v>26.91359999999989</v>
       </c>
       <c r="F6" s="6" t="inlineStr">
         <is>
@@ -4894,7 +4894,7 @@
         </is>
       </c>
       <c r="G6" s="6" t="n">
-        <v>5.095519100882968</v>
+        <v>4.894241104631424</v>
       </c>
     </row>
     <row r="7">
@@ -4909,13 +4909,13 @@
         <v>26370</v>
       </c>
       <c r="E7" s="8" t="n">
-        <v>2060.728048000003</v>
+        <v>2251.250322000004</v>
       </c>
       <c r="F7" s="9" t="n">
-        <v>1.787605388623438</v>
+        <v>1.735890148426245</v>
       </c>
       <c r="G7" s="9" t="n">
-        <v>0.7257102195972922</v>
+        <v>0.6926599068705495</v>
       </c>
     </row>
     <row r="8">
@@ -4938,7 +4938,7 @@
         </is>
       </c>
       <c r="E8" s="11" t="n">
-        <v>50.52402700000001</v>
+        <v>55.51944599999999</v>
       </c>
       <c r="F8" s="12" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="G8" s="12" t="n">
-        <v>4.610570284781487</v>
+        <v>4.764867083287688</v>
       </c>
     </row>
     <row r="9">
@@ -4964,10 +4964,10 @@
         <v>24.426737</v>
       </c>
       <c r="F9" s="12" t="n">
-        <v>0.4434615943452381</v>
+        <v>0.3941880838624338</v>
       </c>
       <c r="G9" s="12" t="n">
-        <v>-0.005831416871336925</v>
+        <v>-0.006610279219655291</v>
       </c>
     </row>
     <row r="10">
@@ -5009,13 +5009,13 @@
         <v>1260</v>
       </c>
       <c r="E11" s="14" t="n">
-        <v>74.95076399999998</v>
+        <v>79.94618299999996</v>
       </c>
       <c r="F11" s="15" t="n">
-        <v>1.360713275</v>
+        <v>1.290136815608465</v>
       </c>
       <c r="G11" s="15" t="n">
-        <v>1.232327495635539</v>
+        <v>1.336245972888199</v>
       </c>
     </row>
     <row r="12">
@@ -5038,7 +5038,7 @@
         </is>
       </c>
       <c r="E12" s="5" t="n">
-        <v>48.445519</v>
+        <v>52.647161</v>
       </c>
       <c r="F12" s="6" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         </is>
       </c>
       <c r="E15" s="8" t="n">
-        <v>48.65615300000002</v>
+        <v>52.85779500000002</v>
       </c>
       <c r="F15" s="9" t="inlineStr">
         <is>
@@ -5150,13 +5150,13 @@
         <v>1000</v>
       </c>
       <c r="E16" s="11" t="n">
-        <v>104.8438279999999</v>
+        <v>112.7895469999999</v>
       </c>
       <c r="F16" s="12" t="n">
-        <v>2.398302565499998</v>
+        <v>2.293387455666665</v>
       </c>
       <c r="G16" s="12" t="n">
-        <v>-0.133628324156415</v>
+        <v>-0.1311430212659588</v>
       </c>
     </row>
     <row r="17">
@@ -5171,13 +5171,13 @@
         <v>340</v>
       </c>
       <c r="E17" s="11" t="n">
-        <v>10.347803</v>
+        <v>10.55515599999999</v>
       </c>
       <c r="F17" s="12" t="n">
-        <v>0.6961940988970586</v>
+        <v>0.6312397215686272</v>
       </c>
       <c r="G17" s="12" t="n">
-        <v>-0.1410545872360013</v>
+        <v>-0.1597190135541573</v>
       </c>
     </row>
     <row r="18">
@@ -5194,7 +5194,7 @@
         </is>
       </c>
       <c r="E18" s="11" t="n">
-        <v>0.8882500000000002</v>
+        <v>0.9465520000000002</v>
       </c>
       <c r="F18" s="12" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         </is>
       </c>
       <c r="G18" s="12" t="n">
-        <v>3.548573593949234</v>
+        <v>3.420062666647989</v>
       </c>
     </row>
     <row r="19">
@@ -5217,13 +5217,13 @@
         <v>1340</v>
       </c>
       <c r="E19" s="14" t="n">
-        <v>115.1916309999999</v>
+        <v>123.3447029999999</v>
       </c>
       <c r="F19" s="15" t="n">
-        <v>1.966424297854475</v>
+        <v>1.871648478358208</v>
       </c>
       <c r="G19" s="15" t="n">
-        <v>-0.1343006798187388</v>
+        <v>-0.1336642206198201</v>
       </c>
     </row>
     <row r="20">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E20" s="5" t="n">
-        <v>38.94691600000001</v>
+        <v>41.609226</v>
       </c>
       <c r="F20" s="6" t="inlineStr">
         <is>
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.4537169461360687</v>
+        <v>-0.4526875566510483</v>
       </c>
     </row>
     <row r="21">
@@ -5279,7 +5279,7 @@
         </is>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.9863987572882362</v>
+        <v>-0.9864293256858119</v>
       </c>
     </row>
     <row r="22">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E23" s="8" t="n">
-        <v>39.07906800000001</v>
+        <v>41.741378</v>
       </c>
       <c r="F23" s="9" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         </is>
       </c>
       <c r="G23" s="9" t="n">
-        <v>-0.5176052543965286</v>
+        <v>-0.5132920916995055</v>
       </c>
     </row>
     <row r="24">
@@ -5350,13 +5350,13 @@
         <v>470</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>20.917262</v>
+        <v>23.889751</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>1.018047592021276</v>
+        <v>1.033528234751773</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.7348195240515025</v>
+        <v>0.771448242621978</v>
       </c>
     </row>
     <row r="25">
@@ -5371,13 +5371,13 @@
         <v>30</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2.333437</v>
+        <v>2.501922</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>1.779245712500001</v>
+        <v>1.695747133333334</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.1983956933626554</v>
+        <v>0.1069794976758018</v>
       </c>
     </row>
     <row r="26">
@@ -5394,7 +5394,7 @@
         </is>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.198228</v>
+        <v>0.217662</v>
       </c>
       <c r="F26" s="6" t="inlineStr">
         <is>
@@ -5419,13 +5419,13 @@
         <v>530</v>
       </c>
       <c r="E27" s="8" t="n">
-        <v>23.25069899999999</v>
+        <v>26.39167299999999</v>
       </c>
       <c r="F27" s="9" t="n">
-        <v>1.003508942688679</v>
+        <v>1.012510725157233</v>
       </c>
       <c r="G27" s="9" t="n">
-        <v>0.66023685190854</v>
+        <v>0.6760731872344028</v>
       </c>
     </row>
     <row r="28">
@@ -5448,7 +5448,7 @@
         </is>
       </c>
       <c r="E28" s="5" t="n">
-        <v>41.22402399999999</v>
+        <v>43.24183599999998</v>
       </c>
       <c r="F28" s="6" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         </is>
       </c>
       <c r="E29" s="5" t="n">
-        <v>7.882213999999997</v>
+        <v>7.921081999999997</v>
       </c>
       <c r="F29" s="6" t="inlineStr">
         <is>
@@ -5502,7 +5502,7 @@
         </is>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.5578700000000001</v>
+        <v>0.5967380000000001</v>
       </c>
       <c r="F30" s="6" t="inlineStr">
         <is>
@@ -5529,7 +5529,7 @@
         </is>
       </c>
       <c r="E31" s="8" t="n">
-        <v>49.10623799999998</v>
+        <v>51.16291799999997</v>
       </c>
       <c r="F31" s="9" t="inlineStr">
         <is>
@@ -5560,13 +5560,13 @@
         <v>610</v>
       </c>
       <c r="E32" s="11" t="n">
-        <v>51.52085200000001</v>
+        <v>55.53698700000001</v>
       </c>
       <c r="F32" s="12" t="n">
-        <v>1.93203195</v>
+        <v>1.8512329</v>
       </c>
       <c r="G32" s="12" t="n">
-        <v>1.917925581781526</v>
+        <v>1.963655996606072</v>
       </c>
     </row>
     <row r="33">
@@ -5584,10 +5584,10 @@
         <v>0.9246050000000001</v>
       </c>
       <c r="F33" s="12" t="n">
-        <v>0.2643792421875</v>
+        <v>0.2350037708333334</v>
       </c>
       <c r="G33" s="12" t="n">
-        <v>16.68462023984852</v>
+        <v>15.2211403508772</v>
       </c>
     </row>
     <row r="34">
@@ -5612,7 +5612,7 @@
         </is>
       </c>
       <c r="G34" s="12" t="n">
-        <v>14.71056058632909</v>
+        <v>12.74674051303795</v>
       </c>
     </row>
     <row r="35">
@@ -5627,13 +5627,13 @@
         <v>690</v>
       </c>
       <c r="E35" s="14" t="n">
-        <v>52.445457</v>
+        <v>56.461592</v>
       </c>
       <c r="F35" s="15" t="n">
-        <v>1.738680911413043</v>
+        <v>1.663844015458937</v>
       </c>
       <c r="G35" s="15" t="n">
-        <v>1.961522007454534</v>
+        <v>2.003859366313139</v>
       </c>
     </row>
     <row r="36">
@@ -5858,13 +5858,13 @@
         <v>470</v>
       </c>
       <c r="E44" s="11" t="n">
-        <v>50.93269100000001</v>
+        <v>53.32557600000001</v>
       </c>
       <c r="F44" s="12" t="n">
-        <v>2.478904907712767</v>
+        <v>2.30699300425532</v>
       </c>
       <c r="G44" s="12" t="n">
-        <v>-0.04584526533551225</v>
+        <v>-0.04167045037264194</v>
       </c>
     </row>
     <row r="45">
@@ -5879,13 +5879,13 @@
         <v>90</v>
       </c>
       <c r="E45" s="11" t="n">
-        <v>1.932736</v>
+        <v>1.959944</v>
       </c>
       <c r="F45" s="12" t="n">
-        <v>0.4912370666666666</v>
+        <v>0.442802162962963</v>
       </c>
       <c r="G45" s="12" t="n">
-        <v>-0.5286827089253547</v>
+        <v>-0.5230560327835343</v>
       </c>
     </row>
     <row r="46">
@@ -5902,7 +5902,7 @@
         </is>
       </c>
       <c r="E46" s="11" t="n">
-        <v>1.247215</v>
+        <v>1.274423</v>
       </c>
       <c r="F46" s="12" t="inlineStr">
         <is>
@@ -5910,7 +5910,7 @@
         </is>
       </c>
       <c r="G46" s="12" t="n">
-        <v>6.107691167922314</v>
+        <v>6.262745477962548</v>
       </c>
     </row>
     <row r="47">
@@ -5925,13 +5925,13 @@
         <v>560</v>
       </c>
       <c r="E47" s="14" t="n">
-        <v>52.86542700000003</v>
+        <v>55.28552000000003</v>
       </c>
       <c r="F47" s="15" t="n">
-        <v>2.159458290401787</v>
+        <v>2.007390904761906</v>
       </c>
       <c r="G47" s="15" t="n">
-        <v>-0.080291255741195</v>
+        <v>-0.07477629954801457</v>
       </c>
     </row>
     <row r="48">
@@ -5954,7 +5954,7 @@
         </is>
       </c>
       <c r="E48" s="5" t="n">
-        <v>50.34765500000002</v>
+        <v>52.72921900000001</v>
       </c>
       <c r="F48" s="6" t="inlineStr">
         <is>
@@ -5962,7 +5962,7 @@
         </is>
       </c>
       <c r="G48" s="6" t="n">
-        <v>-0.05739131089238492</v>
+        <v>-0.05295274149815754</v>
       </c>
     </row>
     <row r="49">
@@ -5979,7 +5979,7 @@
         </is>
       </c>
       <c r="E49" s="5" t="n">
-        <v>1.821811</v>
+        <v>1.849019</v>
       </c>
       <c r="F49" s="6" t="inlineStr">
         <is>
@@ -5987,7 +5987,7 @@
         </is>
       </c>
       <c r="G49" s="6" t="n">
-        <v>-0.555732896075827</v>
+        <v>-0.5500491558337268</v>
       </c>
     </row>
     <row r="50">
@@ -6004,7 +6004,7 @@
         </is>
       </c>
       <c r="E50" s="5" t="n">
-        <v>1.192799</v>
+        <v>1.220007</v>
       </c>
       <c r="F50" s="6" t="inlineStr">
         <is>
@@ -6012,7 +6012,7 @@
         </is>
       </c>
       <c r="G50" s="6" t="n">
-        <v>5.797582547841848</v>
+        <v>5.952636857882081</v>
       </c>
     </row>
     <row r="51">
@@ -6029,7 +6029,7 @@
         </is>
       </c>
       <c r="E51" s="8" t="n">
-        <v>52.16946600000003</v>
+        <v>54.57823800000002</v>
       </c>
       <c r="F51" s="9" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         </is>
       </c>
       <c r="G51" s="9" t="n">
-        <v>-0.09292285849795912</v>
+        <v>-0.08712007443105074</v>
       </c>
     </row>
     <row r="52">
@@ -6060,7 +6060,7 @@
         </is>
       </c>
       <c r="E52" s="5" t="n">
-        <v>0.5850360000000001</v>
+        <v>0.596357</v>
       </c>
       <c r="F52" s="6" t="inlineStr">
         <is>
@@ -6141,7 +6141,7 @@
         </is>
       </c>
       <c r="E55" s="8" t="n">
-        <v>0.6959610000000001</v>
+        <v>0.7072820000000001</v>
       </c>
       <c r="F55" s="9" t="inlineStr">
         <is>
@@ -6172,13 +6172,13 @@
         <v>550</v>
       </c>
       <c r="E56" s="11" t="n">
-        <v>65.80823400000001</v>
+        <v>70.15905299999999</v>
       </c>
       <c r="F56" s="12" t="n">
-        <v>2.737024277727273</v>
+        <v>2.593758929090908</v>
       </c>
       <c r="G56" s="12" t="n">
-        <v>1.788802722276741</v>
+        <v>1.585013322983314</v>
       </c>
     </row>
     <row r="57">
@@ -6193,13 +6193,13 @@
         <v>120</v>
       </c>
       <c r="E57" s="11" t="n">
-        <v>2.789036</v>
+        <v>2.89398</v>
       </c>
       <c r="F57" s="12" t="n">
-        <v>0.5316599875</v>
+        <v>0.4903688333333333</v>
       </c>
       <c r="G57" s="12" t="n">
-        <v>5.704542395046058</v>
+        <v>0.2322857696410208</v>
       </c>
     </row>
     <row r="58">
@@ -6216,7 +6216,7 @@
         </is>
       </c>
       <c r="E58" s="11" t="n">
-        <v>1.482847</v>
+        <v>1.587791000000001</v>
       </c>
       <c r="F58" s="12" t="inlineStr">
         <is>
@@ -6224,7 +6224,7 @@
         </is>
       </c>
       <c r="G58" s="12" t="n">
-        <v>3.180330965268382</v>
+        <v>2.79063532534999</v>
       </c>
     </row>
     <row r="59">
@@ -6239,13 +6239,13 @@
         <v>670</v>
       </c>
       <c r="E59" s="14" t="n">
-        <v>68.59727000000005</v>
+        <v>73.05303300000003</v>
       </c>
       <c r="F59" s="15" t="n">
-        <v>2.342033658582091</v>
+        <v>2.21703234477612</v>
       </c>
       <c r="G59" s="15" t="n">
-        <v>1.856636649549904</v>
+        <v>1.477284465022706</v>
       </c>
     </row>
     <row r="60">
@@ -6380,13 +6380,13 @@
         <v>700</v>
       </c>
       <c r="E64" s="11" t="n">
-        <v>49.14762799999997</v>
+        <v>50.70364999999997</v>
       </c>
       <c r="F64" s="12" t="n">
-        <v>1.606074272142856</v>
+        <v>1.472820309523809</v>
       </c>
       <c r="G64" s="12" t="n">
-        <v>0.06672304618888414</v>
+        <v>0.04937893449966713</v>
       </c>
     </row>
     <row r="65">
@@ -6404,10 +6404,10 @@
         <v>6.695826999999999</v>
       </c>
       <c r="F65" s="12" t="n">
-        <v>0.4940872342741935</v>
+        <v>0.439188652688172</v>
       </c>
       <c r="G65" s="12" t="n">
-        <v>-0.4231291057667043</v>
+        <v>-0.424065316258757</v>
       </c>
     </row>
     <row r="66">
@@ -6432,7 +6432,7 @@
         </is>
       </c>
       <c r="G66" s="12" t="n">
-        <v>-0.5128416318111499</v>
+        <v>-0.5436742744435052</v>
       </c>
     </row>
     <row r="67">
@@ -6447,13 +6447,13 @@
         <v>700</v>
       </c>
       <c r="E67" s="14" t="n">
-        <v>55.84345499999997</v>
+        <v>57.39947699999995</v>
       </c>
       <c r="F67" s="15" t="n">
-        <v>1.824884333035713</v>
+        <v>1.66731814142857</v>
       </c>
       <c r="G67" s="15" t="n">
-        <v>-0.0318505787108796</v>
+        <v>-0.04244494859083703</v>
       </c>
     </row>
     <row r="68">
@@ -6474,13 +6474,13 @@
         <v>550</v>
       </c>
       <c r="E68" s="5" t="n">
-        <v>24.172083</v>
+        <v>25.22278099999999</v>
       </c>
       <c r="F68" s="6" t="n">
-        <v>1.005338906590909</v>
+        <v>0.9324785703030301</v>
       </c>
       <c r="G68" s="6" t="n">
-        <v>-0.3360504028634664</v>
+        <v>-0.3474190331912088</v>
       </c>
     </row>
     <row r="69">
@@ -6498,10 +6498,10 @@
         <v>0.181708</v>
       </c>
       <c r="F69" s="6" t="n">
-        <v>0.08313140999999999</v>
+        <v>0.07389458666666666</v>
       </c>
       <c r="G69" s="6" t="n">
-        <v>-0.9520186530166581</v>
+        <v>-0.9522565222680544</v>
       </c>
     </row>
     <row r="70">
@@ -6526,7 +6526,7 @@
         </is>
       </c>
       <c r="G70" s="6" t="n">
-        <v>-0.7216237896063714</v>
+        <v>-0.7392424425391458</v>
       </c>
     </row>
     <row r="71">
@@ -6541,13 +6541,13 @@
         <v>550</v>
       </c>
       <c r="E71" s="8" t="n">
-        <v>24.353791</v>
+        <v>25.404489</v>
       </c>
       <c r="F71" s="9" t="n">
-        <v>1.0128963075</v>
+        <v>0.93919626</v>
       </c>
       <c r="G71" s="9" t="n">
-        <v>-0.3940872067110852</v>
+        <v>-0.4016381148524627</v>
       </c>
     </row>
     <row r="72">
@@ -6568,13 +6568,13 @@
         <v>150</v>
       </c>
       <c r="E72" s="5" t="n">
-        <v>24.946906</v>
+        <v>25.45223</v>
       </c>
       <c r="F72" s="6" t="n">
-        <v>3.804403165</v>
+        <v>3.450191177777778</v>
       </c>
       <c r="G72" s="6" t="n">
-        <v>1.633160339454879</v>
+        <v>1.686497579566927</v>
       </c>
     </row>
     <row r="73">
@@ -6592,7 +6592,7 @@
         <v>4.646228999999999</v>
       </c>
       <c r="F73" s="6" t="n">
-        <v>0.4087788014423075</v>
+        <v>0.3633589346153845</v>
       </c>
       <c r="G73" s="6" t="n">
         <v>-0.4058602868635228</v>
@@ -6637,13 +6637,13 @@
         <v>150</v>
       </c>
       <c r="E75" s="8" t="n">
-        <v>29.593135</v>
+        <v>30.098459</v>
       </c>
       <c r="F75" s="9" t="n">
-        <v>4.5129530875</v>
+        <v>4.080013331111111</v>
       </c>
       <c r="G75" s="9" t="n">
-        <v>0.7111569491459164</v>
+        <v>0.7403761810444707</v>
       </c>
     </row>
     <row r="76">
@@ -6664,13 +6664,13 @@
         <v>362</v>
       </c>
       <c r="E76" s="11" t="n">
-        <v>26.97841000000001</v>
+        <v>29.00387800000001</v>
       </c>
       <c r="F76" s="12" t="n">
-        <v>1.704782123618785</v>
+        <v>1.629131268876612</v>
       </c>
       <c r="G76" s="12" t="n">
-        <v>0.1597612384607063</v>
+        <v>0.04206977398588618</v>
       </c>
     </row>
     <row r="77">
@@ -6685,13 +6685,13 @@
         <v>88</v>
       </c>
       <c r="E77" s="11" t="n">
-        <v>16.49782</v>
+        <v>18.395555</v>
       </c>
       <c r="F77" s="12" t="n">
-        <v>4.288495823863636</v>
+        <v>4.250488087121211</v>
       </c>
       <c r="G77" s="12" t="n">
-        <v>9.79965305621471</v>
+        <v>8.061925641741828</v>
       </c>
     </row>
     <row r="78">
@@ -6731,13 +6731,13 @@
         <v>450</v>
       </c>
       <c r="E79" s="14" t="n">
-        <v>43.47622999999997</v>
+        <v>47.39943299999998</v>
       </c>
       <c r="F79" s="15" t="n">
-        <v>2.210041691666665</v>
+        <v>2.141752157777777</v>
       </c>
       <c r="G79" s="15" t="n">
-        <v>0.7538048016223526</v>
+        <v>0.5872329025931304</v>
       </c>
     </row>
     <row r="80">

--- a/2020年机构数据统计表.xlsx
+++ b/2020年机构数据统计表.xlsx
@@ -515,7 +515,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>数据统计范围：2020-01-01至2020-01-18</t>
+          <t>数据统计范围：2020-01-01至2020-01-19</t>
         </is>
       </c>
       <c r="B2" s="2" t="n"/>
@@ -579,13 +579,13 @@
         <v>21670</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2017.023442000003</v>
+        <v>2193.129510000004</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>1.892607752068915</v>
+        <v>1.949543148811118</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.8162747250343929</v>
+        <v>0.9298781593261409</v>
       </c>
     </row>
     <row r="5">
@@ -600,13 +600,13 @@
         <v>2800</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>161.2964790000004</v>
+        <v>167.8085930000004</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>1.171319668928575</v>
+        <v>1.154472651090229</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.1631767345728921</v>
+        <v>0.1529424711304772</v>
       </c>
     </row>
     <row r="6">
@@ -621,13 +621,13 @@
         <v>1900</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>72.93040100000002</v>
+        <v>79.87285200000002</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>0.78048323877193</v>
+        <v>0.8097912418836568</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>-0.09751675670020776</v>
+        <v>-0.01160682601259388</v>
       </c>
     </row>
     <row r="7">
@@ -644,7 +644,7 @@
         </is>
       </c>
       <c r="E7" s="5" t="n">
-        <v>26.91359999999989</v>
+        <v>30.25522999999991</v>
       </c>
       <c r="F7" s="6" t="inlineStr">
         <is>
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="G7" s="6" t="n">
-        <v>4.894241104631424</v>
+        <v>5.485382438519533</v>
       </c>
     </row>
     <row r="8">
@@ -667,13 +667,13 @@
         <v>26370</v>
       </c>
       <c r="E8" s="8" t="n">
-        <v>2251.250322000004</v>
+        <v>2440.810955000005</v>
       </c>
       <c r="F8" s="9" t="n">
-        <v>1.735890148426245</v>
+        <v>1.783000637746246</v>
       </c>
       <c r="G8" s="9" t="n">
-        <v>0.6926599068705495</v>
+        <v>0.7910696507156112</v>
       </c>
     </row>
     <row r="9">
@@ -694,13 +694,13 @@
         <v>4900</v>
       </c>
       <c r="E9" s="11" t="n">
-        <v>507.9095350000002</v>
+        <v>547.647321</v>
       </c>
       <c r="F9" s="12" t="n">
-        <v>2.107651811904763</v>
+        <v>2.152942207153598</v>
       </c>
       <c r="G9" s="12" t="n">
-        <v>1.280449839762459</v>
+        <v>1.406381464856831</v>
       </c>
     </row>
     <row r="10">
@@ -715,13 +715,13 @@
         <v>1510</v>
       </c>
       <c r="E10" s="11" t="n">
-        <v>75.52014700000004</v>
+        <v>78.53190700000006</v>
       </c>
       <c r="F10" s="12" t="n">
-        <v>1.016937961810155</v>
+        <v>1.001836108818404</v>
       </c>
       <c r="G10" s="12" t="n">
-        <v>0.1055174862092016</v>
+        <v>0.04557350237847935</v>
       </c>
     </row>
     <row r="11">
@@ -736,13 +736,13 @@
         <v>1060</v>
       </c>
       <c r="E11" s="11" t="n">
-        <v>34.91888699999999</v>
+        <v>41.149075</v>
       </c>
       <c r="F11" s="12" t="n">
-        <v>0.6698277066037734</v>
+        <v>0.7477935178748758</v>
       </c>
       <c r="G11" s="12" t="n">
-        <v>-0.4530362966783084</v>
+        <v>-0.355447656442714</v>
       </c>
     </row>
     <row r="12">
@@ -759,7 +759,7 @@
         </is>
       </c>
       <c r="E12" s="11" t="n">
-        <v>3.693627</v>
+        <v>4.271788999999998</v>
       </c>
       <c r="F12" s="12" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
         </is>
       </c>
       <c r="G12" s="12" t="n">
-        <v>7.56717702261694</v>
+        <v>8.336162149521472</v>
       </c>
     </row>
     <row r="13">
@@ -782,13 +782,13 @@
         <v>7470</v>
       </c>
       <c r="E13" s="14" t="n">
-        <v>618.348569</v>
+        <v>667.3283029999999</v>
       </c>
       <c r="F13" s="15" t="n">
-        <v>1.683144252967425</v>
+        <v>1.720863516508137</v>
       </c>
       <c r="G13" s="15" t="n">
-        <v>0.7424318781950985</v>
+        <v>0.8206573818406089</v>
       </c>
     </row>
     <row r="14">
@@ -809,13 +809,13 @@
         <v>5800</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>468.8672190000002</v>
+        <v>510.9628090000001</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>1.643729905689656</v>
+        <v>1.697027115190563</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.6999912626885014</v>
+        <v>0.8067799270343023</v>
       </c>
     </row>
     <row r="15">
@@ -830,13 +830,13 @@
         <v>300</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>17.39271999999999</v>
+        <v>18.78648399999999</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.178839911111111</v>
+        <v>1.206290025263157</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.387188662311472</v>
+        <v>1.57615074632535</v>
       </c>
     </row>
     <row r="16">
@@ -854,7 +854,7 @@
         <v>4.367711</v>
       </c>
       <c r="F16" s="6" t="n">
-        <v>0.4440506183333333</v>
+        <v>0.4206795331578947</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.3270669486352328</v>
@@ -874,7 +874,7 @@
         </is>
       </c>
       <c r="E17" s="5" t="n">
-        <v>7.57969999999999</v>
+        <v>8.696432999999987</v>
       </c>
       <c r="F17" s="6" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="G17" s="6" t="n">
-        <v>11.97967179652273</v>
+        <v>13.72546569337131</v>
       </c>
     </row>
     <row r="18">
@@ -897,13 +897,13 @@
         <v>6300</v>
       </c>
       <c r="E18" s="8" t="n">
-        <v>490.6276500000001</v>
+        <v>534.1170039999997</v>
       </c>
       <c r="F18" s="9" t="n">
-        <v>1.583507230158731</v>
+        <v>1.633139711478696</v>
       </c>
       <c r="G18" s="9" t="n">
-        <v>0.694261082404477</v>
+        <v>0.8008838615749418</v>
       </c>
     </row>
     <row r="19">
@@ -924,13 +924,13 @@
         <v>3460</v>
       </c>
       <c r="E19" s="11" t="n">
-        <v>409.3417479999999</v>
+        <v>445.4510920000001</v>
       </c>
       <c r="F19" s="12" t="n">
-        <v>2.405572892870905</v>
+        <v>2.479998473866748</v>
       </c>
       <c r="G19" s="12" t="n">
-        <v>1.138310196065032</v>
+        <v>1.240376674067009</v>
       </c>
     </row>
     <row r="20">
@@ -945,13 +945,13 @@
         <v>170</v>
       </c>
       <c r="E20" s="11" t="n">
-        <v>8.051777</v>
+        <v>8.388401999999997</v>
       </c>
       <c r="F20" s="12" t="n">
-        <v>0.9630556803921568</v>
+        <v>0.9505124247678015</v>
       </c>
       <c r="G20" s="12" t="n">
-        <v>0.671042309339833</v>
+        <v>0.7206209035165196</v>
       </c>
     </row>
     <row r="21">
@@ -969,7 +969,7 @@
         <v>2.604669</v>
       </c>
       <c r="F21" s="12" t="n">
-        <v>0.7565943285714285</v>
+        <v>0.7167735744360901</v>
       </c>
       <c r="G21" s="12" t="n">
         <v>0.265995368930227</v>
@@ -989,7 +989,7 @@
         </is>
       </c>
       <c r="E22" s="11" t="n">
-        <v>3.764720999999998</v>
+        <v>4.091713999999999</v>
       </c>
       <c r="F22" s="12" t="inlineStr">
         <is>
@@ -997,7 +997,7 @@
         </is>
       </c>
       <c r="G22" s="12" t="n">
-        <v>14.3484165294108</v>
+        <v>12.99096610065172</v>
       </c>
     </row>
     <row r="23">
@@ -1012,13 +1012,13 @@
         <v>3700</v>
       </c>
       <c r="E23" s="14" t="n">
-        <v>419.9981939999997</v>
+        <v>456.4441629999997</v>
       </c>
       <c r="F23" s="15" t="n">
-        <v>2.308098183243241</v>
+        <v>2.37636648162162</v>
       </c>
       <c r="G23" s="15" t="n">
-        <v>1.117906606724608</v>
+        <v>1.218318965016577</v>
       </c>
     </row>
     <row r="24">
@@ -1039,13 +1039,13 @@
         <v>3220</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>266.473086</v>
+        <v>299.7445869999998</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>1.682697540993789</v>
+        <v>1.793176182445242</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.4623452650204367</v>
+        <v>0.6100282275407432</v>
       </c>
     </row>
     <row r="25">
@@ -1060,13 +1060,13 @@
         <v>130</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>14.01720099999999</v>
+        <v>15.26402299999999</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>2.192434002564101</v>
+        <v>2.261794501214574</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.4291442345455412</v>
+        <v>0.5532777326412526</v>
       </c>
     </row>
     <row r="26">
@@ -1084,7 +1084,7 @@
         <v>2.119797</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.8620507799999999</v>
+        <v>0.8166796863157894</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3440442359708287</v>
@@ -1104,7 +1104,7 @@
         </is>
       </c>
       <c r="E27" s="5" t="n">
-        <v>5.005574999999998</v>
+        <v>5.821041999999997</v>
       </c>
       <c r="F27" s="6" t="inlineStr">
         <is>
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="G27" s="6" t="n">
-        <v>4.024466995904597</v>
+        <v>4.734406585309144</v>
       </c>
     </row>
     <row r="28">
@@ -1127,13 +1127,13 @@
         <v>3400</v>
       </c>
       <c r="E28" s="8" t="n">
-        <v>282.610084</v>
+        <v>317.1284069999999</v>
       </c>
       <c r="F28" s="9" t="n">
-        <v>1.690119129803922</v>
+        <v>1.796733699102166</v>
       </c>
       <c r="G28" s="9" t="n">
-        <v>0.4596996096011039</v>
+        <v>0.6050823754095436</v>
       </c>
     </row>
     <row r="29">
@@ -1154,13 +1154,13 @@
         <v>1800</v>
       </c>
       <c r="E29" s="11" t="n">
-        <v>180.163958</v>
+        <v>188.36675</v>
       </c>
       <c r="F29" s="12" t="n">
-        <v>2.035185451481482</v>
+        <v>2.015854692982456</v>
       </c>
       <c r="G29" s="12" t="n">
-        <v>1.091982700045429</v>
+        <v>1.156326982241529</v>
       </c>
     </row>
     <row r="30">
@@ -1175,13 +1175,13 @@
         <v>150</v>
       </c>
       <c r="E30" s="11" t="n">
-        <v>4.839719999999994</v>
+        <v>4.975757999999992</v>
       </c>
       <c r="F30" s="12" t="n">
-        <v>0.6560509333333324</v>
+        <v>0.638992079999999</v>
       </c>
       <c r="G30" s="12" t="n">
-        <v>2.26678560074195</v>
+        <v>2.358610536803071</v>
       </c>
     </row>
     <row r="31">
@@ -1196,13 +1196,13 @@
         <v>50</v>
       </c>
       <c r="E31" s="11" t="n">
-        <v>1.499935</v>
+        <v>2.061255</v>
       </c>
       <c r="F31" s="12" t="n">
-        <v>0.6099735666666666</v>
+        <v>0.7941256105263158</v>
       </c>
       <c r="G31" s="12" t="n">
-        <v>-0.3319617170753086</v>
+        <v>-0.08196205110892485</v>
       </c>
     </row>
     <row r="32">
@@ -1219,7 +1219,7 @@
         </is>
       </c>
       <c r="E32" s="11" t="n">
-        <v>4.498982999999996</v>
+        <v>4.635020999999995</v>
       </c>
       <c r="F32" s="12" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         </is>
       </c>
       <c r="G32" s="12" t="n">
-        <v>2.211364088976318</v>
+        <v>2.308467711714203</v>
       </c>
     </row>
     <row r="33">
@@ -1242,13 +1242,13 @@
         <v>2000</v>
       </c>
       <c r="E33" s="14" t="n">
-        <v>186.5036130000002</v>
+        <v>195.4037630000002</v>
       </c>
       <c r="F33" s="15" t="n">
-        <v>1.896120065500002</v>
+        <v>1.882046769947371</v>
       </c>
       <c r="G33" s="15" t="n">
-        <v>1.075769794889093</v>
+        <v>1.145357383417061</v>
       </c>
     </row>
     <row r="34">
@@ -1269,13 +1269,13 @@
         <v>1450</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>94.75752000000001</v>
+        <v>100.096724</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>1.328783613793104</v>
+        <v>1.329778620108893</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.1239026984120335</v>
+        <v>0.181059894238939</v>
       </c>
     </row>
     <row r="35">
@@ -1290,13 +1290,13 @@
         <v>280</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>38.81560699999999</v>
+        <v>38.939249</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>2.818752413095237</v>
+        <v>2.678903220676692</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>-0.01382992032104091</v>
+        <v>-0.01068860551455908</v>
       </c>
     </row>
     <row r="36">
@@ -1311,13 +1311,13 @@
         <v>120</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>4.73717</v>
+        <v>4.888113</v>
       </c>
       <c r="F36" s="6" t="n">
-        <v>0.8026871388888889</v>
+        <v>0.7846707710526315</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.7309200951624766</v>
+        <v>0.7860733347388713</v>
       </c>
     </row>
     <row r="37">
@@ -1334,7 +1334,7 @@
         </is>
       </c>
       <c r="E37" s="5" t="n">
-        <v>0.9852660000000002</v>
+        <v>1.09004</v>
       </c>
       <c r="F37" s="6" t="inlineStr">
         <is>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.7791682241471782</v>
+        <v>0.9683664422088958</v>
       </c>
     </row>
     <row r="38">
@@ -1357,13 +1357,13 @@
         <v>1850</v>
       </c>
       <c r="E38" s="8" t="n">
-        <v>138.3102970000002</v>
+        <v>143.9240860000002</v>
       </c>
       <c r="F38" s="9" t="n">
-        <v>1.520167228288291</v>
+        <v>1.498612104580372</v>
       </c>
       <c r="G38" s="9" t="n">
-        <v>0.09415876083744945</v>
+        <v>0.1346153397404826</v>
       </c>
     </row>
     <row r="39">
@@ -1384,13 +1384,13 @@
         <v>590</v>
       </c>
       <c r="E39" s="11" t="n">
-        <v>49.49158799999999</v>
+        <v>56.90759199999998</v>
       </c>
       <c r="F39" s="12" t="n">
-        <v>1.705642298305084</v>
+        <v>1.857999881534343</v>
       </c>
       <c r="G39" s="12" t="n">
-        <v>0.2355457888962622</v>
+        <v>0.420684574756959</v>
       </c>
     </row>
     <row r="40">
@@ -1405,13 +1405,13 @@
         <v>110</v>
       </c>
       <c r="E40" s="11" t="n">
-        <v>1.696409</v>
+        <v>1.911429</v>
       </c>
       <c r="F40" s="12" t="n">
-        <v>0.3135786333333334</v>
+        <v>0.3347287148325359</v>
       </c>
       <c r="G40" s="12" t="n">
-        <v>-0.001313403664107371</v>
+        <v>0.1252702161729387</v>
       </c>
     </row>
     <row r="41">
@@ -1429,7 +1429,7 @@
         <v>20.141287</v>
       </c>
       <c r="F41" s="12" t="n">
-        <v>8.190790046666667</v>
+        <v>7.75969583368421</v>
       </c>
       <c r="G41" s="12" t="n">
         <v>9.815478463054399</v>
@@ -1449,7 +1449,7 @@
         </is>
       </c>
       <c r="E42" s="11" t="n">
-        <v>1.274368</v>
+        <v>1.489388</v>
       </c>
       <c r="F42" s="12" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         </is>
       </c>
       <c r="G42" s="12" t="n">
-        <v>5.754123383506467</v>
+        <v>6.893724825100702</v>
       </c>
     </row>
     <row r="43">
@@ -1472,13 +1472,13 @@
         <v>750</v>
       </c>
       <c r="E43" s="14" t="n">
-        <v>71.32928399999994</v>
+        <v>78.96030799999996</v>
       </c>
       <c r="F43" s="15" t="n">
-        <v>1.933816143999999</v>
+        <v>2.028033173894736</v>
       </c>
       <c r="G43" s="15" t="n">
-        <v>0.6353415037951733</v>
+        <v>0.8102953174862946</v>
       </c>
     </row>
     <row r="44">
@@ -1499,13 +1499,13 @@
         <v>450</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>40.01878799999999</v>
+        <v>43.952635</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>1.808256346666667</v>
+        <v>1.88148121754386</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.4367099852752505</v>
+        <v>0.5230444467376332</v>
       </c>
     </row>
     <row r="45">
@@ -1520,13 +1520,13 @@
         <v>150</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>0.9628979999999999</v>
+        <v>1.011341</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.1305261733333333</v>
+        <v>0.1298774757894737</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>-0.836919508288178</v>
+        <v>-0.8287149962214837</v>
       </c>
     </row>
     <row r="46">
@@ -1544,7 +1544,7 @@
         <v>2.540945</v>
       </c>
       <c r="F46" s="6" t="n">
-        <v>0.1722196055555556</v>
+        <v>0.1631554157894737</v>
       </c>
       <c r="G46" s="6" t="inlineStr">
         <is>
@@ -1566,7 +1566,7 @@
         </is>
       </c>
       <c r="E47" s="5" t="n">
-        <v>0.11136</v>
+        <v>0.159803</v>
       </c>
       <c r="F47" s="6" t="inlineStr">
         <is>
@@ -1574,7 +1574,7 @@
         </is>
       </c>
       <c r="G47" s="6" t="n">
-        <v>-0.3293182365695013</v>
+        <v>-0.03756323777403026</v>
       </c>
     </row>
     <row r="48">
@@ -1589,13 +1589,13 @@
         <v>900</v>
       </c>
       <c r="E48" s="8" t="n">
-        <v>43.522631</v>
+        <v>47.504921</v>
       </c>
       <c r="F48" s="9" t="n">
-        <v>0.9832890707407407</v>
+        <v>1.016771993333333</v>
       </c>
       <c r="G48" s="9" t="n">
-        <v>0.2892195032782316</v>
+        <v>0.3665431535513206</v>
       </c>
     </row>
   </sheetData>
@@ -1664,7 +1664,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>数据统计范围：2020-01-01至2020-01-18</t>
+          <t>数据统计范围：2020-01-01至2020-01-19</t>
         </is>
       </c>
       <c r="B2" s="2" t="n"/>
@@ -1728,13 +1728,13 @@
         <v>21670</v>
       </c>
       <c r="E4" s="11" t="n">
-        <v>2017.023442000003</v>
+        <v>2193.129510000004</v>
       </c>
       <c r="F4" s="12" t="n">
-        <v>1.892607752068915</v>
+        <v>1.949543148811118</v>
       </c>
       <c r="G4" s="12" t="n">
-        <v>0.8162747250343929</v>
+        <v>0.9298781593261409</v>
       </c>
     </row>
     <row r="5">
@@ -1749,13 +1749,13 @@
         <v>4700</v>
       </c>
       <c r="E5" s="11" t="n">
-        <v>234.2268800000006</v>
+        <v>247.6814450000005</v>
       </c>
       <c r="F5" s="12" t="n">
-        <v>1.01332196312057</v>
+        <v>1.015133358006721</v>
       </c>
       <c r="G5" s="12" t="n">
-        <v>0.0671913304218219</v>
+        <v>0.09419788038832388</v>
       </c>
     </row>
     <row r="6">
@@ -1772,7 +1772,7 @@
         </is>
       </c>
       <c r="E6" s="11" t="n">
-        <v>26.91359999999989</v>
+        <v>30.25522999999991</v>
       </c>
       <c r="F6" s="12" t="inlineStr">
         <is>
@@ -1780,7 +1780,7 @@
         </is>
       </c>
       <c r="G6" s="12" t="n">
-        <v>4.894241104631424</v>
+        <v>5.485382438519533</v>
       </c>
     </row>
     <row r="7">
@@ -1795,13 +1795,13 @@
         <v>26370</v>
       </c>
       <c r="E7" s="14" t="n">
-        <v>2251.250322000004</v>
+        <v>2440.810955000005</v>
       </c>
       <c r="F7" s="15" t="n">
-        <v>1.735890148426245</v>
+        <v>1.783000637746246</v>
       </c>
       <c r="G7" s="15" t="n">
-        <v>0.6926599068705495</v>
+        <v>0.7910696507156112</v>
       </c>
     </row>
     <row r="8">
@@ -1822,13 +1822,13 @@
         <v>1200</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>113.567641</v>
+        <v>120.697803</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>1.924340583611112</v>
+        <v>1.937517363947369</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>1.173810882372702</v>
+        <v>1.202989461834557</v>
       </c>
     </row>
     <row r="9">
@@ -1846,7 +1846,7 @@
         <v>1.320504</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.8950082666666668</v>
+        <v>0.8479025684210526</v>
       </c>
       <c r="G9" s="6" t="inlineStr">
         <is>
@@ -1893,13 +1893,13 @@
         <v>1230</v>
       </c>
       <c r="E11" s="8" t="n">
-        <v>114.888145</v>
+        <v>122.018307</v>
       </c>
       <c r="F11" s="9" t="n">
-        <v>1.899234917344174</v>
+        <v>1.910941393324776</v>
       </c>
       <c r="G11" s="9" t="n">
-        <v>1.199086796710103</v>
+        <v>1.22709144483677</v>
       </c>
     </row>
     <row r="12">
@@ -1908,7 +1908,7 @@
       </c>
       <c r="B12" s="10" t="inlineStr">
         <is>
-          <t>丘北</t>
+          <t>宜良</t>
         </is>
       </c>
       <c r="C12" s="10" t="inlineStr">
@@ -1917,16 +1917,16 @@
         </is>
       </c>
       <c r="D12" s="10" t="n">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="E12" s="11" t="n">
-        <v>99.82971500000001</v>
+        <v>95.050329</v>
       </c>
       <c r="F12" s="12" t="n">
-        <v>2.537338589583333</v>
+        <v>2.154081759380805</v>
       </c>
       <c r="G12" s="12" t="n">
-        <v>0.8309982002316603</v>
+        <v>0.9284570866931074</v>
       </c>
     </row>
     <row r="13">
@@ -1938,16 +1938,16 @@
         </is>
       </c>
       <c r="D13" s="10" t="n">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="E13" s="11" t="n">
-        <v>2.666053</v>
+        <v>17.699741</v>
       </c>
       <c r="F13" s="12" t="n">
-        <v>1.204660985185185</v>
+        <v>4.870755793984962</v>
       </c>
       <c r="G13" s="12" t="n">
-        <v>1.422090369611274</v>
+        <v>0.2599426411617325</v>
       </c>
     </row>
     <row r="14">
@@ -1964,17 +1964,15 @@
         </is>
       </c>
       <c r="E14" s="11" t="n">
-        <v>0.561984</v>
+        <v>2.164389</v>
       </c>
       <c r="F14" s="12" t="inlineStr">
         <is>
           <t>——</t>
         </is>
       </c>
-      <c r="G14" s="12" t="inlineStr">
-        <is>
-          <t>——</t>
-        </is>
+      <c r="G14" s="12" t="n">
+        <v>25.07069380872079</v>
       </c>
     </row>
     <row r="15">
@@ -1986,16 +1984,16 @@
         </is>
       </c>
       <c r="D15" s="13" t="n">
-        <v>845</v>
+        <v>920</v>
       </c>
       <c r="E15" s="14" t="n">
-        <v>102.495768</v>
+        <v>112.7500700000001</v>
       </c>
       <c r="F15" s="15" t="n">
-        <v>2.466367592899408</v>
+        <v>2.360785218535471</v>
       </c>
       <c r="G15" s="15" t="n">
-        <v>0.8426953824515764</v>
+        <v>0.7801800044274754</v>
       </c>
     </row>
     <row r="16">
@@ -2004,7 +2002,7 @@
       </c>
       <c r="B16" s="4" t="inlineStr">
         <is>
-          <t>宜良</t>
+          <t>丘北</t>
         </is>
       </c>
       <c r="C16" s="4" t="inlineStr">
@@ -2013,16 +2011,16 @@
         </is>
       </c>
       <c r="D16" s="4" t="n">
-        <v>850</v>
+        <v>800</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>81.89334600000001</v>
+        <v>109.202836</v>
       </c>
       <c r="F16" s="6" t="n">
-        <v>1.959017296470589</v>
+        <v>2.629489340526316</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.6737667051759662</v>
+        <v>0.9463877496538382</v>
       </c>
     </row>
     <row r="17">
@@ -2034,16 +2032,16 @@
         </is>
       </c>
       <c r="D17" s="4" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>17.338268</v>
+        <v>2.666053</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>5.036354038095239</v>
+        <v>1.141257775438596</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.2342114597659906</v>
+        <v>1.422090369611274</v>
       </c>
     </row>
     <row r="18">
@@ -2060,15 +2058,17 @@
         </is>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.802916</v>
+        <v>0.561984</v>
       </c>
       <c r="F18" s="6" t="inlineStr">
         <is>
           <t>——</t>
         </is>
       </c>
-      <c r="G18" s="6" t="n">
-        <v>20.71664659118284</v>
+      <c r="G18" s="6" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="D19" s="7" t="n">
-        <v>920</v>
+        <v>845</v>
       </c>
       <c r="E19" s="8" t="n">
-        <v>99.23161400000004</v>
+        <v>111.868889</v>
       </c>
       <c r="F19" s="9" t="n">
-        <v>2.193162483333334</v>
+        <v>2.550234405107443</v>
       </c>
       <c r="G19" s="9" t="n">
-        <v>0.5757145605598413</v>
+        <v>0.9555409203667222</v>
       </c>
     </row>
     <row r="20">
@@ -2098,7 +2098,7 @@
       </c>
       <c r="B20" s="10" t="inlineStr">
         <is>
-          <t>富宁</t>
+          <t>宣威</t>
         </is>
       </c>
       <c r="C20" s="10" t="inlineStr">
@@ -2107,16 +2107,16 @@
         </is>
       </c>
       <c r="D20" s="10" t="n">
-        <v>400</v>
+        <v>980</v>
       </c>
       <c r="E20" s="11" t="n">
-        <v>82.45959600000002</v>
+        <v>84.57090700000005</v>
       </c>
       <c r="F20" s="12" t="n">
-        <v>4.191696130000001</v>
+        <v>1.662349729430721</v>
       </c>
       <c r="G20" s="12" t="n">
-        <v>2.412348640946663</v>
+        <v>2.130210627937504</v>
       </c>
     </row>
     <row r="21">
@@ -2128,16 +2128,18 @@
         </is>
       </c>
       <c r="D21" s="10" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E21" s="11" t="n">
-        <v>1.101679</v>
+        <v>4.985996</v>
       </c>
       <c r="F21" s="12" t="n">
-        <v>0.640023038095238</v>
-      </c>
-      <c r="G21" s="12" t="n">
-        <v>-0.7124940009347973</v>
+        <v>3.201534273684211</v>
+      </c>
+      <c r="G21" s="12" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -2154,7 +2156,7 @@
         </is>
       </c>
       <c r="E22" s="11" t="n">
-        <v>0.176928</v>
+        <v>1.449964</v>
       </c>
       <c r="F22" s="12" t="inlineStr">
         <is>
@@ -2176,16 +2178,16 @@
         </is>
       </c>
       <c r="D23" s="13" t="n">
-        <v>435</v>
+        <v>1010</v>
       </c>
       <c r="E23" s="14" t="n">
-        <v>83.56127499999999</v>
+        <v>89.55690300000006</v>
       </c>
       <c r="F23" s="15" t="n">
-        <v>3.905929329501916</v>
+        <v>1.70806808223033</v>
       </c>
       <c r="G23" s="15" t="n">
-        <v>1.984661374867069</v>
+        <v>2.314756569605765</v>
       </c>
     </row>
     <row r="24">
@@ -2206,13 +2208,13 @@
         <v>950</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>74.43929999999999</v>
+        <v>79.552373</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>1.593262210526316</v>
+        <v>1.613084128421053</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.8772039354371963</v>
+        <v>1.006144975422496</v>
       </c>
     </row>
     <row r="25">
@@ -2227,13 +2229,13 @@
         <v>150</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>8.601056999999997</v>
+        <v>8.672132999999997</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>1.16592106</v>
+        <v>1.113684448421052</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.2538473806265316</v>
+        <v>0.264208718358093</v>
       </c>
     </row>
     <row r="26">
@@ -2250,7 +2252,7 @@
         </is>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.497301</v>
+        <v>0.568377</v>
       </c>
       <c r="F26" s="6" t="inlineStr">
         <is>
@@ -2258,7 +2260,7 @@
         </is>
       </c>
       <c r="G26" s="6" t="n">
-        <v>6.220970247861883</v>
+        <v>7.25301659672712</v>
       </c>
     </row>
     <row r="27">
@@ -2273,13 +2275,13 @@
         <v>1100</v>
       </c>
       <c r="E27" s="8" t="n">
-        <v>83.040357</v>
+        <v>88.22450600000001</v>
       </c>
       <c r="F27" s="9" t="n">
-        <v>1.534988417272727</v>
+        <v>1.544984172057416</v>
       </c>
       <c r="G27" s="9" t="n">
-        <v>0.7852735174967782</v>
+        <v>0.8967268427812229</v>
       </c>
     </row>
     <row r="28">
@@ -2288,7 +2290,7 @@
       </c>
       <c r="B28" s="10" t="inlineStr">
         <is>
-          <t>宣威</t>
+          <t>师宗</t>
         </is>
       </c>
       <c r="C28" s="10" t="inlineStr">
@@ -2300,13 +2302,13 @@
         <v>980</v>
       </c>
       <c r="E28" s="11" t="n">
-        <v>76.43946600000004</v>
+        <v>83.96487400000001</v>
       </c>
       <c r="F28" s="12" t="n">
-        <v>1.585988920408164</v>
+        <v>1.650437372932331</v>
       </c>
       <c r="G28" s="12" t="n">
-        <v>1.859137245942618</v>
+        <v>0.727068541265101</v>
       </c>
     </row>
     <row r="29">
@@ -2321,15 +2323,13 @@
         <v>30</v>
       </c>
       <c r="E29" s="11" t="n">
-        <v>4.773684</v>
+        <v>3.657113999999999</v>
       </c>
       <c r="F29" s="12" t="n">
-        <v>3.235496933333334</v>
-      </c>
-      <c r="G29" s="12" t="inlineStr">
-        <is>
-          <t>——</t>
-        </is>
+        <v>2.34825214736842</v>
+      </c>
+      <c r="G29" s="12" t="n">
+        <v>2.814058701508367</v>
       </c>
     </row>
     <row r="30">
@@ -2346,17 +2346,15 @@
         </is>
       </c>
       <c r="E30" s="11" t="n">
-        <v>1.237652</v>
+        <v>3.507163</v>
       </c>
       <c r="F30" s="12" t="inlineStr">
         <is>
           <t>——</t>
         </is>
       </c>
-      <c r="G30" s="12" t="inlineStr">
-        <is>
-          <t>——</t>
-        </is>
+      <c r="G30" s="12" t="n">
+        <v>18.36204288490416</v>
       </c>
     </row>
     <row r="31">
@@ -2371,13 +2369,13 @@
         <v>1010</v>
       </c>
       <c r="E31" s="14" t="n">
-        <v>81.21315000000004</v>
+        <v>87.62198800000002</v>
       </c>
       <c r="F31" s="15" t="n">
-        <v>1.634984207920793</v>
+        <v>1.671164544450235</v>
       </c>
       <c r="G31" s="15" t="n">
-        <v>2.037691838733211</v>
+        <v>0.7674332140931308</v>
       </c>
     </row>
     <row r="32">
@@ -2386,7 +2384,7 @@
       </c>
       <c r="B32" s="4" t="inlineStr">
         <is>
-          <t>师宗</t>
+          <t>富宁</t>
         </is>
       </c>
       <c r="C32" s="4" t="inlineStr">
@@ -2395,16 +2393,16 @@
         </is>
       </c>
       <c r="D32" s="4" t="n">
-        <v>980</v>
+        <v>400</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>76.34993500000002</v>
+        <v>85.97154900000001</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>1.584131304421769</v>
+        <v>4.140208807105264</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.590638027852169</v>
+        <v>2.452854445468997</v>
       </c>
     </row>
     <row r="33">
@@ -2416,16 +2414,16 @@
         </is>
       </c>
       <c r="D33" s="4" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>3.066487999999999</v>
+        <v>1.150122</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>2.078397422222222</v>
+        <v>0.6329994766917292</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>2.198086042565528</v>
+        <v>-0.6998517947089224</v>
       </c>
     </row>
     <row r="34">
@@ -2442,15 +2440,17 @@
         </is>
       </c>
       <c r="E34" s="5" t="n">
-        <v>2.935801000000001</v>
+        <v>0.225371</v>
       </c>
       <c r="F34" s="6" t="inlineStr">
         <is>
           <t>——</t>
         </is>
       </c>
-      <c r="G34" s="6" t="n">
-        <v>15.20771685363484</v>
+      <c r="G34" s="6" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
       </c>
     </row>
     <row r="35">
@@ -2462,16 +2462,16 @@
         </is>
       </c>
       <c r="D35" s="7" t="n">
-        <v>1010</v>
+        <v>435</v>
       </c>
       <c r="E35" s="8" t="n">
-        <v>79.41642300000002</v>
+        <v>87.12167099999998</v>
       </c>
       <c r="F35" s="9" t="n">
-        <v>1.598812476237624</v>
+        <v>3.858019550635208</v>
       </c>
       <c r="G35" s="9" t="n">
-        <v>0.6221199104538047</v>
+        <v>2.032371933471758</v>
       </c>
     </row>
     <row r="36">
@@ -2492,13 +2492,13 @@
         <v>600</v>
       </c>
       <c r="E36" s="11" t="n">
-        <v>70.84746799999994</v>
+        <v>80.37302799999993</v>
       </c>
       <c r="F36" s="12" t="n">
-        <v>2.400941971111109</v>
+        <v>2.58039721473684</v>
       </c>
       <c r="G36" s="12" t="n">
-        <v>0.9107339023073839</v>
+        <v>1.080189487071306</v>
       </c>
     </row>
     <row r="37">
@@ -2516,7 +2516,7 @@
         <v>2.143823</v>
       </c>
       <c r="F37" s="12" t="n">
-        <v>1.245459076190476</v>
+        <v>1.179908598496241</v>
       </c>
       <c r="G37" s="12" t="n">
         <v>6.443106225783605</v>
@@ -2559,13 +2559,13 @@
         <v>635</v>
       </c>
       <c r="E39" s="14" t="n">
-        <v>72.99129099999996</v>
+        <v>82.51685099999996</v>
       </c>
       <c r="F39" s="15" t="n">
-        <v>2.337253937532807</v>
+        <v>2.50320492880232</v>
       </c>
       <c r="G39" s="15" t="n">
-        <v>0.9533782435567737</v>
+        <v>1.119872334217253</v>
       </c>
     </row>
     <row r="40">
@@ -2574,7 +2574,7 @@
       </c>
       <c r="B40" s="4" t="inlineStr">
         <is>
-          <t>沾益</t>
+          <t>陆良</t>
         </is>
       </c>
       <c r="C40" s="4" t="inlineStr">
@@ -2586,15 +2586,13 @@
         <v>780</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>66.90631499999999</v>
+        <v>74.17742399999996</v>
       </c>
       <c r="F40" s="6" t="n">
-        <v>1.74413898076923</v>
-      </c>
-      <c r="G40" s="6" t="inlineStr">
-        <is>
-          <t>——</t>
-        </is>
+        <v>1.831912090688258</v>
+      </c>
+      <c r="G40" s="6" t="n">
+        <v>0.6984216059736128</v>
       </c>
     </row>
     <row r="41">
@@ -2609,15 +2607,13 @@
         <v>30</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>1.12197</v>
+        <v>0.7242860000000001</v>
       </c>
       <c r="F41" s="6" t="n">
-        <v>0.7604463333333332</v>
-      </c>
-      <c r="G41" s="6" t="inlineStr">
-        <is>
-          <t>——</t>
-        </is>
+        <v>0.465067852631579</v>
+      </c>
+      <c r="G41" s="6" t="n">
+        <v>2.530295423638766</v>
       </c>
     </row>
     <row r="42">
@@ -2634,17 +2630,15 @@
         </is>
       </c>
       <c r="E42" s="5" t="n">
-        <v>0.44773</v>
+        <v>0.4353259999999999</v>
       </c>
       <c r="F42" s="6" t="inlineStr">
         <is>
           <t>——</t>
         </is>
       </c>
-      <c r="G42" s="6" t="inlineStr">
-        <is>
-          <t>——</t>
-        </is>
+      <c r="G42" s="6" t="n">
+        <v>2.160513725233956</v>
       </c>
     </row>
     <row r="43">
@@ -2659,15 +2653,13 @@
         <v>810</v>
       </c>
       <c r="E43" s="8" t="n">
-        <v>68.02828500000003</v>
+        <v>74.90170999999997</v>
       </c>
       <c r="F43" s="9" t="n">
-        <v>1.707705919753087</v>
-      </c>
-      <c r="G43" s="9" t="inlineStr">
-        <is>
-          <t>——</t>
-        </is>
+        <v>1.781288230019492</v>
+      </c>
+      <c r="G43" s="9" t="n">
+        <v>0.7069867171661866</v>
       </c>
     </row>
     <row r="44">
@@ -2688,10 +2680,10 @@
         <v>600</v>
       </c>
       <c r="E44" s="11" t="n">
-        <v>65.58587300000003</v>
+        <v>72.38314400000006</v>
       </c>
       <c r="F44" s="12" t="n">
-        <v>2.222632362777779</v>
+        <v>2.323879886315791</v>
       </c>
       <c r="G44" s="12" t="inlineStr">
         <is>
@@ -2711,10 +2703,10 @@
         <v>15</v>
       </c>
       <c r="E45" s="11" t="n">
-        <v>2.244988000000001</v>
+        <v>2.264422000000001</v>
       </c>
       <c r="F45" s="12" t="n">
-        <v>3.043205955555556</v>
+        <v>2.907994568421053</v>
       </c>
       <c r="G45" s="12" t="inlineStr">
         <is>
@@ -2736,7 +2728,7 @@
         </is>
       </c>
       <c r="E46" s="11" t="n">
-        <v>0.300664</v>
+        <v>0.320098</v>
       </c>
       <c r="F46" s="12" t="inlineStr">
         <is>
@@ -2761,10 +2753,10 @@
         <v>615</v>
       </c>
       <c r="E47" s="14" t="n">
-        <v>67.83086100000003</v>
+        <v>74.64756600000004</v>
       </c>
       <c r="F47" s="15" t="n">
-        <v>2.242646352845529</v>
+        <v>2.338126585879334</v>
       </c>
       <c r="G47" s="15" t="inlineStr">
         <is>
@@ -2778,7 +2770,7 @@
       </c>
       <c r="B48" s="4" t="inlineStr">
         <is>
-          <t>陆良</t>
+          <t>春之城</t>
         </is>
       </c>
       <c r="C48" s="4" t="inlineStr">
@@ -2787,16 +2779,16 @@
         </is>
       </c>
       <c r="D48" s="4" t="n">
-        <v>780</v>
+        <v>100</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>66.69905199999995</v>
+        <v>57.70485</v>
       </c>
       <c r="F48" s="6" t="n">
-        <v>1.73873597094017</v>
+        <v>11.11577636842105</v>
       </c>
       <c r="G48" s="6" t="n">
-        <v>0.6061839200643622</v>
+        <v>19.8692939755376</v>
       </c>
     </row>
     <row r="49">
@@ -2808,16 +2800,16 @@
         </is>
       </c>
       <c r="D49" s="4" t="n">
-        <v>30</v>
+        <v>940</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>0.6198520000000001</v>
+        <v>15.882085</v>
       </c>
       <c r="F49" s="6" t="n">
-        <v>0.4201219111111111</v>
+        <v>0.3254671394176932</v>
       </c>
       <c r="G49" s="6" t="n">
-        <v>2.02126601775174</v>
+        <v>-0.6133882950950795</v>
       </c>
     </row>
     <row r="50">
@@ -2834,15 +2826,17 @@
         </is>
       </c>
       <c r="E50" s="5" t="n">
-        <v>0.388684</v>
+        <v>0.136038</v>
       </c>
       <c r="F50" s="6" t="inlineStr">
         <is>
           <t>——</t>
         </is>
       </c>
-      <c r="G50" s="6" t="n">
-        <v>1.82188777325231</v>
+      <c r="G50" s="6" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
       </c>
     </row>
     <row r="51">
@@ -2854,16 +2848,16 @@
         </is>
       </c>
       <c r="D51" s="7" t="n">
-        <v>810</v>
+        <v>1040</v>
       </c>
       <c r="E51" s="8" t="n">
-        <v>67.31890399999996</v>
+        <v>73.586935</v>
       </c>
       <c r="F51" s="9" t="n">
-        <v>1.689898413168723</v>
+        <v>1.362996872975708</v>
       </c>
       <c r="G51" s="9" t="n">
-        <v>0.6131408226572226</v>
+        <v>0.678332846811686</v>
       </c>
     </row>
     <row r="52">
@@ -2872,7 +2866,7 @@
       </c>
       <c r="B52" s="10" t="inlineStr">
         <is>
-          <t>春之城</t>
+          <t>沾益</t>
         </is>
       </c>
       <c r="C52" s="10" t="inlineStr">
@@ -2881,16 +2875,18 @@
         </is>
       </c>
       <c r="D52" s="10" t="n">
-        <v>100</v>
+        <v>780</v>
       </c>
       <c r="E52" s="11" t="n">
-        <v>56.764929</v>
+        <v>70.478562</v>
       </c>
       <c r="F52" s="12" t="n">
-        <v>11.54220223</v>
-      </c>
-      <c r="G52" s="12" t="n">
-        <v>23.70855017454666</v>
+        <v>1.740563676923077</v>
+      </c>
+      <c r="G52" s="12" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
       </c>
     </row>
     <row r="53">
@@ -2902,16 +2898,18 @@
         </is>
       </c>
       <c r="D53" s="10" t="n">
-        <v>940</v>
+        <v>30</v>
       </c>
       <c r="E53" s="11" t="n">
-        <v>9.597367999999999</v>
+        <v>1.180272</v>
       </c>
       <c r="F53" s="12" t="n">
-        <v>0.2076026411347517</v>
-      </c>
-      <c r="G53" s="12" t="n">
-        <v>-0.7663748301888621</v>
+        <v>0.7578588631578947</v>
+      </c>
+      <c r="G53" s="12" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
       </c>
     </row>
     <row r="54">
@@ -2928,7 +2926,7 @@
         </is>
       </c>
       <c r="E54" s="11" t="n">
-        <v>0.077736</v>
+        <v>0.506032</v>
       </c>
       <c r="F54" s="12" t="inlineStr">
         <is>
@@ -2950,16 +2948,18 @@
         </is>
       </c>
       <c r="D55" s="13" t="n">
-        <v>1040</v>
+        <v>810</v>
       </c>
       <c r="E55" s="14" t="n">
-        <v>66.362297</v>
+        <v>71.65883400000001</v>
       </c>
       <c r="F55" s="15" t="n">
-        <v>1.297467986217949</v>
-      </c>
-      <c r="G55" s="15" t="n">
-        <v>0.5298756083125622</v>
+        <v>1.704167202339182</v>
+      </c>
+      <c r="G55" s="15" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
       </c>
     </row>
     <row r="56">
@@ -2980,13 +2980,13 @@
         <v>650</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>57.48432699999999</v>
+        <v>60.087058</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>1.798227665128205</v>
+        <v>1.780717670283401</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>0.4900394421181393</v>
+        <v>0.5298176932728036</v>
       </c>
     </row>
     <row r="57">
@@ -3001,13 +3001,13 @@
         <v>45</v>
       </c>
       <c r="E57" s="5" t="n">
-        <v>2.273565000000001</v>
+        <v>2.912621000000001</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>1.027314555555556</v>
+        <v>1.246806182456141</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.9310605198383517</v>
+        <v>1.473845006565504</v>
       </c>
     </row>
     <row r="58">
@@ -3024,7 +3024,7 @@
         </is>
       </c>
       <c r="E58" s="5" t="n">
-        <v>1.924508000000001</v>
+        <v>2.002244000000001</v>
       </c>
       <c r="F58" s="6" t="inlineStr">
         <is>
@@ -3032,7 +3032,7 @@
         </is>
       </c>
       <c r="G58" s="6" t="n">
-        <v>1.463717131372098</v>
+        <v>1.563233223237833</v>
       </c>
     </row>
     <row r="59">
@@ -3047,13 +3047,13 @@
         <v>695</v>
       </c>
       <c r="E59" s="8" t="n">
-        <v>59.75789200000004</v>
+        <v>62.99967900000005</v>
       </c>
       <c r="F59" s="9" t="n">
-        <v>1.748312427817747</v>
+        <v>1.746147861719047</v>
       </c>
       <c r="G59" s="9" t="n">
-        <v>0.5031000519915907</v>
+        <v>0.5572920659050364</v>
       </c>
     </row>
     <row r="60">
@@ -3074,13 +3074,13 @@
         <v>800</v>
       </c>
       <c r="E60" s="11" t="n">
-        <v>56.009177</v>
+        <v>60.141654</v>
       </c>
       <c r="F60" s="12" t="n">
-        <v>1.423566582083333</v>
+        <v>1.448147721315789</v>
       </c>
       <c r="G60" s="12" t="n">
-        <v>1.384901457114873</v>
+        <v>1.493939859634939</v>
       </c>
     </row>
     <row r="61">
@@ -3095,13 +3095,13 @@
         <v>60</v>
       </c>
       <c r="E61" s="11" t="n">
-        <v>0.216222</v>
+        <v>0.264665</v>
       </c>
       <c r="F61" s="12" t="n">
-        <v>0.07327523333333334</v>
+        <v>0.08497139473684209</v>
       </c>
       <c r="G61" s="12" t="n">
-        <v>-0.8510038644093958</v>
+        <v>-0.9474479811161007</v>
       </c>
     </row>
     <row r="62">
@@ -3118,7 +3118,7 @@
         </is>
       </c>
       <c r="E62" s="11" t="n">
-        <v>0.241689</v>
+        <v>0.290132</v>
       </c>
       <c r="F62" s="12" t="inlineStr">
         <is>
@@ -3126,7 +3126,7 @@
         </is>
       </c>
       <c r="G62" s="12" t="n">
-        <v>1.561893152427391</v>
+        <v>2.075386898452406</v>
       </c>
     </row>
     <row r="63">
@@ -3141,13 +3141,13 @@
         <v>860</v>
       </c>
       <c r="E63" s="14" t="n">
-        <v>56.22539899999999</v>
+        <v>60.406319</v>
       </c>
       <c r="F63" s="15" t="n">
-        <v>1.329360208914729</v>
+        <v>1.35304239620563</v>
       </c>
       <c r="G63" s="15" t="n">
-        <v>1.254779718106612</v>
+        <v>1.072160838020421</v>
       </c>
     </row>
     <row r="64">
@@ -3168,13 +3168,13 @@
         <v>600</v>
       </c>
       <c r="E64" s="5" t="n">
-        <v>52.52057800000001</v>
+        <v>56.085104</v>
       </c>
       <c r="F64" s="6" t="n">
-        <v>1.779864032222223</v>
+        <v>1.800627023157895</v>
       </c>
       <c r="G64" s="6" t="n">
-        <v>1.574362222503032</v>
+        <v>1.678702536999078</v>
       </c>
     </row>
     <row r="65">
@@ -3189,13 +3189,13 @@
         <v>35</v>
       </c>
       <c r="E65" s="5" t="n">
-        <v>1.17211</v>
+        <v>1.191544</v>
       </c>
       <c r="F65" s="6" t="n">
-        <v>0.6809400952380953</v>
+        <v>0.6557971488721805</v>
       </c>
       <c r="G65" s="6" t="n">
-        <v>4.832989126377864</v>
+        <v>4.929702157306726</v>
       </c>
     </row>
     <row r="66">
@@ -3212,7 +3212,7 @@
         </is>
       </c>
       <c r="E66" s="5" t="n">
-        <v>0.9866840000000002</v>
+        <v>1.006118</v>
       </c>
       <c r="F66" s="6" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         </is>
       </c>
       <c r="G66" s="6" t="n">
-        <v>3.910219214212844</v>
+        <v>4.006932245141706</v>
       </c>
     </row>
     <row r="67">
@@ -3235,13 +3235,13 @@
         <v>635</v>
       </c>
       <c r="E67" s="8" t="n">
-        <v>53.69268800000003</v>
+        <v>57.27664800000001</v>
       </c>
       <c r="F67" s="9" t="n">
-        <v>1.719293421522311</v>
+        <v>1.737526163945296</v>
       </c>
       <c r="G67" s="9" t="n">
-        <v>1.606145253701535</v>
+        <v>1.709607117562911</v>
       </c>
     </row>
     <row r="68">
@@ -3262,13 +3262,13 @@
         <v>450</v>
       </c>
       <c r="E68" s="11" t="n">
-        <v>45.83991200000001</v>
+        <v>50.084397</v>
       </c>
       <c r="F68" s="12" t="n">
-        <v>2.071284912592593</v>
+        <v>2.143963661052632</v>
       </c>
       <c r="G68" s="12" t="n">
-        <v>0.8393405197222308</v>
+        <v>0.9226819196278191</v>
       </c>
     </row>
     <row r="69">
@@ -3283,13 +3283,13 @@
         <v>12</v>
       </c>
       <c r="E69" s="11" t="n">
-        <v>1.867575</v>
+        <v>2.028585</v>
       </c>
       <c r="F69" s="12" t="n">
-        <v>3.164502083333334</v>
+        <v>3.256412763157895</v>
       </c>
       <c r="G69" s="12" t="n">
-        <v>7.184513375170917</v>
+        <v>7.890128142201032</v>
       </c>
     </row>
     <row r="70">
@@ -3306,7 +3306,7 @@
         </is>
       </c>
       <c r="E70" s="11" t="n">
-        <v>1.352481</v>
+        <v>1.503859</v>
       </c>
       <c r="F70" s="12" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         </is>
       </c>
       <c r="G70" s="12" t="n">
-        <v>11.68684395666244</v>
+        <v>13.10683363819708</v>
       </c>
     </row>
     <row r="71">
@@ -3329,13 +3329,13 @@
         <v>462</v>
       </c>
       <c r="E71" s="14" t="n">
-        <v>47.70748700000001</v>
+        <v>52.11298200000002</v>
       </c>
       <c r="F71" s="15" t="n">
-        <v>2.099680163780664</v>
+        <v>2.172858442925496</v>
       </c>
       <c r="G71" s="15" t="n">
-        <v>0.8969095246971479</v>
+        <v>0.9831848034097423</v>
       </c>
     </row>
     <row r="72">
@@ -3356,13 +3356,13 @@
         <v>650</v>
       </c>
       <c r="E72" s="5" t="n">
-        <v>45.29117500000001</v>
+        <v>48.16478800000001</v>
       </c>
       <c r="F72" s="6" t="n">
-        <v>1.416800858974359</v>
+        <v>1.427393717246964</v>
       </c>
       <c r="G72" s="6" t="n">
-        <v>0.5166916137936934</v>
+        <v>0.5822499973226631</v>
       </c>
     </row>
     <row r="73">
@@ -3380,7 +3380,7 @@
         <v>2.413289</v>
       </c>
       <c r="F73" s="6" t="n">
-        <v>1.635673655555556</v>
+        <v>1.549585568421053</v>
       </c>
       <c r="G73" s="6" t="n">
         <v>-0.3435606468621442</v>
@@ -3425,13 +3425,13 @@
         <v>680</v>
       </c>
       <c r="E75" s="8" t="n">
-        <v>47.70446400000002</v>
+        <v>50.57807700000002</v>
       </c>
       <c r="F75" s="9" t="n">
-        <v>1.426457011764707</v>
+        <v>1.432784534210527</v>
       </c>
       <c r="G75" s="9" t="n">
-        <v>0.422393850299573</v>
+        <v>0.4824878639773589</v>
       </c>
     </row>
     <row r="76">
@@ -3440,7 +3440,7 @@
       </c>
       <c r="B76" s="10" t="inlineStr">
         <is>
-          <t>罗平</t>
+          <t>云龙</t>
         </is>
       </c>
       <c r="C76" s="10" t="inlineStr">
@@ -3449,16 +3449,16 @@
         </is>
       </c>
       <c r="D76" s="10" t="n">
-        <v>440</v>
+        <v>550</v>
       </c>
       <c r="E76" s="11" t="n">
-        <v>44.24372199999999</v>
+        <v>48.123872</v>
       </c>
       <c r="F76" s="12" t="n">
-        <v>2.044596243939393</v>
+        <v>1.685486808803828</v>
       </c>
       <c r="G76" s="12" t="n">
-        <v>1.511105314411726</v>
+        <v>0.8055160229468168</v>
       </c>
     </row>
     <row r="77">
@@ -3470,16 +3470,16 @@
         </is>
       </c>
       <c r="D77" s="10" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E77" s="11" t="n">
-        <v>1.136291</v>
+        <v>2.184058</v>
       </c>
       <c r="F77" s="12" t="n">
-        <v>1.155229183333333</v>
+        <v>2.804790273684211</v>
       </c>
       <c r="G77" s="12" t="n">
-        <v>21.30514496594233</v>
+        <v>0.9915380119252022</v>
       </c>
     </row>
     <row r="78">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E78" s="11" t="n">
-        <v>1.136291</v>
+        <v>0.900827</v>
       </c>
       <c r="F78" s="12" t="inlineStr">
         <is>
@@ -3504,7 +3504,7 @@
         </is>
       </c>
       <c r="G78" s="12" t="n">
-        <v>21.30514496594233</v>
+        <v>2.100185152044933</v>
       </c>
     </row>
     <row r="79">
@@ -3516,16 +3516,16 @@
         </is>
       </c>
       <c r="D79" s="13" t="n">
-        <v>460</v>
+        <v>565</v>
       </c>
       <c r="E79" s="14" t="n">
-        <v>45.380013</v>
+        <v>50.30793000000001</v>
       </c>
       <c r="F79" s="15" t="n">
-        <v>2.005928110869565</v>
+        <v>1.715202829995343</v>
       </c>
       <c r="G79" s="15" t="n">
-        <v>1.568171434731934</v>
+        <v>0.8128674126431128</v>
       </c>
     </row>
     <row r="80">
@@ -3546,13 +3546,13 @@
         <v>450</v>
       </c>
       <c r="E80" s="5" t="n">
-        <v>42.59837100000001</v>
+        <v>47.78169200000001</v>
       </c>
       <c r="F80" s="6" t="n">
-        <v>1.924815282222223</v>
+        <v>2.045391727719299</v>
       </c>
       <c r="G80" s="6" t="n">
-        <v>1.25958542448015</v>
+        <v>1.528455734991239</v>
       </c>
     </row>
     <row r="81">
@@ -3567,13 +3567,13 @@
         <v>15</v>
       </c>
       <c r="E81" s="5" t="n">
-        <v>2.274051</v>
+        <v>2.493959</v>
       </c>
       <c r="F81" s="6" t="n">
-        <v>3.082602466666667</v>
+        <v>3.202768400000001</v>
       </c>
       <c r="G81" s="6" t="n">
-        <v>1.220531743908322</v>
+        <v>1.412573253854474</v>
       </c>
     </row>
     <row r="82">
@@ -3590,7 +3590,7 @@
         </is>
       </c>
       <c r="E82" s="5" t="n">
-        <v>1.348772</v>
+        <v>1.56868</v>
       </c>
       <c r="F82" s="6" t="inlineStr">
         <is>
@@ -3615,13 +3615,13 @@
         <v>465</v>
       </c>
       <c r="E83" s="8" t="n">
-        <v>44.87242200000001</v>
+        <v>50.27565100000002</v>
       </c>
       <c r="F83" s="9" t="n">
-        <v>1.962163255913979</v>
+        <v>2.082726459083192</v>
       </c>
       <c r="G83" s="9" t="n">
-        <v>1.257573241267016</v>
+        <v>1.52244551073981</v>
       </c>
     </row>
     <row r="84">
@@ -3630,7 +3630,7 @@
       </c>
       <c r="B84" s="10" t="inlineStr">
         <is>
-          <t>施甸</t>
+          <t>罗平</t>
         </is>
       </c>
       <c r="C84" s="10" t="inlineStr">
@@ -3639,16 +3639,16 @@
         </is>
       </c>
       <c r="D84" s="10" t="n">
-        <v>370</v>
+        <v>440</v>
       </c>
       <c r="E84" s="11" t="n">
-        <v>26.912139</v>
+        <v>46.16288299999999</v>
       </c>
       <c r="F84" s="12" t="n">
-        <v>1.478955386486487</v>
+        <v>2.021006600239234</v>
       </c>
       <c r="G84" s="12" t="n">
-        <v>0.2177660524759795</v>
+        <v>1.519003510396324</v>
       </c>
     </row>
     <row r="85">
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="D85" s="10" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E85" s="11" t="n">
-        <v>17.74507599999999</v>
+        <v>1.160725</v>
       </c>
       <c r="F85" s="12" t="n">
-        <v>9.02041363333333</v>
+        <v>1.117961447368421</v>
       </c>
       <c r="G85" s="12" t="n">
-        <v>-0.4073105071757039</v>
+        <v>21.78477906680015</v>
       </c>
     </row>
     <row r="86">
@@ -3686,7 +3686,7 @@
         </is>
       </c>
       <c r="E86" s="11" t="n">
-        <v>0.4780780000000001</v>
+        <v>1.160725</v>
       </c>
       <c r="F86" s="12" t="inlineStr">
         <is>
@@ -3694,7 +3694,7 @@
         </is>
       </c>
       <c r="G86" s="12" t="n">
-        <v>0.8699538063779275</v>
+        <v>21.78477906680015</v>
       </c>
     </row>
     <row r="87">
@@ -3706,16 +3706,16 @@
         </is>
       </c>
       <c r="D87" s="13" t="n">
-        <v>370</v>
+        <v>460</v>
       </c>
       <c r="E87" s="14" t="n">
-        <v>44.65721500000001</v>
+        <v>47.323608</v>
       </c>
       <c r="F87" s="15" t="n">
-        <v>2.454135238738739</v>
+        <v>1.981743767505721</v>
       </c>
       <c r="G87" s="15" t="n">
-        <v>-0.141859541086824</v>
+        <v>1.575183027028545</v>
       </c>
     </row>
     <row r="88">
@@ -3724,7 +3724,7 @@
       </c>
       <c r="B88" s="4" t="inlineStr">
         <is>
-          <t>云龙</t>
+          <t>施甸</t>
         </is>
       </c>
       <c r="C88" s="4" t="inlineStr">
@@ -3733,16 +3733,16 @@
         </is>
       </c>
       <c r="D88" s="4" t="n">
-        <v>550</v>
+        <v>370</v>
       </c>
       <c r="E88" s="5" t="n">
-        <v>42.717479</v>
+        <v>27.917851</v>
       </c>
       <c r="F88" s="6" t="n">
-        <v>1.579252253939394</v>
+        <v>1.453475599715505</v>
       </c>
       <c r="G88" s="6" t="n">
-        <v>0.7140259412592065</v>
+        <v>0.2594032720750983</v>
       </c>
     </row>
     <row r="89">
@@ -3754,16 +3754,16 @@
         </is>
       </c>
       <c r="D89" s="4" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E89" s="5" t="n">
-        <v>1.830522</v>
+        <v>17.74507599999999</v>
       </c>
       <c r="F89" s="6" t="n">
-        <v>2.481374266666667</v>
+        <v>8.545655021052628</v>
       </c>
       <c r="G89" s="6" t="n">
-        <v>0.6983858801392837</v>
+        <v>-0.4073105071757039</v>
       </c>
     </row>
     <row r="90">
@@ -3780,7 +3780,7 @@
         </is>
       </c>
       <c r="E90" s="5" t="n">
-        <v>0.780335</v>
+        <v>0.4780780000000001</v>
       </c>
       <c r="F90" s="6" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         </is>
       </c>
       <c r="G90" s="6" t="n">
-        <v>1.872004092689104</v>
+        <v>0.8699538063779275</v>
       </c>
     </row>
     <row r="91">
@@ -3800,16 +3800,16 @@
         </is>
       </c>
       <c r="D91" s="7" t="n">
-        <v>565</v>
+        <v>370</v>
       </c>
       <c r="E91" s="8" t="n">
-        <v>44.54800100000001</v>
+        <v>45.66292700000001</v>
       </c>
       <c r="F91" s="9" t="n">
-        <v>1.603202395870207</v>
+        <v>2.37733019658606</v>
       </c>
       <c r="G91" s="9" t="n">
-        <v>0.7133776026383267</v>
+        <v>-0.1236774562129248</v>
       </c>
     </row>
     <row r="92">
@@ -3830,13 +3830,13 @@
         <v>300</v>
       </c>
       <c r="E92" s="11" t="n">
-        <v>35.77461900000001</v>
+        <v>40.48451700000001</v>
       </c>
       <c r="F92" s="12" t="n">
-        <v>2.424724176666667</v>
+        <v>2.599532144210527</v>
       </c>
       <c r="G92" s="12" t="n">
-        <v>0.4607612086289343</v>
+        <v>0.5367099272341997</v>
       </c>
     </row>
     <row r="93">
@@ -3854,7 +3854,7 @@
         <v>0.723593</v>
       </c>
       <c r="F93" s="12" t="n">
-        <v>2.942611533333333</v>
+        <v>2.787737242105263</v>
       </c>
       <c r="G93" s="12" t="inlineStr">
         <is>
@@ -3901,13 +3901,13 @@
         <v>305</v>
       </c>
       <c r="E95" s="14" t="n">
-        <v>36.49821200000001</v>
+        <v>41.20811000000001</v>
       </c>
       <c r="F95" s="15" t="n">
-        <v>2.433214133333334</v>
+        <v>2.602617473684211</v>
       </c>
       <c r="G95" s="15" t="n">
-        <v>0.4903072000267865</v>
+        <v>0.5641760458586895</v>
       </c>
     </row>
     <row r="96">
@@ -3928,13 +3928,13 @@
         <v>380</v>
       </c>
       <c r="E96" s="5" t="n">
-        <v>17.14173099999999</v>
+        <v>19.30573599999999</v>
       </c>
       <c r="F96" s="6" t="n">
-        <v>0.9172329745614032</v>
+        <v>0.9786564232686976</v>
       </c>
       <c r="G96" s="6" t="n">
-        <v>0.2337705915059074</v>
+        <v>0.3622474893052998</v>
       </c>
     </row>
     <row r="97">
@@ -3949,13 +3949,13 @@
         <v>50</v>
       </c>
       <c r="E97" s="5" t="n">
-        <v>19.111874</v>
+        <v>19.367025</v>
       </c>
       <c r="F97" s="6" t="n">
-        <v>7.772162093333334</v>
+        <v>7.461401210526315</v>
       </c>
       <c r="G97" s="6" t="n">
-        <v>35.0053164332799</v>
+        <v>35.48600150337128</v>
       </c>
     </row>
     <row r="98">
@@ -3972,7 +3972,7 @@
         </is>
       </c>
       <c r="E98" s="5" t="n">
-        <v>0.37115</v>
+        <v>0.45649</v>
       </c>
       <c r="F98" s="6" t="inlineStr">
         <is>
@@ -3997,13 +3997,13 @@
         <v>380</v>
       </c>
       <c r="E99" s="8" t="n">
-        <v>36.25360499999999</v>
+        <v>38.67276099999999</v>
       </c>
       <c r="F99" s="9" t="n">
-        <v>1.939885881578947</v>
+        <v>1.960419740443213</v>
       </c>
       <c r="G99" s="9" t="n">
-        <v>1.513321009925971</v>
+        <v>1.630302457745918</v>
       </c>
     </row>
     <row r="100">
@@ -4012,7 +4012,7 @@
       </c>
       <c r="B100" s="10" t="inlineStr">
         <is>
-          <t>宾川</t>
+          <t>漾濞</t>
         </is>
       </c>
       <c r="C100" s="10" t="inlineStr">
@@ -4021,16 +4021,16 @@
         </is>
       </c>
       <c r="D100" s="10" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="E100" s="11" t="n">
-        <v>25.718313</v>
+        <v>24.848924</v>
       </c>
       <c r="F100" s="12" t="n">
-        <v>1.045878062</v>
+        <v>1.367624990075188</v>
       </c>
       <c r="G100" s="12" t="n">
-        <v>-0.09222568425065336</v>
+        <v>-0.1024993387643923</v>
       </c>
     </row>
     <row r="101">
@@ -4042,16 +4042,16 @@
         </is>
       </c>
       <c r="D101" s="10" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E101" s="11" t="n">
-        <v>0.943125</v>
+        <v>4.203621999999998</v>
       </c>
       <c r="F101" s="12" t="n">
-        <v>2.397109375</v>
+        <v>16.19500686315789</v>
       </c>
       <c r="G101" s="12" t="n">
-        <v>-0.781713183216038</v>
+        <v>30.14186230858699</v>
       </c>
     </row>
     <row r="102">
@@ -4068,7 +4068,7 @@
         </is>
       </c>
       <c r="E102" s="11" t="n">
-        <v>0.636894</v>
+        <v>0.742846</v>
       </c>
       <c r="F102" s="12" t="inlineStr">
         <is>
@@ -4076,7 +4076,7 @@
         </is>
       </c>
       <c r="G102" s="12" t="n">
-        <v>2.835786557456034</v>
+        <v>4.920365337562663</v>
       </c>
     </row>
     <row r="103">
@@ -4088,16 +4088,16 @@
         </is>
       </c>
       <c r="D103" s="13" t="n">
-        <v>508</v>
+        <v>355</v>
       </c>
       <c r="E103" s="14" t="n">
-        <v>26.66143800000001</v>
+        <v>29.052546</v>
       </c>
       <c r="F103" s="15" t="n">
-        <v>1.067157295275591</v>
+        <v>1.576461354484804</v>
       </c>
       <c r="G103" s="15" t="n">
-        <v>-0.1834607221076527</v>
+        <v>0.04423727506206876</v>
       </c>
     </row>
     <row r="104">
@@ -4106,7 +4106,7 @@
       </c>
       <c r="B104" s="4" t="inlineStr">
         <is>
-          <t>会泽</t>
+          <t>宾川</t>
         </is>
       </c>
       <c r="C104" s="4" t="inlineStr">
@@ -4115,16 +4115,16 @@
         </is>
       </c>
       <c r="D104" s="4" t="n">
-        <v>370</v>
+        <v>500</v>
       </c>
       <c r="E104" s="5" t="n">
-        <v>25.439182</v>
+        <v>26.978146</v>
       </c>
       <c r="F104" s="6" t="n">
-        <v>1.398009100900901</v>
+        <v>1.039368572210526</v>
       </c>
       <c r="G104" s="6" t="n">
-        <v>1.100397090195966</v>
+        <v>-0.07418030928964003</v>
       </c>
     </row>
     <row r="105">
@@ -4136,18 +4136,16 @@
         </is>
       </c>
       <c r="D105" s="4" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E105" s="5" t="n">
-        <v>0.48699</v>
+        <v>0.943125</v>
       </c>
       <c r="F105" s="6" t="n">
-        <v>0.4951065</v>
-      </c>
-      <c r="G105" s="6" t="inlineStr">
-        <is>
-          <t>——</t>
-        </is>
+        <v>2.270945723684211</v>
+      </c>
+      <c r="G105" s="6" t="n">
+        <v>-0.781713183216038</v>
       </c>
     </row>
     <row r="106">
@@ -4164,17 +4162,15 @@
         </is>
       </c>
       <c r="E106" s="5" t="n">
-        <v>0.48699</v>
+        <v>0.636894</v>
       </c>
       <c r="F106" s="6" t="inlineStr">
         <is>
           <t>——</t>
         </is>
       </c>
-      <c r="G106" s="6" t="inlineStr">
-        <is>
-          <t>——</t>
-        </is>
+      <c r="G106" s="6" t="n">
+        <v>2.835786557456034</v>
       </c>
     </row>
     <row r="107">
@@ -4186,16 +4182,16 @@
         </is>
       </c>
       <c r="D107" s="7" t="n">
-        <v>390</v>
+        <v>508</v>
       </c>
       <c r="E107" s="8" t="n">
-        <v>25.92617199999999</v>
+        <v>27.921271</v>
       </c>
       <c r="F107" s="9" t="n">
-        <v>1.351706403418803</v>
+        <v>1.058763487981765</v>
       </c>
       <c r="G107" s="9" t="n">
-        <v>1.14060563066533</v>
+        <v>-0.1655407757929858</v>
       </c>
     </row>
     <row r="108">
@@ -4204,7 +4200,7 @@
       </c>
       <c r="B108" s="10" t="inlineStr">
         <is>
-          <t>安宁</t>
+          <t>会泽</t>
         </is>
       </c>
       <c r="C108" s="10" t="inlineStr">
@@ -4213,16 +4209,16 @@
         </is>
       </c>
       <c r="D108" s="10" t="n">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="E108" s="11" t="n">
-        <v>24.424521</v>
+        <v>27.25383799999999</v>
       </c>
       <c r="F108" s="12" t="n">
-        <v>1.418948362857143</v>
+        <v>1.418905363869132</v>
       </c>
       <c r="G108" s="12" t="n">
-        <v>0.4693081525372094</v>
+        <v>1.106887896106787</v>
       </c>
     </row>
     <row r="109">
@@ -4234,16 +4230,18 @@
         </is>
       </c>
       <c r="D109" s="10" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E109" s="11" t="n">
-        <v>0.435416</v>
+        <v>0.589614</v>
       </c>
       <c r="F109" s="12" t="n">
-        <v>0.2951152888888889</v>
-      </c>
-      <c r="G109" s="12" t="n">
-        <v>1.354771021264628</v>
+        <v>0.5678913789473684</v>
+      </c>
+      <c r="G109" s="12" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
       </c>
     </row>
     <row r="110">
@@ -4260,15 +4258,17 @@
         </is>
       </c>
       <c r="E110" s="11" t="n">
-        <v>0.364076</v>
+        <v>0.589614</v>
       </c>
       <c r="F110" s="12" t="inlineStr">
         <is>
           <t>——</t>
         </is>
       </c>
-      <c r="G110" s="12" t="n">
-        <v>0.9689575356393443</v>
+      <c r="G110" s="12" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
       </c>
     </row>
     <row r="111">
@@ -4280,16 +4280,16 @@
         </is>
       </c>
       <c r="D111" s="13" t="n">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="E111" s="14" t="n">
-        <v>24.859937</v>
+        <v>27.843452</v>
       </c>
       <c r="F111" s="15" t="n">
-        <v>1.330224699122807</v>
+        <v>1.375263621052631</v>
       </c>
       <c r="G111" s="15" t="n">
-        <v>0.4790492675772302</v>
+        <v>1.152468654309544</v>
       </c>
     </row>
     <row r="112">
@@ -4298,7 +4298,7 @@
       </c>
       <c r="B112" s="4" t="inlineStr">
         <is>
-          <t>漾濞</t>
+          <t>安宁</t>
         </is>
       </c>
       <c r="C112" s="4" t="inlineStr">
@@ -4310,13 +4310,13 @@
         <v>350</v>
       </c>
       <c r="E112" s="5" t="n">
-        <v>20.738374</v>
+        <v>26.427556</v>
       </c>
       <c r="F112" s="6" t="n">
-        <v>1.204800775238095</v>
+        <v>1.454509097142857</v>
       </c>
       <c r="G112" s="6" t="n">
-        <v>-0.2509653787040705</v>
+        <v>0.5706125771286363</v>
       </c>
     </row>
     <row r="113">
@@ -4328,16 +4328,16 @@
         </is>
       </c>
       <c r="D113" s="4" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E113" s="5" t="n">
-        <v>4.004949999999998</v>
+        <v>0.45485</v>
       </c>
       <c r="F113" s="6" t="n">
-        <v>16.28679666666666</v>
+        <v>0.2920615789473684</v>
       </c>
       <c r="G113" s="6" t="n">
-        <v>28.67003252261395</v>
+        <v>1.152382124131665</v>
       </c>
     </row>
     <row r="114">
@@ -4354,7 +4354,7 @@
         </is>
       </c>
       <c r="E114" s="5" t="n">
-        <v>0.5441739999999999</v>
+        <v>0.38351</v>
       </c>
       <c r="F114" s="6" t="inlineStr">
         <is>
@@ -4362,7 +4362,7 @@
         </is>
       </c>
       <c r="G114" s="6" t="n">
-        <v>3.336980864409075</v>
+        <v>0.8147962370577879</v>
       </c>
     </row>
     <row r="115">
@@ -4374,16 +4374,16 @@
         </is>
       </c>
       <c r="D115" s="7" t="n">
-        <v>355</v>
+        <v>380</v>
       </c>
       <c r="E115" s="8" t="n">
-        <v>24.743324</v>
+        <v>26.882406</v>
       </c>
       <c r="F115" s="9" t="n">
-        <v>1.41722325258216</v>
+        <v>1.36273692465374</v>
       </c>
       <c r="G115" s="9" t="n">
-        <v>-0.1106493307079565</v>
+        <v>0.57782849306742</v>
       </c>
     </row>
     <row r="116">
@@ -4392,7 +4392,7 @@
       </c>
       <c r="B116" s="10" t="inlineStr">
         <is>
-          <t>兰坪</t>
+          <t>麻栗坡</t>
         </is>
       </c>
       <c r="C116" s="10" t="inlineStr">
@@ -4401,16 +4401,16 @@
         </is>
       </c>
       <c r="D116" s="10" t="n">
-        <v>228</v>
+        <v>300</v>
       </c>
       <c r="E116" s="11" t="n">
-        <v>20.48771</v>
+        <v>24.823852</v>
       </c>
       <c r="F116" s="12" t="n">
-        <v>1.82712033625731</v>
+        <v>1.593952602105263</v>
       </c>
       <c r="G116" s="12" t="n">
-        <v>0.6760911313006268</v>
+        <v>0.6767064544599986</v>
       </c>
     </row>
     <row r="117">
@@ -4422,16 +4422,16 @@
         </is>
       </c>
       <c r="D117" s="10" t="n">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="E117" s="11" t="n">
-        <v>3.442141</v>
+        <v>0.8909160000000002</v>
       </c>
       <c r="F117" s="12" t="n">
-        <v>0.9720861157407409</v>
+        <v>0.6864742231578947</v>
       </c>
       <c r="G117" s="12" t="n">
-        <v>1.248410435018898</v>
+        <v>0.4339707674156963</v>
       </c>
     </row>
     <row r="118">
@@ -4448,7 +4448,7 @@
         </is>
       </c>
       <c r="E118" s="11" t="n">
-        <v>1.002518</v>
+        <v>0.6212200000000002</v>
       </c>
       <c r="F118" s="12" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         </is>
       </c>
       <c r="G118" s="12" t="n">
-        <v>4.903693496337127</v>
+        <v>4.267924528301888</v>
       </c>
     </row>
     <row r="119">
@@ -4468,16 +4468,16 @@
         </is>
       </c>
       <c r="D119" s="13" t="n">
-        <v>300</v>
+        <v>325</v>
       </c>
       <c r="E119" s="14" t="n">
-        <v>23.92985099999999</v>
+        <v>25.71476800000001</v>
       </c>
       <c r="F119" s="15" t="n">
-        <v>1.621912123333333</v>
+        <v>1.524146572955466</v>
       </c>
       <c r="G119" s="15" t="n">
-        <v>0.739792523542236</v>
+        <v>0.6669303701053129</v>
       </c>
     </row>
     <row r="120">
@@ -4486,7 +4486,7 @@
       </c>
       <c r="B120" s="4" t="inlineStr">
         <is>
-          <t>麻栗坡</t>
+          <t>兰坪</t>
         </is>
       </c>
       <c r="C120" s="4" t="inlineStr">
@@ -4495,16 +4495,16 @@
         </is>
       </c>
       <c r="D120" s="4" t="n">
-        <v>300</v>
+        <v>228</v>
       </c>
       <c r="E120" s="5" t="n">
-        <v>22.294992</v>
+        <v>21.373849</v>
       </c>
       <c r="F120" s="6" t="n">
-        <v>1.511105013333333</v>
+        <v>1.805823807479224</v>
       </c>
       <c r="G120" s="6" t="n">
-        <v>0.6411996846422077</v>
+        <v>0.7485857985425788</v>
       </c>
     </row>
     <row r="121">
@@ -4516,16 +4516,16 @@
         </is>
       </c>
       <c r="D121" s="4" t="n">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="E121" s="5" t="n">
-        <v>0.8226420000000002</v>
+        <v>3.510557000000001</v>
       </c>
       <c r="F121" s="6" t="n">
-        <v>0.6690821600000001</v>
+        <v>0.9392279692982458</v>
       </c>
       <c r="G121" s="6" t="n">
-        <v>0.4328671730622189</v>
+        <v>1.293099844407489</v>
       </c>
     </row>
     <row r="122">
@@ -4542,7 +4542,7 @@
         </is>
       </c>
       <c r="E122" s="5" t="n">
-        <v>0.5625780000000001</v>
+        <v>1.070934</v>
       </c>
       <c r="F122" s="6" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         </is>
       </c>
       <c r="G122" s="6" t="n">
-        <v>6.951070595717619</v>
+        <v>5.306586106988906</v>
       </c>
     </row>
     <row r="123">
@@ -4562,16 +4562,16 @@
         </is>
       </c>
       <c r="D123" s="7" t="n">
-        <v>325</v>
+        <v>300</v>
       </c>
       <c r="E123" s="8" t="n">
-        <v>23.117634</v>
+        <v>24.88440599999999</v>
       </c>
       <c r="F123" s="9" t="n">
-        <v>1.446334024615385</v>
+        <v>1.597840806315789</v>
       </c>
       <c r="G123" s="9" t="n">
-        <v>0.6327519778838342</v>
+        <v>0.8091923560907073</v>
       </c>
     </row>
     <row r="124">
@@ -4592,13 +4592,13 @@
         <v>300</v>
       </c>
       <c r="E124" s="11" t="n">
-        <v>12.547559</v>
+        <v>14.499553</v>
       </c>
       <c r="F124" s="12" t="n">
-        <v>0.8504456655555556</v>
+        <v>0.9310239294736843</v>
       </c>
       <c r="G124" s="12" t="n">
-        <v>-0.394323090269498</v>
+        <v>-0.3095323709060731</v>
       </c>
     </row>
     <row r="125">
@@ -4613,13 +4613,13 @@
         <v>35</v>
       </c>
       <c r="E125" s="11" t="n">
-        <v>3.285894</v>
+        <v>3.494007</v>
       </c>
       <c r="F125" s="12" t="n">
-        <v>1.908947942857143</v>
+        <v>1.923017386466165</v>
       </c>
       <c r="G125" s="12" t="n">
-        <v>1.169822122994451</v>
+        <v>1.307248403782189</v>
       </c>
     </row>
     <row r="126">
@@ -4636,7 +4636,7 @@
         </is>
       </c>
       <c r="E126" s="11" t="n">
-        <v>0.116604</v>
+        <v>0.136038</v>
       </c>
       <c r="F126" s="12" t="inlineStr">
         <is>
@@ -4644,7 +4644,7 @@
         </is>
       </c>
       <c r="G126" s="12" t="n">
-        <v>-0.2275015899936401</v>
+        <v>-0.09875185499258021</v>
       </c>
     </row>
     <row r="127">
@@ -4659,13 +4659,13 @@
         <v>335</v>
       </c>
       <c r="E127" s="14" t="n">
-        <v>15.83345300000001</v>
+        <v>17.99356000000001</v>
       </c>
       <c r="F127" s="15" t="n">
-        <v>0.9610354557213934</v>
+        <v>1.03466503692066</v>
       </c>
       <c r="G127" s="15" t="n">
-        <v>-0.287774309589752</v>
+        <v>-0.2007825895152933</v>
       </c>
     </row>
   </sheetData>
@@ -4778,7 +4778,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>数据统计范围：2020-01-01至2020-01-18</t>
+          <t>数据统计范围：2020-01-01至2020-01-19</t>
         </is>
       </c>
       <c r="B2" s="2" t="n"/>
@@ -4842,13 +4842,13 @@
         <v>21670</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2017.023442000003</v>
+        <v>2193.129510000004</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>1.892607752068915</v>
+        <v>1.949543148811118</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.8162747250343929</v>
+        <v>0.9298781593261409</v>
       </c>
     </row>
     <row r="5">
@@ -4863,13 +4863,13 @@
         <v>4700</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>234.2268800000006</v>
+        <v>247.6814450000005</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>1.01332196312057</v>
+        <v>1.015133358006721</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.0671913304218219</v>
+        <v>0.09419788038832388</v>
       </c>
     </row>
     <row r="6">
@@ -4886,7 +4886,7 @@
         </is>
       </c>
       <c r="E6" s="5" t="n">
-        <v>26.91359999999989</v>
+        <v>30.25522999999991</v>
       </c>
       <c r="F6" s="6" t="inlineStr">
         <is>
@@ -4894,7 +4894,7 @@
         </is>
       </c>
       <c r="G6" s="6" t="n">
-        <v>4.894241104631424</v>
+        <v>5.485382438519533</v>
       </c>
     </row>
     <row r="7">
@@ -4909,13 +4909,13 @@
         <v>26370</v>
       </c>
       <c r="E7" s="8" t="n">
-        <v>2251.250322000004</v>
+        <v>2440.810955000005</v>
       </c>
       <c r="F7" s="9" t="n">
-        <v>1.735890148426245</v>
+        <v>1.783000637746246</v>
       </c>
       <c r="G7" s="9" t="n">
-        <v>0.6926599068705495</v>
+        <v>0.7910696507156112</v>
       </c>
     </row>
     <row r="8">
@@ -4938,7 +4938,7 @@
         </is>
       </c>
       <c r="E8" s="11" t="n">
-        <v>55.51944599999999</v>
+        <v>59.907968</v>
       </c>
       <c r="F8" s="12" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="G8" s="12" t="n">
-        <v>4.764867083287688</v>
+        <v>5.173980658326752</v>
       </c>
     </row>
     <row r="9">
@@ -4961,13 +4961,13 @@
         <v>1260</v>
       </c>
       <c r="E9" s="11" t="n">
-        <v>24.426737</v>
+        <v>24.446171</v>
       </c>
       <c r="F9" s="12" t="n">
-        <v>0.3941880838624338</v>
+        <v>0.3737384538847117</v>
       </c>
       <c r="G9" s="12" t="n">
-        <v>-0.006610279219655291</v>
+        <v>-0.005819934777266389</v>
       </c>
     </row>
     <row r="10">
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="E10" s="11" t="n">
-        <v>0.162474</v>
+        <v>0.181908</v>
       </c>
       <c r="F10" s="12" t="inlineStr">
         <is>
@@ -5009,13 +5009,13 @@
         <v>1260</v>
       </c>
       <c r="E11" s="14" t="n">
-        <v>79.94618299999996</v>
+        <v>84.35413899999996</v>
       </c>
       <c r="F11" s="15" t="n">
-        <v>1.290136815608465</v>
+        <v>1.289624681453634</v>
       </c>
       <c r="G11" s="15" t="n">
-        <v>1.336245972888199</v>
+        <v>1.459836758836663</v>
       </c>
     </row>
     <row r="12">
@@ -5038,7 +5038,7 @@
         </is>
       </c>
       <c r="E12" s="5" t="n">
-        <v>52.647161</v>
+        <v>57.03568300000001</v>
       </c>
       <c r="F12" s="6" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
         </is>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.210634</v>
+        <v>0.230068</v>
       </c>
       <c r="F13" s="6" t="inlineStr">
         <is>
@@ -5092,7 +5092,7 @@
         </is>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.162474</v>
+        <v>0.181908</v>
       </c>
       <c r="F14" s="6" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         </is>
       </c>
       <c r="E15" s="8" t="n">
-        <v>52.85779500000002</v>
+        <v>57.26575100000002</v>
       </c>
       <c r="F15" s="9" t="inlineStr">
         <is>
@@ -5150,13 +5150,13 @@
         <v>1000</v>
       </c>
       <c r="E16" s="11" t="n">
-        <v>112.7895469999999</v>
+        <v>124.354321</v>
       </c>
       <c r="F16" s="12" t="n">
-        <v>2.293387455666665</v>
+        <v>2.395456920315789</v>
       </c>
       <c r="G16" s="12" t="n">
-        <v>-0.1311430212659588</v>
+        <v>-0.05957903894707106</v>
       </c>
     </row>
     <row r="17">
@@ -5171,13 +5171,13 @@
         <v>340</v>
       </c>
       <c r="E17" s="11" t="n">
-        <v>10.55515599999999</v>
+        <v>10.85618799999999</v>
       </c>
       <c r="F17" s="12" t="n">
-        <v>0.6312397215686272</v>
+        <v>0.6150719517027861</v>
       </c>
       <c r="G17" s="12" t="n">
-        <v>-0.1597190135541573</v>
+        <v>-0.1362084088687013</v>
       </c>
     </row>
     <row r="18">
@@ -5194,7 +5194,7 @@
         </is>
       </c>
       <c r="E18" s="11" t="n">
-        <v>0.9465520000000002</v>
+        <v>1.047609</v>
       </c>
       <c r="F18" s="12" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         </is>
       </c>
       <c r="G18" s="12" t="n">
-        <v>3.420062666647989</v>
+        <v>3.745616141116996</v>
       </c>
     </row>
     <row r="19">
@@ -5217,13 +5217,13 @@
         <v>1340</v>
       </c>
       <c r="E19" s="14" t="n">
-        <v>123.3447029999999</v>
+        <v>135.2105089999999</v>
       </c>
       <c r="F19" s="15" t="n">
-        <v>1.871648478358208</v>
+        <v>1.943717450667713</v>
       </c>
       <c r="G19" s="15" t="n">
-        <v>-0.1336642206198201</v>
+        <v>-0.06623013233563935</v>
       </c>
     </row>
     <row r="20">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E20" s="5" t="n">
-        <v>41.609226</v>
+        <v>43.442656</v>
       </c>
       <c r="F20" s="6" t="inlineStr">
         <is>
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.4526875566510483</v>
+        <v>-0.4413595664135092</v>
       </c>
     </row>
     <row r="21">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.132152</v>
+        <v>0.155473</v>
       </c>
       <c r="F21" s="6" t="inlineStr">
         <is>
@@ -5279,7 +5279,7 @@
         </is>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.9864293256858119</v>
+        <v>-0.9840453146599969</v>
       </c>
     </row>
     <row r="22">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.132152</v>
+        <v>0.155473</v>
       </c>
       <c r="F22" s="6" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         </is>
       </c>
       <c r="G22" s="6" t="n">
-        <v>2.502013991944032</v>
+        <v>2.50638249887235</v>
       </c>
     </row>
     <row r="23">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E23" s="8" t="n">
-        <v>41.741378</v>
+        <v>43.598129</v>
       </c>
       <c r="F23" s="9" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         </is>
       </c>
       <c r="G23" s="9" t="n">
-        <v>-0.5132920916995055</v>
+        <v>-0.5017905000855333</v>
       </c>
     </row>
     <row r="24">
@@ -5350,13 +5350,13 @@
         <v>470</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>23.889751</v>
+        <v>25.58393199999999</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>1.033528234751773</v>
+        <v>1.048568769540873</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.771448242621978</v>
+        <v>0.8179981729012948</v>
       </c>
     </row>
     <row r="25">
@@ -5371,13 +5371,13 @@
         <v>30</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2.501922</v>
+        <v>2.701897000000001</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>1.695747133333334</v>
+        <v>1.734902284210527</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.1069794976758018</v>
+        <v>0.1954587648342978</v>
       </c>
     </row>
     <row r="26">
@@ -5419,13 +5419,13 @@
         <v>530</v>
       </c>
       <c r="E27" s="8" t="n">
-        <v>26.39167299999999</v>
+        <v>28.28582899999999</v>
       </c>
       <c r="F27" s="9" t="n">
-        <v>1.012510725157233</v>
+        <v>1.028064887189672</v>
       </c>
       <c r="G27" s="9" t="n">
-        <v>0.6760731872344028</v>
+        <v>0.7318506938036886</v>
       </c>
     </row>
     <row r="28">
@@ -5448,7 +5448,7 @@
         </is>
       </c>
       <c r="E28" s="5" t="n">
-        <v>43.24183599999998</v>
+        <v>51.02371599999996</v>
       </c>
       <c r="F28" s="6" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         </is>
       </c>
       <c r="E29" s="5" t="n">
-        <v>7.921081999999997</v>
+        <v>7.998817999999995</v>
       </c>
       <c r="F29" s="6" t="inlineStr">
         <is>
@@ -5502,7 +5502,7 @@
         </is>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.5967380000000001</v>
+        <v>0.6744740000000001</v>
       </c>
       <c r="F30" s="6" t="inlineStr">
         <is>
@@ -5529,7 +5529,7 @@
         </is>
       </c>
       <c r="E31" s="8" t="n">
-        <v>51.16291799999997</v>
+        <v>59.02253399999997</v>
       </c>
       <c r="F31" s="9" t="inlineStr">
         <is>
@@ -5560,13 +5560,13 @@
         <v>610</v>
       </c>
       <c r="E32" s="11" t="n">
-        <v>55.53698700000001</v>
+        <v>56.81361800000003</v>
       </c>
       <c r="F32" s="12" t="n">
-        <v>1.8512329</v>
+        <v>1.79411425263158</v>
       </c>
       <c r="G32" s="12" t="n">
-        <v>1.963655996606072</v>
+        <v>1.968382340916517</v>
       </c>
     </row>
     <row r="33">
@@ -5584,7 +5584,7 @@
         <v>0.9246050000000001</v>
       </c>
       <c r="F33" s="12" t="n">
-        <v>0.2350037708333334</v>
+        <v>0.2226351513157895</v>
       </c>
       <c r="G33" s="12" t="n">
         <v>15.2211403508772</v>
@@ -5627,13 +5627,13 @@
         <v>690</v>
       </c>
       <c r="E35" s="14" t="n">
-        <v>56.461592</v>
+        <v>57.73822299999998</v>
       </c>
       <c r="F35" s="15" t="n">
-        <v>1.663844015458937</v>
+        <v>1.611913777116704</v>
       </c>
       <c r="G35" s="15" t="n">
-        <v>2.003859366313139</v>
+        <v>2.007733457230342</v>
       </c>
     </row>
     <row r="36">
@@ -5858,13 +5858,13 @@
         <v>470</v>
       </c>
       <c r="E44" s="11" t="n">
-        <v>53.32557600000001</v>
+        <v>62.82655100000004</v>
       </c>
       <c r="F44" s="12" t="n">
-        <v>2.30699300425532</v>
+        <v>2.574973982754761</v>
       </c>
       <c r="G44" s="12" t="n">
-        <v>-0.04167045037264194</v>
+        <v>0.1290743549487448</v>
       </c>
     </row>
     <row r="45">
@@ -5879,13 +5879,13 @@
         <v>90</v>
       </c>
       <c r="E45" s="11" t="n">
-        <v>1.959944</v>
+        <v>2.266001</v>
       </c>
       <c r="F45" s="12" t="n">
-        <v>0.442802162962963</v>
+        <v>0.4850037228070175</v>
       </c>
       <c r="G45" s="12" t="n">
-        <v>-0.5230560327835343</v>
+        <v>-0.4485783743533088</v>
       </c>
     </row>
     <row r="46">
@@ -5902,7 +5902,7 @@
         </is>
       </c>
       <c r="E46" s="11" t="n">
-        <v>1.274423</v>
+        <v>1.58048</v>
       </c>
       <c r="F46" s="12" t="inlineStr">
         <is>
@@ -5910,7 +5910,7 @@
         </is>
       </c>
       <c r="G46" s="12" t="n">
-        <v>6.262745477962548</v>
+        <v>8.0069184038661</v>
       </c>
     </row>
     <row r="47">
@@ -5925,13 +5925,13 @@
         <v>560</v>
       </c>
       <c r="E47" s="14" t="n">
-        <v>55.28552000000003</v>
+        <v>65.09255200000005</v>
       </c>
       <c r="F47" s="15" t="n">
-        <v>2.007390904761906</v>
+        <v>2.23908590526316</v>
       </c>
       <c r="G47" s="15" t="n">
-        <v>-0.07477629954801457</v>
+        <v>0.08934802156700883</v>
       </c>
     </row>
     <row r="48">
@@ -5954,7 +5954,7 @@
         </is>
       </c>
       <c r="E48" s="5" t="n">
-        <v>52.72921900000001</v>
+        <v>62.04009200000004</v>
       </c>
       <c r="F48" s="6" t="inlineStr">
         <is>
@@ -5962,7 +5962,7 @@
         </is>
       </c>
       <c r="G48" s="6" t="n">
-        <v>-0.05295274149815754</v>
+        <v>0.1142759206390314</v>
       </c>
     </row>
     <row r="49">
@@ -5979,7 +5979,7 @@
         </is>
       </c>
       <c r="E49" s="5" t="n">
-        <v>1.849019</v>
+        <v>2.155076</v>
       </c>
       <c r="F49" s="6" t="inlineStr">
         <is>
@@ -5987,7 +5987,7 @@
         </is>
       </c>
       <c r="G49" s="6" t="n">
-        <v>-0.5500491558337268</v>
+        <v>-0.4755714974035014</v>
       </c>
     </row>
     <row r="50">
@@ -6004,7 +6004,7 @@
         </is>
       </c>
       <c r="E50" s="5" t="n">
-        <v>1.220007</v>
+        <v>1.526064</v>
       </c>
       <c r="F50" s="6" t="inlineStr">
         <is>
@@ -6012,7 +6012,7 @@
         </is>
       </c>
       <c r="G50" s="6" t="n">
-        <v>5.952636857882081</v>
+        <v>7.696809783785634</v>
       </c>
     </row>
     <row r="51">
@@ -6029,7 +6029,7 @@
         </is>
       </c>
       <c r="E51" s="8" t="n">
-        <v>54.57823800000002</v>
+        <v>64.19516800000005</v>
       </c>
       <c r="F51" s="9" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         </is>
       </c>
       <c r="G51" s="9" t="n">
-        <v>-0.08712007443105074</v>
+        <v>0.07373345738508852</v>
       </c>
     </row>
     <row r="52">
@@ -6060,7 +6060,7 @@
         </is>
       </c>
       <c r="E52" s="5" t="n">
-        <v>0.596357</v>
+        <v>0.786459</v>
       </c>
       <c r="F52" s="6" t="inlineStr">
         <is>
@@ -6141,7 +6141,7 @@
         </is>
       </c>
       <c r="E55" s="8" t="n">
-        <v>0.7072820000000001</v>
+        <v>0.897384</v>
       </c>
       <c r="F55" s="9" t="inlineStr">
         <is>
@@ -6172,13 +6172,13 @@
         <v>550</v>
       </c>
       <c r="E56" s="11" t="n">
-        <v>70.15905299999999</v>
+        <v>72.19458799999998</v>
       </c>
       <c r="F56" s="12" t="n">
-        <v>2.593758929090908</v>
+        <v>2.528537723253588</v>
       </c>
       <c r="G56" s="12" t="n">
-        <v>1.585013322983314</v>
+        <v>1.66001269753871</v>
       </c>
     </row>
     <row r="57">
@@ -6193,13 +6193,13 @@
         <v>120</v>
       </c>
       <c r="E57" s="11" t="n">
-        <v>2.89398</v>
+        <v>2.932848</v>
       </c>
       <c r="F57" s="12" t="n">
-        <v>0.4903688333333333</v>
+        <v>0.4707992842105262</v>
       </c>
       <c r="G57" s="12" t="n">
-        <v>0.2322857696410208</v>
+        <v>0.2488361546797588</v>
       </c>
     </row>
     <row r="58">
@@ -6216,7 +6216,7 @@
         </is>
       </c>
       <c r="E58" s="11" t="n">
-        <v>1.587791000000001</v>
+        <v>1.626659000000001</v>
       </c>
       <c r="F58" s="12" t="inlineStr">
         <is>
@@ -6224,7 +6224,7 @@
         </is>
       </c>
       <c r="G58" s="12" t="n">
-        <v>2.79063532534999</v>
+        <v>2.883427395481199</v>
       </c>
     </row>
     <row r="59">
@@ -6239,13 +6239,13 @@
         <v>670</v>
       </c>
       <c r="E59" s="14" t="n">
-        <v>73.05303300000003</v>
+        <v>75.12743600000002</v>
       </c>
       <c r="F59" s="15" t="n">
-        <v>2.21703234477612</v>
+        <v>2.159987555066772</v>
       </c>
       <c r="G59" s="15" t="n">
-        <v>1.477284465022706</v>
+        <v>1.547629064214042</v>
       </c>
     </row>
     <row r="60">
@@ -6380,13 +6380,13 @@
         <v>700</v>
       </c>
       <c r="E64" s="11" t="n">
-        <v>50.70364999999997</v>
+        <v>52.87313699999998</v>
       </c>
       <c r="F64" s="12" t="n">
-        <v>1.472820309523809</v>
+        <v>1.455005123458646</v>
       </c>
       <c r="G64" s="12" t="n">
-        <v>0.04937893449966713</v>
+        <v>0.09214692356932996</v>
       </c>
     </row>
     <row r="65">
@@ -6401,13 +6401,13 @@
         <v>310</v>
       </c>
       <c r="E65" s="11" t="n">
-        <v>6.695826999999999</v>
+        <v>6.715260999999999</v>
       </c>
       <c r="F65" s="12" t="n">
-        <v>0.439188652688172</v>
+        <v>0.417281074023769</v>
       </c>
       <c r="G65" s="12" t="n">
-        <v>-0.424065316258757</v>
+        <v>-0.422393720704716</v>
       </c>
     </row>
     <row r="66">
@@ -6424,7 +6424,7 @@
         </is>
       </c>
       <c r="E66" s="11" t="n">
-        <v>0.136038</v>
+        <v>0.155472</v>
       </c>
       <c r="F66" s="12" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         </is>
       </c>
       <c r="G66" s="12" t="n">
-        <v>-0.5436742744435052</v>
+        <v>-0.4784848850782918</v>
       </c>
     </row>
     <row r="67">
@@ -6447,13 +6447,13 @@
         <v>700</v>
       </c>
       <c r="E67" s="14" t="n">
-        <v>57.39947699999995</v>
+        <v>59.58839799999995</v>
       </c>
       <c r="F67" s="15" t="n">
-        <v>1.66731814142857</v>
+        <v>1.639801027669171</v>
       </c>
       <c r="G67" s="15" t="n">
-        <v>-0.04244494859083703</v>
+        <v>-0.007490739884495445</v>
       </c>
     </row>
     <row r="68">
@@ -6474,13 +6474,13 @@
         <v>550</v>
       </c>
       <c r="E68" s="5" t="n">
-        <v>25.22278099999999</v>
+        <v>27.19349999999999</v>
       </c>
       <c r="F68" s="6" t="n">
-        <v>0.9324785703030301</v>
+        <v>0.9524230622009567</v>
       </c>
       <c r="G68" s="6" t="n">
-        <v>-0.3474190331912088</v>
+        <v>-0.2981443585696036</v>
       </c>
     </row>
     <row r="69">
@@ -6495,13 +6495,13 @@
         <v>50</v>
       </c>
       <c r="E69" s="5" t="n">
-        <v>0.181708</v>
+        <v>0.201142</v>
       </c>
       <c r="F69" s="6" t="n">
-        <v>0.07389458666666666</v>
+        <v>0.07749260210526315</v>
       </c>
       <c r="G69" s="6" t="n">
-        <v>-0.9522565222680544</v>
+        <v>-0.9471502707753152</v>
       </c>
     </row>
     <row r="70">
@@ -6518,7 +6518,7 @@
         </is>
       </c>
       <c r="E70" s="5" t="n">
-        <v>0.077736</v>
+        <v>0.09717000000000001</v>
       </c>
       <c r="F70" s="6" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         </is>
       </c>
       <c r="G70" s="6" t="n">
-        <v>-0.7392424425391458</v>
+        <v>-0.6740530531739323</v>
       </c>
     </row>
     <row r="71">
@@ -6541,13 +6541,13 @@
         <v>550</v>
       </c>
       <c r="E71" s="8" t="n">
-        <v>25.404489</v>
+        <v>27.394642</v>
       </c>
       <c r="F71" s="9" t="n">
-        <v>0.93919626</v>
+        <v>0.9594678442105262</v>
       </c>
       <c r="G71" s="9" t="n">
-        <v>-0.4016381148524627</v>
+        <v>-0.3561938160426987</v>
       </c>
     </row>
     <row r="72">
@@ -6568,13 +6568,13 @@
         <v>150</v>
       </c>
       <c r="E72" s="5" t="n">
-        <v>25.45223</v>
+        <v>25.650998</v>
       </c>
       <c r="F72" s="6" t="n">
-        <v>3.450191177777778</v>
+        <v>3.294128164210526</v>
       </c>
       <c r="G72" s="6" t="n">
-        <v>1.686497579566927</v>
+        <v>1.707477656789841</v>
       </c>
     </row>
     <row r="73">
@@ -6592,7 +6592,7 @@
         <v>4.646228999999999</v>
       </c>
       <c r="F73" s="6" t="n">
-        <v>0.3633589346153845</v>
+        <v>0.3442347801619432</v>
       </c>
       <c r="G73" s="6" t="n">
         <v>-0.4058602868635228</v>
@@ -6637,13 +6637,13 @@
         <v>150</v>
       </c>
       <c r="E75" s="8" t="n">
-        <v>30.098459</v>
+        <v>30.297227</v>
       </c>
       <c r="F75" s="9" t="n">
-        <v>4.080013331111111</v>
+        <v>3.890801783157894</v>
       </c>
       <c r="G75" s="9" t="n">
-        <v>0.7403761810444707</v>
+        <v>0.7518694967904309</v>
       </c>
     </row>
     <row r="76">
@@ -6664,13 +6664,13 @@
         <v>362</v>
       </c>
       <c r="E76" s="11" t="n">
-        <v>29.00387800000001</v>
+        <v>35.53374300000002</v>
       </c>
       <c r="F76" s="12" t="n">
-        <v>1.629131268876612</v>
+        <v>1.890862160220995</v>
       </c>
       <c r="G76" s="12" t="n">
-        <v>0.04206977398588618</v>
+        <v>0.2766789164153349</v>
       </c>
     </row>
     <row r="77">
@@ -6685,13 +6685,13 @@
         <v>88</v>
       </c>
       <c r="E77" s="11" t="n">
-        <v>18.395555</v>
+        <v>18.542159</v>
       </c>
       <c r="F77" s="12" t="n">
-        <v>4.250488087121211</v>
+        <v>4.058869733253588</v>
       </c>
       <c r="G77" s="12" t="n">
-        <v>8.061925641741828</v>
+        <v>8.134144965746019</v>
       </c>
     </row>
     <row r="78">
@@ -6708,7 +6708,7 @@
         </is>
       </c>
       <c r="E78" s="11" t="n">
-        <v>0.27185</v>
+        <v>0.4184539999999999</v>
       </c>
       <c r="F78" s="12" t="inlineStr">
         <is>
@@ -6716,7 +6716,7 @@
         </is>
       </c>
       <c r="G78" s="12" t="n">
-        <v>13.40799236803053</v>
+        <v>21.17797328810684</v>
       </c>
     </row>
     <row r="79">
@@ -6731,13 +6731,13 @@
         <v>450</v>
       </c>
       <c r="E79" s="14" t="n">
-        <v>47.39943299999998</v>
+        <v>54.07590199999999</v>
       </c>
       <c r="F79" s="15" t="n">
-        <v>2.141752157777777</v>
+        <v>2.314828085614035</v>
       </c>
       <c r="G79" s="15" t="n">
-        <v>0.5872329025931304</v>
+        <v>0.8108033252592217</v>
       </c>
     </row>
     <row r="80">
